--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3002A-91FB-C644-989F-AF9D3CF9B00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F090E-8675-6F40-B381-2B838631015B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="22980" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="3874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="3876">
   <si>
     <t>Notes</t>
   </si>
@@ -9625,12 +9625,6 @@
     <t>repetition/pattern</t>
   </si>
   <si>
-    <t>jinek</t>
-  </si>
-  <si>
-    <t>jin ek</t>
-  </si>
-  <si>
     <t>yaskun</t>
   </si>
   <si>
@@ -9640,9 +9634,6 @@
     <t>purpose/mission/objective/task/goal/achievement</t>
   </si>
   <si>
-    <t>(colloquially) nothing/none</t>
-  </si>
-  <si>
     <t>naki</t>
   </si>
   <si>
@@ -11293,9 +11284,6 @@
     <t>indicates a conditional timeframe or hypothetical; optional for 'if-then' statements; required for 'could' and 'should' statements</t>
   </si>
   <si>
-    <t>(colloquially) don't/won't</t>
-  </si>
-  <si>
     <t>kujkasan</t>
   </si>
   <si>
@@ -11614,9 +11602,6 @@
     <t>ex. 'Have you done it yet?'</t>
   </si>
   <si>
-    <t>kinun</t>
-  </si>
-  <si>
     <t>nah jir</t>
   </si>
   <si>
@@ -11666,6 +11651,27 @@
   </si>
   <si>
     <t>unit/element</t>
+  </si>
+  <si>
+    <t>tanun</t>
+  </si>
+  <si>
+    <t>is not/(colloquially) don't/won't</t>
+  </si>
+  <si>
+    <t>in terms of movement</t>
+  </si>
+  <si>
+    <t>tutikun</t>
+  </si>
+  <si>
+    <t>tutik hun</t>
+  </si>
+  <si>
+    <t>masek</t>
+  </si>
+  <si>
+    <t>mas ek</t>
   </si>
 </sst>
 </file>
@@ -12257,10 +12263,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M905" totalsRowShown="0">
-  <autoFilter ref="A1:M905" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M905">
-    <sortCondition ref="A1:A905"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M907" totalsRowShown="0">
+  <autoFilter ref="A1:M907" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M906">
+    <sortCondition ref="A1:A906"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Orostara"/>
@@ -12578,10 +12584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M905"/>
+  <dimension ref="A1:M907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D904" sqref="D904"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="118" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12681,13 +12687,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3662</v>
+        <v>3659</v>
       </c>
       <c r="B4" t="s">
         <v>2655</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D4" t="s">
         <v>2622</v>
@@ -12704,13 +12710,13 @@
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="B5" t="s">
         <v>2655</v>
       </c>
       <c r="C5" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="D5" t="s">
         <v>2660</v>
@@ -12724,7 +12730,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="B6" t="s">
         <v>1693</v>
@@ -12781,7 +12787,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="D9" t="s">
         <v>1713</v>
@@ -12793,7 +12799,7 @@
         <v>2924</v>
       </c>
       <c r="K9" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12830,7 +12836,7 @@
         <v>1693</v>
       </c>
       <c r="D11" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="F11" t="s">
         <v>2484</v>
@@ -12839,7 +12845,7 @@
         <v>2521</v>
       </c>
       <c r="H11" t="s">
-        <v>3610</v>
+        <v>3607</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -12853,16 +12859,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="D12" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="J12" t="s">
         <v>2924</v>
       </c>
       <c r="K12" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -12887,13 +12893,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="B14" t="s">
         <v>2655</v>
       </c>
       <c r="C14" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="D14" t="s">
         <v>338</v>
@@ -12902,10 +12908,10 @@
         <v>2924</v>
       </c>
       <c r="K14" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="L14" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -13025,13 +13031,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="B20" t="s">
         <v>2655</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D20" t="s">
         <v>2567</v>
@@ -13077,10 +13083,10 @@
         <v>1693</v>
       </c>
       <c r="D22" t="s">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="E22" t="s">
-        <v>3823</v>
+        <v>3819</v>
       </c>
       <c r="G22" t="s">
         <v>588</v>
@@ -13103,7 +13109,7 @@
         <v>1693</v>
       </c>
       <c r="D23" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="J23" t="s">
         <v>74</v>
@@ -13114,13 +13120,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3664</v>
+        <v>3661</v>
       </c>
       <c r="B24" t="s">
         <v>2655</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D24" t="s">
         <v>2642</v>
@@ -13155,18 +13161,18 @@
         <v>47</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="B26" t="s">
         <v>2655</v>
       </c>
       <c r="C26" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="D26" t="s">
         <v>2662</v>
@@ -13183,7 +13189,7 @@
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="B27" t="s">
         <v>1693</v>
@@ -13198,7 +13204,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -13253,7 +13259,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="B30" t="s">
         <v>1693</v>
@@ -13317,7 +13323,7 @@
         <v>2655</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -13334,13 +13340,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3665</v>
+        <v>3662</v>
       </c>
       <c r="B33" t="s">
         <v>2655</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>3639</v>
+        <v>3636</v>
       </c>
       <c r="D33" t="s">
         <v>2611</v>
@@ -13426,7 +13432,7 @@
         <v>1693</v>
       </c>
       <c r="C37" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="D37" t="s">
         <v>356</v>
@@ -13441,7 +13447,7 @@
         <v>1810</v>
       </c>
       <c r="H37" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="J37" t="s">
         <v>78</v>
@@ -13455,13 +13461,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>3774</v>
+        <v>3770</v>
       </c>
       <c r="B38" t="s">
         <v>1694</v>
       </c>
       <c r="C38" t="s">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="F38" t="s">
         <v>2193</v>
@@ -13470,15 +13476,15 @@
         <v>2924</v>
       </c>
       <c r="K38" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3773</v>
+        <v>3769</v>
       </c>
       <c r="C39" t="s">
-        <v>3776</v>
+        <v>3772</v>
       </c>
       <c r="F39" t="s">
         <v>1830</v>
@@ -13490,7 +13496,7 @@
         <v>2924</v>
       </c>
       <c r="K39" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -13519,13 +13525,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3772</v>
+        <v>3768</v>
       </c>
       <c r="B41" t="s">
         <v>1694</v>
       </c>
       <c r="C41" t="s">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="F41" t="s">
         <v>2192</v>
@@ -13534,7 +13540,7 @@
         <v>2924</v>
       </c>
       <c r="K41" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -13687,13 +13693,13 @@
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3666</v>
+        <v>3663</v>
       </c>
       <c r="B49" t="s">
         <v>2655</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D49" t="s">
         <v>2623</v>
@@ -13716,10 +13722,10 @@
         <v>1693</v>
       </c>
       <c r="D50" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="E50" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="F50" t="s">
         <v>1735</v>
@@ -13773,16 +13779,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="D53" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="J53" t="s">
         <v>2924</v>
       </c>
       <c r="K53" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -13894,7 +13900,7 @@
         <v>74</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -13940,13 +13946,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="B61" t="s">
         <v>2655</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D61" t="s">
         <v>2610</v>
@@ -14013,7 +14019,7 @@
     </row>
     <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="B64" t="s">
         <v>1693</v>
@@ -14028,19 +14034,19 @@
         <v>47</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="B65" t="s">
         <v>2655</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D65" t="s">
         <v>2608</v>
@@ -14060,7 +14066,7 @@
         <v>2655</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D66" t="s">
         <v>47</v>
@@ -14225,7 +14231,7 @@
         <v>1932</v>
       </c>
       <c r="H74" t="s">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="J74" t="s">
         <v>11</v>
@@ -14239,19 +14245,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C75" t="s">
         <v>3837</v>
       </c>
-      <c r="C75" t="s">
-        <v>3841</v>
-      </c>
       <c r="H75" t="s">
-        <v>3839</v>
+        <v>3835</v>
       </c>
       <c r="J75" t="s">
         <v>2924</v>
       </c>
       <c r="K75" t="s">
-        <v>3838</v>
+        <v>3834</v>
       </c>
       <c r="L75" s="2"/>
     </row>
@@ -14382,7 +14388,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="B81" t="s">
         <v>1693</v>
@@ -14394,12 +14400,12 @@
         <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="D82" t="s">
         <v>530</v>
@@ -14408,7 +14414,7 @@
         <v>2924</v>
       </c>
       <c r="K82" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -14436,7 +14442,7 @@
         <v>2655</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D84" t="s">
         <v>2758</v>
@@ -14459,16 +14465,16 @@
         <v>1693</v>
       </c>
       <c r="D85" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="E85" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="F85" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="G85" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
@@ -14479,7 +14485,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="F86" t="s">
         <v>2095</v>
@@ -14488,7 +14494,7 @@
         <v>2924</v>
       </c>
       <c r="K86" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="L86" t="s">
         <v>2094</v>
@@ -14522,31 +14528,31 @@
         <v>1693</v>
       </c>
       <c r="D88" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="E88" t="s">
-        <v>3782</v>
+        <v>3778</v>
       </c>
       <c r="F88" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>3669</v>
+        <v>3666</v>
       </c>
       <c r="B89" t="s">
         <v>2655</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D89" t="s">
         <v>2654</v>
@@ -14560,7 +14566,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>3712</v>
+        <v>3709</v>
       </c>
       <c r="B90" t="s">
         <v>1694</v>
@@ -14569,16 +14575,16 @@
         <v>2837</v>
       </c>
       <c r="D90" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="F90" t="s">
-        <v>3744</v>
+        <v>3741</v>
       </c>
       <c r="J90" t="s">
         <v>2924</v>
       </c>
       <c r="K90" t="s">
-        <v>3713</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -14633,13 +14639,13 @@
         <v>1693</v>
       </c>
       <c r="D93" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="E93" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="F93" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="J93" t="s">
         <v>145</v>
@@ -14676,7 +14682,7 @@
         <v>2655</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D95" t="s">
         <v>145</v>
@@ -14690,13 +14696,13 @@
     </row>
     <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3670</v>
+        <v>3667</v>
       </c>
       <c r="B96" t="s">
         <v>2655</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D96" t="s">
         <v>2580</v>
@@ -14806,7 +14812,7 @@
         <v>1693</v>
       </c>
       <c r="D100" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="E100" t="s">
         <v>845</v>
@@ -14826,19 +14832,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3469</v>
+      </c>
+      <c r="J101" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K101" t="s">
         <v>3481</v>
       </c>
-      <c r="D101" t="s">
-        <v>3472</v>
-      </c>
-      <c r="J101" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K101" t="s">
-        <v>3484</v>
-      </c>
       <c r="L101" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -14870,7 +14876,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="D103" t="s">
         <v>1383</v>
@@ -14885,7 +14891,7 @@
         <v>2924</v>
       </c>
       <c r="K103" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -14990,7 +14996,7 @@
         <v>192</v>
       </c>
       <c r="E108" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="F108" t="s">
         <v>193</v>
@@ -15036,7 +15042,7 @@
         <v>2655</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -15050,13 +15056,13 @@
     </row>
     <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
       <c r="B111" t="s">
         <v>2655</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D111" t="s">
         <v>2531</v>
@@ -15102,7 +15108,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="F113" t="s">
         <v>3047</v>
@@ -15111,7 +15117,7 @@
         <v>2924</v>
       </c>
       <c r="K113" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -15168,16 +15174,16 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="D117" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="J117" t="s">
         <v>2924</v>
       </c>
       <c r="K117" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -15185,7 +15191,7 @@
         <v>3098</v>
       </c>
       <c r="D118" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="E118" t="s">
         <v>330</v>
@@ -15324,7 +15330,7 @@
         <v>1874</v>
       </c>
       <c r="G125" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="J125" t="s">
         <v>78</v>
@@ -15352,7 +15358,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="D127" t="s">
         <v>1097</v>
@@ -15364,7 +15370,7 @@
         <v>2924</v>
       </c>
       <c r="K127" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -15439,7 +15445,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="D133" t="s">
         <v>1130</v>
@@ -15454,7 +15460,7 @@
         <v>2924</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="L133" s="2"/>
     </row>
@@ -15503,13 +15509,13 @@
     </row>
     <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3672</v>
+        <v>3669</v>
       </c>
       <c r="B136" t="s">
         <v>2655</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D136" t="s">
         <v>2600</v>
@@ -15546,16 +15552,16 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="D138" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="J138" t="s">
         <v>2924</v>
       </c>
       <c r="K138" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -15681,7 +15687,7 @@
         <v>2655</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D144" t="s">
         <v>2780</v>
@@ -15730,13 +15736,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="B147" t="s">
         <v>2655</v>
       </c>
       <c r="C147" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="D147" t="s">
         <v>206</v>
@@ -15745,10 +15751,10 @@
         <v>2924</v>
       </c>
       <c r="K147" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="L147" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -15890,7 +15896,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="D155" t="s">
         <v>1052</v>
@@ -15899,7 +15905,7 @@
         <v>2924</v>
       </c>
       <c r="K155" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -15916,10 +15922,10 @@
         <v>61</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -15954,7 +15960,7 @@
         <v>2655</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -16003,7 +16009,7 @@
         <v>1693</v>
       </c>
       <c r="D160" t="s">
-        <v>3619</v>
+        <v>3616</v>
       </c>
       <c r="E160" t="s">
         <v>851</v>
@@ -16121,7 +16127,7 @@
         <v>1773</v>
       </c>
       <c r="F165" t="s">
-        <v>3620</v>
+        <v>3617</v>
       </c>
       <c r="J165" t="s">
         <v>61</v>
@@ -16181,7 +16187,7 @@
         <v>2655</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D168" t="s">
         <v>2708</v>
@@ -16198,7 +16204,7 @@
     </row>
     <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="B169" t="s">
         <v>1693</v>
@@ -16207,7 +16213,7 @@
         <v>2058</v>
       </c>
       <c r="E169" t="s">
-        <v>3843</v>
+        <v>3839</v>
       </c>
       <c r="F169" t="s">
         <v>2059</v>
@@ -16216,13 +16222,13 @@
         <v>61</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>3793</v>
+        <v>3789</v>
       </c>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>3815</v>
+        <v>3811</v>
       </c>
       <c r="D170" t="s">
         <v>732</v>
@@ -16231,7 +16237,7 @@
         <v>2924</v>
       </c>
       <c r="K170" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
       <c r="L170" t="s">
         <v>733</v>
@@ -16239,7 +16245,7 @@
     </row>
     <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="D171" t="s">
         <v>458</v>
@@ -16251,7 +16257,7 @@
         <v>2924</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>3818</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -16285,7 +16291,7 @@
         <v>1182</v>
       </c>
       <c r="H173" t="s">
-        <v>3836</v>
+        <v>3832</v>
       </c>
       <c r="J173" t="s">
         <v>23</v>
@@ -16299,10 +16305,10 @@
         <v>2942</v>
       </c>
       <c r="C174" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="F174" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="J174" t="s">
         <v>2924</v>
@@ -16362,21 +16368,21 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="D177" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="J177" t="s">
         <v>2924</v>
       </c>
       <c r="K177" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="D178" t="s">
         <v>1779</v>
@@ -16388,7 +16394,7 @@
         <v>2924</v>
       </c>
       <c r="K178" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="L178" t="s">
         <v>264</v>
@@ -16413,13 +16419,13 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>3701</v>
+        <v>3698</v>
       </c>
       <c r="C180" t="s">
         <v>1823</v>
       </c>
       <c r="D180" t="s">
-        <v>3700</v>
+        <v>3697</v>
       </c>
       <c r="F180" t="s">
         <v>2205</v>
@@ -16431,12 +16437,12 @@
         <v>2924</v>
       </c>
       <c r="K180" t="s">
-        <v>3702</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="E181" t="s">
         <v>892</v>
@@ -16445,7 +16451,7 @@
         <v>2924</v>
       </c>
       <c r="K181" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -16487,7 +16493,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="F184" t="s">
         <v>280</v>
@@ -16499,7 +16505,7 @@
         <v>2924</v>
       </c>
       <c r="K184" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="L184" t="s">
         <v>281</v>
@@ -16521,7 +16527,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>3718</v>
+        <v>3715</v>
       </c>
       <c r="C186" t="s">
         <v>1823</v>
@@ -16539,12 +16545,12 @@
         <v>2924</v>
       </c>
       <c r="K186" t="s">
-        <v>3719</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>3673</v>
+        <v>3670</v>
       </c>
       <c r="D187" t="s">
         <v>2037</v>
@@ -16553,7 +16559,7 @@
         <v>2924</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>3674</v>
+        <v>3671</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -16726,16 +16732,16 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="D197" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="J197" t="s">
         <v>2924</v>
       </c>
       <c r="K197" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
@@ -16797,10 +16803,10 @@
         <v>1693</v>
       </c>
       <c r="D201" t="s">
-        <v>3825</v>
+        <v>3821</v>
       </c>
       <c r="E201" t="s">
-        <v>3826</v>
+        <v>3822</v>
       </c>
       <c r="F201" t="s">
         <v>1959</v>
@@ -16821,7 +16827,7 @@
         <v>2655</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D202" t="s">
         <v>23</v>
@@ -16872,13 +16878,13 @@
     </row>
     <row r="205" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="B205" t="s">
         <v>2655</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D205" t="s">
         <v>2570</v>
@@ -16926,13 +16932,13 @@
     </row>
     <row r="208" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>3676</v>
+        <v>3673</v>
       </c>
       <c r="B208" t="s">
         <v>2655</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D208" t="s">
         <v>2527</v>
@@ -16976,13 +16982,13 @@
         <v>1693</v>
       </c>
       <c r="D210" t="s">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="F210" t="s">
-        <v>3850</v>
+        <v>3846</v>
       </c>
       <c r="H210" t="s">
-        <v>3827</v>
+        <v>3823</v>
       </c>
       <c r="J210" t="s">
         <v>23</v>
@@ -17009,13 +17015,13 @@
     </row>
     <row r="212" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3677</v>
+        <v>3674</v>
       </c>
       <c r="B212" t="s">
         <v>2655</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D212" t="s">
         <v>2532</v>
@@ -17035,7 +17041,7 @@
         <v>2655</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D213" t="s">
         <v>109</v>
@@ -17049,13 +17055,13 @@
     </row>
     <row r="214" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>3678</v>
+        <v>3675</v>
       </c>
       <c r="B214" t="s">
         <v>2655</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D214" t="s">
         <v>2577</v>
@@ -17095,7 +17101,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>3755</v>
+        <v>3751</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>2821</v>
@@ -17107,13 +17113,13 @@
         <v>2924</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="L216" s="2"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>2821</v>
@@ -17125,7 +17131,7 @@
         <v>2924</v>
       </c>
       <c r="K217" t="s">
-        <v>3720</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -17214,30 +17220,30 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="D222" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="J222" t="s">
         <v>2924</v>
       </c>
       <c r="K222" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="D223" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="J223" t="s">
         <v>2924</v>
       </c>
       <c r="K223" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -17248,13 +17254,13 @@
         <v>1693</v>
       </c>
       <c r="D224" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="E224" t="s">
-        <v>3632</v>
+        <v>3629</v>
       </c>
       <c r="F224" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
       <c r="J224" t="s">
         <v>11</v>
@@ -17268,7 +17274,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>3768</v>
+        <v>3764</v>
       </c>
       <c r="D225" t="s">
         <v>907</v>
@@ -17280,7 +17286,7 @@
         <v>2924</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>3767</v>
+        <v>3763</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>1450</v>
@@ -17288,7 +17294,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
       <c r="B226" t="s">
         <v>1694</v>
@@ -17297,7 +17303,7 @@
         <v>2836</v>
       </c>
       <c r="D226" t="s">
-        <v>3612</v>
+        <v>3609</v>
       </c>
       <c r="F226" t="s">
         <v>2955</v>
@@ -17309,7 +17315,7 @@
         <v>2924</v>
       </c>
       <c r="K226" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -17334,7 +17340,7 @@
     </row>
     <row r="228" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="B228" t="s">
         <v>1693</v>
@@ -17352,10 +17358,10 @@
         <v>72</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="L228" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -17380,7 +17386,7 @@
     </row>
     <row r="230" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="B230" t="s">
         <v>1693</v>
@@ -17401,10 +17407,10 @@
         <v>72</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -17415,7 +17421,7 @@
         <v>2655</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D231" t="s">
         <v>92</v>
@@ -17435,13 +17441,13 @@
         <v>1693</v>
       </c>
       <c r="C232" t="s">
-        <v>3766</v>
+        <v>3762</v>
       </c>
       <c r="D232" t="s">
         <v>1690</v>
       </c>
       <c r="F232" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="J232" t="s">
         <v>72</v>
@@ -17611,7 +17617,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>3704</v>
+        <v>3701</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>2821</v>
@@ -17623,7 +17629,7 @@
         <v>2924</v>
       </c>
       <c r="K240" t="s">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="L240" s="3"/>
     </row>
@@ -17681,7 +17687,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>3721</v>
+        <v>3718</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>2821</v>
@@ -17693,7 +17699,7 @@
         <v>2924</v>
       </c>
       <c r="K243" t="s">
-        <v>3722</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -17813,7 +17819,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>3193</v>
+        <v>3874</v>
       </c>
       <c r="D249" t="s">
         <v>646</v>
@@ -17828,7 +17834,7 @@
         <v>2924</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>3194</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -17967,7 +17973,7 @@
         <v>329</v>
       </c>
       <c r="H255" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="J255" t="s">
         <v>181</v>
@@ -17981,7 +17987,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="F256" t="s">
         <v>1120</v>
@@ -17990,7 +17996,7 @@
         <v>2924</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="L256" s="2"/>
     </row>
@@ -18025,10 +18031,10 @@
         <v>1693</v>
       </c>
       <c r="D258" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="E258" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="F258" t="s">
         <v>1811</v>
@@ -18074,33 +18080,33 @@
     </row>
     <row r="261" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="B261" t="s">
         <v>1693</v>
       </c>
       <c r="F261" t="s">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="J261" t="s">
         <v>61</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>3739</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>3742</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>3679</v>
+        <v>3676</v>
       </c>
       <c r="B262" t="s">
         <v>2655</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D262" t="s">
         <v>2568</v>
@@ -18117,39 +18123,39 @@
     </row>
     <row r="263" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="B263" t="s">
         <v>1693</v>
       </c>
       <c r="E263" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="J263" t="s">
         <v>61</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3516</v>
+      </c>
+      <c r="J264" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K264" t="s">
+        <v>3517</v>
+      </c>
+      <c r="L264" t="s">
         <v>3518</v>
-      </c>
-      <c r="D264" t="s">
-        <v>3519</v>
-      </c>
-      <c r="J264" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K264" t="s">
-        <v>3520</v>
-      </c>
-      <c r="L264" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -18194,7 +18200,7 @@
     </row>
     <row r="267" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="B267" t="s">
         <v>1693</v>
@@ -18258,7 +18264,7 @@
         <v>2505</v>
       </c>
       <c r="D269" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="J269" t="s">
         <v>61</v>
@@ -18370,7 +18376,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="B274" t="s">
         <v>1695</v>
@@ -18385,7 +18391,7 @@
         <v>2924</v>
       </c>
       <c r="K274" t="s">
-        <v>3582</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -18442,7 +18448,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
       <c r="D277" t="s">
         <v>378</v>
@@ -18451,7 +18457,7 @@
         <v>2924</v>
       </c>
       <c r="K277" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="L277" t="s">
         <v>379</v>
@@ -18568,13 +18574,13 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>3680</v>
+        <v>3677</v>
       </c>
       <c r="B283" t="s">
         <v>2655</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D283" t="s">
         <v>2647</v>
@@ -18719,16 +18725,16 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="D290" t="s">
-        <v>3785</v>
+        <v>3781</v>
       </c>
       <c r="J290" t="s">
         <v>2924</v>
       </c>
       <c r="K290" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -18794,7 +18800,7 @@
         <v>415</v>
       </c>
       <c r="F293" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="J293" t="s">
         <v>23</v>
@@ -18970,7 +18976,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="D301" t="s">
         <v>795</v>
@@ -18979,10 +18985,10 @@
         <v>2924</v>
       </c>
       <c r="K301" s="2" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -19013,13 +19019,13 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>3681</v>
+        <v>3678</v>
       </c>
       <c r="B303" t="s">
         <v>2655</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D303" t="s">
         <v>2630</v>
@@ -19033,13 +19039,13 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>3682</v>
+        <v>3679</v>
       </c>
       <c r="B304" t="s">
         <v>2655</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D304" t="s">
         <v>2605</v>
@@ -19096,7 +19102,7 @@
     </row>
     <row r="307" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>3633</v>
+        <v>3630</v>
       </c>
       <c r="B307" t="s">
         <v>1693</v>
@@ -19108,7 +19114,7 @@
         <v>66</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>3634</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="308" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -19139,7 +19145,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="D309" t="s">
         <v>1385</v>
@@ -19154,7 +19160,7 @@
         <v>2924</v>
       </c>
       <c r="K309" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -19267,19 +19273,19 @@
     </row>
     <row r="316" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>3856</v>
+        <v>3869</v>
       </c>
       <c r="C316" t="s">
         <v>2898</v>
       </c>
       <c r="H316" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="J316" t="s">
         <v>2924</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>3869</v>
+        <v>3864</v>
       </c>
       <c r="L316" s="1"/>
     </row>
@@ -19288,7 +19294,7 @@
         <v>461</v>
       </c>
       <c r="D317" t="s">
-        <v>3864</v>
+        <v>3859</v>
       </c>
       <c r="J317" t="s">
         <v>2924</v>
@@ -19365,7 +19371,7 @@
         <v>2924</v>
       </c>
       <c r="K321" t="s">
-        <v>3583</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
@@ -19456,7 +19462,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="D326" t="s">
         <v>2130</v>
@@ -19465,24 +19471,24 @@
         <v>2924</v>
       </c>
       <c r="K326" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="D327" t="s">
+        <v>3472</v>
+      </c>
+      <c r="J327" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K327" t="s">
         <v>3475</v>
       </c>
-      <c r="J327" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K327" t="s">
-        <v>3478</v>
-      </c>
       <c r="L327" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -19576,13 +19582,13 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>3683</v>
+        <v>3680</v>
       </c>
       <c r="B332" t="s">
         <v>2655</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D332" t="s">
         <v>2582</v>
@@ -19634,13 +19640,13 @@
     </row>
     <row r="335" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>3684</v>
+        <v>3681</v>
       </c>
       <c r="B335" t="s">
         <v>2655</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D335" t="s">
         <v>2606</v>
@@ -19654,7 +19660,7 @@
     </row>
     <row r="336" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="B336" t="s">
         <v>1693</v>
@@ -19666,7 +19672,7 @@
         <v>74</v>
       </c>
       <c r="K336" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L336" s="2"/>
     </row>
@@ -19762,19 +19768,19 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D341" t="s">
         <v>3750</v>
       </c>
-      <c r="D341" t="s">
-        <v>3754</v>
-      </c>
       <c r="F341" t="s">
-        <v>3753</v>
+        <v>3749</v>
       </c>
       <c r="J341" t="s">
         <v>2924</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>3751</v>
+        <v>3747</v>
       </c>
       <c r="L341" s="2"/>
     </row>
@@ -19786,7 +19792,7 @@
         <v>2655</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D342" t="s">
         <v>2710</v>
@@ -19829,7 +19835,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>3752</v>
+        <v>3748</v>
       </c>
       <c r="B344" t="s">
         <v>1694</v>
@@ -19838,16 +19844,16 @@
         <v>2699</v>
       </c>
       <c r="D344" t="s">
-        <v>3754</v>
+        <v>3750</v>
       </c>
       <c r="F344" t="s">
-        <v>3753</v>
+        <v>3749</v>
       </c>
       <c r="J344" t="s">
         <v>2924</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>3750</v>
+        <v>3746</v>
       </c>
       <c r="L344" s="2"/>
     </row>
@@ -19873,7 +19879,7 @@
     </row>
     <row r="346" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="D346" t="s">
         <v>904</v>
@@ -19888,10 +19894,10 @@
         <v>2924</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="347" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -19942,7 +19948,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="D349" t="s">
         <v>1136</v>
@@ -19951,10 +19957,10 @@
         <v>2924</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -19971,7 +19977,7 @@
         <v>3163</v>
       </c>
       <c r="F350" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="G350" t="s">
         <v>515</v>
@@ -19988,7 +19994,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="D351" t="s">
         <v>906</v>
@@ -20000,7 +20006,7 @@
         <v>2924</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L351" s="2"/>
     </row>
@@ -20106,7 +20112,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="B357" t="s">
         <v>1693</v>
@@ -20132,7 +20138,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="D358" t="s">
         <v>2463</v>
@@ -20147,7 +20153,7 @@
         <v>2924</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="L358" s="2"/>
     </row>
@@ -20219,13 +20225,13 @@
         <v>1693</v>
       </c>
       <c r="D362" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="E362" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="F362" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="G362" t="s">
         <v>1871</v>
@@ -20377,13 +20383,13 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="B370" t="s">
         <v>2655</v>
       </c>
       <c r="C370" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="D370" t="s">
         <v>596</v>
@@ -20392,10 +20398,10 @@
         <v>2924</v>
       </c>
       <c r="K370" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="L370" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -20432,7 +20438,7 @@
         <v>2655</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D372" t="s">
         <v>181</v>
@@ -20449,13 +20455,13 @@
     </row>
     <row r="373" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>3686</v>
+        <v>3683</v>
       </c>
       <c r="B373" t="s">
         <v>2655</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D373" t="s">
         <v>2631</v>
@@ -20472,7 +20478,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="D374" t="s">
         <v>1030</v>
@@ -20481,15 +20487,15 @@
         <v>2924</v>
       </c>
       <c r="K374" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="L374" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="D375" t="s">
         <v>1034</v>
@@ -20498,7 +20504,7 @@
         <v>2924</v>
       </c>
       <c r="K375" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
       <c r="L375" t="s">
         <v>1035</v>
@@ -20625,7 +20631,7 @@
         <v>2470</v>
       </c>
       <c r="D381" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="E381" t="s">
         <v>750</v>
@@ -20704,7 +20710,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
       <c r="B385" t="s">
         <v>1694</v>
@@ -20719,7 +20725,7 @@
         <v>2924</v>
       </c>
       <c r="K385" t="s">
-        <v>3587</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
@@ -20789,7 +20795,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="D390" t="s">
         <v>1949</v>
@@ -20804,7 +20810,7 @@
         <v>2924</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="L390" s="2"/>
     </row>
@@ -20853,19 +20859,19 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>3789</v>
+        <v>3785</v>
       </c>
       <c r="C393" t="s">
         <v>1894</v>
       </c>
       <c r="E393" t="s">
-        <v>3790</v>
+        <v>3786</v>
       </c>
       <c r="J393" t="s">
         <v>2924</v>
       </c>
       <c r="K393" t="s">
-        <v>3791</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
@@ -20896,7 +20902,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="B395" t="s">
         <v>1694</v>
@@ -20911,12 +20917,12 @@
         <v>2924</v>
       </c>
       <c r="K395" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="E396" t="s">
         <v>573</v>
@@ -20925,7 +20931,7 @@
         <v>2924</v>
       </c>
       <c r="K396" t="s">
-        <v>3585</v>
+        <v>3582</v>
       </c>
       <c r="L396" t="s">
         <v>574</v>
@@ -20939,7 +20945,7 @@
         <v>1693</v>
       </c>
       <c r="D397" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="J397" t="s">
         <v>24</v>
@@ -20973,13 +20979,13 @@
     </row>
     <row r="399" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>3685</v>
+        <v>3682</v>
       </c>
       <c r="B399" t="s">
         <v>2655</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D399" t="s">
         <v>2576</v>
@@ -21002,7 +21008,7 @@
         <v>602</v>
       </c>
       <c r="E400" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="F400" t="s">
         <v>1879</v>
@@ -21075,13 +21081,13 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>3687</v>
+        <v>3684</v>
       </c>
       <c r="B403" t="s">
         <v>2655</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D403" t="s">
         <v>2644</v>
@@ -21168,7 +21174,7 @@
         <v>1693</v>
       </c>
       <c r="D407" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="E407" t="s">
         <v>849</v>
@@ -21189,19 +21195,19 @@
     </row>
     <row r="408" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D408" t="s">
         <v>3867</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D408" t="s">
-        <v>3872</v>
       </c>
       <c r="J408" t="s">
         <v>47</v>
       </c>
       <c r="K408" s="1" t="s">
-        <v>3866</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="409" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -21224,7 +21230,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>3706</v>
+        <v>3703</v>
       </c>
       <c r="D410" t="s">
         <v>2826</v>
@@ -21233,13 +21239,13 @@
         <v>2924</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>3707</v>
+        <v>3704</v>
       </c>
       <c r="L410" s="2"/>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>3723</v>
+        <v>3720</v>
       </c>
       <c r="D411" t="s">
         <v>2825</v>
@@ -21248,7 +21254,7 @@
         <v>2924</v>
       </c>
       <c r="K411" t="s">
-        <v>3724</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="412" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -21411,13 +21417,13 @@
     </row>
     <row r="419" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>3688</v>
+        <v>3685</v>
       </c>
       <c r="B419" t="s">
         <v>2655</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D419" t="s">
         <v>2579</v>
@@ -21443,10 +21449,10 @@
         <v>1129</v>
       </c>
       <c r="E420" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="H420" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="J420" t="s">
         <v>25</v>
@@ -21477,13 +21483,13 @@
     </row>
     <row r="422" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>3689</v>
+        <v>3686</v>
       </c>
       <c r="B422" t="s">
         <v>2655</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D422" t="s">
         <v>2604</v>
@@ -21517,7 +21523,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>3710</v>
+        <v>3707</v>
       </c>
       <c r="C424" t="s">
         <v>1823</v>
@@ -21529,13 +21535,13 @@
         <v>2924</v>
       </c>
       <c r="K424" s="2" t="s">
-        <v>3708</v>
+        <v>3705</v>
       </c>
       <c r="L424" s="2"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>3725</v>
+        <v>3722</v>
       </c>
       <c r="C425" t="s">
         <v>1823</v>
@@ -21547,7 +21553,7 @@
         <v>2924</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="L425" s="2"/>
     </row>
@@ -21593,7 +21599,7 @@
     </row>
     <row r="428" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="B428" t="s">
         <v>1693</v>
@@ -21608,7 +21614,7 @@
         <v>23</v>
       </c>
       <c r="K428" s="1" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="L428" s="1"/>
     </row>
@@ -21661,13 +21667,13 @@
     </row>
     <row r="431" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>3690</v>
+        <v>3687</v>
       </c>
       <c r="B431" t="s">
         <v>2655</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D431" t="s">
         <v>2645</v>
@@ -21758,13 +21764,13 @@
     </row>
     <row r="436" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>3691</v>
+        <v>3688</v>
       </c>
       <c r="B436" t="s">
         <v>2655</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D436" t="s">
         <v>2529</v>
@@ -21781,7 +21787,7 @@
     </row>
     <row r="437" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
       <c r="B437" t="s">
         <v>1693</v>
@@ -21799,15 +21805,15 @@
         <v>137</v>
       </c>
       <c r="K437" s="1" t="s">
-        <v>3636</v>
+        <v>3633</v>
       </c>
       <c r="L437" t="s">
-        <v>3637</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>3777</v>
+        <v>3773</v>
       </c>
       <c r="B438" t="s">
         <v>1693</v>
@@ -21822,21 +21828,21 @@
         <v>24</v>
       </c>
       <c r="K438" s="8" t="s">
-        <v>3779</v>
+        <v>3775</v>
       </c>
       <c r="L438" t="s">
-        <v>3778</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="B439" t="s">
         <v>2655</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D439" t="s">
         <v>2603</v>
@@ -21856,7 +21862,7 @@
         <v>1693</v>
       </c>
       <c r="D440" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E440" t="s">
         <v>22</v>
@@ -21882,7 +21888,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C441" t="s">
         <v>2303</v>
@@ -21891,12 +21897,12 @@
         <v>2924</v>
       </c>
       <c r="K441" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="D442" t="s">
         <v>1147</v>
@@ -21905,10 +21911,10 @@
         <v>2924</v>
       </c>
       <c r="K442" s="2" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
@@ -21936,7 +21942,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="C444" t="s">
         <v>1823</v>
@@ -21948,7 +21954,7 @@
         <v>2924</v>
       </c>
       <c r="K444" t="s">
-        <v>3796</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="445" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -21965,22 +21971,19 @@
         <v>2924</v>
       </c>
       <c r="K445" s="1" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="L445" s="2"/>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="B446" t="s">
         <v>1697</v>
       </c>
-      <c r="D446" t="s">
-        <v>3198</v>
-      </c>
       <c r="E446" t="s">
-        <v>3749</v>
+        <v>3870</v>
       </c>
       <c r="F446" t="s">
         <v>660</v>
@@ -22003,7 +22006,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
       <c r="G447" t="s">
         <v>2679</v>
@@ -22015,13 +22018,13 @@
         <v>2924</v>
       </c>
       <c r="K447" s="2" t="s">
-        <v>3802</v>
+        <v>3798</v>
       </c>
       <c r="L447" s="2"/>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>3806</v>
+        <v>3802</v>
       </c>
       <c r="C448" t="s">
         <v>2196</v>
@@ -22033,7 +22036,7 @@
         <v>2924</v>
       </c>
       <c r="K448" t="s">
-        <v>3805</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
@@ -22053,7 +22056,7 @@
         <v>2924</v>
       </c>
       <c r="K449" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
@@ -22070,12 +22073,12 @@
         <v>2924</v>
       </c>
       <c r="K450" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="B451" t="s">
         <v>1694</v>
@@ -22093,12 +22096,12 @@
         <v>2924</v>
       </c>
       <c r="K451" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="452" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>3858</v>
+        <v>3853</v>
       </c>
       <c r="D452" t="s">
         <v>1799</v>
@@ -22113,13 +22116,13 @@
         <v>2924</v>
       </c>
       <c r="K452" s="1" t="s">
-        <v>3857</v>
+        <v>3852</v>
       </c>
       <c r="L452" s="1"/>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="C453" t="s">
         <v>2198</v>
@@ -22128,7 +22131,7 @@
         <v>2924</v>
       </c>
       <c r="K453" t="s">
-        <v>3800</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
@@ -22148,7 +22151,7 @@
         <v>2924</v>
       </c>
       <c r="K454" s="2" t="s">
-        <v>3801</v>
+        <v>3797</v>
       </c>
       <c r="L454" s="2"/>
     </row>
@@ -22169,7 +22172,7 @@
         <v>2924</v>
       </c>
       <c r="K455" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
@@ -22183,7 +22186,7 @@
         <v>2924</v>
       </c>
       <c r="K456" s="2" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
       <c r="L456" s="2"/>
     </row>
@@ -22198,7 +22201,7 @@
         <v>2924</v>
       </c>
       <c r="K457" t="s">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="L457" t="s">
         <v>673</v>
@@ -22218,13 +22221,13 @@
         <v>2924</v>
       </c>
       <c r="K458" s="2" t="s">
-        <v>3807</v>
+        <v>3803</v>
       </c>
       <c r="L458" s="2"/>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="F459" t="s">
         <v>674</v>
@@ -22233,7 +22236,7 @@
         <v>2924</v>
       </c>
       <c r="K459" t="s">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="L459" t="s">
         <v>675</v>
@@ -22259,12 +22262,12 @@
         <v>2924</v>
       </c>
       <c r="K460" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="D461" t="s">
         <v>80</v>
@@ -22282,13 +22285,13 @@
         <v>2924</v>
       </c>
       <c r="K461" s="2" t="s">
-        <v>3810</v>
+        <v>3806</v>
       </c>
       <c r="L461" s="2"/>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>3596</v>
+        <v>3593</v>
       </c>
       <c r="D462" t="s">
         <v>168</v>
@@ -22306,7 +22309,7 @@
         <v>2924</v>
       </c>
       <c r="K462" s="2" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
       <c r="L462" s="2"/>
     </row>
@@ -22330,7 +22333,7 @@
         <v>2924</v>
       </c>
       <c r="K463" s="1" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
       <c r="L463" s="1" t="s">
         <v>2012</v>
@@ -22350,12 +22353,12 @@
         <v>2924</v>
       </c>
       <c r="K464" t="s">
-        <v>3812</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="E465" t="s">
         <v>437</v>
@@ -22367,18 +22370,18 @@
         <v>2924</v>
       </c>
       <c r="K465" t="s">
-        <v>3813</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>3638</v>
+        <v>3635</v>
       </c>
       <c r="B466" t="s">
         <v>2655</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D466" t="s">
         <v>2573</v>
@@ -22392,16 +22395,16 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="F467" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="J467" t="s">
         <v>2924</v>
       </c>
       <c r="K467" t="s">
-        <v>3814</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="468" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -22496,10 +22499,10 @@
         <v>1693</v>
       </c>
       <c r="D472" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="E472" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="F472" t="s">
         <v>1864</v>
@@ -22516,22 +22519,22 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="D473" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="E473" t="s">
         <v>2440</v>
       </c>
       <c r="F473" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="J473" t="s">
         <v>2924</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="L473" s="2"/>
     </row>
@@ -22557,7 +22560,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>3709</v>
+        <v>3706</v>
       </c>
       <c r="C475" s="5"/>
       <c r="D475" t="s">
@@ -22567,7 +22570,7 @@
         <v>2924</v>
       </c>
       <c r="K475" t="s">
-        <v>3711</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="476" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -22598,13 +22601,13 @@
     </row>
     <row r="477" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>3640</v>
+        <v>3637</v>
       </c>
       <c r="B477" t="s">
         <v>2655</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D477" t="s">
         <v>2526</v>
@@ -22644,7 +22647,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
       <c r="D479" t="s">
         <v>2834</v>
@@ -22653,7 +22656,7 @@
         <v>2924</v>
       </c>
       <c r="K479" s="2" t="s">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="L479" s="2"/>
     </row>
@@ -22685,7 +22688,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="D481" t="s">
         <v>1957</v>
@@ -22694,7 +22697,7 @@
         <v>2924</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="L481" s="2"/>
     </row>
@@ -22731,7 +22734,7 @@
     </row>
     <row r="484" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="B484" t="s">
         <v>1693</v>
@@ -22749,15 +22752,15 @@
         <v>11</v>
       </c>
       <c r="K484" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="L484" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="E485" t="s">
         <v>551</v>
@@ -22766,18 +22769,18 @@
         <v>2924</v>
       </c>
       <c r="K485" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="486" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>3641</v>
+        <v>3638</v>
       </c>
       <c r="B486" t="s">
         <v>2655</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D486" t="s">
         <v>2650</v>
@@ -22855,10 +22858,10 @@
         <v>1693</v>
       </c>
       <c r="D489" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="E489" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="J489" t="s">
         <v>11</v>
@@ -22872,7 +22875,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="C490" t="s">
         <v>1902</v>
@@ -22884,7 +22887,7 @@
         <v>2924</v>
       </c>
       <c r="K490" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="L490" t="s">
         <v>1673</v>
@@ -22938,7 +22941,7 @@
         <v>1674</v>
       </c>
       <c r="F493" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="J493" t="s">
         <v>2924</v>
@@ -23025,7 +23028,7 @@
         <v>74</v>
       </c>
       <c r="K497" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
@@ -23054,7 +23057,7 @@
         <v>1693</v>
       </c>
       <c r="D499" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="F499" t="s">
         <v>702</v>
@@ -23071,13 +23074,13 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="B500" t="s">
         <v>2655</v>
       </c>
       <c r="C500" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="D500" t="s">
         <v>2658</v>
@@ -23106,24 +23109,24 @@
         <v>47</v>
       </c>
       <c r="K501" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="502" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="D502" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="E502" t="s">
+        <v>3388</v>
+      </c>
+      <c r="J502" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K502" s="1" t="s">
         <v>3391</v>
-      </c>
-      <c r="J502" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K502" s="1" t="s">
-        <v>3394</v>
       </c>
       <c r="L502" s="1"/>
     </row>
@@ -23236,7 +23239,7 @@
         <v>11</v>
       </c>
       <c r="K508" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="L508" t="s">
         <v>710</v>
@@ -23244,16 +23247,16 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="D509" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="J509" t="s">
         <v>2924</v>
       </c>
       <c r="K509" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
@@ -23278,7 +23281,7 @@
     </row>
     <row r="511" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>3822</v>
+        <v>3818</v>
       </c>
       <c r="B511" t="s">
         <v>1693</v>
@@ -23290,10 +23293,10 @@
         <v>72</v>
       </c>
       <c r="K511" s="1" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
@@ -23313,7 +23316,7 @@
         <v>1910</v>
       </c>
       <c r="H512" t="s">
-        <v>3770</v>
+        <v>3766</v>
       </c>
       <c r="J512" t="s">
         <v>23</v>
@@ -23414,13 +23417,13 @@
     </row>
     <row r="517" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>3642</v>
+        <v>3639</v>
       </c>
       <c r="B517" t="s">
         <v>2655</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D517" t="s">
         <v>2639</v>
@@ -23434,13 +23437,13 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="B518" t="s">
         <v>2655</v>
       </c>
       <c r="C518" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="D518" t="s">
         <v>2661</v>
@@ -23460,7 +23463,7 @@
         <v>1693</v>
       </c>
       <c r="E519" t="s">
-        <v>3842</v>
+        <v>3838</v>
       </c>
       <c r="J519" t="s">
         <v>19</v>
@@ -23521,7 +23524,7 @@
         <v>728</v>
       </c>
       <c r="H521" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
       <c r="J521" t="s">
         <v>11</v>
@@ -23538,7 +23541,7 @@
     </row>
     <row r="522" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="B522" t="s">
         <v>1693</v>
@@ -23547,7 +23550,7 @@
         <v>325</v>
       </c>
       <c r="E522" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="F522" t="s">
         <v>326</v>
@@ -23559,10 +23562,10 @@
         <v>72</v>
       </c>
       <c r="K522" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.2">
@@ -23588,7 +23591,7 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="D524" t="s">
         <v>1025</v>
@@ -23600,10 +23603,10 @@
         <v>2924</v>
       </c>
       <c r="K524" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="L524" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.2">
@@ -23628,13 +23631,13 @@
     </row>
     <row r="526" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>3643</v>
+        <v>3640</v>
       </c>
       <c r="B526" t="s">
         <v>2655</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D526" t="s">
         <v>2571</v>
@@ -23651,7 +23654,7 @@
     </row>
     <row r="527" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="B527" t="s">
         <v>1693</v>
@@ -23669,15 +23672,15 @@
         <v>72</v>
       </c>
       <c r="K527" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>3644</v>
+        <v>3641</v>
       </c>
       <c r="F528" t="s">
         <v>501</v>
@@ -23686,7 +23689,7 @@
         <v>2924</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="L528" s="2"/>
     </row>
@@ -23718,7 +23721,7 @@
         <v>1693</v>
       </c>
       <c r="D530" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="G530" s="2"/>
       <c r="J530" t="s">
@@ -23739,7 +23742,7 @@
         <v>2655</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D531" t="s">
         <v>2709</v>
@@ -23756,13 +23759,13 @@
     </row>
     <row r="532" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="B532" t="s">
         <v>2655</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D532" t="s">
         <v>2574</v>
@@ -23822,19 +23825,19 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="B535" t="s">
         <v>1693</v>
       </c>
       <c r="D535" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="J535" t="s">
         <v>61</v>
       </c>
       <c r="K535" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
@@ -23856,13 +23859,13 @@
     </row>
     <row r="537" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>3647</v>
+        <v>3644</v>
       </c>
       <c r="B537" t="s">
         <v>2655</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D537" t="s">
         <v>2569</v>
@@ -23929,13 +23932,13 @@
         <v>1693</v>
       </c>
       <c r="D540" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="E540" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="F540" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="J540" t="s">
         <v>72</v>
@@ -23975,10 +23978,10 @@
         <v>1693</v>
       </c>
       <c r="D542" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="E542" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="J542" t="s">
         <v>74</v>
@@ -24101,7 +24104,7 @@
         <v>1693</v>
       </c>
       <c r="D548" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="F548" t="s">
         <v>2488</v>
@@ -24144,7 +24147,7 @@
         <v>2958</v>
       </c>
       <c r="D550" t="s">
-        <v>3611</v>
+        <v>3608</v>
       </c>
       <c r="J550" t="s">
         <v>2924</v>
@@ -24155,13 +24158,13 @@
     </row>
     <row r="551" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="C551" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="D551" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="J551" t="s">
         <v>2924</v>
@@ -24225,7 +24228,7 @@
         <v>2655</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D554" t="s">
         <v>84</v>
@@ -24242,7 +24245,7 @@
     </row>
     <row r="555" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="B555" t="s">
         <v>1693</v>
@@ -24257,7 +24260,7 @@
         <v>47</v>
       </c>
       <c r="K555" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.2">
@@ -24308,31 +24311,31 @@
     </row>
     <row r="558" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="B558" t="s">
         <v>1693</v>
       </c>
       <c r="E558" t="s">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="J558" t="s">
         <v>47</v>
       </c>
       <c r="K558" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L558" s="1"/>
     </row>
     <row r="559" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="B559" t="s">
         <v>2655</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D559" t="s">
         <v>2640</v>
@@ -24412,7 +24415,7 @@
         <v>1693</v>
       </c>
       <c r="D563" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="E563" t="s">
         <v>786</v>
@@ -24480,13 +24483,13 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="B567" t="s">
         <v>2655</v>
       </c>
       <c r="C567" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="D567" t="s">
         <v>947</v>
@@ -24495,10 +24498,10 @@
         <v>2924</v>
       </c>
       <c r="K567" s="2" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="L567" s="2" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="568" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -24629,7 +24632,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
       <c r="D574" t="s">
         <v>282</v>
@@ -24638,7 +24641,7 @@
         <v>2924</v>
       </c>
       <c r="K574" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
@@ -24677,13 +24680,13 @@
     </row>
     <row r="577" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="B577" t="s">
         <v>2655</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="D577" t="s">
         <v>2578</v>
@@ -24775,7 +24778,7 @@
         <v>2655</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D582" t="s">
         <v>2779</v>
@@ -24848,13 +24851,13 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="B586" t="s">
         <v>2655</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D586" t="s">
         <v>2629</v>
@@ -24874,7 +24877,7 @@
         <v>2655</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D587" t="s">
         <v>74</v>
@@ -24978,7 +24981,7 @@
         <v>47</v>
       </c>
       <c r="K591" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.2">
@@ -25023,13 +25026,13 @@
     </row>
     <row r="594" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>3651</v>
+        <v>3648</v>
       </c>
       <c r="B594" t="s">
         <v>2655</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D594" t="s">
         <v>2572</v>
@@ -25043,7 +25046,7 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="D595" t="s">
         <v>1676</v>
@@ -25055,47 +25058,47 @@
         <v>2924</v>
       </c>
       <c r="K595" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="E596" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J596" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K596" t="s">
+        <v>3513</v>
+      </c>
+      <c r="L596" t="s">
         <v>3514</v>
-      </c>
-      <c r="J596" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K596" t="s">
-        <v>3516</v>
-      </c>
-      <c r="L596" t="s">
-        <v>3517</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="C597" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="D597" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3506</v>
+      </c>
+      <c r="J597" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K597" t="s">
+        <v>3507</v>
+      </c>
+      <c r="L597" t="s">
         <v>3509</v>
-      </c>
-      <c r="E597" t="s">
-        <v>3509</v>
-      </c>
-      <c r="J597" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K597" t="s">
-        <v>3510</v>
-      </c>
-      <c r="L597" t="s">
-        <v>3512</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.2">
@@ -25302,13 +25305,13 @@
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="B607" t="s">
         <v>2655</v>
       </c>
       <c r="C607" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="D607" t="s">
         <v>552</v>
@@ -25317,10 +25320,10 @@
         <v>2924</v>
       </c>
       <c r="K607" s="2" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="L607" s="2" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.2">
@@ -25348,7 +25351,7 @@
         <v>1693</v>
       </c>
       <c r="D609" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="F609" t="s">
         <v>1854</v>
@@ -25403,10 +25406,10 @@
         <v>11</v>
       </c>
       <c r="K611" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="L611" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
@@ -25437,7 +25440,7 @@
         <v>1693</v>
       </c>
       <c r="D613" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="E613" t="s">
         <v>881</v>
@@ -25454,7 +25457,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="B614" t="s">
         <v>1693</v>
@@ -25469,15 +25472,15 @@
         <v>24</v>
       </c>
       <c r="K614" s="8" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="L614" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="F615" t="s">
         <v>1382</v>
@@ -25486,7 +25489,7 @@
         <v>2924</v>
       </c>
       <c r="K615" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.2">
@@ -25508,7 +25511,7 @@
     </row>
     <row r="617" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="B617" t="s">
         <v>1693</v>
@@ -25528,27 +25531,27 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="D618" t="s">
+        <v>3220</v>
+      </c>
+      <c r="J618" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K618" t="s">
         <v>3223</v>
-      </c>
-      <c r="J618" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K618" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="619" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="B619" t="s">
         <v>2655</v>
       </c>
       <c r="C619" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="D619" t="s">
         <v>1051</v>
@@ -25557,15 +25560,15 @@
         <v>2924</v>
       </c>
       <c r="K619" s="1" t="s">
-        <v>3597</v>
+        <v>3594</v>
       </c>
       <c r="L619" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="620" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>3693</v>
+        <v>3690</v>
       </c>
       <c r="B620" t="s">
         <v>1693</v>
@@ -25580,7 +25583,7 @@
         <v>47</v>
       </c>
       <c r="K620" s="1" t="s">
-        <v>3694</v>
+        <v>3691</v>
       </c>
       <c r="L620" s="1"/>
     </row>
@@ -25667,19 +25670,19 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="D625" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="J625" t="s">
         <v>2924</v>
       </c>
       <c r="K625" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="L625" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.2">
@@ -25791,19 +25794,19 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>3697</v>
+        <v>3694</v>
       </c>
       <c r="D631" t="s">
+        <v>3693</v>
+      </c>
+      <c r="J631" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K631" t="s">
+        <v>3695</v>
+      </c>
+      <c r="L631" t="s">
         <v>3696</v>
-      </c>
-      <c r="J631" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K631" t="s">
-        <v>3698</v>
-      </c>
-      <c r="L631" t="s">
-        <v>3699</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.2">
@@ -25832,13 +25835,13 @@
         <v>1693</v>
       </c>
       <c r="D633" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="E633" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="F633" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="J633" t="s">
         <v>61</v>
@@ -25852,7 +25855,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="D634" t="s">
         <v>543</v>
@@ -25861,7 +25864,7 @@
         <v>2924</v>
       </c>
       <c r="K634" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="L634" t="s">
         <v>544</v>
@@ -25881,7 +25884,7 @@
         <v>886</v>
       </c>
       <c r="H635" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="J635" t="s">
         <v>61</v>
@@ -25895,7 +25898,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="B636" t="s">
         <v>1693</v>
@@ -25913,7 +25916,7 @@
         <v>23</v>
       </c>
       <c r="K636" s="2" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="L636" s="2"/>
     </row>
@@ -25959,7 +25962,7 @@
     </row>
     <row r="639" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="B639" t="s">
         <v>1693</v>
@@ -25974,7 +25977,7 @@
         <v>47</v>
       </c>
       <c r="K639" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="640" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -26005,7 +26008,7 @@
     </row>
     <row r="641" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="B641" t="s">
         <v>1693</v>
@@ -26022,19 +26025,19 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>3599</v>
+        <v>3596</v>
       </c>
       <c r="D642" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="J642" t="s">
         <v>2924</v>
       </c>
       <c r="K642" t="s">
-        <v>3598</v>
+        <v>3595</v>
       </c>
       <c r="L642" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="643" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -26103,12 +26106,12 @@
         <v>145</v>
       </c>
       <c r="K645" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="B646" t="s">
         <v>1693</v>
@@ -26153,7 +26156,7 @@
         <v>1693</v>
       </c>
       <c r="D648" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="E648" t="s">
         <v>918</v>
@@ -26171,7 +26174,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>3865</v>
+        <v>3860</v>
       </c>
       <c r="B649" t="s">
         <v>1693</v>
@@ -26200,7 +26203,7 @@
         <v>1693</v>
       </c>
       <c r="E650" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="J650" t="s">
         <v>61</v>
@@ -26238,13 +26241,13 @@
     </row>
     <row r="652" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>3652</v>
+        <v>3649</v>
       </c>
       <c r="B652" t="s">
         <v>2655</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D652" t="s">
         <v>2575</v>
@@ -26473,16 +26476,16 @@
         <v>1693</v>
       </c>
       <c r="D663" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E663" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F663" t="s">
+        <v>3300</v>
+      </c>
+      <c r="G663" t="s">
         <v>3301</v>
-      </c>
-      <c r="E663" t="s">
-        <v>3302</v>
-      </c>
-      <c r="F663" t="s">
-        <v>3303</v>
-      </c>
-      <c r="G663" t="s">
-        <v>3304</v>
       </c>
       <c r="J663" t="s">
         <v>11</v>
@@ -26622,7 +26625,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>3714</v>
+        <v>3711</v>
       </c>
       <c r="C670" s="5" t="s">
         <v>1823</v>
@@ -26634,7 +26637,7 @@
         <v>2924</v>
       </c>
       <c r="K670" t="s">
-        <v>3715</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
@@ -26659,7 +26662,7 @@
     </row>
     <row r="672" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>3729</v>
+        <v>3726</v>
       </c>
       <c r="C672" s="5" t="s">
         <v>1823</v>
@@ -26671,7 +26674,7 @@
         <v>2924</v>
       </c>
       <c r="K672" s="1" t="s">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="L672" s="2"/>
     </row>
@@ -26770,13 +26773,13 @@
         <v>3103</v>
       </c>
       <c r="F677" t="s">
-        <v>3834</v>
+        <v>3830</v>
       </c>
       <c r="G677" t="s">
         <v>2489</v>
       </c>
       <c r="H677" t="s">
-        <v>3835</v>
+        <v>3831</v>
       </c>
       <c r="J677" t="s">
         <v>23</v>
@@ -26788,13 +26791,13 @@
     </row>
     <row r="678" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>3653</v>
+        <v>3650</v>
       </c>
       <c r="B678" t="s">
         <v>2655</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D678" t="s">
         <v>2636</v>
@@ -26933,10 +26936,10 @@
         <v>61</v>
       </c>
       <c r="K683" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="L683" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.2">
@@ -26970,25 +26973,25 @@
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="B685" t="s">
         <v>1693</v>
       </c>
       <c r="D685" t="s">
-        <v>3605</v>
+        <v>3602</v>
       </c>
       <c r="E685" t="s">
-        <v>3604</v>
+        <v>3601</v>
       </c>
       <c r="F685" t="s">
-        <v>3606</v>
+        <v>3603</v>
       </c>
       <c r="J685" t="s">
         <v>47</v>
       </c>
       <c r="K685" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.2">
@@ -27062,7 +27065,7 @@
         <v>1693</v>
       </c>
       <c r="D689" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="J689" t="s">
         <v>11</v>
@@ -27082,10 +27085,10 @@
         <v>1693</v>
       </c>
       <c r="D690" t="s">
-        <v>3781</v>
+        <v>3777</v>
       </c>
       <c r="E690" t="s">
-        <v>3780</v>
+        <v>3776</v>
       </c>
       <c r="F690" t="s">
         <v>986</v>
@@ -27214,7 +27217,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="D696" t="s">
         <v>734</v>
@@ -27223,7 +27226,7 @@
         <v>2924</v>
       </c>
       <c r="K696" s="2" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="L696" s="2"/>
     </row>
@@ -27343,10 +27346,10 @@
         <v>1693</v>
       </c>
       <c r="D702" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="E702" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="F702" t="s">
         <v>3000</v>
@@ -27449,7 +27452,7 @@
     </row>
     <row r="707" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="B707" t="s">
         <v>1693</v>
@@ -27464,10 +27467,10 @@
         <v>61</v>
       </c>
       <c r="K707" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="L707" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
@@ -27601,7 +27604,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="E714" t="s">
         <v>1149</v>
@@ -27610,10 +27613,10 @@
         <v>2924</v>
       </c>
       <c r="K714" s="2" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="L714" s="2" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
@@ -27687,7 +27690,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="B718" t="s">
         <v>1693</v>
@@ -27702,15 +27705,15 @@
         <v>105</v>
       </c>
       <c r="K718" s="2" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="L718" s="2" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="719" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B719" t="s">
         <v>1693</v>
@@ -27728,10 +27731,10 @@
         <v>61</v>
       </c>
       <c r="K719" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="L719" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="720" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -27742,7 +27745,7 @@
         <v>1693</v>
       </c>
       <c r="D720" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="F720" t="s">
         <v>157</v>
@@ -27768,7 +27771,7 @@
         <v>1022</v>
       </c>
       <c r="E721" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="F721" t="s">
         <v>1023</v>
@@ -27805,7 +27808,7 @@
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>3618</v>
+        <v>3615</v>
       </c>
       <c r="B723" t="s">
         <v>1693</v>
@@ -27834,10 +27837,10 @@
         <v>1693</v>
       </c>
       <c r="D724" t="s">
-        <v>3613</v>
+        <v>3610</v>
       </c>
       <c r="E724" t="s">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="J724" t="s">
         <v>23</v>
@@ -27852,13 +27855,13 @@
     </row>
     <row r="725" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="B725" t="s">
         <v>1693</v>
       </c>
       <c r="D725" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="E725" t="s">
         <v>2853</v>
@@ -27867,10 +27870,10 @@
         <v>61</v>
       </c>
       <c r="K725" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="L725" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="726" spans="1:13" ht="17" x14ac:dyDescent="0.25">
@@ -28011,7 +28014,7 @@
     </row>
     <row r="732" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>3861</v>
+        <v>3856</v>
       </c>
       <c r="B732" t="s">
         <v>1693</v>
@@ -28023,10 +28026,10 @@
         <v>61</v>
       </c>
       <c r="K732" t="s">
-        <v>3859</v>
+        <v>3854</v>
       </c>
       <c r="L732" s="1" t="s">
-        <v>3860</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.2">
@@ -28051,13 +28054,13 @@
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="B734" t="s">
         <v>2655</v>
       </c>
       <c r="C734" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="D734" t="s">
         <v>1183</v>
@@ -28066,15 +28069,15 @@
         <v>2924</v>
       </c>
       <c r="K734" s="2" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="L734" s="2" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="B735" t="s">
         <v>1697</v>
@@ -28193,7 +28196,7 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="B741" t="s">
         <v>1693</v>
@@ -28208,7 +28211,7 @@
         <v>23</v>
       </c>
       <c r="K741" s="2" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="L741" s="2"/>
     </row>
@@ -28223,7 +28226,7 @@
         <v>254</v>
       </c>
       <c r="F742" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="G742" t="s">
         <v>1772</v>
@@ -28249,7 +28252,7 @@
         <v>1062</v>
       </c>
       <c r="E743" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="J743" t="s">
         <v>23</v>
@@ -28281,13 +28284,13 @@
     </row>
     <row r="745" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="B745" t="s">
         <v>2655</v>
       </c>
       <c r="C745" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="D745" t="s">
         <v>2659</v>
@@ -28301,13 +28304,13 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>3654</v>
+        <v>3651</v>
       </c>
       <c r="B746" t="s">
         <v>2655</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D746" t="s">
         <v>2616</v>
@@ -28370,7 +28373,7 @@
     </row>
     <row r="749" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="B749" t="s">
         <v>1693</v>
@@ -28407,7 +28410,7 @@
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="D751" t="s">
         <v>286</v>
@@ -28416,7 +28419,7 @@
         <v>2924</v>
       </c>
       <c r="K751" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.2">
@@ -28513,7 +28516,7 @@
         <v>2655</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D756" t="s">
         <v>42</v>
@@ -28530,7 +28533,7 @@
     </row>
     <row r="757" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>3868</v>
+        <v>3863</v>
       </c>
       <c r="B757" t="s">
         <v>1693</v>
@@ -28542,33 +28545,33 @@
         <v>1744</v>
       </c>
       <c r="F757" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
       <c r="G757" t="s">
-        <v>3695</v>
+        <v>3692</v>
       </c>
       <c r="H757" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
       <c r="J757" t="s">
         <v>61</v>
       </c>
       <c r="K757" s="1" t="s">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="L757" s="1" t="s">
-        <v>3871</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="758" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
       <c r="B758" t="s">
         <v>2655</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D758" t="s">
         <v>2594</v>
@@ -28582,7 +28585,7 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>3862</v>
+        <v>3857</v>
       </c>
       <c r="D759" t="s">
         <v>1099</v>
@@ -28597,7 +28600,7 @@
         <v>2924</v>
       </c>
       <c r="K759" s="2" t="s">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="L759" s="2"/>
     </row>
@@ -28646,13 +28649,13 @@
     </row>
     <row r="762" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="B762" t="s">
         <v>1693</v>
       </c>
       <c r="D762" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="F762" t="s">
         <v>1135</v>
@@ -28661,10 +28664,10 @@
         <v>61</v>
       </c>
       <c r="K762" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="L762" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
@@ -28868,7 +28871,7 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>3716</v>
+        <v>3713</v>
       </c>
       <c r="D772" t="s">
         <v>2828</v>
@@ -28877,12 +28880,12 @@
         <v>2924</v>
       </c>
       <c r="K772" t="s">
-        <v>3717</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>3731</v>
+        <v>3728</v>
       </c>
       <c r="D773" t="s">
         <v>2827</v>
@@ -28891,7 +28894,7 @@
         <v>2924</v>
       </c>
       <c r="K773" t="s">
-        <v>3732</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.2">
@@ -28938,7 +28941,7 @@
         <v>2655</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D776" t="s">
         <v>68</v>
@@ -29061,7 +29064,7 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="D783" t="s">
         <v>1709</v>
@@ -29073,7 +29076,7 @@
         <v>2924</v>
       </c>
       <c r="K783" t="s">
-        <v>3600</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.2">
@@ -29149,10 +29152,10 @@
         <v>1693</v>
       </c>
       <c r="D788" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="E788" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="J788" t="s">
         <v>109</v>
@@ -29376,7 +29379,7 @@
         <v>1140</v>
       </c>
       <c r="H799" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
       <c r="J799" t="s">
         <v>23</v>
@@ -29387,7 +29390,7 @@
     </row>
     <row r="800" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="B800" t="s">
         <v>1693</v>
@@ -29419,7 +29422,7 @@
         <v>1693</v>
       </c>
       <c r="E801" t="s">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="J801" t="s">
         <v>47</v>
@@ -29447,33 +29450,33 @@
     </row>
     <row r="803" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D803" t="s">
         <v>3485</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D803" t="s">
-        <v>3488</v>
       </c>
       <c r="J803" t="s">
         <v>61</v>
       </c>
       <c r="K803" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="804" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="B804" t="s">
         <v>2655</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="D804" t="s">
         <v>2528</v>
@@ -29493,7 +29496,7 @@
         <v>2655</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="D805" t="s">
         <v>25</v>
@@ -29513,10 +29516,10 @@
         <v>1693</v>
       </c>
       <c r="D806" t="s">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="E806" t="s">
-        <v>3616</v>
+        <v>3613</v>
       </c>
       <c r="F806" t="s">
         <v>2990</v>
@@ -29533,7 +29536,7 @@
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="F807" t="s">
         <v>1668</v>
@@ -29542,7 +29545,7 @@
         <v>2924</v>
       </c>
       <c r="K807" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.2">
@@ -29677,10 +29680,10 @@
         <v>1166</v>
       </c>
       <c r="E813" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="F813" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="J813" t="s">
         <v>11</v>
@@ -29811,10 +29814,10 @@
         <v>1693</v>
       </c>
       <c r="D820" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="E820" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="F820" t="s">
         <v>1850</v>
@@ -29932,7 +29935,10 @@
     </row>
     <row r="826" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>3447</v>
+        <v>3444</v>
+      </c>
+      <c r="C826" t="s">
+        <v>3871</v>
       </c>
       <c r="E826" t="s">
         <v>146</v>
@@ -29941,7 +29947,7 @@
         <v>2924</v>
       </c>
       <c r="K826" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="L826" s="1"/>
     </row>
@@ -29976,19 +29982,19 @@
     </row>
     <row r="828" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="B828" t="s">
         <v>1693</v>
       </c>
       <c r="D828" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="J828" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K828" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.2">
@@ -30007,9 +30013,6 @@
       <c r="F829" t="s">
         <v>2928</v>
       </c>
-      <c r="G829" t="s">
-        <v>3819</v>
-      </c>
       <c r="J829" t="s">
         <v>47</v>
       </c>
@@ -30017,148 +30020,133 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="830" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D830" t="s">
-        <v>65</v>
-      </c>
-      <c r="E830" t="s">
-        <v>1721</v>
+        <v>3872</v>
+      </c>
+      <c r="G830" t="s">
+        <v>3815</v>
       </c>
       <c r="J830" t="s">
-        <v>47</v>
-      </c>
-      <c r="K830" s="1" t="s">
-        <v>2066</v>
+        <v>2924</v>
+      </c>
+      <c r="K830" t="s">
+        <v>3873</v>
       </c>
     </row>
     <row r="831" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>3657</v>
+        <v>2065</v>
       </c>
       <c r="B831" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C831" s="7" t="s">
-        <v>3757</v>
+        <v>1693</v>
       </c>
       <c r="D831" t="s">
-        <v>2585</v>
+        <v>65</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1721</v>
       </c>
       <c r="J831" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K831" s="1" t="s">
-        <v>2584</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="832" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>2772</v>
+        <v>3654</v>
       </c>
       <c r="B832" t="s">
         <v>2655</v>
       </c>
       <c r="C832" s="7" t="s">
-        <v>3758</v>
+        <v>3753</v>
       </c>
       <c r="D832" t="s">
-        <v>66</v>
+        <v>2585</v>
       </c>
       <c r="J832" t="s">
         <v>66</v>
       </c>
       <c r="K832" s="1" t="s">
-        <v>2771</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="833" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>3564</v>
+        <v>2772</v>
       </c>
       <c r="B833" t="s">
-        <v>1693</v>
+        <v>2655</v>
+      </c>
+      <c r="C833" s="7" t="s">
+        <v>3754</v>
       </c>
       <c r="D833" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J833" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K833" s="1" t="s">
-        <v>3563</v>
-      </c>
-      <c r="L833" s="1" t="s">
-        <v>3565</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="834" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D834" t="s">
+        <v>33</v>
+      </c>
+      <c r="J834" t="s">
+        <v>72</v>
+      </c>
+      <c r="K834" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="L834" s="1" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
         <v>1184</v>
       </c>
-      <c r="B834" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D834" t="s">
+      <c r="B835" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D835" t="s">
         <v>1095</v>
       </c>
-      <c r="E834" t="s">
+      <c r="E835" t="s">
         <v>1096</v>
       </c>
-      <c r="J834" t="s">
+      <c r="J835" t="s">
         <v>23</v>
       </c>
-      <c r="K834" s="1" t="s">
-        <v>3378</v>
-      </c>
-      <c r="L834" s="1"/>
-    </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A835" t="s">
+      <c r="K835" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="L835" s="1"/>
+    </row>
+    <row r="836" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
         <v>2948</v>
       </c>
-      <c r="C835" t="s">
+      <c r="C836" t="s">
         <v>2950</v>
       </c>
-      <c r="J835" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K835" t="s">
+      <c r="J836" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K836" t="s">
         <v>2949</v>
-      </c>
-    </row>
-    <row r="836" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D836" t="s">
-        <v>617</v>
-      </c>
-      <c r="E836" t="s">
-        <v>618</v>
-      </c>
-      <c r="F836" t="s">
-        <v>619</v>
-      </c>
-      <c r="G836" t="s">
-        <v>1885</v>
-      </c>
-      <c r="J836" t="s">
-        <v>61</v>
-      </c>
-      <c r="K836" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="L836" s="1" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="837" spans="1:12" ht="17" x14ac:dyDescent="0.25">
@@ -30169,1404 +30157,1459 @@
         <v>1693</v>
       </c>
       <c r="D837" t="s">
-        <v>3786</v>
+        <v>617</v>
+      </c>
+      <c r="E837" t="s">
+        <v>618</v>
+      </c>
+      <c r="F837" t="s">
+        <v>619</v>
+      </c>
+      <c r="G837" t="s">
+        <v>1885</v>
       </c>
       <c r="J837" t="s">
         <v>61</v>
       </c>
       <c r="K837" s="1" t="s">
-        <v>3787</v>
+        <v>3180</v>
       </c>
       <c r="L837" s="1" t="s">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>3590</v>
+        <v>3179</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1693</v>
       </c>
       <c r="D838" t="s">
-        <v>621</v>
+        <v>3782</v>
       </c>
       <c r="J838" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K838" t="s">
-        <v>3589</v>
-      </c>
-      <c r="L838" t="s">
-        <v>622</v>
+        <v>61</v>
+      </c>
+      <c r="K838" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="L838" s="1" t="s">
+        <v>3784</v>
       </c>
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="D839" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J839" t="s">
         <v>2924</v>
       </c>
       <c r="K839" t="s">
-        <v>3592</v>
+        <v>3586</v>
       </c>
       <c r="L839" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B840" t="s">
-        <v>1693</v>
+        <v>3588</v>
       </c>
       <c r="D840" t="s">
-        <v>2479</v>
-      </c>
-      <c r="E840" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F840" t="s">
-        <v>2478</v>
+        <v>623</v>
       </c>
       <c r="J840" t="s">
-        <v>23</v>
+        <v>2924</v>
       </c>
       <c r="K840" t="s">
-        <v>1186</v>
+        <v>3589</v>
+      </c>
+      <c r="L840" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B841" t="s">
         <v>1693</v>
       </c>
       <c r="D841" t="s">
-        <v>1188</v>
+        <v>2479</v>
       </c>
       <c r="E841" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F841" t="s">
-        <v>1190</v>
+        <v>2478</v>
       </c>
       <c r="J841" t="s">
-        <v>137</v>
-      </c>
-      <c r="K841" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="L841" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K841" t="s">
+        <v>1186</v>
+      </c>
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J842" t="s">
+        <v>137</v>
+      </c>
+      <c r="K842" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L842" s="2"/>
+    </row>
+    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
         <v>1191</v>
       </c>
-      <c r="B842" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C842" t="s">
+      <c r="B843" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C843" t="s">
         <v>1192</v>
       </c>
-      <c r="D842" t="s">
+      <c r="D843" t="s">
         <v>1193</v>
       </c>
-      <c r="F842" t="s">
+      <c r="F843" t="s">
         <v>1193</v>
       </c>
-      <c r="G842" t="s">
+      <c r="G843" t="s">
         <v>1193</v>
       </c>
-      <c r="J842" t="s">
+      <c r="J843" t="s">
         <v>181</v>
       </c>
-      <c r="K842" s="2" t="s">
+      <c r="K843" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="L842" s="2" t="s">
+      <c r="L843" s="2" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="843" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>3658</v>
-      </c>
-      <c r="B843" t="s">
+    <row r="844" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B844" t="s">
         <v>2655</v>
       </c>
-      <c r="C843" s="7" t="s">
-        <v>3757</v>
-      </c>
-      <c r="D843" t="s">
+      <c r="C844" s="7" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D844" t="s">
         <v>2538</v>
       </c>
-      <c r="J843" t="s">
+      <c r="J844" t="s">
         <v>2617</v>
       </c>
-      <c r="K843" s="1" t="s">
+      <c r="K844" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="L843" s="1" t="s">
+      <c r="L844" s="1" t="s">
         <v>2619</v>
-      </c>
-    </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A844" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F844" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J844" t="s">
-        <v>187</v>
-      </c>
-      <c r="K844" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L844" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>2397</v>
+        <v>1194</v>
       </c>
       <c r="B845" t="s">
         <v>1693</v>
       </c>
-      <c r="C845" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D845" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E845" t="s">
-        <v>1199</v>
+      <c r="F845" t="s">
+        <v>1195</v>
       </c>
       <c r="J845" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="K845" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="L845" s="2" t="s">
-        <v>1512</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>3424</v>
+        <v>2397</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1197</v>
       </c>
       <c r="D846" t="s">
-        <v>527</v>
+        <v>1198</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1199</v>
       </c>
       <c r="J846" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K846" t="s">
-        <v>3425</v>
+        <v>42</v>
+      </c>
+      <c r="K846" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="L846" s="2" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>2398</v>
-      </c>
-      <c r="C847" t="s">
-        <v>1995</v>
+        <v>3421</v>
       </c>
       <c r="D847" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F847" t="s">
-        <v>1994</v>
+        <v>527</v>
       </c>
       <c r="J847" t="s">
         <v>2924</v>
       </c>
       <c r="K847" t="s">
-        <v>2401</v>
-      </c>
-      <c r="L847" t="s">
-        <v>1200</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1994</v>
+      </c>
+      <c r="J848" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K848" t="s">
+        <v>2401</v>
+      </c>
+      <c r="L848" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
         <v>2399</v>
       </c>
-      <c r="D848" t="s">
+      <c r="D849" t="s">
         <v>1201</v>
       </c>
-      <c r="J848" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K848" t="s">
+      <c r="J849" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K849" t="s">
         <v>2400</v>
       </c>
-      <c r="L848" t="s">
+      <c r="L849" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="849" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+    <row r="850" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
         <v>730</v>
       </c>
-      <c r="B849" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D849" t="s">
+      <c r="B850" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D850" t="s">
         <v>2858</v>
       </c>
-      <c r="E849" t="s">
+      <c r="E850" t="s">
         <v>2859</v>
       </c>
-      <c r="F849" t="s">
+      <c r="F850" t="s">
         <v>848</v>
       </c>
-      <c r="J849" t="s">
+      <c r="J850" t="s">
         <v>25</v>
       </c>
-      <c r="K849" s="1" t="s">
-        <v>3631</v>
-      </c>
-      <c r="L849" s="1"/>
-    </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A850" t="s">
-        <v>3783</v>
-      </c>
-      <c r="D850" t="s">
+      <c r="K850" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="L850" s="1"/>
+    </row>
+    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D851" t="s">
         <v>1955</v>
       </c>
-      <c r="J850" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K850" t="s">
-        <v>3784</v>
-      </c>
-      <c r="L850" t="s">
+      <c r="J851" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K851" t="s">
+        <v>3780</v>
+      </c>
+      <c r="L851" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="851" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
+    <row r="852" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
         <v>2935</v>
       </c>
-      <c r="B851" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C851" t="s">
+      <c r="B852" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C852" t="s">
         <v>2505</v>
       </c>
-      <c r="D851" t="s">
+      <c r="D852" t="s">
         <v>2939</v>
       </c>
-      <c r="J851" t="s">
+      <c r="J852" t="s">
         <v>38</v>
       </c>
-      <c r="K851" s="1" t="s">
+      <c r="K852" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="L851" s="1" t="s">
+      <c r="L852" s="1" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A852" t="s">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
         <v>2402</v>
       </c>
-      <c r="B852" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E852" t="s">
+      <c r="B853" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E853" t="s">
         <v>1374</v>
       </c>
-      <c r="J852" t="s">
+      <c r="J853" t="s">
         <v>84</v>
       </c>
-      <c r="K852" s="2" t="s">
+      <c r="K853" s="2" t="s">
         <v>1327</v>
       </c>
-      <c r="L852" s="2" t="s">
+      <c r="L853" s="2" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="853" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
-        <v>3828</v>
-      </c>
-      <c r="D853" t="s">
-        <v>3831</v>
-      </c>
-      <c r="E853" t="s">
-        <v>3829</v>
-      </c>
-      <c r="J853" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K853" s="1"/>
-    </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D854" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E854" t="s">
+        <v>3825</v>
+      </c>
+      <c r="J854" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K854" s="1"/>
+    </row>
+    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
         <v>2432</v>
       </c>
-      <c r="E854" t="s">
+      <c r="E855" t="s">
         <v>1026</v>
       </c>
-      <c r="F854" t="s">
+      <c r="F855" t="s">
         <v>1027</v>
       </c>
-      <c r="J854" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K854" s="2" t="s">
+      <c r="J855" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K855" s="2" t="s">
         <v>2433</v>
       </c>
-      <c r="L854" s="2"/>
-    </row>
-    <row r="855" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
+      <c r="L855" s="2"/>
+    </row>
+    <row r="856" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
         <v>2453</v>
       </c>
-      <c r="E855" t="s">
+      <c r="E856" t="s">
         <v>182</v>
       </c>
-      <c r="J855" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K855" s="1" t="s">
+      <c r="J856" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K856" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L855" s="1"/>
-    </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A856" t="s">
-        <v>3426</v>
-      </c>
-      <c r="D856" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J856" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K856" s="2" t="s">
-        <v>3427</v>
-      </c>
-      <c r="L856" s="2"/>
+      <c r="L856" s="1"/>
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>2272</v>
-      </c>
-      <c r="E857" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F857" t="s">
-        <v>1326</v>
+        <v>3423</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1213</v>
       </c>
       <c r="J857" t="s">
         <v>2924</v>
       </c>
-      <c r="K857" t="s">
-        <v>2403</v>
-      </c>
+      <c r="K857" s="2" t="s">
+        <v>3424</v>
+      </c>
+      <c r="L857" s="2"/>
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1375</v>
+        <v>2272</v>
       </c>
       <c r="E858" t="s">
-        <v>669</v>
+        <v>1325</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1326</v>
       </c>
       <c r="J858" t="s">
         <v>2924</v>
       </c>
       <c r="K858" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>3848</v>
-      </c>
-      <c r="D859" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E859" t="s">
+        <v>669</v>
+      </c>
+      <c r="J859" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K859" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D860" t="s">
         <v>1145</v>
       </c>
-      <c r="E859" t="s">
+      <c r="E860" t="s">
         <v>1146</v>
       </c>
-      <c r="F859" t="s">
+      <c r="F860" t="s">
         <v>2930</v>
       </c>
-      <c r="J859" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K859" s="2" t="s">
-        <v>3847</v>
-      </c>
-      <c r="L859" s="2" t="s">
-        <v>3849</v>
-      </c>
-    </row>
-    <row r="860" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
+      <c r="J860" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K860" s="2" t="s">
+        <v>3843</v>
+      </c>
+      <c r="L860" s="2" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
         <v>2749</v>
       </c>
-      <c r="B860" t="s">
+      <c r="B861" t="s">
         <v>2655</v>
       </c>
-      <c r="C860" s="7" t="s">
-        <v>3758</v>
-      </c>
-      <c r="D860" t="s">
+      <c r="C861" s="7" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D861" t="s">
         <v>137</v>
       </c>
-      <c r="J860" t="s">
+      <c r="J861" t="s">
         <v>137</v>
       </c>
-      <c r="K860" s="1" t="s">
+      <c r="K861" s="1" t="s">
         <v>2748</v>
-      </c>
-    </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A861" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B861" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D861" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E861" t="s">
-        <v>2835</v>
-      </c>
-      <c r="J861" t="s">
-        <v>187</v>
-      </c>
-      <c r="K861" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="L861" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B862" t="s">
         <v>1693</v>
       </c>
       <c r="D862" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F862" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G862" t="s">
-        <v>1211</v>
+        <v>1208</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2835</v>
       </c>
       <c r="J862" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="K862" s="2" t="s">
-        <v>1371</v>
+        <v>1513</v>
       </c>
       <c r="L862" s="2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>3246</v>
+        <v>1210</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1693</v>
       </c>
       <c r="D863" t="s">
-        <v>711</v>
+        <v>1211</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G863" t="s">
+        <v>1211</v>
       </c>
       <c r="J863" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K863" t="s">
-        <v>3247</v>
+        <v>11</v>
+      </c>
+      <c r="K863" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L863" s="2" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>3233</v>
+        <v>3243</v>
       </c>
       <c r="D864" t="s">
-        <v>3229</v>
+        <v>711</v>
       </c>
       <c r="J864" t="s">
         <v>2924</v>
       </c>
       <c r="K864" t="s">
-        <v>3234</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B865" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C865" t="s">
-        <v>1253</v>
+        <v>3230</v>
       </c>
       <c r="D865" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F865" t="s">
-        <v>2522</v>
+        <v>3226</v>
       </c>
       <c r="J865" t="s">
         <v>2924</v>
       </c>
       <c r="K865" t="s">
-        <v>1222</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B866" t="s">
         <v>1694</v>
       </c>
       <c r="C866" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F866" t="s">
+        <v>2522</v>
+      </c>
+      <c r="J866" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K866" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C867" t="s">
         <v>2797</v>
       </c>
-      <c r="D866" t="s">
+      <c r="D867" t="s">
         <v>2791</v>
       </c>
-      <c r="F866" t="s">
+      <c r="F867" t="s">
         <v>2792</v>
       </c>
-      <c r="J866" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K866" s="2" t="s">
+      <c r="J867" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K867" s="2" t="s">
         <v>2793</v>
       </c>
-      <c r="L866" s="2"/>
-    </row>
-    <row r="867" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
-        <v>3465</v>
-      </c>
-      <c r="B867" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C867" t="s">
-        <v>3460</v>
-      </c>
-      <c r="D867" t="s">
-        <v>2657</v>
-      </c>
-      <c r="J867" t="s">
-        <v>61</v>
-      </c>
-      <c r="K867" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="L867" s="1" t="s">
-        <v>2664</v>
-      </c>
+      <c r="L867" s="2"/>
     </row>
     <row r="868" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>3567</v>
+        <v>3462</v>
       </c>
       <c r="B868" t="s">
-        <v>1693</v>
+        <v>2655</v>
+      </c>
+      <c r="C868" t="s">
+        <v>3457</v>
       </c>
       <c r="D868" t="s">
-        <v>32</v>
+        <v>2657</v>
       </c>
       <c r="J868" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K868" s="1" t="s">
-        <v>3566</v>
+        <v>2663</v>
+      </c>
+      <c r="L868" s="1" t="s">
+        <v>2664</v>
       </c>
     </row>
     <row r="869" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2172</v>
+        <v>3564</v>
       </c>
       <c r="B869" t="s">
         <v>1693</v>
       </c>
       <c r="D869" t="s">
-        <v>546</v>
-      </c>
-      <c r="F869" t="s">
-        <v>1117</v>
+        <v>32</v>
       </c>
       <c r="J869" t="s">
-        <v>72</v>
-      </c>
-      <c r="K869" s="2" t="s">
-        <v>3167</v>
-      </c>
-      <c r="L869" s="1" t="s">
-        <v>3168</v>
+        <v>66</v>
+      </c>
+      <c r="K869" s="1" t="s">
+        <v>3563</v>
       </c>
     </row>
     <row r="870" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>3195</v>
+        <v>2172</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D870" t="s">
+        <v>546</v>
       </c>
       <c r="F870" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J870" t="s">
+        <v>72</v>
+      </c>
+      <c r="K870" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="L870" s="1" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F871" t="s">
         <v>651</v>
       </c>
-      <c r="J870" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K870" s="1" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A871" t="s">
+      <c r="J871" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K871" s="1" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
         <v>1221</v>
       </c>
-      <c r="B871" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D871" t="s">
-        <v>3211</v>
-      </c>
-      <c r="J871" t="s">
+      <c r="B872" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D872" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J872" t="s">
         <v>181</v>
       </c>
-      <c r="K871" s="2" t="s">
+      <c r="K872" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="L871" s="2" t="s">
+      <c r="L872" s="2" t="s">
         <v>1515</v>
-      </c>
-    </row>
-    <row r="872" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C872" t="s">
-        <v>3764</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1691</v>
-      </c>
-      <c r="F872" t="s">
-        <v>3763</v>
-      </c>
-      <c r="J872" t="s">
-        <v>11</v>
-      </c>
-      <c r="K872" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="L872" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M872" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="873" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>3852</v>
+        <v>1222</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1693</v>
       </c>
       <c r="C873" t="s">
-        <v>3855</v>
-      </c>
-      <c r="G873" t="s">
-        <v>3854</v>
+        <v>3760</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F873" t="s">
+        <v>3759</v>
       </c>
       <c r="J873" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K873" s="2" t="s">
-        <v>3853</v>
-      </c>
-      <c r="L873" s="1"/>
-    </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K873" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L873" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M873" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>3552</v>
-      </c>
-      <c r="B874" t="s">
-        <v>2655</v>
+        <v>3848</v>
       </c>
       <c r="C874" t="s">
-        <v>3555</v>
-      </c>
-      <c r="D874" t="s">
-        <v>3551</v>
+        <v>3851</v>
+      </c>
+      <c r="G874" t="s">
+        <v>3850</v>
       </c>
       <c r="J874" t="s">
         <v>2924</v>
       </c>
-      <c r="K874" t="s">
-        <v>3553</v>
-      </c>
-      <c r="L874" t="s">
-        <v>3554</v>
-      </c>
+      <c r="K874" s="2" t="s">
+        <v>3849</v>
+      </c>
+      <c r="L874" s="1"/>
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E875" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G875" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H875" t="s">
-        <v>1225</v>
+        <v>3549</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C875" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D875" t="s">
+        <v>3548</v>
       </c>
       <c r="J875" t="s">
         <v>2924</v>
       </c>
       <c r="K875" t="s">
-        <v>1226</v>
+        <v>3550</v>
+      </c>
+      <c r="L875" t="s">
+        <v>3551</v>
       </c>
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>3659</v>
-      </c>
-      <c r="B876" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C876" s="7" t="s">
-        <v>3757</v>
-      </c>
-      <c r="D876" t="s">
-        <v>2648</v>
+        <v>1224</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G876" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H876" t="s">
+        <v>1225</v>
       </c>
       <c r="J876" t="s">
-        <v>24</v>
+        <v>2924</v>
       </c>
       <c r="K876" t="s">
-        <v>2649</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="877" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>3558</v>
+        <v>3656</v>
       </c>
       <c r="B877" t="s">
         <v>2655</v>
       </c>
-      <c r="C877" t="s">
-        <v>3560</v>
+      <c r="C877" s="7" t="s">
+        <v>3753</v>
       </c>
       <c r="D877" t="s">
-        <v>3557</v>
+        <v>2648</v>
       </c>
       <c r="J877" t="s">
-        <v>2924</v>
+        <v>24</v>
       </c>
       <c r="K877" t="s">
-        <v>3559</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="878" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>2104</v>
+        <v>3555</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2655</v>
       </c>
       <c r="C878" t="s">
-        <v>1274</v>
+        <v>3557</v>
       </c>
       <c r="D878" t="s">
-        <v>1255</v>
+        <v>3554</v>
       </c>
       <c r="J878" t="s">
         <v>2924</v>
       </c>
       <c r="K878" t="s">
-        <v>2105</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="879" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>3010</v>
+        <v>2104</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1274</v>
       </c>
       <c r="D879" t="s">
-        <v>998</v>
+        <v>1255</v>
       </c>
       <c r="J879" t="s">
         <v>2924</v>
       </c>
       <c r="K879" t="s">
-        <v>3011</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D880" t="s">
+        <v>998</v>
+      </c>
+      <c r="J880" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K880" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="881" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
         <v>3012</v>
       </c>
-      <c r="C880" t="s">
+      <c r="C881" t="s">
         <v>1793</v>
       </c>
-      <c r="D880" t="s">
+      <c r="D881" t="s">
         <v>3013</v>
       </c>
-      <c r="F880" t="s">
+      <c r="F881" t="s">
         <v>996</v>
       </c>
-      <c r="H880" t="s">
+      <c r="G881" t="s">
         <v>997</v>
       </c>
-      <c r="J880" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K880" s="2" t="s">
-        <v>3439</v>
-      </c>
-      <c r="L880" s="2"/>
-    </row>
-    <row r="881" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
-        <v>3525</v>
-      </c>
-      <c r="B881" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D881" t="s">
-        <v>2177</v>
-      </c>
-      <c r="E881" t="s">
-        <v>2178</v>
+      <c r="H881" t="s">
+        <v>997</v>
       </c>
       <c r="J881" t="s">
-        <v>61</v>
-      </c>
-      <c r="K881" s="1" t="s">
-        <v>3523</v>
-      </c>
-      <c r="L881" s="1" t="s">
-        <v>3524</v>
-      </c>
+        <v>2924</v>
+      </c>
+      <c r="K881" s="2" t="s">
+        <v>3436</v>
+      </c>
+      <c r="L881" s="2"/>
     </row>
     <row r="882" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>3080</v>
+        <v>3522</v>
       </c>
       <c r="B882" t="s">
         <v>1693</v>
       </c>
       <c r="D882" t="s">
-        <v>3077</v>
+        <v>2177</v>
       </c>
       <c r="E882" t="s">
-        <v>3076</v>
-      </c>
-      <c r="F882" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G882" t="s">
-        <v>1775</v>
+        <v>2178</v>
       </c>
       <c r="J882" t="s">
         <v>61</v>
       </c>
-      <c r="K882" s="2" t="s">
+      <c r="K882" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="L882" s="1" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="883" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D883" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E883" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G883" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J883" t="s">
+        <v>61</v>
+      </c>
+      <c r="K883" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="L882" s="1" t="s">
+      <c r="L883" s="1" t="s">
         <v>3079</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A883" t="s">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
         <v>3081</v>
       </c>
-      <c r="D883" t="s">
+      <c r="D884" t="s">
         <v>112</v>
       </c>
-      <c r="E883" t="s">
+      <c r="E884" t="s">
         <v>113</v>
       </c>
-      <c r="F883" t="s">
+      <c r="F884" t="s">
         <v>114</v>
       </c>
-      <c r="G883" t="s">
+      <c r="G884" t="s">
         <v>1776</v>
       </c>
-      <c r="J883" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K883" t="s">
+      <c r="J884" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K884" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
+    <row r="885" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
         <v>2266</v>
       </c>
-      <c r="B884" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D884" t="s">
+      <c r="B885" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D885" t="s">
         <v>2265</v>
       </c>
-      <c r="E884" t="s">
+      <c r="E885" t="s">
         <v>1950</v>
       </c>
-      <c r="F884" t="s">
+      <c r="F885" t="s">
         <v>1363</v>
       </c>
-      <c r="J884" t="s">
+      <c r="J885" t="s">
         <v>61</v>
       </c>
-      <c r="K884" s="1" t="s">
+      <c r="K885" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L884" s="1" t="s">
+      <c r="L885" s="1" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A885" t="s">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
         <v>3116</v>
       </c>
-      <c r="E885" t="s">
+      <c r="E886" t="s">
         <v>365</v>
       </c>
-      <c r="J885" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K885" s="2" t="s">
+      <c r="J886" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K886" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="L885" s="2" t="s">
+      <c r="L886" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
+    <row r="887" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
         <v>2017</v>
       </c>
-      <c r="B886" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D886" t="s">
-        <v>3440</v>
-      </c>
-      <c r="F886" t="s">
+      <c r="B887" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D887" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F887" t="s">
         <v>1939</v>
       </c>
-      <c r="J886" t="s">
+      <c r="J887" t="s">
         <v>61</v>
       </c>
-      <c r="K886" s="1" t="s">
+      <c r="K887" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="L886" s="1" t="s">
+      <c r="L887" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="M886" t="s">
+      <c r="M887" t="s">
         <v>2919</v>
-      </c>
-    </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A887" t="s">
-        <v>2269</v>
-      </c>
-      <c r="E887" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J887" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K887" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="888" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B888" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D888" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F888" t="s">
-        <v>1230</v>
+        <v>2269</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2188</v>
       </c>
       <c r="J888" t="s">
-        <v>61</v>
-      </c>
-      <c r="K888" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L888" s="2" t="s">
-        <v>1517</v>
+        <v>2924</v>
+      </c>
+      <c r="K888" t="s">
+        <v>2270</v>
       </c>
     </row>
     <row r="889" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>3328</v>
+        <v>1228</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1693</v>
       </c>
       <c r="D889" t="s">
-        <v>971</v>
-      </c>
-      <c r="E889" t="s">
-        <v>971</v>
+        <v>1229</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1230</v>
       </c>
       <c r="J889" t="s">
-        <v>2924</v>
+        <v>61</v>
       </c>
       <c r="K889" s="2" t="s">
-        <v>3329</v>
-      </c>
-      <c r="L889" s="2"/>
+        <v>1516</v>
+      </c>
+      <c r="L889" s="2" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="890" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>2106</v>
+        <v>3325</v>
       </c>
       <c r="D890" t="s">
-        <v>1231</v>
+        <v>971</v>
+      </c>
+      <c r="E890" t="s">
+        <v>971</v>
       </c>
       <c r="J890" t="s">
         <v>2924</v>
       </c>
-      <c r="K890" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L890" t="s">
-        <v>1232</v>
-      </c>
+      <c r="K890" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="L890" s="2"/>
     </row>
     <row r="891" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1693</v>
+        <v>2106</v>
       </c>
       <c r="D891" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="J891" t="s">
-        <v>11</v>
-      </c>
-      <c r="K891" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="L891" s="2" t="s">
-        <v>1238</v>
+        <v>2924</v>
+      </c>
+      <c r="K891" t="s">
+        <v>2107</v>
+      </c>
+      <c r="L891" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="892" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>2408</v>
+        <v>2407</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1693</v>
       </c>
       <c r="D892" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J892" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K892" t="s">
-        <v>2409</v>
-      </c>
-      <c r="L892" t="s">
-        <v>1236</v>
+        <v>11</v>
+      </c>
+      <c r="K892" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L892" s="2" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1693</v>
+        <v>2408</v>
       </c>
       <c r="D893" t="s">
-        <v>489</v>
-      </c>
-      <c r="E893" t="s">
-        <v>1998</v>
-      </c>
-      <c r="G893" t="s">
-        <v>3442</v>
-      </c>
-      <c r="H893" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="J893" t="s">
-        <v>19</v>
-      </c>
-      <c r="K893" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="L893" s="2" t="s">
-        <v>1241</v>
+        <v>2924</v>
+      </c>
+      <c r="K893" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L893" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="894" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D894" t="s">
+        <v>489</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G894" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H894" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J894" t="s">
+        <v>19</v>
+      </c>
+      <c r="K894" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="L894" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
         <v>1242</v>
       </c>
-      <c r="B894" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D894" t="s">
+      <c r="B895" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D895" t="s">
         <v>1243</v>
       </c>
-      <c r="E894" t="s">
+      <c r="E895" t="s">
         <v>1244</v>
       </c>
-      <c r="J894" t="s">
+      <c r="J895" t="s">
         <v>47</v>
       </c>
-      <c r="K894" t="s">
+      <c r="K895" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D895" t="s">
+    <row r="896" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D896" t="s">
         <v>1203</v>
       </c>
-      <c r="E895" t="s">
+      <c r="E896" t="s">
         <v>1204</v>
       </c>
-      <c r="F895" t="s">
+      <c r="F896" t="s">
         <v>1996</v>
       </c>
-      <c r="J895" t="s">
+      <c r="J896" t="s">
         <v>72</v>
       </c>
-      <c r="K895" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="L895" s="1" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A896" t="s">
-        <v>3479</v>
-      </c>
-      <c r="D896" t="s">
+      <c r="K896" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="L896" s="1" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D897" t="s">
         <v>55</v>
       </c>
-      <c r="J896" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K896" t="s">
+      <c r="J897" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K897" t="s">
+        <v>3477</v>
+      </c>
+      <c r="L897" t="s">
         <v>3480</v>
       </c>
-      <c r="L896" t="s">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="897" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
-        <v>3498</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D897" t="s">
+    </row>
+    <row r="898" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D898" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F898" t="s">
+        <v>3494</v>
+      </c>
+      <c r="J898" t="s">
+        <v>61</v>
+      </c>
+      <c r="K898" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="F897" t="s">
+      <c r="L898" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="J897" t="s">
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C899" s="7" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D899" t="s">
+        <v>2530</v>
+      </c>
+      <c r="J899" t="s">
+        <v>23</v>
+      </c>
+      <c r="K899" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D900" t="s">
+        <v>248</v>
+      </c>
+      <c r="E900" t="s">
+        <v>249</v>
+      </c>
+      <c r="J900" t="s">
         <v>61</v>
       </c>
-      <c r="K897" s="1" t="s">
-        <v>3499</v>
-      </c>
-      <c r="L897" s="1" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A898" t="s">
-        <v>3660</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C898" s="7" t="s">
-        <v>3757</v>
-      </c>
-      <c r="D898" t="s">
-        <v>2530</v>
-      </c>
-      <c r="J898" t="s">
-        <v>23</v>
-      </c>
-      <c r="K898" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="899" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D899" t="s">
-        <v>248</v>
-      </c>
-      <c r="E899" t="s">
-        <v>249</v>
-      </c>
-      <c r="J899" t="s">
-        <v>61</v>
-      </c>
-      <c r="K899" s="1" t="s">
+      <c r="K900" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="L899" s="1" t="s">
+      <c r="L900" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="M899" t="s">
+      <c r="M900" t="s">
         <v>2920</v>
-      </c>
-    </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A900" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D900" t="s">
-        <v>252</v>
-      </c>
-      <c r="J900" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K900" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L900" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="901" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B901" t="s">
-        <v>1693</v>
+        <v>1418</v>
       </c>
       <c r="D901" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F901" t="s">
-        <v>1247</v>
+        <v>252</v>
       </c>
       <c r="J901" t="s">
-        <v>66</v>
-      </c>
-      <c r="K901" s="2" t="s">
-        <v>1522</v>
+        <v>2924</v>
+      </c>
+      <c r="K901" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L901" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="902" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>3661</v>
+        <v>2276</v>
       </c>
       <c r="B902" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C902" s="7" t="s">
-        <v>3757</v>
+        <v>1693</v>
       </c>
       <c r="D902" t="s">
-        <v>2609</v>
+        <v>1246</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1247</v>
       </c>
       <c r="J902" t="s">
-        <v>2593</v>
-      </c>
-      <c r="K902" t="s">
-        <v>2536</v>
+        <v>66</v>
+      </c>
+      <c r="K902" s="2" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="903" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1248</v>
+        <v>3658</v>
       </c>
       <c r="B903" t="s">
-        <v>1693</v>
+        <v>2655</v>
+      </c>
+      <c r="C903" s="7" t="s">
+        <v>3753</v>
       </c>
       <c r="D903" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F903" t="s">
-        <v>1250</v>
+        <v>2609</v>
       </c>
       <c r="J903" t="s">
-        <v>61</v>
-      </c>
-      <c r="K903" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L903" s="2" t="s">
-        <v>1521</v>
+        <v>2593</v>
+      </c>
+      <c r="K903" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="904" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B904" t="s">
         <v>1693</v>
       </c>
       <c r="D904" t="s">
-        <v>3873</v>
+        <v>1249</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1250</v>
       </c>
       <c r="J904" t="s">
-        <v>23</v>
-      </c>
-      <c r="K904" t="s">
-        <v>1252</v>
+        <v>61</v>
+      </c>
+      <c r="K904" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L904" s="2" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="905" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D905" t="s">
+        <v>3868</v>
+      </c>
+      <c r="J905" t="s">
+        <v>23</v>
+      </c>
+      <c r="K905" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
         <v>2109</v>
       </c>
-      <c r="D905" t="s">
+      <c r="D906" t="s">
         <v>250</v>
       </c>
-      <c r="J905" t="s">
-        <v>2924</v>
-      </c>
-      <c r="K905" t="s">
+      <c r="J906" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K906" t="s">
         <v>2110</v>
       </c>
-      <c r="L905" t="s">
+      <c r="L906" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G907" t="s">
+        <v>2679</v>
+      </c>
+      <c r="H907" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J907" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K907" t="s">
+        <v>3791</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF1DB1-4632-BD46-BAC9-A5B0B57B7D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113AEA24-4B0F-CD49-8838-3C60E87D9265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="22980" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="3909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="3909">
   <si>
     <t>Notes</t>
   </si>
@@ -12693,8 +12693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" zoomScale="118" workbookViewId="0">
-      <selection activeCell="J528" sqref="J528"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I606" sqref="I606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15428,6 +15428,9 @@
       <c r="I118" t="s">
         <v>3870</v>
       </c>
+      <c r="J118" t="s">
+        <v>3905</v>
+      </c>
       <c r="K118" t="s">
         <v>2844</v>
       </c>
@@ -25954,6 +25957,9 @@
       </c>
       <c r="I603" t="s">
         <v>3872</v>
+      </c>
+      <c r="J603" t="s">
+        <v>3212</v>
       </c>
       <c r="K603" t="s">
         <v>2844</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113AEA24-4B0F-CD49-8838-3C60E87D9265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937F0459-ED5C-EC45-9D7E-36521E272CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="22980" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980BD6E-F042-2940-9C11-BC3CF71C6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C49E79C-DFA7-034E-9F75-C3AB2D5ACB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="22980" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="3911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6054" uniqueCount="3911">
   <si>
     <t>Notes</t>
   </si>
@@ -12700,8 +12700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O912"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="K150" sqref="K150"/>
+    <sheetView tabSelected="1" topLeftCell="A551" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J569" sqref="J569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12959,6 +12959,9 @@
       <c r="J10" t="s">
         <v>3903</v>
       </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
       <c r="L10" t="s">
         <v>10</v>
       </c>
@@ -13640,9 +13643,6 @@
       <c r="G38" t="s">
         <v>1763</v>
       </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
       <c r="L38" t="s">
         <v>2843</v>
       </c>
@@ -13666,6 +13666,9 @@
       <c r="I39" t="s">
         <v>93</v>
       </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
       <c r="L39" t="s">
         <v>45</v>
       </c>
@@ -15187,6 +15190,9 @@
       <c r="F106" t="s">
         <v>187</v>
       </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
       <c r="L106" t="s">
         <v>107</v>
       </c>
@@ -15317,6 +15323,9 @@
       <c r="J111" t="s">
         <v>3903</v>
       </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
       <c r="L111" t="s">
         <v>36</v>
       </c>
@@ -15452,9 +15461,6 @@
       </c>
       <c r="J118" t="s">
         <v>3900</v>
-      </c>
-      <c r="K118">
-        <v>22</v>
       </c>
       <c r="L118" t="s">
         <v>2843</v>
@@ -17367,6 +17373,9 @@
       <c r="J210" t="s">
         <v>3903</v>
       </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
       <c r="L210" t="s">
         <v>22</v>
       </c>
@@ -19582,6 +19591,12 @@
       <c r="G307" t="s">
         <v>1882</v>
       </c>
+      <c r="I307" t="s">
+        <v>3885</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
       <c r="L307" t="s">
         <v>177</v>
       </c>
@@ -23624,6 +23639,9 @@
       <c r="J493" t="s">
         <v>3903</v>
       </c>
+      <c r="K493">
+        <v>6</v>
+      </c>
       <c r="L493" t="s">
         <v>36</v>
       </c>
@@ -24488,6 +24506,9 @@
       <c r="J532" t="s">
         <v>3903</v>
       </c>
+      <c r="K532">
+        <v>8</v>
+      </c>
       <c r="L532" t="s">
         <v>70</v>
       </c>
@@ -24980,6 +25001,9 @@
       <c r="J553" t="s">
         <v>3903</v>
       </c>
+      <c r="K553">
+        <v>10</v>
+      </c>
       <c r="L553" t="s">
         <v>70</v>
       </c>
@@ -25438,6 +25462,9 @@
       <c r="I574" t="s">
         <v>3881</v>
       </c>
+      <c r="K574">
+        <v>1</v>
+      </c>
       <c r="L574" t="s">
         <v>70</v>
       </c>
@@ -25664,6 +25691,9 @@
       <c r="I585" t="s">
         <v>3885</v>
       </c>
+      <c r="K585">
+        <v>0</v>
+      </c>
       <c r="L585" t="s">
         <v>64</v>
       </c>
@@ -26431,6 +26461,9 @@
       <c r="I618" t="s">
         <v>3885</v>
       </c>
+      <c r="K618">
+        <v>4</v>
+      </c>
       <c r="L618" t="s">
         <v>45</v>
       </c>
@@ -26454,6 +26487,9 @@
       <c r="I619" t="s">
         <v>93</v>
       </c>
+      <c r="K619">
+        <v>0</v>
+      </c>
       <c r="L619" t="s">
         <v>10</v>
       </c>
@@ -26918,6 +26954,9 @@
       <c r="I641" t="s">
         <v>3885</v>
       </c>
+      <c r="K641">
+        <v>5</v>
+      </c>
       <c r="L641" t="s">
         <v>22</v>
       </c>
@@ -28391,6 +28430,9 @@
       <c r="J704" t="s">
         <v>3903</v>
       </c>
+      <c r="K704">
+        <v>4</v>
+      </c>
       <c r="L704" t="s">
         <v>59</v>
       </c>
@@ -29642,6 +29684,9 @@
       <c r="I758" t="s">
         <v>3885</v>
       </c>
+      <c r="K758">
+        <v>3</v>
+      </c>
       <c r="L758" t="s">
         <v>107</v>
       </c>
@@ -29760,6 +29805,9 @@
       <c r="J763" t="s">
         <v>3903</v>
       </c>
+      <c r="K763">
+        <v>2</v>
+      </c>
       <c r="L763" t="s">
         <v>66</v>
       </c>
@@ -30832,6 +30880,9 @@
       <c r="I811" t="s">
         <v>1099</v>
       </c>
+      <c r="K811">
+        <v>0</v>
+      </c>
       <c r="L811" t="s">
         <v>22</v>
       </c>
@@ -31759,6 +31810,9 @@
       <c r="J853" t="s">
         <v>3903</v>
       </c>
+      <c r="K853">
+        <v>7</v>
+      </c>
       <c r="L853" t="s">
         <v>175</v>
       </c>
@@ -32144,6 +32198,9 @@
       </c>
       <c r="J871" t="s">
         <v>3903</v>
+      </c>
+      <c r="K871">
+        <v>1</v>
       </c>
       <c r="L871" t="s">
         <v>10</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF12C0-1894-9F45-9706-84C2D1E859C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E164D10-9670-D548-A050-AAF4C89CA87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6109" uniqueCount="3942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="3942">
   <si>
     <t>Orostara</t>
   </si>
@@ -12732,8 +12732,8 @@
   <dimension ref="A1:O920"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G930" sqref="G930"/>
+      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K510" sqref="K510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14901,7 +14901,7 @@
         <v>397</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L93" t="s">
         <v>110</v>
@@ -21263,7 +21263,7 @@
         <v>397</v>
       </c>
       <c r="K382">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L382" t="s">
         <v>0</v>
@@ -21610,6 +21610,9 @@
       <c r="D397" t="s">
         <v>3938</v>
       </c>
+      <c r="I397" t="s">
+        <v>397</v>
+      </c>
       <c r="K397">
         <v>39</v>
       </c>
@@ -23990,6 +23993,9 @@
       <c r="I507" t="s">
         <v>397</v>
       </c>
+      <c r="K507">
+        <v>31</v>
+      </c>
       <c r="L507" t="s">
         <v>0</v>
       </c>
@@ -32437,7 +32443,7 @@
         <v>397</v>
       </c>
       <c r="K878">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L878" t="s">
         <v>576</v>
@@ -32495,7 +32501,7 @@
         <v>397</v>
       </c>
       <c r="K880">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L880" t="s">
         <v>0</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orosfara-Dictionary/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6D359-4CCF-BC45-98A5-62A8B5FC3E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC6CF4-4FAD-564A-92CE-2A5EA45BD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12238,12 +12238,6 @@
     <t>Mahripmur</t>
   </si>
   <si>
-    <t>sentar</t>
-  </si>
-  <si>
-    <t>sen tar</t>
-  </si>
-  <si>
     <t>masaux</t>
   </si>
   <si>
@@ -12436,18 +12430,6 @@
     <t>not expected</t>
   </si>
   <si>
-    <t>tarkun</t>
-  </si>
-  <si>
-    <t>tar kun</t>
-  </si>
-  <si>
-    <t>tar sis</t>
-  </si>
-  <si>
-    <t>tarsis</t>
-  </si>
-  <si>
     <t>nahix</t>
   </si>
   <si>
@@ -13012,12 +12994,6 @@
     <t>yah hox</t>
   </si>
   <si>
-    <t>Yatar</t>
-  </si>
-  <si>
-    <t>yah tar</t>
-  </si>
-  <si>
     <t>yasar</t>
   </si>
   <si>
@@ -13457,6 +13433,30 @@
   </si>
   <si>
     <t>Orostara</t>
+  </si>
+  <si>
+    <t>senyur</t>
+  </si>
+  <si>
+    <t>sen yur</t>
+  </si>
+  <si>
+    <t>Yayur</t>
+  </si>
+  <si>
+    <t>yah yur</t>
+  </si>
+  <si>
+    <t>yurkun</t>
+  </si>
+  <si>
+    <t>yur kun</t>
+  </si>
+  <si>
+    <t>yursis</t>
+  </si>
+  <si>
+    <t>yur sis</t>
   </si>
 </sst>
 </file>
@@ -14408,9 +14408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E223" sqref="E223"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14423,7 +14423,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4478</v>
+        <v>4470</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -15319,13 +15319,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4460</v>
+        <v>4452</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D35" t="s">
         <v>146</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>4163</v>
+        <v>4157</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -15487,7 +15487,7 @@
         <v>1612</v>
       </c>
       <c r="O41" t="s">
-        <v>4162</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -15634,7 +15634,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>4442</v>
+        <v>4434</v>
       </c>
       <c r="L47" t="s">
         <v>89</v>
@@ -15766,16 +15766,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>4426</v>
+        <v>4418</v>
       </c>
       <c r="D53" t="s">
-        <v>4424</v>
+        <v>4416</v>
       </c>
       <c r="L53" t="s">
         <v>3996</v>
       </c>
       <c r="M53" t="s">
-        <v>4427</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -15900,7 +15900,7 @@
         <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>4438</v>
+        <v>4430</v>
       </c>
       <c r="I58" t="s">
         <v>222</v>
@@ -16018,7 +16018,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>4403</v>
+        <v>4395</v>
       </c>
       <c r="F63" t="s">
         <v>1698</v>
@@ -16205,13 +16205,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>4461</v>
+        <v>4453</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D71" t="s">
         <v>89</v>
@@ -16237,10 +16237,10 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>4430</v>
+        <v>4422</v>
       </c>
       <c r="F72" t="s">
-        <v>4431</v>
+        <v>4423</v>
       </c>
       <c r="L72" t="s">
         <v>89</v>
@@ -16352,13 +16352,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4462</v>
+        <v>4454</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D77" t="s">
         <v>97</v>
@@ -16488,7 +16488,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4357</v>
+        <v>4349</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -16503,24 +16503,24 @@
         <v>292</v>
       </c>
       <c r="M82" t="s">
-        <v>4354</v>
+        <v>4346</v>
       </c>
       <c r="N82" t="s">
-        <v>4356</v>
+        <v>4348</v>
       </c>
       <c r="O82" t="s">
-        <v>4355</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>4463</v>
+        <v>4455</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D83" t="s">
         <v>3935</v>
@@ -16555,10 +16555,10 @@
         <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>4435</v>
+        <v>4427</v>
       </c>
       <c r="G84" t="s">
-        <v>4434</v>
+        <v>4426</v>
       </c>
       <c r="L84" t="s">
         <v>89</v>
@@ -16688,19 +16688,19 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4367</v>
+        <v>4359</v>
       </c>
       <c r="D89" t="s">
-        <v>4418</v>
+        <v>4410</v>
       </c>
       <c r="F89" t="s">
-        <v>4417</v>
+        <v>4409</v>
       </c>
       <c r="L89" t="s">
         <v>3996</v>
       </c>
       <c r="M89" t="s">
-        <v>4368</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -16939,13 +16939,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>4465</v>
+        <v>4457</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>4464</v>
+        <v>4456</v>
       </c>
       <c r="D99" t="s">
         <v>301</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>4400</v>
+        <v>4392</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -17113,10 +17113,10 @@
         <v>215</v>
       </c>
       <c r="M105" t="s">
-        <v>4401</v>
+        <v>4393</v>
       </c>
       <c r="O105" t="s">
-        <v>4402</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -17245,7 +17245,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>4397</v>
+        <v>4389</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -17260,10 +17260,10 @@
         <v>297</v>
       </c>
       <c r="M111" t="s">
-        <v>4398</v>
+        <v>4390</v>
       </c>
       <c r="O111" t="s">
-        <v>4399</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -17433,28 +17433,28 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>4409</v>
+        <v>4401</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>4432</v>
+        <v>4424</v>
       </c>
       <c r="E118" t="s">
-        <v>4406</v>
+        <v>4398</v>
       </c>
       <c r="L118" t="s">
         <v>292</v>
       </c>
       <c r="M118" t="s">
-        <v>4407</v>
+        <v>4399</v>
       </c>
       <c r="N118" t="s">
-        <v>4410</v>
+        <v>4402</v>
       </c>
       <c r="O118" t="s">
-        <v>4408</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -17923,13 +17923,13 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>4467</v>
+        <v>4459</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>4466</v>
+        <v>4458</v>
       </c>
       <c r="D141" t="s">
         <v>471</v>
@@ -18165,13 +18165,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>4468</v>
+        <v>4460</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D151" t="s">
         <v>495</v>
@@ -18471,10 +18471,10 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>4273</v>
+        <v>4267</v>
       </c>
       <c r="C163" t="s">
-        <v>4275</v>
+        <v>4269</v>
       </c>
       <c r="E163" t="s">
         <v>2545</v>
@@ -18483,15 +18483,15 @@
         <v>3996</v>
       </c>
       <c r="M163" t="s">
-        <v>4274</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>4270</v>
+        <v>4264</v>
       </c>
       <c r="C164" t="s">
-        <v>4272</v>
+        <v>4266</v>
       </c>
       <c r="E164" t="s">
         <v>2545</v>
@@ -18500,7 +18500,7 @@
         <v>3996</v>
       </c>
       <c r="M164" t="s">
-        <v>4271</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
@@ -18600,13 +18600,13 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>4469</v>
+        <v>4461</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -18963,7 +18963,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>4358</v>
+        <v>4350</v>
       </c>
       <c r="B184" t="s">
         <v>14</v>
@@ -18978,10 +18978,10 @@
         <v>301</v>
       </c>
       <c r="M184" t="s">
-        <v>4359</v>
+        <v>4351</v>
       </c>
       <c r="O184" t="s">
-        <v>4360</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
@@ -19029,13 +19029,13 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>4470</v>
+        <v>4462</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D187" t="s">
         <v>3998</v>
@@ -19116,7 +19116,7 @@
         <v>581</v>
       </c>
       <c r="G190" t="s">
-        <v>4433</v>
+        <v>4425</v>
       </c>
       <c r="L190" t="s">
         <v>437</v>
@@ -19628,13 +19628,13 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>4471</v>
+        <v>4463</v>
       </c>
       <c r="B215" t="s">
         <v>22</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>4259</v>
+        <v>4253</v>
       </c>
       <c r="C218" t="s">
         <v>422</v>
@@ -19715,7 +19715,7 @@
         <v>3996</v>
       </c>
       <c r="M218" t="s">
-        <v>4260</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
@@ -19830,7 +19830,7 @@
         <v>1409</v>
       </c>
       <c r="H223" t="s">
-        <v>4436</v>
+        <v>4428</v>
       </c>
       <c r="L223" t="s">
         <v>71</v>
@@ -20026,13 +20026,13 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>4444</v>
+        <v>4436</v>
       </c>
       <c r="B231" t="s">
         <v>22</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D231" t="s">
         <v>215</v>
@@ -20145,7 +20145,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>4346</v>
+        <v>4338</v>
       </c>
       <c r="D235" t="s">
         <v>2689</v>
@@ -20163,7 +20163,7 @@
         <v>3996</v>
       </c>
       <c r="M235" t="s">
-        <v>4347</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
@@ -20514,7 +20514,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>4284</v>
+        <v>4278</v>
       </c>
       <c r="D249" t="s">
         <v>2591</v>
@@ -20529,7 +20529,7 @@
         <v>3996</v>
       </c>
       <c r="M249" t="s">
-        <v>4285</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
@@ -21786,7 +21786,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>4344</v>
+        <v>4336</v>
       </c>
       <c r="E302" t="s">
         <v>2696</v>
@@ -21795,7 +21795,7 @@
         <v>3996</v>
       </c>
       <c r="M302" t="s">
-        <v>4345</v>
+        <v>4337</v>
       </c>
       <c r="N302" t="s">
         <v>2697</v>
@@ -21803,7 +21803,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>4342</v>
+        <v>4334</v>
       </c>
       <c r="E303" t="s">
         <v>2701</v>
@@ -21812,7 +21812,7 @@
         <v>3996</v>
       </c>
       <c r="M303" t="s">
-        <v>4343</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
@@ -21872,7 +21872,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>4208</v>
+        <v>4202</v>
       </c>
       <c r="D306" t="s">
         <v>2006</v>
@@ -21881,7 +21881,7 @@
         <v>3996</v>
       </c>
       <c r="M306" t="s">
-        <v>4209</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
@@ -21912,10 +21912,10 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>4412</v>
+        <v>4404</v>
       </c>
       <c r="D308" t="s">
-        <v>4413</v>
+        <v>4405</v>
       </c>
       <c r="E308" t="s">
         <v>1864</v>
@@ -21924,12 +21924,12 @@
         <v>3996</v>
       </c>
       <c r="M308" t="s">
-        <v>4414</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>4189</v>
+        <v>4183</v>
       </c>
       <c r="C309" t="s">
         <v>1860</v>
@@ -21947,7 +21947,7 @@
         <v>3996</v>
       </c>
       <c r="M309" t="s">
-        <v>4192</v>
+        <v>4186</v>
       </c>
       <c r="N309" t="s">
         <v>1862</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>4193</v>
+        <v>4187</v>
       </c>
       <c r="D310" t="s">
         <v>1863</v>
@@ -21967,7 +21967,7 @@
         <v>3996</v>
       </c>
       <c r="M310" t="s">
-        <v>4194</v>
+        <v>4188</v>
       </c>
       <c r="O310" t="s">
         <v>1865</v>
@@ -21975,7 +21975,7 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>4191</v>
+        <v>4185</v>
       </c>
       <c r="E311" t="s">
         <v>1858</v>
@@ -21990,7 +21990,7 @@
         <v>3996</v>
       </c>
       <c r="M311" t="s">
-        <v>4190</v>
+        <v>4184</v>
       </c>
       <c r="N311" t="s">
         <v>1859</v>
@@ -21998,21 +21998,21 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>4428</v>
+        <v>4420</v>
       </c>
       <c r="D312" t="s">
-        <v>4425</v>
+        <v>4417</v>
       </c>
       <c r="L312" t="s">
         <v>3996</v>
       </c>
       <c r="M312" t="s">
-        <v>4429</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>4187</v>
+        <v>4181</v>
       </c>
       <c r="D313" t="s">
         <v>1856</v>
@@ -22024,7 +22024,7 @@
         <v>3996</v>
       </c>
       <c r="M313" t="s">
-        <v>4188</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
@@ -22231,13 +22231,13 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>4445</v>
+        <v>4437</v>
       </c>
       <c r="B322" t="s">
         <v>22</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D322" t="s">
         <v>1075</v>
@@ -22600,13 +22600,13 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>4446</v>
+        <v>4438</v>
       </c>
       <c r="B337" t="s">
         <v>22</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D337" t="s">
         <v>690</v>
@@ -22629,7 +22629,7 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
       <c r="B338" t="s">
         <v>22</v>
@@ -22650,12 +22650,12 @@
         <v>1283</v>
       </c>
       <c r="O338" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="D339" t="s">
         <v>1365</v>
@@ -22667,7 +22667,7 @@
         <v>3996</v>
       </c>
       <c r="M339" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -22701,7 +22701,7 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="D341" t="s">
         <v>1367</v>
@@ -22710,7 +22710,7 @@
         <v>3996</v>
       </c>
       <c r="M341" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="N341" t="s">
         <v>1368</v>
@@ -22773,7 +22773,7 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="E344" t="s">
         <v>1225</v>
@@ -22782,7 +22782,7 @@
         <v>3996</v>
       </c>
       <c r="M344" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="N344" t="s">
         <v>1226</v>
@@ -22790,7 +22790,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="C345" t="s">
         <v>1199</v>
@@ -22802,7 +22802,7 @@
         <v>3996</v>
       </c>
       <c r="M345" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
@@ -22887,7 +22887,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="C350" t="s">
         <v>1233</v>
@@ -22899,7 +22899,7 @@
         <v>3996</v>
       </c>
       <c r="M350" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="N350" t="s">
         <v>1235</v>
@@ -22907,7 +22907,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="B351" t="s">
         <v>169</v>
@@ -22922,7 +22922,7 @@
         <v>3996</v>
       </c>
       <c r="M351" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
@@ -22958,7 +22958,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="D354" t="s">
         <v>1243</v>
@@ -22976,7 +22976,7 @@
         <v>3996</v>
       </c>
       <c r="M354" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="O354" t="s">
         <v>1247</v>
@@ -22984,7 +22984,7 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="E355" t="s">
         <v>1248</v>
@@ -22993,7 +22993,7 @@
         <v>3996</v>
       </c>
       <c r="M355" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="N355" t="s">
         <v>1249</v>
@@ -23001,7 +23001,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="C356" t="s">
         <v>3026</v>
@@ -23019,12 +23019,12 @@
         <v>3996</v>
       </c>
       <c r="M356" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>4378</v>
+        <v>4370</v>
       </c>
       <c r="D357" t="s">
         <v>2765</v>
@@ -23039,7 +23039,7 @@
         <v>3996</v>
       </c>
       <c r="M357" t="s">
-        <v>4379</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
@@ -23084,7 +23084,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="D360" t="s">
         <v>1201</v>
@@ -23102,7 +23102,7 @@
         <v>3996</v>
       </c>
       <c r="M360" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
@@ -23202,7 +23202,7 @@
         <v>169</v>
       </c>
       <c r="C365" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="E365" t="s">
         <v>3024</v>
@@ -23230,7 +23230,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B367" t="s">
         <v>22</v>
@@ -23254,7 +23254,7 @@
         <v>1335</v>
       </c>
       <c r="O367" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
@@ -23280,7 +23280,7 @@
         <v>1257</v>
       </c>
       <c r="O368" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
@@ -23548,7 +23548,7 @@
         <v>3092</v>
       </c>
       <c r="E379" t="s">
-        <v>4411</v>
+        <v>4403</v>
       </c>
       <c r="F379" t="s">
         <v>3091</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="D381" t="s">
         <v>1300</v>
@@ -23600,7 +23600,7 @@
         <v>3996</v>
       </c>
       <c r="M381" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -23749,7 +23749,7 @@
         <v>1327</v>
       </c>
       <c r="O387" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
@@ -23934,7 +23934,7 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="C395" t="s">
         <v>3026</v>
@@ -23946,12 +23946,12 @@
         <v>3996</v>
       </c>
       <c r="M395" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="C396" t="s">
         <v>3026</v>
@@ -23963,7 +23963,7 @@
         <v>3996</v>
       </c>
       <c r="M396" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
@@ -24081,7 +24081,7 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>4179</v>
+        <v>4173</v>
       </c>
       <c r="B401" t="s">
         <v>22</v>
@@ -24102,7 +24102,7 @@
         <v>3996</v>
       </c>
       <c r="M401" t="s">
-        <v>4180</v>
+        <v>4174</v>
       </c>
       <c r="N401" t="s">
         <v>1763</v>
@@ -24130,7 +24130,7 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>4174</v>
+        <v>4168</v>
       </c>
       <c r="D403" t="s">
         <v>1757</v>
@@ -24142,7 +24142,7 @@
         <v>3996</v>
       </c>
       <c r="M403" t="s">
-        <v>4176</v>
+        <v>4170</v>
       </c>
       <c r="N403" t="s">
         <v>1758</v>
@@ -24150,7 +24150,7 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>4177</v>
+        <v>4171</v>
       </c>
       <c r="D404" t="s">
         <v>1759</v>
@@ -24159,7 +24159,7 @@
         <v>3996</v>
       </c>
       <c r="M404" t="s">
-        <v>4178</v>
+        <v>4172</v>
       </c>
       <c r="N404" t="s">
         <v>1760</v>
@@ -24196,7 +24196,7 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="B406" t="s">
         <v>22</v>
@@ -24217,7 +24217,7 @@
         <v>1358</v>
       </c>
       <c r="O406" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
@@ -24289,7 +24289,7 @@
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="D409" t="s">
         <v>2761</v>
@@ -24304,7 +24304,7 @@
         <v>3996</v>
       </c>
       <c r="M409" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
@@ -24369,7 +24369,7 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="B413" t="s">
         <v>169</v>
@@ -24384,12 +24384,12 @@
         <v>3996</v>
       </c>
       <c r="M413" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="F414" t="s">
         <v>1399</v>
@@ -24401,7 +24401,7 @@
         <v>3996</v>
       </c>
       <c r="M414" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
@@ -24412,7 +24412,7 @@
         <v>14</v>
       </c>
       <c r="C415" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="D415" t="s">
         <v>1402</v>
@@ -24450,7 +24450,7 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="C416" t="s">
         <v>1410</v>
@@ -24462,7 +24462,7 @@
         <v>3996</v>
       </c>
       <c r="M416" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
@@ -24484,7 +24484,7 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>4142</v>
+        <v>4136</v>
       </c>
       <c r="E418" t="s">
         <v>1459</v>
@@ -24496,12 +24496,12 @@
         <v>3996</v>
       </c>
       <c r="M418" t="s">
-        <v>4143</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="C419" t="s">
         <v>3026</v>
@@ -24513,12 +24513,12 @@
         <v>3996</v>
       </c>
       <c r="M419" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="D420" t="s">
         <v>1424</v>
@@ -24533,12 +24533,12 @@
         <v>3996</v>
       </c>
       <c r="M420" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="D421" t="s">
         <v>1435</v>
@@ -24547,13 +24547,13 @@
         <v>1436</v>
       </c>
       <c r="F421" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="L421" t="s">
         <v>3996</v>
       </c>
       <c r="M421" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
@@ -24564,19 +24564,19 @@
         <v>169</v>
       </c>
       <c r="C422" t="s">
-        <v>4439</v>
+        <v>4431</v>
       </c>
       <c r="D422" t="s">
-        <v>4440</v>
+        <v>4432</v>
       </c>
       <c r="E422" t="s">
-        <v>4441</v>
+        <v>4433</v>
       </c>
       <c r="F422" t="s">
         <v>1405</v>
       </c>
       <c r="G422" t="s">
-        <v>4415</v>
+        <v>4407</v>
       </c>
       <c r="H422" t="s">
         <v>1406</v>
@@ -24604,7 +24604,7 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="D424" t="s">
         <v>1453</v>
@@ -24622,7 +24622,7 @@
         <v>3996</v>
       </c>
       <c r="M424" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="N424" t="s">
         <v>1456</v>
@@ -24644,7 +24644,7 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>4388</v>
+        <v>4380</v>
       </c>
       <c r="D426" t="s">
         <v>1457</v>
@@ -24656,12 +24656,12 @@
         <v>3996</v>
       </c>
       <c r="M426" t="s">
-        <v>4389</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="F427" t="s">
         <v>1432</v>
@@ -24670,7 +24670,7 @@
         <v>3996</v>
       </c>
       <c r="M427" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="N427" t="s">
         <v>1433</v>
@@ -24678,7 +24678,7 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>4156</v>
+        <v>4150</v>
       </c>
       <c r="B428" t="s">
         <v>22</v>
@@ -24699,7 +24699,7 @@
         <v>1563</v>
       </c>
       <c r="O428" t="s">
-        <v>4155</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
@@ -24767,7 +24767,7 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="D432" t="s">
         <v>1439</v>
@@ -24785,7 +24785,7 @@
         <v>3996</v>
       </c>
       <c r="M432" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
@@ -24799,7 +24799,7 @@
         <v>1415</v>
       </c>
       <c r="E433" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="F433" t="s">
         <v>1416</v>
@@ -24839,7 +24839,7 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="F435" t="s">
         <v>1437</v>
@@ -24848,7 +24848,7 @@
         <v>3996</v>
       </c>
       <c r="M435" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="N435" t="s">
         <v>1438</v>
@@ -24874,7 +24874,7 @@
         <v>2948</v>
       </c>
       <c r="N436" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
@@ -24893,7 +24893,7 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>4145</v>
+        <v>4139</v>
       </c>
       <c r="B438" t="s">
         <v>22</v>
@@ -24914,7 +24914,7 @@
         <v>1462</v>
       </c>
       <c r="O438" t="s">
-        <v>4144</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
@@ -24980,7 +24980,7 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>4238</v>
+        <v>4232</v>
       </c>
       <c r="D441" t="s">
         <v>2250</v>
@@ -24995,12 +24995,12 @@
         <v>3996</v>
       </c>
       <c r="M441" t="s">
-        <v>4239</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>4152</v>
+        <v>4146</v>
       </c>
       <c r="B442" t="s">
         <v>22</v>
@@ -25021,7 +25021,7 @@
         <v>1520</v>
       </c>
       <c r="O442" t="s">
-        <v>4151</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
@@ -25232,18 +25232,18 @@
         <v>1507</v>
       </c>
       <c r="O450" t="s">
-        <v>4148</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>4448</v>
+        <v>4440</v>
       </c>
       <c r="B451" t="s">
         <v>22</v>
       </c>
       <c r="C451" t="s">
-        <v>4447</v>
+        <v>4439</v>
       </c>
       <c r="D451" t="s">
         <v>437</v>
@@ -25292,7 +25292,7 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>4149</v>
+        <v>4143</v>
       </c>
       <c r="E453" t="s">
         <v>1516</v>
@@ -25301,12 +25301,12 @@
         <v>3996</v>
       </c>
       <c r="M453" t="s">
-        <v>4150</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>4146</v>
+        <v>4140</v>
       </c>
       <c r="D454" t="s">
         <v>1498</v>
@@ -25315,7 +25315,7 @@
         <v>3996</v>
       </c>
       <c r="M454" t="s">
-        <v>4147</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.2">
@@ -25332,7 +25332,7 @@
         <v>1523</v>
       </c>
       <c r="F455" t="s">
-        <v>4437</v>
+        <v>4429</v>
       </c>
       <c r="G455" t="s">
         <v>1524</v>
@@ -25381,7 +25381,7 @@
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>4219</v>
+        <v>4213</v>
       </c>
       <c r="D457" t="s">
         <v>2704</v>
@@ -25390,7 +25390,7 @@
         <v>3996</v>
       </c>
       <c r="M457" t="s">
-        <v>4220</v>
+        <v>4214</v>
       </c>
       <c r="N457" t="s">
         <v>2705</v>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>4286</v>
+        <v>4280</v>
       </c>
       <c r="D459" t="s">
         <v>2595</v>
@@ -25445,7 +25445,7 @@
         <v>3996</v>
       </c>
       <c r="M459" t="s">
-        <v>4287</v>
+        <v>4281</v>
       </c>
       <c r="N459" t="s">
         <v>2596</v>
@@ -25537,7 +25537,7 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>4153</v>
+        <v>4147</v>
       </c>
       <c r="C463" t="s">
         <v>1538</v>
@@ -25549,7 +25549,7 @@
         <v>3996</v>
       </c>
       <c r="M463" t="s">
-        <v>4154</v>
+        <v>4148</v>
       </c>
       <c r="N463" t="s">
         <v>1540</v>
@@ -25623,7 +25623,7 @@
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>4261</v>
+        <v>4255</v>
       </c>
       <c r="C467" t="s">
         <v>422</v>
@@ -25635,7 +25635,7 @@
         <v>3996</v>
       </c>
       <c r="M467" t="s">
-        <v>4262</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
@@ -25827,7 +25827,7 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>4158</v>
+        <v>4152</v>
       </c>
       <c r="D476" t="s">
         <v>1572</v>
@@ -25836,12 +25836,12 @@
         <v>3996</v>
       </c>
       <c r="M476" t="s">
-        <v>4159</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>4157</v>
+        <v>4151</v>
       </c>
       <c r="D477" t="s">
         <v>1573</v>
@@ -25850,7 +25850,7 @@
         <v>3996</v>
       </c>
       <c r="M477" t="s">
-        <v>4160</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
@@ -26118,7 +26118,7 @@
         <v>1611</v>
       </c>
       <c r="O488" t="s">
-        <v>4161</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.2">
@@ -26262,7 +26262,7 @@
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>4372</v>
+        <v>4364</v>
       </c>
       <c r="B494" t="s">
         <v>14</v>
@@ -26280,18 +26280,18 @@
         <v>715</v>
       </c>
       <c r="M494" s="4" t="s">
-        <v>4373</v>
+        <v>4365</v>
       </c>
       <c r="N494" t="s">
-        <v>4375</v>
+        <v>4367</v>
       </c>
       <c r="O494" t="s">
-        <v>4374</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>4376</v>
+        <v>4368</v>
       </c>
       <c r="D495" t="s">
         <v>591</v>
@@ -26306,7 +26306,7 @@
         <v>3996</v>
       </c>
       <c r="M495" t="s">
-        <v>4377</v>
+        <v>4369</v>
       </c>
       <c r="N495" t="s">
         <v>592</v>
@@ -26338,7 +26338,7 @@
         <v>1644</v>
       </c>
       <c r="O496" t="s">
-        <v>4164</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
@@ -26427,13 +26427,13 @@
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>4449</v>
+        <v>4441</v>
       </c>
       <c r="B500" t="s">
         <v>22</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D500" t="s">
         <v>1658</v>
@@ -26451,7 +26451,7 @@
         <v>1660</v>
       </c>
       <c r="O500" t="s">
-        <v>4165</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
@@ -26480,7 +26480,7 @@
         <v>1663</v>
       </c>
       <c r="O501" t="s">
-        <v>4166</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
@@ -26566,13 +26566,13 @@
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>4450</v>
+        <v>4442</v>
       </c>
       <c r="B505" t="s">
         <v>22</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D505" t="s">
         <v>143</v>
@@ -26590,7 +26590,7 @@
         <v>1727</v>
       </c>
       <c r="O505" t="s">
-        <v>4170</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
@@ -26612,7 +26612,7 @@
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>4168</v>
+        <v>4162</v>
       </c>
       <c r="B507" t="s">
         <v>22</v>
@@ -26633,7 +26633,7 @@
         <v>1855</v>
       </c>
       <c r="O507" t="s">
-        <v>4167</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
@@ -26662,12 +26662,12 @@
         <v>1681</v>
       </c>
       <c r="O508" t="s">
-        <v>4169</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>4185</v>
+        <v>4179</v>
       </c>
       <c r="B509" t="s">
         <v>22</v>
@@ -26688,7 +26688,7 @@
         <v>1831</v>
       </c>
       <c r="O509" t="s">
-        <v>4184</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
@@ -26723,18 +26723,18 @@
         <v>71</v>
       </c>
       <c r="M510" t="s">
-        <v>4390</v>
+        <v>4382</v>
       </c>
       <c r="N510" t="s">
-        <v>4391</v>
+        <v>4383</v>
       </c>
       <c r="O510" t="s">
-        <v>4392</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>4171</v>
+        <v>4165</v>
       </c>
       <c r="C511" t="s">
         <v>1718</v>
@@ -26746,12 +26746,12 @@
         <v>3996</v>
       </c>
       <c r="M511" t="s">
-        <v>4172</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>4393</v>
+        <v>4385</v>
       </c>
       <c r="D512" t="s">
         <v>1715</v>
@@ -26766,7 +26766,7 @@
         <v>3996</v>
       </c>
       <c r="M512" t="s">
-        <v>4395</v>
+        <v>4387</v>
       </c>
       <c r="N512" t="s">
         <v>1716</v>
@@ -26774,7 +26774,7 @@
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>4394</v>
+        <v>4386</v>
       </c>
       <c r="D513" t="s">
         <v>1717</v>
@@ -26783,7 +26783,7 @@
         <v>3996</v>
       </c>
       <c r="M513" t="s">
-        <v>4396</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.2">
@@ -27299,7 +27299,7 @@
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>4173</v>
+        <v>4167</v>
       </c>
       <c r="D534" t="s">
         <v>1755</v>
@@ -27308,7 +27308,7 @@
         <v>3996</v>
       </c>
       <c r="M534" t="s">
-        <v>4175</v>
+        <v>4169</v>
       </c>
       <c r="N534" t="s">
         <v>1756</v>
@@ -27500,7 +27500,7 @@
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>4181</v>
+        <v>4175</v>
       </c>
       <c r="D543" t="s">
         <v>1792</v>
@@ -27509,7 +27509,7 @@
         <v>3996</v>
       </c>
       <c r="M543" t="s">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="N543" t="s">
         <v>1793</v>
@@ -27538,7 +27538,7 @@
         <v>1798</v>
       </c>
       <c r="O544" t="s">
-        <v>4183</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.2">
@@ -27667,13 +27667,13 @@
     </row>
     <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>4451</v>
+        <v>4443</v>
       </c>
       <c r="B550" t="s">
         <v>22</v>
       </c>
       <c r="C550" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D550" t="s">
         <v>106</v>
@@ -27688,7 +27688,7 @@
         <v>1832</v>
       </c>
       <c r="O550" t="s">
-        <v>4186</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.2">
@@ -27768,7 +27768,7 @@
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>4221</v>
+        <v>4215</v>
       </c>
       <c r="C554" t="s">
         <v>440</v>
@@ -27786,12 +27786,12 @@
         <v>3996</v>
       </c>
       <c r="M554" t="s">
-        <v>4223</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>4222</v>
+        <v>4216</v>
       </c>
       <c r="C555" t="s">
         <v>443</v>
@@ -27809,7 +27809,7 @@
         <v>3996</v>
       </c>
       <c r="M555" t="s">
-        <v>4224</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.2">
@@ -27901,7 +27901,7 @@
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="11" t="s">
-        <v>4383</v>
+        <v>4375</v>
       </c>
       <c r="B559" s="11" t="s">
         <v>14</v>
@@ -27927,22 +27927,22 @@
         <v>715</v>
       </c>
       <c r="M559" s="11" t="s">
-        <v>4384</v>
+        <v>4376</v>
       </c>
       <c r="N559" t="s">
-        <v>4385</v>
+        <v>4377</v>
       </c>
       <c r="O559" s="11"/>
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>4452</v>
+        <v>4444</v>
       </c>
       <c r="B560" t="s">
         <v>22</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D560" t="s">
         <v>1815</v>
@@ -27960,7 +27960,7 @@
         <v>2776</v>
       </c>
       <c r="O560" t="s">
-        <v>4371</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
@@ -28107,7 +28107,7 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>4453</v>
+        <v>4445</v>
       </c>
       <c r="B566" t="s">
         <v>22</v>
@@ -28131,7 +28131,7 @@
         <v>1873</v>
       </c>
       <c r="O566" t="s">
-        <v>4195</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
@@ -28316,7 +28316,7 @@
         <v>3996</v>
       </c>
       <c r="M573" t="s">
-        <v>4196</v>
+        <v>4190</v>
       </c>
       <c r="N573" t="s">
         <v>1905</v>
@@ -28493,7 +28493,7 @@
         <v>2030</v>
       </c>
       <c r="O579" t="s">
-        <v>4199</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="580" spans="1:15" x14ac:dyDescent="0.2">
@@ -28550,7 +28550,7 @@
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>4197</v>
+        <v>4191</v>
       </c>
       <c r="F582" t="s">
         <v>1932</v>
@@ -28559,7 +28559,7 @@
         <v>3996</v>
       </c>
       <c r="M582" t="s">
-        <v>4198</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="583" spans="1:15" x14ac:dyDescent="0.2">
@@ -28656,7 +28656,7 @@
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>4200</v>
+        <v>4194</v>
       </c>
       <c r="D587" t="s">
         <v>1949</v>
@@ -28665,7 +28665,7 @@
         <v>3996</v>
       </c>
       <c r="M587" t="s">
-        <v>4201</v>
+        <v>4195</v>
       </c>
       <c r="N587" t="s">
         <v>1950</v>
@@ -29023,7 +29023,7 @@
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>4210</v>
+        <v>4204</v>
       </c>
       <c r="D601" t="s">
         <v>1975</v>
@@ -29032,7 +29032,7 @@
         <v>3996</v>
       </c>
       <c r="M601" t="s">
-        <v>4211</v>
+        <v>4205</v>
       </c>
       <c r="N601" t="s">
         <v>1976</v>
@@ -29101,7 +29101,7 @@
     </row>
     <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>4212</v>
+        <v>4206</v>
       </c>
       <c r="C604" t="s">
         <v>440</v>
@@ -29119,7 +29119,7 @@
         <v>3996</v>
       </c>
       <c r="M604" t="s">
-        <v>4213</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="605" spans="1:15" x14ac:dyDescent="0.2">
@@ -29240,7 +29240,7 @@
         <v>2857</v>
       </c>
       <c r="O609" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="610" spans="1:15" x14ac:dyDescent="0.2">
@@ -29329,7 +29329,7 @@
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
       <c r="D613" t="s">
         <v>2058</v>
@@ -29341,7 +29341,7 @@
         <v>3996</v>
       </c>
       <c r="M613" t="s">
-        <v>4216</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.2">
@@ -29537,7 +29537,7 @@
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>4206</v>
+        <v>4200</v>
       </c>
       <c r="D621" t="s">
         <v>1998</v>
@@ -29549,7 +29549,7 @@
         <v>3996</v>
       </c>
       <c r="M621" t="s">
-        <v>4207</v>
+        <v>4201</v>
       </c>
       <c r="N621" t="s">
         <v>1999</v>
@@ -29557,7 +29557,7 @@
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>4202</v>
+        <v>4196</v>
       </c>
       <c r="D622" t="s">
         <v>3065</v>
@@ -29569,7 +29569,7 @@
         <v>3996</v>
       </c>
       <c r="M622" t="s">
-        <v>4203</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.2">
@@ -29597,7 +29597,7 @@
     </row>
     <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>4386</v>
+        <v>4378</v>
       </c>
       <c r="D624" t="s">
         <v>1954</v>
@@ -29609,7 +29609,7 @@
         <v>3996</v>
       </c>
       <c r="M624" t="s">
-        <v>4387</v>
+        <v>4379</v>
       </c>
       <c r="N624" t="s">
         <v>1955</v>
@@ -29617,7 +29617,7 @@
     </row>
     <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>4204</v>
+        <v>4198</v>
       </c>
       <c r="D625" t="s">
         <v>1952</v>
@@ -29626,7 +29626,7 @@
         <v>3996</v>
       </c>
       <c r="M625" t="s">
-        <v>4205</v>
+        <v>4199</v>
       </c>
       <c r="N625" t="s">
         <v>1953</v>
@@ -29657,7 +29657,7 @@
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>4234</v>
+        <v>4228</v>
       </c>
       <c r="B627" t="s">
         <v>169</v>
@@ -29677,13 +29677,13 @@
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>4235</v>
+        <v>4229</v>
       </c>
       <c r="B628" t="s">
         <v>169</v>
       </c>
       <c r="C628" t="s">
-        <v>4237</v>
+        <v>4231</v>
       </c>
       <c r="H628" t="s">
         <v>3078</v>
@@ -29692,7 +29692,7 @@
         <v>3996</v>
       </c>
       <c r="M628" t="s">
-        <v>4236</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.2">
@@ -29790,7 +29790,7 @@
         <v>14</v>
       </c>
       <c r="D632" t="s">
-        <v>4404</v>
+        <v>4396</v>
       </c>
       <c r="L632" t="s">
         <v>292</v>
@@ -29839,7 +29839,7 @@
     </row>
     <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
       <c r="D634" t="s">
         <v>2170</v>
@@ -29854,12 +29854,12 @@
         <v>3996</v>
       </c>
       <c r="M634" t="s">
-        <v>4226</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>4228</v>
+        <v>4222</v>
       </c>
       <c r="D635" t="s">
         <v>2171</v>
@@ -29874,18 +29874,18 @@
         <v>3996</v>
       </c>
       <c r="M635" t="s">
-        <v>4227</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>4229</v>
+        <v>4223</v>
       </c>
       <c r="B636" t="s">
         <v>169</v>
       </c>
       <c r="C636" t="s">
-        <v>4231</v>
+        <v>4225</v>
       </c>
       <c r="H636" t="s">
         <v>2169</v>
@@ -29894,7 +29894,7 @@
         <v>3996</v>
       </c>
       <c r="M636" t="s">
-        <v>4230</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="637" spans="1:15" x14ac:dyDescent="0.2">
@@ -29954,7 +29954,7 @@
     </row>
     <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="C639" t="s">
         <v>3026</v>
@@ -29966,7 +29966,7 @@
         <v>3996</v>
       </c>
       <c r="M639" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.2">
@@ -30051,7 +30051,7 @@
     </row>
     <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>4072</v>
+        <v>4471</v>
       </c>
       <c r="D644" t="s">
         <v>1180</v>
@@ -30066,7 +30066,7 @@
         <v>3996</v>
       </c>
       <c r="M644" t="s">
-        <v>4073</v>
+        <v>4472</v>
       </c>
       <c r="N644" t="s">
         <v>1181</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>4313</v>
+        <v>4307</v>
       </c>
       <c r="C648" t="s">
         <v>3026</v>
@@ -30170,12 +30170,12 @@
         <v>3996</v>
       </c>
       <c r="M648" t="s">
-        <v>4314</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>4317</v>
+        <v>4311</v>
       </c>
       <c r="C649" t="s">
         <v>440</v>
@@ -30193,12 +30193,12 @@
         <v>3996</v>
       </c>
       <c r="M649" t="s">
-        <v>4318</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>4305</v>
+        <v>4299</v>
       </c>
       <c r="C650" t="s">
         <v>3026</v>
@@ -30210,12 +30210,12 @@
         <v>3996</v>
       </c>
       <c r="M650" t="s">
-        <v>4306</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>4315</v>
+        <v>4309</v>
       </c>
       <c r="D651" t="s">
         <v>765</v>
@@ -30227,7 +30227,7 @@
         <v>3996</v>
       </c>
       <c r="M651" t="s">
-        <v>4316</v>
+        <v>4310</v>
       </c>
       <c r="N651" t="s">
         <v>766</v>
@@ -30388,7 +30388,7 @@
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>4232</v>
+        <v>4226</v>
       </c>
       <c r="D658" t="s">
         <v>2192</v>
@@ -30397,7 +30397,7 @@
         <v>3996</v>
       </c>
       <c r="M658" t="s">
-        <v>4233</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.2">
@@ -30946,10 +30946,10 @@
         <v>89</v>
       </c>
       <c r="M679" s="4" t="s">
-        <v>4240</v>
+        <v>4234</v>
       </c>
       <c r="O679" t="s">
-        <v>4241</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.2">
@@ -30978,12 +30978,12 @@
         <v>2306</v>
       </c>
       <c r="O680" t="s">
-        <v>4242</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
       <c r="B681" t="s">
         <v>22</v>
@@ -31007,7 +31007,7 @@
         <v>2109</v>
       </c>
       <c r="O681" t="s">
-        <v>4217</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.2">
@@ -31162,7 +31162,7 @@
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>4265</v>
+        <v>4259</v>
       </c>
       <c r="B688" t="s">
         <v>22</v>
@@ -31183,18 +31183,18 @@
         <v>2476</v>
       </c>
       <c r="O688" t="s">
-        <v>4264</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>4454</v>
+        <v>4446</v>
       </c>
       <c r="B689" t="s">
         <v>22</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D689" t="s">
         <v>297</v>
@@ -31206,10 +31206,10 @@
         <v>297</v>
       </c>
       <c r="M689" t="s">
-        <v>4267</v>
+        <v>4261</v>
       </c>
       <c r="O689" t="s">
-        <v>4266</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.2">
@@ -31370,13 +31370,13 @@
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>4455</v>
+        <v>4447</v>
       </c>
       <c r="B696" t="s">
         <v>22</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>4443</v>
+        <v>4435</v>
       </c>
       <c r="D696" t="s">
         <v>80</v>
@@ -31394,7 +31394,7 @@
         <v>2339</v>
       </c>
       <c r="O696" t="s">
-        <v>4243</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>4244</v>
+        <v>4238</v>
       </c>
       <c r="B698" t="s">
         <v>22</v>
@@ -31583,16 +31583,16 @@
         <v>14</v>
       </c>
       <c r="D705" t="s">
-        <v>4473</v>
+        <v>4465</v>
       </c>
       <c r="E705" t="s">
-        <v>4472</v>
+        <v>4464</v>
       </c>
       <c r="L705" t="s">
         <v>106</v>
       </c>
       <c r="M705" t="s">
-        <v>4474</v>
+        <v>4466</v>
       </c>
       <c r="O705" t="s">
         <v>3442</v>
@@ -31678,877 +31678,871 @@
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>4138</v>
+        <v>3690</v>
+      </c>
+      <c r="B709" t="s">
+        <v>14</v>
       </c>
       <c r="D709" t="s">
-        <v>1470</v>
+        <v>2124</v>
+      </c>
+      <c r="E709" t="s">
+        <v>2124</v>
       </c>
       <c r="I709" t="s">
-        <v>65</v>
+        <v>312</v>
       </c>
       <c r="K709">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="L709" t="s">
-        <v>3996</v>
+        <v>106</v>
       </c>
       <c r="M709" t="s">
-        <v>4139</v>
-      </c>
-      <c r="N709" t="s">
-        <v>1471</v>
+        <v>3691</v>
+      </c>
+      <c r="O709" t="s">
+        <v>3692</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>4141</v>
-      </c>
-      <c r="D710" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I710" t="s">
-        <v>65</v>
-      </c>
-      <c r="K710">
-        <v>5</v>
+        <v>2379</v>
+      </c>
+      <c r="B710" t="s">
+        <v>14</v>
+      </c>
+      <c r="E710" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F710" t="s">
+        <v>2381</v>
       </c>
       <c r="L710" t="s">
-        <v>3996</v>
+        <v>136</v>
       </c>
       <c r="M710" t="s">
-        <v>4140</v>
+        <v>2382</v>
       </c>
       <c r="N710" t="s">
-        <v>1473</v>
+        <v>2383</v>
+      </c>
+      <c r="O710" t="s">
+        <v>3544</v>
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>3690</v>
+        <v>3441</v>
       </c>
       <c r="B711" t="s">
         <v>14</v>
       </c>
       <c r="D711" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E711" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I711" t="s">
-        <v>312</v>
-      </c>
-      <c r="K711">
-        <v>70</v>
+        <v>2365</v>
+      </c>
+      <c r="F711" t="s">
+        <v>2366</v>
       </c>
       <c r="L711" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="M711" t="s">
-        <v>3691</v>
+        <v>2367</v>
+      </c>
+      <c r="N711" t="s">
+        <v>2368</v>
       </c>
       <c r="O711" t="s">
-        <v>3692</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>2379</v>
+        <v>646</v>
       </c>
       <c r="B712" t="s">
         <v>14</v>
       </c>
-      <c r="E712" t="s">
-        <v>2380</v>
+      <c r="D712" t="s">
+        <v>2375</v>
       </c>
       <c r="F712" t="s">
-        <v>2381</v>
+        <v>2376</v>
+      </c>
+      <c r="I712" t="s">
+        <v>112</v>
       </c>
       <c r="L712" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="M712" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="N712" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="O712" t="s">
-        <v>3544</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="713" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>3441</v>
+        <v>3817</v>
       </c>
       <c r="B713" t="s">
         <v>14</v>
       </c>
       <c r="D713" t="s">
-        <v>2365</v>
-      </c>
-      <c r="F713" t="s">
-        <v>2366</v>
+        <v>1319</v>
+      </c>
+      <c r="F713">
+        <v>1000000</v>
+      </c>
+      <c r="I713" t="s">
+        <v>222</v>
+      </c>
+      <c r="K713">
+        <v>25</v>
       </c>
       <c r="L713" t="s">
-        <v>292</v>
+        <v>715</v>
       </c>
       <c r="M713" t="s">
-        <v>2367</v>
+        <v>3814</v>
       </c>
       <c r="N713" t="s">
-        <v>2368</v>
+        <v>3815</v>
       </c>
       <c r="O713" t="s">
-        <v>3440</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="714" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>646</v>
+        <v>2384</v>
       </c>
       <c r="B714" t="s">
-        <v>14</v>
-      </c>
-      <c r="D714" t="s">
-        <v>2375</v>
-      </c>
-      <c r="F714" t="s">
-        <v>2376</v>
-      </c>
-      <c r="I714" t="s">
-        <v>112</v>
+        <v>169</v>
+      </c>
+      <c r="C714" t="s">
+        <v>266</v>
+      </c>
+      <c r="G714" t="s">
+        <v>2385</v>
       </c>
       <c r="L714" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M714" t="s">
-        <v>2377</v>
-      </c>
-      <c r="N714" t="s">
-        <v>2378</v>
-      </c>
-      <c r="O714" t="s">
-        <v>3445</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>3817</v>
+        <v>3573</v>
       </c>
       <c r="B715" t="s">
         <v>14</v>
       </c>
-      <c r="D715" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F715">
-        <v>1000000</v>
-      </c>
-      <c r="I715" t="s">
-        <v>222</v>
-      </c>
-      <c r="K715">
-        <v>25</v>
+      <c r="E715" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G715" t="s">
+        <v>2385</v>
       </c>
       <c r="L715" t="s">
         <v>715</v>
       </c>
       <c r="M715" t="s">
-        <v>3814</v>
+        <v>2388</v>
       </c>
       <c r="N715" t="s">
-        <v>3815</v>
+        <v>2389</v>
       </c>
       <c r="O715" t="s">
-        <v>3816</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>2384</v>
+        <v>4110</v>
       </c>
       <c r="B716" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C716" t="s">
-        <v>266</v>
-      </c>
-      <c r="G716" t="s">
-        <v>2385</v>
+        <v>23</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I716" t="s">
+        <v>25</v>
       </c>
       <c r="L716" t="s">
-        <v>3996</v>
+        <v>1373</v>
       </c>
       <c r="M716" t="s">
-        <v>2386</v>
+        <v>1374</v>
+      </c>
+      <c r="N716" t="s">
+        <v>1375</v>
+      </c>
+      <c r="O716" t="s">
+        <v>4109</v>
       </c>
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>3573</v>
+        <v>2390</v>
       </c>
       <c r="B717" t="s">
         <v>14</v>
       </c>
+      <c r="D717" t="s">
+        <v>2391</v>
+      </c>
       <c r="E717" t="s">
-        <v>2387</v>
-      </c>
-      <c r="G717" t="s">
-        <v>2385</v>
+        <v>2392</v>
       </c>
       <c r="L717" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M717" t="s">
-        <v>2388</v>
-      </c>
-      <c r="N717" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="O717" t="s">
-        <v>3572</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>4112</v>
+        <v>2394</v>
       </c>
       <c r="B718" t="s">
-        <v>22</v>
-      </c>
-      <c r="C718" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D718" t="s">
-        <v>1372</v>
+        <v>2395</v>
       </c>
       <c r="I718" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="L718" t="s">
-        <v>1373</v>
+        <v>71</v>
       </c>
       <c r="M718" t="s">
-        <v>1374</v>
+        <v>2396</v>
       </c>
       <c r="N718" t="s">
-        <v>1375</v>
+        <v>2397</v>
       </c>
       <c r="O718" t="s">
-        <v>4111</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>2390</v>
-      </c>
-      <c r="B719" t="s">
-        <v>14</v>
+        <v>4239</v>
       </c>
       <c r="D719" t="s">
-        <v>2391</v>
-      </c>
-      <c r="E719" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="L719" t="s">
-        <v>713</v>
+        <v>3996</v>
       </c>
       <c r="M719" t="s">
-        <v>2393</v>
-      </c>
-      <c r="O719" t="s">
-        <v>3446</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B720" t="s">
-        <v>14</v>
+        <v>2970</v>
       </c>
       <c r="D720" t="s">
-        <v>2395</v>
-      </c>
-      <c r="I720" t="s">
-        <v>112</v>
+        <v>2401</v>
       </c>
       <c r="L720" t="s">
-        <v>71</v>
+        <v>3996</v>
       </c>
       <c r="M720" t="s">
-        <v>2396</v>
-      </c>
-      <c r="N720" t="s">
-        <v>2397</v>
-      </c>
-      <c r="O720" t="s">
-        <v>3448</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>4245</v>
+        <v>2402</v>
+      </c>
+      <c r="B721" t="s">
+        <v>14</v>
       </c>
       <c r="D721" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="L721" t="s">
-        <v>3996</v>
+        <v>91</v>
       </c>
       <c r="M721" t="s">
-        <v>4246</v>
+        <v>2404</v>
+      </c>
+      <c r="O721" t="s">
+        <v>3451</v>
       </c>
     </row>
     <row r="722" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>2970</v>
+        <v>2405</v>
+      </c>
+      <c r="B722" t="s">
+        <v>14</v>
       </c>
       <c r="D722" t="s">
-        <v>2401</v>
+        <v>2406</v>
+      </c>
+      <c r="I722" t="s">
+        <v>61</v>
       </c>
       <c r="L722" t="s">
-        <v>3996</v>
+        <v>215</v>
       </c>
       <c r="M722" t="s">
-        <v>2971</v>
+        <v>2407</v>
+      </c>
+      <c r="O722" t="s">
+        <v>3452</v>
       </c>
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>2402</v>
+        <v>4448</v>
       </c>
       <c r="B723" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C723" s="5" t="s">
+        <v>4435</v>
       </c>
       <c r="D723" t="s">
-        <v>2403</v>
+        <v>136</v>
+      </c>
+      <c r="I723" t="s">
+        <v>147</v>
       </c>
       <c r="L723" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="M723" t="s">
-        <v>2404</v>
+        <v>2408</v>
+      </c>
+      <c r="N723" t="s">
+        <v>136</v>
       </c>
       <c r="O723" t="s">
-        <v>3451</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="B724" t="s">
         <v>14</v>
       </c>
       <c r="D724" t="s">
-        <v>2406</v>
+        <v>2394</v>
+      </c>
+      <c r="F724">
+        <v>10</v>
       </c>
       <c r="I724" t="s">
-        <v>61</v>
+        <v>222</v>
+      </c>
+      <c r="K724">
+        <v>11</v>
       </c>
       <c r="L724" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="M724" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="O724" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>4456</v>
+        <v>2778</v>
       </c>
       <c r="B725" t="s">
-        <v>22</v>
-      </c>
-      <c r="C725" s="5" t="s">
-        <v>4443</v>
+        <v>14</v>
       </c>
       <c r="D725" t="s">
-        <v>136</v>
-      </c>
-      <c r="I725" t="s">
-        <v>147</v>
+        <v>2431</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2432</v>
       </c>
       <c r="L725" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="M725" t="s">
-        <v>2408</v>
-      </c>
-      <c r="N725" t="s">
-        <v>136</v>
+        <v>2433</v>
       </c>
       <c r="O725" t="s">
-        <v>4247</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B726" t="s">
-        <v>14</v>
+        <v>2974</v>
       </c>
       <c r="D726" t="s">
-        <v>2394</v>
+        <v>2415</v>
       </c>
       <c r="F726">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I726" t="s">
         <v>222</v>
       </c>
       <c r="K726">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L726" t="s">
-        <v>106</v>
+        <v>3996</v>
       </c>
       <c r="M726" t="s">
-        <v>2410</v>
-      </c>
-      <c r="O726" t="s">
-        <v>3453</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="727" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B727" t="s">
-        <v>14</v>
+        <v>2411</v>
       </c>
       <c r="D727" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E727" t="s">
-        <v>2432</v>
+        <v>2412</v>
+      </c>
+      <c r="F727">
+        <v>11</v>
+      </c>
+      <c r="I727" t="s">
+        <v>222</v>
+      </c>
+      <c r="K727">
+        <v>12</v>
       </c>
       <c r="L727" t="s">
-        <v>91</v>
+        <v>3996</v>
       </c>
       <c r="M727" t="s">
-        <v>2433</v>
-      </c>
-      <c r="O727" t="s">
-        <v>3454</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="728" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>2974</v>
+        <v>4246</v>
       </c>
       <c r="D728" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="F728">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I728" t="s">
         <v>222</v>
       </c>
       <c r="K728">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L728" t="s">
         <v>3996</v>
       </c>
       <c r="M728" t="s">
-        <v>2975</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="729" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>2411</v>
+        <v>4244</v>
       </c>
       <c r="D729" t="s">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="F729">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I729" t="s">
         <v>222</v>
       </c>
       <c r="K729">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L729" t="s">
         <v>3996</v>
       </c>
       <c r="M729" t="s">
-        <v>2413</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="730" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>4252</v>
+        <v>2417</v>
       </c>
       <c r="D730" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="F730">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I730" t="s">
         <v>222</v>
       </c>
       <c r="K730">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L730" t="s">
         <v>3996</v>
       </c>
       <c r="M730" t="s">
-        <v>4253</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>4250</v>
+        <v>4242</v>
       </c>
       <c r="D731" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="F731">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I731" t="s">
         <v>222</v>
       </c>
       <c r="K731">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L731" t="s">
         <v>3996</v>
       </c>
       <c r="M731" t="s">
-        <v>4251</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="D732" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="F732">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I732" t="s">
         <v>222</v>
       </c>
       <c r="K732">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L732" t="s">
         <v>3996</v>
       </c>
       <c r="M732" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>4248</v>
+        <v>2424</v>
       </c>
       <c r="D733" t="s">
-        <v>2414</v>
+        <v>2425</v>
       </c>
       <c r="F733">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I733" t="s">
         <v>222</v>
       </c>
       <c r="K733">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L733" t="s">
         <v>3996</v>
       </c>
       <c r="M733" t="s">
-        <v>4249</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="734" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>2421</v>
+        <v>2427</v>
       </c>
       <c r="D734" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
       <c r="F734">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I734" t="s">
         <v>222</v>
       </c>
       <c r="K734">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L734" t="s">
         <v>3996</v>
       </c>
       <c r="M734" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>2424</v>
+        <v>2972</v>
       </c>
       <c r="D735" t="s">
-        <v>2425</v>
-      </c>
-      <c r="F735">
-        <v>13</v>
+        <v>2430</v>
       </c>
       <c r="I735" t="s">
-        <v>222</v>
-      </c>
-      <c r="K735">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="L735" t="s">
         <v>3996</v>
       </c>
       <c r="M735" t="s">
-        <v>2426</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="736" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>2427</v>
+        <v>2434</v>
+      </c>
+      <c r="B736" t="s">
+        <v>14</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2435</v>
       </c>
       <c r="D736" t="s">
-        <v>2428</v>
-      </c>
-      <c r="F736">
-        <v>12</v>
+        <v>2436</v>
+      </c>
+      <c r="E736" t="s">
+        <v>469</v>
       </c>
       <c r="I736" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="K736">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="L736" t="s">
-        <v>3996</v>
+        <v>89</v>
       </c>
       <c r="M736" t="s">
-        <v>2429</v>
+        <v>2437</v>
+      </c>
+      <c r="O736" t="s">
+        <v>3455</v>
       </c>
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>2972</v>
-      </c>
-      <c r="D737" t="s">
-        <v>2430</v>
-      </c>
-      <c r="I737" t="s">
-        <v>105</v>
+        <v>3450</v>
+      </c>
+      <c r="B737" t="s">
+        <v>14</v>
+      </c>
+      <c r="E737" t="s">
+        <v>2398</v>
       </c>
       <c r="L737" t="s">
-        <v>3996</v>
+        <v>89</v>
       </c>
       <c r="M737" t="s">
-        <v>2973</v>
+        <v>2399</v>
+      </c>
+      <c r="O737" t="s">
+        <v>3449</v>
       </c>
     </row>
     <row r="738" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>2434</v>
+        <v>2891</v>
       </c>
       <c r="B738" t="s">
         <v>14</v>
       </c>
-      <c r="C738" t="s">
-        <v>2435</v>
-      </c>
       <c r="D738" t="s">
-        <v>2436</v>
+        <v>357</v>
       </c>
       <c r="E738" t="s">
-        <v>469</v>
-      </c>
-      <c r="I738" t="s">
-        <v>312</v>
-      </c>
-      <c r="K738">
-        <v>51</v>
+        <v>358</v>
+      </c>
+      <c r="F738" t="s">
+        <v>359</v>
+      </c>
+      <c r="G738" t="s">
+        <v>360</v>
       </c>
       <c r="L738" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="M738" t="s">
-        <v>2437</v>
+        <v>2892</v>
+      </c>
+      <c r="N738" t="s">
+        <v>2893</v>
       </c>
       <c r="O738" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>3450</v>
+        <v>3048</v>
       </c>
       <c r="B739" t="s">
         <v>14</v>
       </c>
-      <c r="E739" t="s">
-        <v>2398</v>
+      <c r="C739" t="s">
+        <v>688</v>
+      </c>
+      <c r="D739" t="s">
+        <v>689</v>
       </c>
       <c r="L739" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="M739" t="s">
-        <v>2399</v>
+        <v>3049</v>
+      </c>
+      <c r="N739" t="s">
+        <v>3050</v>
       </c>
       <c r="O739" t="s">
-        <v>3449</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="740" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B740" t="s">
-        <v>14</v>
-      </c>
-      <c r="D740" t="s">
-        <v>357</v>
-      </c>
-      <c r="E740" t="s">
-        <v>358</v>
-      </c>
-      <c r="F740" t="s">
-        <v>359</v>
-      </c>
-      <c r="G740" t="s">
-        <v>360</v>
+        <v>3053</v>
+      </c>
+      <c r="C740" t="s">
+        <v>691</v>
       </c>
       <c r="L740" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M740" t="s">
-        <v>2892</v>
-      </c>
-      <c r="N740" t="s">
-        <v>2893</v>
-      </c>
-      <c r="O740" t="s">
-        <v>3456</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="741" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B741" t="s">
-        <v>14</v>
-      </c>
-      <c r="C741" t="s">
-        <v>688</v>
+        <v>3075</v>
       </c>
       <c r="D741" t="s">
-        <v>689</v>
+        <v>3077</v>
+      </c>
+      <c r="I741" t="s">
+        <v>268</v>
       </c>
       <c r="L741" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M741" t="s">
-        <v>3049</v>
-      </c>
-      <c r="N741" t="s">
-        <v>3050</v>
-      </c>
-      <c r="O741" t="s">
-        <v>3457</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>3053</v>
-      </c>
-      <c r="C742" t="s">
-        <v>691</v>
+        <v>2449</v>
+      </c>
+      <c r="B742" t="s">
+        <v>14</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F742">
+        <v>3</v>
+      </c>
+      <c r="I742" t="s">
+        <v>222</v>
+      </c>
+      <c r="K742">
+        <v>4</v>
       </c>
       <c r="L742" t="s">
-        <v>3996</v>
+        <v>143</v>
       </c>
       <c r="M742" t="s">
-        <v>3054</v>
+        <v>2451</v>
+      </c>
+      <c r="N742" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O742" t="s">
+        <v>3458</v>
       </c>
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>3075</v>
+        <v>4248</v>
+      </c>
+      <c r="C743" t="s">
+        <v>440</v>
       </c>
       <c r="D743" t="s">
-        <v>3077</v>
+        <v>2453</v>
+      </c>
+      <c r="F743" t="s">
+        <v>2454</v>
       </c>
       <c r="I743" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="L743" t="s">
         <v>3996</v>
       </c>
       <c r="M743" t="s">
-        <v>3076</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B744" t="s">
-        <v>14</v>
+        <v>4251</v>
       </c>
       <c r="D744" t="s">
-        <v>2450</v>
-      </c>
-      <c r="F744">
-        <v>3</v>
+        <v>2455</v>
       </c>
       <c r="I744" t="s">
-        <v>222</v>
-      </c>
-      <c r="K744">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="L744" t="s">
-        <v>143</v>
+        <v>3996</v>
       </c>
       <c r="M744" t="s">
-        <v>2451</v>
-      </c>
-      <c r="N744" t="s">
-        <v>2452</v>
-      </c>
-      <c r="O744" t="s">
-        <v>3458</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>4254</v>
+        <v>2977</v>
       </c>
       <c r="C745" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D745" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="F745" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="I745" t="s">
         <v>105</v>
@@ -32557,1054 +32551,1075 @@
         <v>3996</v>
       </c>
       <c r="M745" t="s">
-        <v>4255</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="746" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>4257</v>
+        <v>2458</v>
+      </c>
+      <c r="B746" t="s">
+        <v>14</v>
       </c>
       <c r="D746" t="s">
-        <v>2455</v>
+        <v>53</v>
+      </c>
+      <c r="E746" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H746" t="s">
+        <v>2460</v>
       </c>
       <c r="I746" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="K746">
+        <v>0</v>
       </c>
       <c r="L746" t="s">
-        <v>3996</v>
+        <v>91</v>
       </c>
       <c r="M746" t="s">
-        <v>4256</v>
+        <v>53</v>
+      </c>
+      <c r="O746" t="s">
+        <v>3459</v>
       </c>
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>2977</v>
-      </c>
-      <c r="C747" t="s">
-        <v>443</v>
+        <v>4449</v>
+      </c>
+      <c r="B747" t="s">
+        <v>22</v>
+      </c>
+      <c r="C747" s="5" t="s">
+        <v>4435</v>
       </c>
       <c r="D747" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F747" t="s">
-        <v>2457</v>
+        <v>182</v>
       </c>
       <c r="I747" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="L747" t="s">
-        <v>3996</v>
+        <v>182</v>
       </c>
       <c r="M747" t="s">
-        <v>2976</v>
+        <v>2553</v>
+      </c>
+      <c r="O747" t="s">
+        <v>4272</v>
       </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>2458</v>
+        <v>4271</v>
       </c>
       <c r="B748" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C748" t="s">
+        <v>23</v>
       </c>
       <c r="D748" t="s">
-        <v>53</v>
-      </c>
-      <c r="E748" t="s">
-        <v>2459</v>
-      </c>
-      <c r="H748" t="s">
-        <v>2460</v>
+        <v>2551</v>
       </c>
       <c r="I748" t="s">
-        <v>53</v>
-      </c>
-      <c r="K748">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L748" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="M748" t="s">
-        <v>53</v>
+        <v>2552</v>
       </c>
       <c r="O748" t="s">
-        <v>3459</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="749" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>4457</v>
+        <v>2839</v>
       </c>
       <c r="B749" t="s">
-        <v>22</v>
-      </c>
-      <c r="C749" s="5" t="s">
-        <v>4443</v>
+        <v>14</v>
       </c>
       <c r="D749" t="s">
-        <v>182</v>
-      </c>
-      <c r="I749" t="s">
-        <v>147</v>
+        <v>2461</v>
+      </c>
+      <c r="E749" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F749" t="s">
+        <v>2463</v>
       </c>
       <c r="L749" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="M749" t="s">
-        <v>2553</v>
+        <v>2464</v>
+      </c>
+      <c r="N749" t="s">
+        <v>2465</v>
       </c>
       <c r="O749" t="s">
-        <v>4278</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="750" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>4277</v>
+        <v>2466</v>
       </c>
       <c r="B750" t="s">
-        <v>22</v>
-      </c>
-      <c r="C750" t="s">
-        <v>23</v>
-      </c>
-      <c r="D750" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I750" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="E750" t="s">
+        <v>2467</v>
       </c>
       <c r="L750" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="M750" t="s">
-        <v>2552</v>
+        <v>2468</v>
       </c>
       <c r="O750" t="s">
-        <v>4276</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B751" t="s">
-        <v>14</v>
+        <v>4252</v>
+      </c>
+      <c r="C751" t="s">
+        <v>422</v>
       </c>
       <c r="D751" t="s">
-        <v>2461</v>
-      </c>
-      <c r="E751" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F751" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="L751" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M751" t="s">
-        <v>2464</v>
-      </c>
-      <c r="N751" t="s">
-        <v>2465</v>
-      </c>
-      <c r="O751" t="s">
-        <v>3460</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>2466</v>
+        <v>3500</v>
       </c>
       <c r="B752" t="s">
         <v>14</v>
       </c>
+      <c r="D752" t="s">
+        <v>757</v>
+      </c>
       <c r="E752" t="s">
-        <v>2467</v>
+        <v>758</v>
+      </c>
+      <c r="F752" t="s">
+        <v>759</v>
       </c>
       <c r="L752" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="M752" t="s">
-        <v>2468</v>
+        <v>760</v>
+      </c>
+      <c r="N752" t="s">
+        <v>3499</v>
       </c>
       <c r="O752" t="s">
-        <v>3461</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>4258</v>
-      </c>
-      <c r="C753" t="s">
-        <v>422</v>
+        <v>4354</v>
+      </c>
+      <c r="B753" t="s">
+        <v>14</v>
       </c>
       <c r="D753" t="s">
-        <v>2469</v>
+        <v>4353</v>
+      </c>
+      <c r="E753" t="s">
+        <v>826</v>
+      </c>
+      <c r="F753" t="s">
+        <v>827</v>
+      </c>
+      <c r="G753" t="s">
+        <v>828</v>
       </c>
       <c r="L753" t="s">
-        <v>3996</v>
+        <v>80</v>
       </c>
       <c r="M753" t="s">
-        <v>4263</v>
+        <v>4355</v>
+      </c>
+      <c r="N753" t="s">
+        <v>4357</v>
+      </c>
+      <c r="O753" t="s">
+        <v>4356</v>
       </c>
     </row>
     <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>3500</v>
+        <v>2826</v>
       </c>
       <c r="B754" t="s">
         <v>14</v>
       </c>
       <c r="D754" t="s">
-        <v>757</v>
-      </c>
-      <c r="E754" t="s">
-        <v>758</v>
-      </c>
-      <c r="F754" t="s">
-        <v>759</v>
+        <v>2441</v>
+      </c>
+      <c r="I754" t="s">
+        <v>112</v>
       </c>
       <c r="L754" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="M754" t="s">
-        <v>760</v>
+        <v>2442</v>
       </c>
       <c r="N754" t="s">
-        <v>3499</v>
+        <v>2443</v>
       </c>
       <c r="O754" t="s">
-        <v>3498</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>4362</v>
+        <v>2470</v>
       </c>
       <c r="B755" t="s">
         <v>14</v>
       </c>
       <c r="D755" t="s">
-        <v>4361</v>
-      </c>
-      <c r="E755" t="s">
-        <v>826</v>
-      </c>
-      <c r="F755" t="s">
-        <v>827</v>
-      </c>
-      <c r="G755" t="s">
-        <v>828</v>
+        <v>2471</v>
+      </c>
+      <c r="I755" t="s">
+        <v>268</v>
       </c>
       <c r="L755" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="M755" t="s">
-        <v>4363</v>
+        <v>2472</v>
       </c>
       <c r="N755" t="s">
-        <v>4365</v>
+        <v>2473</v>
       </c>
       <c r="O755" t="s">
-        <v>4364</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>2826</v>
+        <v>2477</v>
       </c>
       <c r="B756" t="s">
         <v>14</v>
       </c>
       <c r="D756" t="s">
-        <v>2441</v>
-      </c>
-      <c r="I756" t="s">
-        <v>112</v>
+        <v>2478</v>
+      </c>
+      <c r="E756" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F756" t="s">
+        <v>2480</v>
       </c>
       <c r="L756" t="s">
-        <v>292</v>
+        <v>690</v>
       </c>
       <c r="M756" t="s">
-        <v>2442</v>
+        <v>2481</v>
       </c>
       <c r="N756" t="s">
-        <v>2443</v>
+        <v>2482</v>
       </c>
       <c r="O756" t="s">
-        <v>3462</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B757" t="s">
-        <v>14</v>
+        <v>2484</v>
       </c>
       <c r="D757" t="s">
-        <v>2471</v>
-      </c>
-      <c r="I757" t="s">
-        <v>268</v>
+        <v>2485</v>
+      </c>
+      <c r="E757" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F757" t="s">
+        <v>2487</v>
       </c>
       <c r="L757" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M757" t="s">
-        <v>2472</v>
-      </c>
-      <c r="N757" t="s">
-        <v>2473</v>
-      </c>
-      <c r="O757" t="s">
-        <v>3463</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B758" t="s">
-        <v>14</v>
-      </c>
-      <c r="D758" t="s">
-        <v>2478</v>
-      </c>
-      <c r="E758" t="s">
-        <v>2479</v>
+        <v>4262</v>
       </c>
       <c r="F758" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="L758" t="s">
-        <v>690</v>
+        <v>3996</v>
       </c>
       <c r="M758" t="s">
-        <v>2481</v>
-      </c>
-      <c r="N758" t="s">
-        <v>2482</v>
-      </c>
-      <c r="O758" t="s">
-        <v>3579</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>2484</v>
+        <v>2489</v>
+      </c>
+      <c r="B759" t="s">
+        <v>14</v>
       </c>
       <c r="D759" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E759" t="s">
-        <v>2486</v>
-      </c>
-      <c r="F759" t="s">
-        <v>2487</v>
+        <v>2490</v>
+      </c>
+      <c r="I759" t="s">
+        <v>312</v>
+      </c>
+      <c r="K759">
+        <v>58</v>
       </c>
       <c r="L759" t="s">
-        <v>3996</v>
+        <v>3934</v>
       </c>
       <c r="M759" t="s">
-        <v>2488</v>
+        <v>2491</v>
+      </c>
+      <c r="N759" t="s">
+        <v>2492</v>
+      </c>
+      <c r="O759" t="s">
+        <v>3464</v>
       </c>
     </row>
     <row r="760" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>4268</v>
-      </c>
-      <c r="F760" t="s">
-        <v>2483</v>
+        <v>3132</v>
+      </c>
+      <c r="B760" t="s">
+        <v>14</v>
+      </c>
+      <c r="E760" t="s">
+        <v>823</v>
       </c>
       <c r="L760" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M760" t="s">
-        <v>4269</v>
+        <v>3143</v>
+      </c>
+      <c r="N760" t="s">
+        <v>3144</v>
+      </c>
+      <c r="O760" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="761" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>2489</v>
+        <v>416</v>
       </c>
       <c r="B761" t="s">
         <v>14</v>
       </c>
       <c r="D761" t="s">
-        <v>2490</v>
-      </c>
-      <c r="I761" t="s">
-        <v>312</v>
-      </c>
-      <c r="K761">
-        <v>58</v>
+        <v>2494</v>
+      </c>
+      <c r="E761" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F761" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G761" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H761" t="s">
+        <v>379</v>
       </c>
       <c r="L761" t="s">
-        <v>3934</v>
+        <v>471</v>
       </c>
       <c r="M761" t="s">
-        <v>2491</v>
+        <v>2498</v>
       </c>
       <c r="N761" t="s">
-        <v>2492</v>
+        <v>2499</v>
       </c>
       <c r="O761" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="762" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>3132</v>
+        <v>2500</v>
       </c>
       <c r="B762" t="s">
         <v>14</v>
       </c>
-      <c r="E762" t="s">
-        <v>823</v>
+      <c r="D762" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F762" t="s">
+        <v>2502</v>
       </c>
       <c r="L762" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="M762" t="s">
-        <v>3143</v>
+        <v>2503</v>
       </c>
       <c r="N762" t="s">
-        <v>3144</v>
+        <v>2504</v>
       </c>
       <c r="O762" t="s">
-        <v>3447</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="763" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>416</v>
+        <v>2505</v>
       </c>
       <c r="B763" t="s">
         <v>14</v>
       </c>
+      <c r="C763" t="s">
+        <v>2493</v>
+      </c>
       <c r="D763" t="s">
-        <v>2494</v>
+        <v>2506</v>
       </c>
       <c r="E763" t="s">
-        <v>2495</v>
+        <v>2507</v>
       </c>
       <c r="F763" t="s">
-        <v>2496</v>
-      </c>
-      <c r="G763" t="s">
-        <v>2497</v>
-      </c>
-      <c r="H763" t="s">
-        <v>379</v>
+        <v>2508</v>
       </c>
       <c r="L763" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="M763" t="s">
-        <v>2498</v>
+        <v>2509</v>
       </c>
       <c r="N763" t="s">
-        <v>2499</v>
+        <v>2510</v>
       </c>
       <c r="O763" t="s">
-        <v>3467</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="764" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>2500</v>
+        <v>4412</v>
       </c>
       <c r="B764" t="s">
         <v>14</v>
       </c>
       <c r="D764" t="s">
-        <v>2501</v>
-      </c>
-      <c r="F764" t="s">
-        <v>2502</v>
+        <v>4411</v>
       </c>
       <c r="L764" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="M764" t="s">
-        <v>2503</v>
+        <v>4413</v>
       </c>
       <c r="N764" t="s">
-        <v>2504</v>
+        <v>4415</v>
       </c>
       <c r="O764" t="s">
-        <v>3468</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="765" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>2505</v>
+        <v>1820</v>
       </c>
       <c r="B765" t="s">
         <v>14</v>
       </c>
-      <c r="C765" t="s">
-        <v>2493</v>
-      </c>
       <c r="D765" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E765" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="F765" t="s">
-        <v>2508</v>
+        <v>2512</v>
+      </c>
+      <c r="I765" t="s">
+        <v>222</v>
+      </c>
+      <c r="K765">
+        <v>3</v>
       </c>
       <c r="L765" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="M765" t="s">
-        <v>2509</v>
-      </c>
-      <c r="N765" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="O765" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="766" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>4420</v>
-      </c>
-      <c r="B766" t="s">
-        <v>14</v>
+        <v>2514</v>
       </c>
       <c r="D766" t="s">
-        <v>4419</v>
+        <v>2515</v>
+      </c>
+      <c r="F766">
+        <v>20</v>
+      </c>
+      <c r="I766" t="s">
+        <v>222</v>
+      </c>
+      <c r="K766">
+        <v>21</v>
       </c>
       <c r="L766" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M766" t="s">
-        <v>4421</v>
-      </c>
-      <c r="N766" t="s">
-        <v>4423</v>
-      </c>
-      <c r="O766" t="s">
-        <v>4422</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="767" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B767" t="s">
-        <v>14</v>
+        <v>2978</v>
+      </c>
+      <c r="C767" t="s">
+        <v>443</v>
       </c>
       <c r="D767" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="F767" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="I767" t="s">
-        <v>222</v>
-      </c>
-      <c r="K767">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="L767" t="s">
-        <v>106</v>
+        <v>3996</v>
       </c>
       <c r="M767" t="s">
-        <v>2513</v>
-      </c>
-      <c r="O767" t="s">
-        <v>3472</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="768" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>2514</v>
+        <v>2980</v>
+      </c>
+      <c r="C768" t="s">
+        <v>443</v>
       </c>
       <c r="D768" t="s">
-        <v>2515</v>
-      </c>
-      <c r="F768">
-        <v>20</v>
+        <v>2519</v>
+      </c>
+      <c r="F768" t="s">
+        <v>2520</v>
       </c>
       <c r="I768" t="s">
-        <v>222</v>
-      </c>
-      <c r="K768">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="L768" t="s">
         <v>3996</v>
       </c>
       <c r="M768" t="s">
-        <v>2516</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="769" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>2978</v>
+        <v>2521</v>
+      </c>
+      <c r="B769" t="s">
+        <v>14</v>
       </c>
       <c r="C769" t="s">
-        <v>443</v>
-      </c>
-      <c r="D769" t="s">
-        <v>2517</v>
-      </c>
-      <c r="F769" t="s">
-        <v>2518</v>
-      </c>
-      <c r="I769" t="s">
-        <v>105</v>
+        <v>2522</v>
+      </c>
+      <c r="H769" t="s">
+        <v>2523</v>
       </c>
       <c r="L769" t="s">
         <v>3996</v>
       </c>
       <c r="M769" t="s">
-        <v>2979</v>
+        <v>154</v>
       </c>
     </row>
     <row r="770" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>2980</v>
-      </c>
-      <c r="C770" t="s">
-        <v>443</v>
+        <v>3778</v>
+      </c>
+      <c r="B770" t="s">
+        <v>14</v>
       </c>
       <c r="D770" t="s">
-        <v>2519</v>
-      </c>
-      <c r="F770" t="s">
-        <v>2520</v>
-      </c>
-      <c r="I770" t="s">
-        <v>105</v>
+        <v>1607</v>
+      </c>
+      <c r="H770" t="s">
+        <v>1608</v>
       </c>
       <c r="L770" t="s">
-        <v>3996</v>
+        <v>301</v>
       </c>
       <c r="M770" t="s">
-        <v>2981</v>
+        <v>3779</v>
+      </c>
+      <c r="O770" t="s">
+        <v>3780</v>
       </c>
     </row>
     <row r="771" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B771" t="s">
-        <v>14</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2522</v>
-      </c>
-      <c r="H771" t="s">
-        <v>2523</v>
+        <v>4341</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2745</v>
       </c>
       <c r="L771" t="s">
         <v>3996</v>
       </c>
       <c r="M771" t="s">
-        <v>154</v>
+        <v>4342</v>
+      </c>
+      <c r="N771" t="s">
+        <v>4343</v>
       </c>
     </row>
     <row r="772" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>3778</v>
-      </c>
-      <c r="B772" t="s">
-        <v>14</v>
+        <v>4344</v>
       </c>
       <c r="D772" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H772" t="s">
-        <v>1608</v>
+        <v>2734</v>
       </c>
       <c r="L772" t="s">
-        <v>301</v>
+        <v>3996</v>
       </c>
       <c r="M772" t="s">
-        <v>3779</v>
-      </c>
-      <c r="O772" t="s">
-        <v>3780</v>
+        <v>4345</v>
+      </c>
+      <c r="N772" t="s">
+        <v>2735</v>
       </c>
     </row>
     <row r="773" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>4349</v>
-      </c>
-      <c r="D773" t="s">
-        <v>2745</v>
+        <v>2524</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2525</v>
       </c>
       <c r="L773" t="s">
         <v>3996</v>
       </c>
       <c r="M773" t="s">
-        <v>4350</v>
-      </c>
-      <c r="N773" t="s">
-        <v>4351</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="774" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>4352</v>
+        <v>2527</v>
+      </c>
+      <c r="B774" t="s">
+        <v>14</v>
       </c>
       <c r="D774" t="s">
-        <v>2734</v>
+        <v>2528</v>
+      </c>
+      <c r="E774" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F774" t="s">
+        <v>2530</v>
       </c>
       <c r="L774" t="s">
-        <v>3996</v>
+        <v>91</v>
       </c>
       <c r="M774" t="s">
-        <v>4353</v>
-      </c>
-      <c r="N774" t="s">
-        <v>2735</v>
+        <v>2531</v>
+      </c>
+      <c r="O774" t="s">
+        <v>3473</v>
       </c>
     </row>
     <row r="775" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>2524</v>
-      </c>
-      <c r="C775" t="s">
-        <v>2525</v>
+        <v>2532</v>
+      </c>
+      <c r="B775" t="s">
+        <v>14</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E775" t="s">
+        <v>2534</v>
       </c>
       <c r="L775" t="s">
-        <v>3996</v>
+        <v>788</v>
       </c>
       <c r="M775" t="s">
-        <v>2526</v>
+        <v>2535</v>
+      </c>
+      <c r="N775" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O775" t="s">
+        <v>3581</v>
       </c>
     </row>
     <row r="776" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>2527</v>
-      </c>
-      <c r="B776" t="s">
-        <v>14</v>
+        <v>2996</v>
       </c>
       <c r="D776" t="s">
-        <v>2528</v>
+        <v>2538</v>
       </c>
       <c r="E776" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F776" t="s">
-        <v>2530</v>
+        <v>2539</v>
       </c>
       <c r="L776" t="s">
-        <v>91</v>
+        <v>3996</v>
       </c>
       <c r="M776" t="s">
-        <v>2531</v>
-      </c>
-      <c r="O776" t="s">
-        <v>3473</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="777" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B777" t="s">
-        <v>14</v>
+        <v>3051</v>
       </c>
       <c r="D777" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E777" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="L777" t="s">
-        <v>788</v>
+        <v>3996</v>
       </c>
       <c r="M777" t="s">
-        <v>2535</v>
-      </c>
-      <c r="N777" t="s">
-        <v>2536</v>
-      </c>
-      <c r="O777" t="s">
-        <v>3581</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="778" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>2996</v>
+        <v>3466</v>
+      </c>
+      <c r="B778" t="s">
+        <v>14</v>
+      </c>
+      <c r="C778" t="s">
+        <v>159</v>
       </c>
       <c r="D778" t="s">
-        <v>2538</v>
-      </c>
-      <c r="E778" t="s">
-        <v>2539</v>
+        <v>2805</v>
       </c>
       <c r="L778" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M778" t="s">
-        <v>2995</v>
+        <v>2803</v>
+      </c>
+      <c r="N778" t="s">
+        <v>2804</v>
+      </c>
+      <c r="O778" t="s">
+        <v>3465</v>
       </c>
     </row>
     <row r="779" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>3051</v>
+        <v>2546</v>
+      </c>
+      <c r="B779" t="s">
+        <v>14</v>
+      </c>
+      <c r="C779" t="s">
+        <v>3026</v>
       </c>
       <c r="D779" t="s">
-        <v>2537</v>
+        <v>2547</v>
+      </c>
+      <c r="F779" t="s">
+        <v>2548</v>
       </c>
       <c r="L779" t="s">
-        <v>3996</v>
+        <v>89</v>
       </c>
       <c r="M779" t="s">
-        <v>3052</v>
+        <v>2549</v>
+      </c>
+      <c r="O779" t="s">
+        <v>3474</v>
       </c>
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>3466</v>
-      </c>
-      <c r="B780" t="s">
-        <v>14</v>
+        <v>4273</v>
       </c>
       <c r="C780" t="s">
-        <v>159</v>
-      </c>
-      <c r="D780" t="s">
-        <v>2805</v>
+        <v>2560</v>
       </c>
       <c r="L780" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M780" t="s">
-        <v>2803</v>
-      </c>
-      <c r="N780" t="s">
-        <v>2804</v>
-      </c>
-      <c r="O780" t="s">
-        <v>3465</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B781" t="s">
-        <v>14</v>
-      </c>
-      <c r="C781" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D781" t="s">
-        <v>2547</v>
-      </c>
-      <c r="F781" t="s">
-        <v>2548</v>
+        <v>4275</v>
+      </c>
+      <c r="G781" t="s">
+        <v>2561</v>
       </c>
       <c r="L781" t="s">
-        <v>89</v>
+        <v>3996</v>
       </c>
       <c r="M781" t="s">
-        <v>2549</v>
-      </c>
-      <c r="O781" t="s">
-        <v>3474</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>4279</v>
-      </c>
-      <c r="C782" t="s">
-        <v>2560</v>
+        <v>3087</v>
+      </c>
+      <c r="B782" t="s">
+        <v>14</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I782" t="s">
+        <v>312</v>
+      </c>
+      <c r="K782">
+        <v>17</v>
       </c>
       <c r="L782" t="s">
-        <v>3996</v>
+        <v>91</v>
       </c>
       <c r="M782" t="s">
-        <v>4280</v>
+        <v>2559</v>
+      </c>
+      <c r="O782" t="s">
+        <v>3475</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>4281</v>
-      </c>
-      <c r="G783" t="s">
-        <v>2561</v>
+        <v>2847</v>
+      </c>
+      <c r="B783" t="s">
+        <v>14</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I783" t="s">
+        <v>61</v>
       </c>
       <c r="L783" t="s">
-        <v>3996</v>
+        <v>715</v>
       </c>
       <c r="M783" t="s">
-        <v>4282</v>
+        <v>2555</v>
+      </c>
+      <c r="N783" t="s">
+        <v>2556</v>
+      </c>
+      <c r="O783" t="s">
+        <v>3476</v>
       </c>
     </row>
     <row r="784" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>3087</v>
+        <v>2562</v>
       </c>
       <c r="B784" t="s">
         <v>14</v>
       </c>
       <c r="D784" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E784" t="s">
-        <v>2558</v>
-      </c>
-      <c r="I784" t="s">
-        <v>312</v>
-      </c>
-      <c r="K784">
-        <v>17</v>
+        <v>4397</v>
       </c>
       <c r="L784" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="M784" t="s">
-        <v>2559</v>
+        <v>2567</v>
+      </c>
+      <c r="N784" t="s">
+        <v>2568</v>
       </c>
       <c r="O784" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="785" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>2847</v>
+        <v>2573</v>
       </c>
       <c r="B785" t="s">
         <v>14</v>
       </c>
       <c r="D785" t="s">
-        <v>2554</v>
+        <v>2574</v>
       </c>
       <c r="E785" t="s">
-        <v>2554</v>
-      </c>
-      <c r="I785" t="s">
-        <v>61</v>
+        <v>2575</v>
+      </c>
+      <c r="F785" t="s">
+        <v>2576</v>
       </c>
       <c r="L785" t="s">
-        <v>715</v>
+        <v>91</v>
       </c>
       <c r="M785" t="s">
-        <v>2555</v>
-      </c>
-      <c r="N785" t="s">
-        <v>2556</v>
+        <v>2575</v>
       </c>
       <c r="O785" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="786" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>2562</v>
+        <v>3813</v>
       </c>
       <c r="B786" t="s">
         <v>14</v>
       </c>
-      <c r="D786" t="s">
-        <v>4405</v>
+      <c r="C786" t="s">
+        <v>3809</v>
+      </c>
+      <c r="H786" t="s">
+        <v>1581</v>
       </c>
       <c r="L786" t="s">
-        <v>292</v>
+        <v>715</v>
       </c>
       <c r="M786" t="s">
-        <v>2567</v>
+        <v>3810</v>
       </c>
       <c r="N786" t="s">
-        <v>2568</v>
+        <v>3811</v>
       </c>
       <c r="O786" t="s">
-        <v>3477</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>2573</v>
+        <v>4340</v>
       </c>
       <c r="B787" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C787" t="s">
+        <v>23</v>
       </c>
       <c r="D787" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E787" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F787" t="s">
-        <v>2576</v>
+        <v>2737</v>
+      </c>
+      <c r="I787" t="s">
+        <v>25</v>
       </c>
       <c r="L787" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="M787" t="s">
-        <v>2575</v>
-      </c>
-      <c r="O787" t="s">
-        <v>3478</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="788" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>3813</v>
+        <v>2581</v>
       </c>
       <c r="B788" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C788" t="s">
-        <v>3809</v>
-      </c>
-      <c r="H788" t="s">
-        <v>1581</v>
+        <v>23</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I788" t="s">
+        <v>25</v>
       </c>
       <c r="L788" t="s">
-        <v>715</v>
+        <v>2583</v>
       </c>
       <c r="M788" t="s">
-        <v>3810</v>
+        <v>2584</v>
       </c>
       <c r="N788" t="s">
-        <v>3811</v>
+        <v>2585</v>
       </c>
       <c r="O788" t="s">
-        <v>3812</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>4348</v>
+        <v>3873</v>
       </c>
       <c r="B789" t="s">
-        <v>22</v>
-      </c>
-      <c r="C789" t="s">
-        <v>23</v>
-      </c>
-      <c r="D789" t="s">
-        <v>2737</v>
+        <v>14</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2586</v>
       </c>
       <c r="I789" t="s">
-        <v>25</v>
+        <v>157</v>
+      </c>
+      <c r="J789" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K789">
+        <v>5</v>
       </c>
       <c r="L789" t="s">
-        <v>33</v>
-      </c>
-      <c r="M789" t="s">
-        <v>2738</v>
+        <v>437</v>
+      </c>
+      <c r="M789" s="7" t="s">
+        <v>3479</v>
+      </c>
+      <c r="N789" t="s">
+        <v>2587</v>
+      </c>
+      <c r="O789" t="s">
+        <v>3480</v>
       </c>
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>2581</v>
+        <v>4362</v>
       </c>
       <c r="B790" t="s">
         <v>22</v>
@@ -33613,352 +33628,361 @@
         <v>23</v>
       </c>
       <c r="D790" t="s">
-        <v>2582</v>
+        <v>1385</v>
       </c>
       <c r="I790" t="s">
         <v>25</v>
       </c>
       <c r="L790" t="s">
-        <v>2583</v>
+        <v>1386</v>
       </c>
       <c r="M790" t="s">
-        <v>2584</v>
-      </c>
-      <c r="N790" t="s">
-        <v>2585</v>
+        <v>1387</v>
       </c>
       <c r="O790" t="s">
-        <v>4283</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>3873</v>
+        <v>2597</v>
       </c>
       <c r="B791" t="s">
         <v>14</v>
       </c>
-      <c r="F791" t="s">
-        <v>2586</v>
-      </c>
-      <c r="I791" t="s">
-        <v>157</v>
-      </c>
-      <c r="J791" t="s">
-        <v>1686</v>
-      </c>
-      <c r="K791">
-        <v>5</v>
+      <c r="C791" t="s">
+        <v>159</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2598</v>
       </c>
       <c r="L791" t="s">
-        <v>437</v>
-      </c>
-      <c r="M791" s="7" t="s">
-        <v>3479</v>
+        <v>71</v>
+      </c>
+      <c r="M791" t="s">
+        <v>2599</v>
       </c>
       <c r="N791" t="s">
-        <v>2587</v>
+        <v>2600</v>
       </c>
       <c r="O791" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>4370</v>
+        <v>2601</v>
       </c>
       <c r="B792" t="s">
-        <v>22</v>
-      </c>
-      <c r="C792" t="s">
-        <v>23</v>
-      </c>
-      <c r="D792" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I792" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2602</v>
       </c>
       <c r="L792" t="s">
-        <v>1386</v>
+        <v>143</v>
       </c>
       <c r="M792" t="s">
-        <v>1387</v>
+        <v>3550</v>
+      </c>
+      <c r="N792" t="s">
+        <v>2603</v>
       </c>
       <c r="O792" t="s">
-        <v>4369</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="793" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B793" t="s">
-        <v>14</v>
-      </c>
-      <c r="C793" t="s">
-        <v>159</v>
+        <v>2604</v>
       </c>
       <c r="D793" t="s">
-        <v>2598</v>
+        <v>2605</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2606</v>
       </c>
       <c r="L793" t="s">
-        <v>71</v>
+        <v>3996</v>
       </c>
       <c r="M793" t="s">
-        <v>2599</v>
-      </c>
-      <c r="N793" t="s">
-        <v>2600</v>
-      </c>
-      <c r="O793" t="s">
-        <v>3481</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="794" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B794" t="s">
-        <v>14</v>
+        <v>4282</v>
       </c>
       <c r="E794" t="s">
-        <v>2602</v>
+        <v>2607</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2608</v>
       </c>
       <c r="L794" t="s">
-        <v>143</v>
+        <v>3996</v>
       </c>
       <c r="M794" t="s">
-        <v>3550</v>
-      </c>
-      <c r="N794" t="s">
-        <v>2603</v>
-      </c>
-      <c r="O794" t="s">
-        <v>3551</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>2604</v>
+        <v>4284</v>
       </c>
       <c r="D795" t="s">
-        <v>2605</v>
+        <v>2620</v>
       </c>
       <c r="E795" t="s">
-        <v>2606</v>
+        <v>2621</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2622</v>
       </c>
       <c r="L795" t="s">
         <v>3996</v>
       </c>
       <c r="M795" t="s">
-        <v>2746</v>
+        <v>4285</v>
+      </c>
+      <c r="N795" t="s">
+        <v>2623</v>
       </c>
     </row>
     <row r="796" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>4288</v>
+        <v>2609</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2610</v>
       </c>
       <c r="E796" t="s">
-        <v>2607</v>
-      </c>
-      <c r="F796" t="s">
-        <v>2608</v>
+        <v>2611</v>
+      </c>
+      <c r="I796" t="s">
+        <v>312</v>
+      </c>
+      <c r="K796">
+        <v>67</v>
       </c>
       <c r="L796" t="s">
         <v>3996</v>
       </c>
       <c r="M796" t="s">
-        <v>4289</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="797" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>4290</v>
+        <v>3014</v>
+      </c>
+      <c r="B797" t="s">
+        <v>14</v>
       </c>
       <c r="D797" t="s">
-        <v>2620</v>
+        <v>750</v>
       </c>
       <c r="E797" t="s">
-        <v>2621</v>
+        <v>751</v>
       </c>
       <c r="F797" t="s">
-        <v>2622</v>
+        <v>752</v>
+      </c>
+      <c r="G797" t="s">
+        <v>753</v>
       </c>
       <c r="L797" t="s">
-        <v>3996</v>
+        <v>713</v>
       </c>
       <c r="M797" t="s">
-        <v>4291</v>
-      </c>
-      <c r="N797" t="s">
-        <v>2623</v>
+        <v>3014</v>
+      </c>
+      <c r="O797" t="s">
+        <v>3554</v>
       </c>
     </row>
     <row r="798" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>2609</v>
+        <v>4297</v>
       </c>
       <c r="D798" t="s">
-        <v>2610</v>
+        <v>754</v>
       </c>
       <c r="E798" t="s">
-        <v>2611</v>
-      </c>
-      <c r="I798" t="s">
-        <v>312</v>
-      </c>
-      <c r="K798">
-        <v>67</v>
+        <v>754</v>
       </c>
       <c r="L798" t="s">
         <v>3996</v>
       </c>
       <c r="M798" t="s">
-        <v>2612</v>
+        <v>4298</v>
+      </c>
+      <c r="N798" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="799" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>3014</v>
-      </c>
-      <c r="B799" t="s">
-        <v>14</v>
-      </c>
-      <c r="D799" t="s">
-        <v>750</v>
+        <v>2613</v>
       </c>
       <c r="E799" t="s">
-        <v>751</v>
+        <v>2614</v>
       </c>
       <c r="F799" t="s">
-        <v>752</v>
-      </c>
-      <c r="G799" t="s">
-        <v>753</v>
+        <v>2615</v>
       </c>
       <c r="L799" t="s">
-        <v>713</v>
+        <v>3996</v>
       </c>
       <c r="M799" t="s">
-        <v>3014</v>
-      </c>
-      <c r="O799" t="s">
-        <v>3554</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="800" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>4303</v>
-      </c>
-      <c r="D800" t="s">
-        <v>754</v>
+        <v>2617</v>
       </c>
       <c r="E800" t="s">
-        <v>754</v>
+        <v>2618</v>
       </c>
       <c r="L800" t="s">
         <v>3996</v>
       </c>
       <c r="M800" t="s">
-        <v>4304</v>
-      </c>
-      <c r="N800" t="s">
-        <v>755</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>2613</v>
-      </c>
-      <c r="E801" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F801" t="s">
-        <v>2615</v>
+        <v>4450</v>
+      </c>
+      <c r="B801" t="s">
+        <v>22</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D801" t="s">
+        <v>788</v>
+      </c>
+      <c r="I801" t="s">
+        <v>147</v>
       </c>
       <c r="L801" t="s">
-        <v>3996</v>
+        <v>788</v>
       </c>
       <c r="M801" t="s">
-        <v>2616</v>
+        <v>2624</v>
+      </c>
+      <c r="O801" t="s">
+        <v>4286</v>
       </c>
     </row>
     <row r="802" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>2617</v>
+        <v>2982</v>
+      </c>
+      <c r="D802" t="s">
+        <v>984</v>
       </c>
       <c r="E802" t="s">
-        <v>2618</v>
+        <v>4287</v>
       </c>
       <c r="L802" t="s">
         <v>3996</v>
       </c>
       <c r="M802" t="s">
-        <v>2619</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="803" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>4458</v>
+        <v>2866</v>
       </c>
       <c r="B803" t="s">
-        <v>22</v>
-      </c>
-      <c r="C803" s="5" t="s">
-        <v>4443</v>
+        <v>14</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2577</v>
       </c>
       <c r="D803" t="s">
-        <v>788</v>
+        <v>2578</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G803" t="s">
+        <v>2578</v>
       </c>
       <c r="I803" t="s">
-        <v>147</v>
+        <v>53</v>
+      </c>
+      <c r="J803" t="s">
+        <v>54</v>
+      </c>
+      <c r="K803">
+        <v>7</v>
       </c>
       <c r="L803" t="s">
-        <v>788</v>
+        <v>690</v>
       </c>
       <c r="M803" t="s">
-        <v>2624</v>
+        <v>2579</v>
+      </c>
+      <c r="N803" t="s">
+        <v>2580</v>
       </c>
       <c r="O803" t="s">
-        <v>4292</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="804" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>2982</v>
+        <v>2625</v>
+      </c>
+      <c r="B804" t="s">
+        <v>14</v>
       </c>
       <c r="D804" t="s">
-        <v>984</v>
+        <v>2626</v>
       </c>
       <c r="E804" t="s">
-        <v>4293</v>
+        <v>2627</v>
+      </c>
+      <c r="I804" t="s">
+        <v>312</v>
+      </c>
+      <c r="K804">
+        <v>47</v>
       </c>
       <c r="L804" t="s">
-        <v>3996</v>
+        <v>437</v>
       </c>
       <c r="M804" t="s">
-        <v>2983</v>
+        <v>2628</v>
+      </c>
+      <c r="N804" t="s">
+        <v>2629</v>
+      </c>
+      <c r="O804" t="s">
+        <v>3483</v>
       </c>
     </row>
     <row r="805" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>2866</v>
+        <v>2630</v>
       </c>
       <c r="B805" t="s">
         <v>14</v>
       </c>
-      <c r="C805" t="s">
-        <v>2577</v>
-      </c>
       <c r="D805" t="s">
-        <v>2578</v>
+        <v>2631</v>
       </c>
       <c r="F805" t="s">
-        <v>2578</v>
+        <v>2631</v>
       </c>
       <c r="G805" t="s">
-        <v>2578</v>
+        <v>2631</v>
       </c>
       <c r="I805" t="s">
         <v>53</v>
@@ -33967,2594 +33991,2570 @@
         <v>54</v>
       </c>
       <c r="K805">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L805" t="s">
-        <v>690</v>
+        <v>16</v>
       </c>
       <c r="M805" t="s">
-        <v>2579</v>
+        <v>2632</v>
       </c>
       <c r="N805" t="s">
-        <v>2580</v>
+        <v>2633</v>
       </c>
       <c r="O805" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="806" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B806" t="s">
-        <v>14</v>
+        <v>2634</v>
       </c>
       <c r="D806" t="s">
-        <v>2626</v>
-      </c>
-      <c r="E806" t="s">
-        <v>2627</v>
+        <v>2635</v>
       </c>
       <c r="I806" t="s">
         <v>312</v>
       </c>
       <c r="K806">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L806" t="s">
-        <v>437</v>
+        <v>3996</v>
       </c>
       <c r="M806" t="s">
-        <v>2628</v>
-      </c>
-      <c r="N806" t="s">
-        <v>2629</v>
-      </c>
-      <c r="O806" t="s">
-        <v>3483</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="807" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B807" t="s">
-        <v>14</v>
+        <v>2984</v>
       </c>
       <c r="D807" t="s">
-        <v>2631</v>
-      </c>
-      <c r="F807" t="s">
-        <v>2631</v>
-      </c>
-      <c r="G807" t="s">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="I807" t="s">
-        <v>53</v>
-      </c>
-      <c r="J807" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="K807">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="L807" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M807" t="s">
-        <v>2632</v>
-      </c>
-      <c r="N807" t="s">
-        <v>2633</v>
-      </c>
-      <c r="O807" t="s">
-        <v>3484</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="808" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>2634</v>
+        <v>2907</v>
+      </c>
+      <c r="B808" t="s">
+        <v>169</v>
+      </c>
+      <c r="C808" t="s">
+        <v>682</v>
       </c>
       <c r="D808" t="s">
-        <v>2635</v>
-      </c>
-      <c r="I808" t="s">
-        <v>312</v>
-      </c>
-      <c r="K808">
-        <v>45</v>
+        <v>683</v>
+      </c>
+      <c r="F808" t="s">
+        <v>684</v>
       </c>
       <c r="L808" t="s">
         <v>3996</v>
       </c>
       <c r="M808" t="s">
-        <v>2636</v>
+        <v>685</v>
       </c>
     </row>
     <row r="809" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>2984</v>
+        <v>3518</v>
+      </c>
+      <c r="B809" t="s">
+        <v>14</v>
       </c>
       <c r="D809" t="s">
-        <v>2637</v>
+        <v>2259</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2260</v>
       </c>
       <c r="I809" t="s">
         <v>312</v>
       </c>
       <c r="K809">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L809" t="s">
-        <v>3996</v>
+        <v>297</v>
       </c>
       <c r="M809" t="s">
-        <v>2985</v>
+        <v>2261</v>
+      </c>
+      <c r="O809" t="s">
+        <v>3517</v>
       </c>
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>2907</v>
+        <v>2838</v>
       </c>
       <c r="B810" t="s">
-        <v>169</v>
-      </c>
-      <c r="C810" t="s">
-        <v>682</v>
+        <v>14</v>
       </c>
       <c r="D810" t="s">
-        <v>683</v>
+        <v>2060</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2061</v>
       </c>
       <c r="F810" t="s">
-        <v>684</v>
+        <v>2062</v>
+      </c>
+      <c r="G810" t="s">
+        <v>2063</v>
       </c>
       <c r="L810" t="s">
-        <v>3996</v>
+        <v>16</v>
       </c>
       <c r="M810" t="s">
-        <v>685</v>
+        <v>2064</v>
+      </c>
+      <c r="N810" t="s">
+        <v>2065</v>
+      </c>
+      <c r="O810" t="s">
+        <v>3485</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>3518</v>
-      </c>
-      <c r="B811" t="s">
-        <v>14</v>
+        <v>3949</v>
       </c>
       <c r="D811" t="s">
-        <v>2259</v>
-      </c>
-      <c r="E811" t="s">
-        <v>2259</v>
+        <v>385</v>
       </c>
       <c r="F811" t="s">
-        <v>2260</v>
-      </c>
-      <c r="I811" t="s">
-        <v>312</v>
-      </c>
-      <c r="K811">
-        <v>60</v>
+        <v>386</v>
+      </c>
+      <c r="G811" t="s">
+        <v>387</v>
       </c>
       <c r="L811" t="s">
-        <v>297</v>
+        <v>3996</v>
       </c>
       <c r="M811" t="s">
-        <v>2261</v>
-      </c>
-      <c r="O811" t="s">
-        <v>3517</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="812" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>2838</v>
+        <v>2828</v>
       </c>
       <c r="B812" t="s">
         <v>14</v>
       </c>
       <c r="D812" t="s">
-        <v>2060</v>
+        <v>769</v>
       </c>
       <c r="E812" t="s">
-        <v>2061</v>
+        <v>770</v>
       </c>
       <c r="F812" t="s">
-        <v>2062</v>
+        <v>771</v>
       </c>
       <c r="G812" t="s">
-        <v>2063</v>
+        <v>772</v>
+      </c>
+      <c r="K812">
+        <v>72</v>
       </c>
       <c r="L812" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="M812" t="s">
-        <v>2064</v>
+        <v>773</v>
       </c>
       <c r="N812" t="s">
-        <v>2065</v>
+        <v>774</v>
       </c>
       <c r="O812" t="s">
-        <v>3485</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="813" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>3949</v>
+        <v>4303</v>
       </c>
       <c r="D813" t="s">
-        <v>385</v>
-      </c>
-      <c r="F813" t="s">
-        <v>386</v>
-      </c>
-      <c r="G813" t="s">
-        <v>387</v>
+        <v>775</v>
       </c>
       <c r="L813" t="s">
         <v>3996</v>
       </c>
       <c r="M813" t="s">
-        <v>3950</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="814" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>2828</v>
+        <v>2872</v>
       </c>
       <c r="B814" t="s">
         <v>14</v>
       </c>
       <c r="D814" t="s">
-        <v>769</v>
+        <v>695</v>
       </c>
       <c r="E814" t="s">
-        <v>770</v>
+        <v>695</v>
       </c>
       <c r="F814" t="s">
-        <v>771</v>
-      </c>
-      <c r="G814" t="s">
-        <v>772</v>
-      </c>
-      <c r="K814">
-        <v>72</v>
+        <v>696</v>
       </c>
       <c r="L814" t="s">
-        <v>146</v>
+        <v>471</v>
       </c>
       <c r="M814" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="N814" t="s">
-        <v>774</v>
+        <v>698</v>
       </c>
       <c r="O814" t="s">
-        <v>3502</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="815" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>4309</v>
+        <v>4305</v>
       </c>
       <c r="D815" t="s">
-        <v>775</v>
+        <v>776</v>
+      </c>
+      <c r="I815" t="s">
+        <v>312</v>
+      </c>
+      <c r="K815">
+        <v>34</v>
       </c>
       <c r="L815" t="s">
         <v>3996</v>
       </c>
       <c r="M815" t="s">
-        <v>4310</v>
+        <v>4306</v>
+      </c>
+      <c r="N815" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="816" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>2872</v>
+        <v>2833</v>
       </c>
       <c r="B816" t="s">
         <v>14</v>
       </c>
       <c r="D816" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E816" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F816" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="L816" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="M816" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="N816" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="O816" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="817" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>4311</v>
+        <v>3493</v>
+      </c>
+      <c r="B817" t="s">
+        <v>14</v>
       </c>
       <c r="D817" t="s">
-        <v>776</v>
+        <v>2125</v>
+      </c>
+      <c r="E817" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2127</v>
       </c>
       <c r="I817" t="s">
-        <v>312</v>
-      </c>
-      <c r="K817">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="L817" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M817" t="s">
-        <v>4312</v>
+        <v>2128</v>
       </c>
       <c r="N817" t="s">
-        <v>777</v>
+        <v>2129</v>
+      </c>
+      <c r="O817" t="s">
+        <v>3492</v>
       </c>
     </row>
     <row r="818" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B818" t="s">
-        <v>14</v>
+        <v>2915</v>
       </c>
       <c r="D818" t="s">
-        <v>701</v>
-      </c>
-      <c r="E818" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F818" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="L818" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M818" t="s">
-        <v>704</v>
+        <v>2911</v>
       </c>
       <c r="N818" t="s">
-        <v>705</v>
-      </c>
-      <c r="O818" t="s">
-        <v>3488</v>
+        <v>708</v>
       </c>
     </row>
     <row r="819" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>3493</v>
+        <v>3040</v>
       </c>
       <c r="B819" t="s">
-        <v>14</v>
+        <v>169</v>
+      </c>
+      <c r="C819" t="s">
+        <v>709</v>
       </c>
       <c r="D819" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E819" t="s">
-        <v>2126</v>
+        <v>710</v>
       </c>
       <c r="F819" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I819" t="s">
-        <v>112</v>
+        <v>711</v>
+      </c>
+      <c r="G819" t="s">
+        <v>712</v>
       </c>
       <c r="L819" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M819" t="s">
-        <v>2128</v>
-      </c>
-      <c r="N819" t="s">
-        <v>2129</v>
-      </c>
-      <c r="O819" t="s">
-        <v>3492</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="820" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>2915</v>
+        <v>2841</v>
+      </c>
+      <c r="B820" t="s">
+        <v>14</v>
       </c>
       <c r="D820" t="s">
-        <v>706</v>
-      </c>
-      <c r="F820" t="s">
-        <v>707</v>
+        <v>692</v>
+      </c>
+      <c r="E820" t="s">
+        <v>693</v>
+      </c>
+      <c r="I820" t="s">
+        <v>312</v>
+      </c>
+      <c r="K820">
+        <v>54</v>
       </c>
       <c r="L820" t="s">
-        <v>3996</v>
+        <v>97</v>
       </c>
       <c r="M820" t="s">
-        <v>2911</v>
-      </c>
-      <c r="N820" t="s">
-        <v>708</v>
+        <v>694</v>
+      </c>
+      <c r="O820" t="s">
+        <v>3486</v>
       </c>
     </row>
     <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>3040</v>
-      </c>
-      <c r="B821" t="s">
-        <v>169</v>
-      </c>
-      <c r="C821" t="s">
-        <v>709</v>
+        <v>4290</v>
       </c>
       <c r="D821" t="s">
-        <v>710</v>
-      </c>
-      <c r="F821" t="s">
-        <v>711</v>
-      </c>
-      <c r="G821" t="s">
-        <v>712</v>
+        <v>699</v>
+      </c>
+      <c r="I821" t="s">
+        <v>312</v>
+      </c>
+      <c r="K821">
+        <v>53</v>
       </c>
       <c r="L821" t="s">
         <v>3996</v>
       </c>
       <c r="M821" t="s">
-        <v>3041</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="822" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>2841</v>
-      </c>
-      <c r="B822" t="s">
-        <v>14</v>
+        <v>4291</v>
       </c>
       <c r="D822" t="s">
-        <v>692</v>
-      </c>
-      <c r="E822" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="I822" t="s">
         <v>312</v>
       </c>
       <c r="K822">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L822" t="s">
-        <v>97</v>
+        <v>3996</v>
       </c>
       <c r="M822" t="s">
-        <v>694</v>
-      </c>
-      <c r="O822" t="s">
-        <v>3486</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="823" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>4296</v>
+        <v>3874</v>
+      </c>
+      <c r="B823" t="s">
+        <v>14</v>
       </c>
       <c r="D823" t="s">
-        <v>699</v>
-      </c>
-      <c r="I823" t="s">
-        <v>312</v>
-      </c>
-      <c r="K823">
-        <v>53</v>
+        <v>716</v>
+      </c>
+      <c r="F823" t="s">
+        <v>717</v>
+      </c>
+      <c r="G823" t="s">
+        <v>718</v>
       </c>
       <c r="L823" t="s">
-        <v>3996</v>
+        <v>715</v>
       </c>
       <c r="M823" t="s">
-        <v>4299</v>
+        <v>719</v>
+      </c>
+      <c r="N823" t="s">
+        <v>720</v>
+      </c>
+      <c r="O823" t="s">
+        <v>3571</v>
       </c>
     </row>
     <row r="824" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>4297</v>
+        <v>2865</v>
+      </c>
+      <c r="B824" t="s">
+        <v>14</v>
       </c>
       <c r="D824" t="s">
-        <v>700</v>
+        <v>312</v>
       </c>
       <c r="I824" t="s">
         <v>312</v>
       </c>
       <c r="K824">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L824" t="s">
-        <v>3996</v>
+        <v>690</v>
       </c>
       <c r="M824" t="s">
-        <v>4298</v>
+        <v>2084</v>
+      </c>
+      <c r="N824" t="s">
+        <v>2085</v>
+      </c>
+      <c r="O824" t="s">
+        <v>3489</v>
       </c>
     </row>
     <row r="825" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>3874</v>
+        <v>2916</v>
       </c>
       <c r="B825" t="s">
         <v>14</v>
       </c>
       <c r="D825" t="s">
-        <v>716</v>
-      </c>
-      <c r="F825" t="s">
-        <v>717</v>
-      </c>
-      <c r="G825" t="s">
-        <v>718</v>
+        <v>721</v>
+      </c>
+      <c r="I825" t="s">
+        <v>112</v>
       </c>
       <c r="L825" t="s">
-        <v>715</v>
+        <v>71</v>
       </c>
       <c r="M825" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N825" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O825" t="s">
-        <v>3571</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="826" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>2865</v>
-      </c>
-      <c r="B826" t="s">
-        <v>14</v>
+        <v>4288</v>
+      </c>
+      <c r="C826" t="s">
+        <v>3026</v>
       </c>
       <c r="D826" t="s">
-        <v>312</v>
-      </c>
-      <c r="I826" t="s">
-        <v>312</v>
-      </c>
-      <c r="K826">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="L826" t="s">
-        <v>690</v>
+        <v>3996</v>
       </c>
       <c r="M826" t="s">
-        <v>2084</v>
-      </c>
-      <c r="N826" t="s">
-        <v>2085</v>
-      </c>
-      <c r="O826" t="s">
-        <v>3489</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="827" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>2916</v>
+        <v>2829</v>
       </c>
       <c r="B827" t="s">
         <v>14</v>
       </c>
       <c r="D827" t="s">
-        <v>721</v>
-      </c>
-      <c r="I827" t="s">
-        <v>112</v>
+        <v>2101</v>
+      </c>
+      <c r="E827" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F827" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G827" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H827" t="s">
+        <v>2105</v>
       </c>
       <c r="L827" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="M827" t="s">
-        <v>722</v>
-      </c>
-      <c r="N827" t="s">
-        <v>723</v>
+        <v>2106</v>
       </c>
       <c r="O827" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="828" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B828" t="s">
+        <v>22</v>
+      </c>
+      <c r="C828" s="5" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D828" t="s">
+        <v>713</v>
+      </c>
+      <c r="I828" t="s">
+        <v>147</v>
+      </c>
+      <c r="L828" t="s">
+        <v>713</v>
+      </c>
+      <c r="M828" t="s">
+        <v>728</v>
+      </c>
+      <c r="O828" t="s">
         <v>4294</v>
-      </c>
-      <c r="C828" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D828" t="s">
-        <v>686</v>
-      </c>
-      <c r="L828" t="s">
-        <v>3996</v>
-      </c>
-      <c r="M828" t="s">
-        <v>4295</v>
       </c>
     </row>
     <row r="829" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>2829</v>
+        <v>3569</v>
       </c>
       <c r="B829" t="s">
         <v>14</v>
       </c>
       <c r="D829" t="s">
-        <v>2101</v>
-      </c>
-      <c r="E829" t="s">
-        <v>2102</v>
+        <v>2648</v>
       </c>
       <c r="F829" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G829" t="s">
-        <v>2104</v>
-      </c>
-      <c r="H829" t="s">
-        <v>2105</v>
+        <v>2649</v>
       </c>
       <c r="L829" t="s">
-        <v>91</v>
+        <v>715</v>
       </c>
       <c r="M829" t="s">
-        <v>2106</v>
+        <v>2650</v>
+      </c>
+      <c r="N829" t="s">
+        <v>2651</v>
       </c>
       <c r="O829" t="s">
-        <v>3491</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>4459</v>
-      </c>
-      <c r="B830" t="s">
-        <v>22</v>
-      </c>
-      <c r="C830" s="5" t="s">
-        <v>4443</v>
+        <v>2914</v>
+      </c>
+      <c r="C830" t="s">
+        <v>3026</v>
       </c>
       <c r="D830" t="s">
-        <v>713</v>
-      </c>
-      <c r="I830" t="s">
-        <v>147</v>
+        <v>687</v>
       </c>
       <c r="L830" t="s">
-        <v>713</v>
+        <v>3996</v>
       </c>
       <c r="M830" t="s">
-        <v>728</v>
-      </c>
-      <c r="O830" t="s">
-        <v>4300</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>3569</v>
+        <v>2842</v>
       </c>
       <c r="B831" t="s">
         <v>14</v>
       </c>
+      <c r="C831" t="s">
+        <v>729</v>
+      </c>
       <c r="D831" t="s">
-        <v>2648</v>
+        <v>730</v>
       </c>
       <c r="F831" t="s">
-        <v>2649</v>
+        <v>731</v>
       </c>
       <c r="L831" t="s">
         <v>715</v>
       </c>
       <c r="M831" t="s">
-        <v>2650</v>
+        <v>732</v>
       </c>
       <c r="N831" t="s">
-        <v>2651</v>
-      </c>
-      <c r="O831" t="s">
-        <v>3568</v>
+        <v>2845</v>
+      </c>
+      <c r="O831" s="7" t="s">
+        <v>3578</v>
       </c>
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>2914</v>
+        <v>4295</v>
       </c>
       <c r="C832" t="s">
-        <v>3026</v>
+        <v>734</v>
       </c>
       <c r="D832" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="L832" t="s">
         <v>3996</v>
       </c>
       <c r="M832" t="s">
-        <v>2910</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>2842</v>
-      </c>
-      <c r="B833" t="s">
-        <v>14</v>
-      </c>
-      <c r="C833" t="s">
-        <v>729</v>
-      </c>
-      <c r="D833" t="s">
-        <v>730</v>
-      </c>
-      <c r="F833" t="s">
-        <v>731</v>
+        <v>3055</v>
+      </c>
+      <c r="G833" t="s">
+        <v>733</v>
+      </c>
+      <c r="H833" t="s">
+        <v>733</v>
       </c>
       <c r="L833" t="s">
-        <v>715</v>
+        <v>3996</v>
       </c>
       <c r="M833" t="s">
-        <v>732</v>
-      </c>
-      <c r="N833" t="s">
-        <v>2845</v>
-      </c>
-      <c r="O833" s="7" t="s">
-        <v>3578</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="834" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>4301</v>
-      </c>
-      <c r="C834" t="s">
-        <v>734</v>
+        <v>2809</v>
+      </c>
+      <c r="B834" t="s">
+        <v>14</v>
       </c>
       <c r="D834" t="s">
-        <v>735</v>
+        <v>736</v>
+      </c>
+      <c r="I834" t="s">
+        <v>157</v>
       </c>
       <c r="L834" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M834" t="s">
-        <v>4302</v>
+        <v>737</v>
+      </c>
+      <c r="N834" t="s">
+        <v>738</v>
+      </c>
+      <c r="O834" t="s">
+        <v>3494</v>
       </c>
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>3055</v>
-      </c>
-      <c r="G835" t="s">
-        <v>733</v>
-      </c>
-      <c r="H835" t="s">
-        <v>733</v>
+        <v>2810</v>
+      </c>
+      <c r="B835" t="s">
+        <v>14</v>
+      </c>
+      <c r="D835" t="s">
+        <v>739</v>
+      </c>
+      <c r="E835" t="s">
+        <v>740</v>
+      </c>
+      <c r="F835" t="s">
+        <v>741</v>
       </c>
       <c r="L835" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M835" t="s">
-        <v>3056</v>
+        <v>742</v>
+      </c>
+      <c r="N835" t="s">
+        <v>743</v>
+      </c>
+      <c r="O835" t="s">
+        <v>3495</v>
       </c>
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B836" t="s">
         <v>14</v>
       </c>
-      <c r="D836" t="s">
-        <v>736</v>
-      </c>
-      <c r="I836" t="s">
-        <v>157</v>
+      <c r="E836" t="s">
+        <v>744</v>
+      </c>
+      <c r="G836" t="s">
+        <v>745</v>
       </c>
       <c r="L836" t="s">
         <v>292</v>
       </c>
       <c r="M836" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="N836" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="O836" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="837" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>2810</v>
+        <v>3689</v>
       </c>
       <c r="B837" t="s">
         <v>14</v>
       </c>
-      <c r="D837" t="s">
-        <v>739</v>
-      </c>
       <c r="E837" t="s">
-        <v>740</v>
-      </c>
-      <c r="F837" t="s">
-        <v>741</v>
+        <v>983</v>
       </c>
       <c r="L837" t="s">
         <v>292</v>
       </c>
       <c r="M837" t="s">
-        <v>742</v>
+        <v>3686</v>
       </c>
       <c r="N837" t="s">
-        <v>743</v>
+        <v>3688</v>
       </c>
       <c r="O837" t="s">
-        <v>3495</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="B838" t="s">
         <v>14</v>
       </c>
-      <c r="E838" t="s">
-        <v>744</v>
-      </c>
-      <c r="G838" t="s">
-        <v>745</v>
+      <c r="D838" t="s">
+        <v>309</v>
       </c>
       <c r="L838" t="s">
         <v>292</v>
       </c>
       <c r="M838" t="s">
-        <v>746</v>
+        <v>3837</v>
       </c>
       <c r="N838" t="s">
-        <v>747</v>
+        <v>3838</v>
       </c>
       <c r="O838" t="s">
-        <v>3496</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="839" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>3689</v>
+        <v>2821</v>
       </c>
       <c r="B839" t="s">
         <v>14</v>
       </c>
-      <c r="E839" t="s">
-        <v>983</v>
+      <c r="D839" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G839" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I839" t="s">
+        <v>53</v>
+      </c>
+      <c r="J839" t="s">
+        <v>54</v>
+      </c>
+      <c r="K839">
+        <v>4</v>
       </c>
       <c r="L839" t="s">
         <v>292</v>
       </c>
       <c r="M839" t="s">
-        <v>3686</v>
+        <v>2157</v>
       </c>
       <c r="N839" t="s">
-        <v>3688</v>
+        <v>2158</v>
       </c>
       <c r="O839" t="s">
-        <v>3687</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="840" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B840" t="s">
-        <v>14</v>
+        <v>3927</v>
       </c>
       <c r="D840" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L840" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M840" t="s">
-        <v>3837</v>
-      </c>
-      <c r="N840" t="s">
-        <v>3838</v>
-      </c>
-      <c r="O840" t="s">
-        <v>3839</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>2821</v>
+        <v>2813</v>
       </c>
       <c r="B841" t="s">
         <v>14</v>
       </c>
       <c r="D841" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F841" t="s">
-        <v>2156</v>
-      </c>
-      <c r="G841" t="s">
-        <v>2156</v>
+        <v>4358</v>
       </c>
       <c r="I841" t="s">
-        <v>53</v>
-      </c>
-      <c r="J841" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="K841">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L841" t="s">
         <v>292</v>
       </c>
       <c r="M841" t="s">
-        <v>2157</v>
+        <v>767</v>
       </c>
       <c r="N841" t="s">
-        <v>2158</v>
+        <v>768</v>
       </c>
       <c r="O841" t="s">
-        <v>3497</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="842" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>3927</v>
+        <v>3612</v>
+      </c>
+      <c r="B842" t="s">
+        <v>14</v>
       </c>
       <c r="D842" t="s">
-        <v>310</v>
+        <v>2141</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H842" t="s">
+        <v>2144</v>
       </c>
       <c r="L842" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M842" t="s">
-        <v>3928</v>
+        <v>3609</v>
+      </c>
+      <c r="N842" t="s">
+        <v>3611</v>
+      </c>
+      <c r="O842" t="s">
+        <v>3610</v>
       </c>
     </row>
     <row r="843" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>2813</v>
+        <v>2861</v>
       </c>
       <c r="B843" t="s">
         <v>14</v>
       </c>
       <c r="D843" t="s">
-        <v>4366</v>
+        <v>2195</v>
       </c>
       <c r="I843" t="s">
         <v>312</v>
       </c>
       <c r="K843">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L843" t="s">
-        <v>292</v>
+        <v>437</v>
       </c>
       <c r="M843" t="s">
-        <v>767</v>
+        <v>2196</v>
       </c>
       <c r="N843" t="s">
-        <v>768</v>
+        <v>2197</v>
       </c>
       <c r="O843" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="844" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>3612</v>
+        <v>3783</v>
       </c>
       <c r="B844" t="s">
         <v>14</v>
       </c>
       <c r="D844" t="s">
-        <v>2141</v>
+        <v>1119</v>
       </c>
       <c r="E844" t="s">
-        <v>2142</v>
+        <v>1120</v>
       </c>
       <c r="F844" t="s">
-        <v>2143</v>
-      </c>
-      <c r="H844" t="s">
-        <v>2144</v>
+        <v>1121</v>
       </c>
       <c r="L844" t="s">
         <v>292</v>
       </c>
       <c r="M844" t="s">
-        <v>3609</v>
+        <v>3781</v>
       </c>
       <c r="N844" t="s">
-        <v>3611</v>
+        <v>3784</v>
       </c>
       <c r="O844" t="s">
-        <v>3610</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="845" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B845" t="s">
-        <v>14</v>
+        <v>3912</v>
       </c>
       <c r="D845" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I845" t="s">
-        <v>312</v>
-      </c>
-      <c r="K845">
-        <v>6</v>
+        <v>1122</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1124</v>
       </c>
       <c r="L845" t="s">
-        <v>437</v>
+        <v>3996</v>
       </c>
       <c r="M845" t="s">
-        <v>2196</v>
-      </c>
-      <c r="N845" t="s">
-        <v>2197</v>
-      </c>
-      <c r="O845" t="s">
-        <v>3503</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="846" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>3783</v>
+        <v>2822</v>
       </c>
       <c r="B846" t="s">
         <v>14</v>
       </c>
       <c r="D846" t="s">
-        <v>1119</v>
+        <v>2200</v>
       </c>
       <c r="E846" t="s">
-        <v>1120</v>
+        <v>3533</v>
       </c>
       <c r="F846" t="s">
-        <v>1121</v>
+        <v>3073</v>
       </c>
       <c r="L846" t="s">
         <v>292</v>
       </c>
       <c r="M846" t="s">
-        <v>3781</v>
+        <v>2201</v>
       </c>
       <c r="N846" t="s">
-        <v>3784</v>
+        <v>2202</v>
       </c>
       <c r="O846" t="s">
-        <v>3782</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="847" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>3912</v>
+        <v>2834</v>
+      </c>
+      <c r="B847" t="s">
+        <v>14</v>
       </c>
       <c r="D847" t="s">
-        <v>1122</v>
+        <v>781</v>
       </c>
       <c r="E847" t="s">
-        <v>1123</v>
+        <v>782</v>
       </c>
       <c r="F847" t="s">
-        <v>1124</v>
+        <v>783</v>
+      </c>
+      <c r="I847" t="s">
+        <v>157</v>
+      </c>
+      <c r="K847">
+        <v>0</v>
       </c>
       <c r="L847" t="s">
-        <v>3996</v>
+        <v>16</v>
       </c>
       <c r="M847" t="s">
-        <v>3913</v>
+        <v>784</v>
+      </c>
+      <c r="N847" t="s">
+        <v>785</v>
+      </c>
+      <c r="O847" t="s">
+        <v>3505</v>
       </c>
     </row>
     <row r="848" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>2822</v>
+        <v>3507</v>
       </c>
       <c r="B848" t="s">
         <v>14</v>
       </c>
       <c r="D848" t="s">
-        <v>2200</v>
-      </c>
-      <c r="E848" t="s">
-        <v>3533</v>
-      </c>
-      <c r="F848" t="s">
-        <v>3073</v>
+        <v>2205</v>
+      </c>
+      <c r="F848">
+        <v>1000000000</v>
+      </c>
+      <c r="I848" t="s">
+        <v>222</v>
+      </c>
+      <c r="K848">
+        <v>26</v>
       </c>
       <c r="L848" t="s">
-        <v>292</v>
+        <v>471</v>
       </c>
       <c r="M848" t="s">
-        <v>2201</v>
+        <v>2206</v>
       </c>
       <c r="N848" t="s">
-        <v>2202</v>
+        <v>2207</v>
       </c>
       <c r="O848" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="849" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B849" t="s">
-        <v>14</v>
+        <v>2917</v>
       </c>
       <c r="D849" t="s">
-        <v>781</v>
-      </c>
-      <c r="E849" t="s">
-        <v>782</v>
-      </c>
-      <c r="F849" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="I849" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="K849">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L849" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M849" t="s">
-        <v>784</v>
-      </c>
-      <c r="N849" t="s">
-        <v>785</v>
-      </c>
-      <c r="O849" t="s">
-        <v>3505</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="850" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>3507</v>
-      </c>
-      <c r="B850" t="s">
-        <v>14</v>
+        <v>4301</v>
       </c>
       <c r="D850" t="s">
-        <v>2205</v>
-      </c>
-      <c r="F850">
-        <v>1000000000</v>
-      </c>
-      <c r="I850" t="s">
-        <v>222</v>
-      </c>
-      <c r="K850">
-        <v>26</v>
+        <v>2159</v>
       </c>
       <c r="L850" t="s">
-        <v>471</v>
+        <v>3996</v>
       </c>
       <c r="M850" t="s">
-        <v>2206</v>
-      </c>
-      <c r="N850" t="s">
-        <v>2207</v>
-      </c>
-      <c r="O850" t="s">
-        <v>3506</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="851" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>2917</v>
+        <v>2840</v>
+      </c>
+      <c r="B851" t="s">
+        <v>14</v>
       </c>
       <c r="D851" t="s">
-        <v>791</v>
-      </c>
-      <c r="I851" t="s">
-        <v>312</v>
-      </c>
-      <c r="K851">
-        <v>18</v>
+        <v>786</v>
+      </c>
+      <c r="F851" t="s">
+        <v>787</v>
       </c>
       <c r="L851" t="s">
-        <v>3996</v>
+        <v>788</v>
       </c>
       <c r="M851" t="s">
-        <v>2912</v>
+        <v>789</v>
+      </c>
+      <c r="N851" t="s">
+        <v>790</v>
+      </c>
+      <c r="O851" t="s">
+        <v>3580</v>
       </c>
     </row>
     <row r="852" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>4307</v>
+        <v>2814</v>
+      </c>
+      <c r="B852" t="s">
+        <v>14</v>
       </c>
       <c r="D852" t="s">
-        <v>2159</v>
+        <v>2208</v>
+      </c>
+      <c r="F852" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I852" t="s">
+        <v>176</v>
+      </c>
+      <c r="K852">
+        <v>8</v>
       </c>
       <c r="L852" t="s">
-        <v>3996</v>
+        <v>437</v>
       </c>
       <c r="M852" t="s">
-        <v>4308</v>
+        <v>2209</v>
+      </c>
+      <c r="N852" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O852" t="s">
+        <v>3508</v>
       </c>
     </row>
     <row r="853" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>2840</v>
+        <v>2870</v>
       </c>
       <c r="B853" t="s">
         <v>14</v>
       </c>
       <c r="D853" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="F853" t="s">
-        <v>787</v>
+        <v>796</v>
+      </c>
+      <c r="G853" t="s">
+        <v>797</v>
       </c>
       <c r="L853" t="s">
-        <v>788</v>
+        <v>3997</v>
       </c>
       <c r="M853" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="N853" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="O853" t="s">
-        <v>3580</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="854" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>2814</v>
+        <v>3843</v>
       </c>
       <c r="B854" t="s">
         <v>14</v>
       </c>
       <c r="D854" t="s">
-        <v>2208</v>
-      </c>
-      <c r="F854" t="s">
-        <v>2208</v>
-      </c>
-      <c r="I854" t="s">
-        <v>176</v>
-      </c>
-      <c r="K854">
-        <v>8</v>
+        <v>748</v>
+      </c>
+      <c r="E854" t="s">
+        <v>749</v>
       </c>
       <c r="L854" t="s">
-        <v>437</v>
-      </c>
-      <c r="M854" t="s">
-        <v>2209</v>
-      </c>
-      <c r="N854" t="s">
-        <v>2210</v>
+        <v>292</v>
+      </c>
+      <c r="M854" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="N854" s="7" t="s">
+        <v>3841</v>
       </c>
       <c r="O854" t="s">
-        <v>3508</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="855" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>2870</v>
+        <v>2823</v>
       </c>
       <c r="B855" t="s">
-        <v>14</v>
+        <v>800</v>
+      </c>
+      <c r="C855" t="s">
+        <v>801</v>
       </c>
       <c r="D855" t="s">
-        <v>795</v>
-      </c>
-      <c r="F855" t="s">
-        <v>796</v>
-      </c>
-      <c r="G855" t="s">
-        <v>797</v>
+        <v>802</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H855" t="s">
+        <v>803</v>
       </c>
       <c r="L855" t="s">
-        <v>3997</v>
+        <v>690</v>
       </c>
       <c r="M855" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="N855" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="O855" t="s">
-        <v>3509</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="856" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>3843</v>
+        <v>3705</v>
       </c>
       <c r="B856" t="s">
         <v>14</v>
       </c>
       <c r="D856" t="s">
-        <v>748</v>
-      </c>
-      <c r="E856" t="s">
-        <v>749</v>
+        <v>3700</v>
+      </c>
+      <c r="F856" t="s">
+        <v>3701</v>
       </c>
       <c r="L856" t="s">
         <v>292</v>
       </c>
-      <c r="M856" s="4" t="s">
-        <v>3840</v>
-      </c>
-      <c r="N856" s="7" t="s">
-        <v>3841</v>
+      <c r="M856" t="s">
+        <v>3703</v>
+      </c>
+      <c r="N856" s="8" t="s">
+        <v>3704</v>
       </c>
       <c r="O856" t="s">
-        <v>3842</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="857" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="B857" t="s">
-        <v>800</v>
-      </c>
-      <c r="C857" t="s">
-        <v>801</v>
+        <v>14</v>
       </c>
       <c r="D857" t="s">
-        <v>802</v>
+        <v>2220</v>
       </c>
       <c r="E857" t="s">
-        <v>2802</v>
-      </c>
-      <c r="H857" t="s">
-        <v>803</v>
+        <v>2221</v>
+      </c>
+      <c r="F857" t="s">
+        <v>2222</v>
       </c>
       <c r="L857" t="s">
-        <v>690</v>
+        <v>292</v>
       </c>
       <c r="M857" t="s">
-        <v>804</v>
+        <v>2223</v>
       </c>
       <c r="N857" t="s">
-        <v>805</v>
+        <v>2224</v>
       </c>
       <c r="O857" t="s">
-        <v>3600</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="858" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>3705</v>
+        <v>3792</v>
       </c>
       <c r="B858" t="s">
         <v>14</v>
       </c>
       <c r="D858" t="s">
-        <v>3700</v>
+        <v>2090</v>
       </c>
       <c r="F858" t="s">
-        <v>3701</v>
+        <v>2091</v>
+      </c>
+      <c r="I858" t="s">
+        <v>157</v>
+      </c>
+      <c r="K858">
+        <v>1</v>
       </c>
       <c r="L858" t="s">
         <v>292</v>
       </c>
       <c r="M858" t="s">
-        <v>3703</v>
-      </c>
-      <c r="N858" s="8" t="s">
-        <v>3704</v>
+        <v>3793</v>
+      </c>
+      <c r="N858" t="s">
+        <v>3795</v>
       </c>
       <c r="O858" t="s">
-        <v>3702</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>2824</v>
+        <v>2843</v>
       </c>
       <c r="B859" t="s">
         <v>14</v>
       </c>
       <c r="D859" t="s">
-        <v>2220</v>
+        <v>806</v>
       </c>
       <c r="E859" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F859" t="s">
-        <v>2222</v>
+        <v>807</v>
       </c>
       <c r="L859" t="s">
-        <v>292</v>
+        <v>715</v>
       </c>
       <c r="M859" t="s">
-        <v>2223</v>
+        <v>808</v>
       </c>
       <c r="N859" t="s">
-        <v>2224</v>
+        <v>809</v>
       </c>
       <c r="O859" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="860" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>3792</v>
-      </c>
-      <c r="B860" t="s">
-        <v>14</v>
+        <v>2918</v>
       </c>
       <c r="D860" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F860" t="s">
-        <v>2091</v>
+        <v>812</v>
       </c>
       <c r="I860" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="K860">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L860" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M860" t="s">
-        <v>3793</v>
-      </c>
-      <c r="N860" t="s">
-        <v>3795</v>
-      </c>
-      <c r="O860" t="s">
-        <v>3794</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="861" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>2843</v>
+        <v>3699</v>
       </c>
       <c r="B861" t="s">
         <v>14</v>
       </c>
       <c r="D861" t="s">
-        <v>806</v>
+        <v>1078</v>
       </c>
       <c r="E861" t="s">
-        <v>807</v>
+        <v>1079</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1080</v>
       </c>
       <c r="L861" t="s">
-        <v>715</v>
+        <v>292</v>
       </c>
       <c r="M861" t="s">
-        <v>808</v>
+        <v>3696</v>
       </c>
       <c r="N861" t="s">
-        <v>809</v>
+        <v>3697</v>
       </c>
       <c r="O861" t="s">
-        <v>3513</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="862" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>2918</v>
+        <v>3396</v>
+      </c>
+      <c r="B862" t="s">
+        <v>14</v>
       </c>
       <c r="D862" t="s">
-        <v>812</v>
-      </c>
-      <c r="I862" t="s">
-        <v>312</v>
-      </c>
-      <c r="K862">
-        <v>12</v>
+        <v>2119</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F862" t="s">
+        <v>2121</v>
       </c>
       <c r="L862" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M862" t="s">
-        <v>2913</v>
+        <v>2122</v>
+      </c>
+      <c r="N862" s="7" t="s">
+        <v>3395</v>
+      </c>
+      <c r="O862" t="s">
+        <v>3394</v>
       </c>
     </row>
     <row r="863" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>3699</v>
-      </c>
-      <c r="B863" t="s">
-        <v>14</v>
+        <v>4056</v>
       </c>
       <c r="D863" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="E863" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="F863" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="L863" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M863" t="s">
-        <v>3696</v>
+        <v>4057</v>
       </c>
       <c r="N863" t="s">
-        <v>3697</v>
-      </c>
-      <c r="O863" t="s">
-        <v>3698</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B864" t="s">
-        <v>14</v>
+        <v>4059</v>
       </c>
       <c r="D864" t="s">
-        <v>2119</v>
+        <v>1081</v>
       </c>
       <c r="E864" t="s">
-        <v>2120</v>
+        <v>1082</v>
       </c>
       <c r="F864" t="s">
-        <v>2121</v>
+        <v>1083</v>
       </c>
       <c r="L864" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M864" t="s">
-        <v>2122</v>
-      </c>
-      <c r="N864" s="7" t="s">
-        <v>3395</v>
-      </c>
-      <c r="O864" t="s">
-        <v>3394</v>
+        <v>4060</v>
+      </c>
+      <c r="N864" t="s">
+        <v>4061</v>
       </c>
     </row>
     <row r="865" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>4056</v>
+        <v>2848</v>
+      </c>
+      <c r="B865" t="s">
+        <v>14</v>
       </c>
       <c r="D865" t="s">
-        <v>1084</v>
+        <v>2722</v>
       </c>
       <c r="E865" t="s">
-        <v>1085</v>
+        <v>2723</v>
       </c>
       <c r="F865" t="s">
-        <v>1084</v>
+        <v>2724</v>
+      </c>
+      <c r="I865" t="s">
+        <v>312</v>
       </c>
       <c r="L865" t="s">
-        <v>3996</v>
+        <v>715</v>
       </c>
       <c r="M865" t="s">
-        <v>4057</v>
+        <v>2725</v>
       </c>
       <c r="N865" t="s">
-        <v>4058</v>
+        <v>2726</v>
+      </c>
+      <c r="O865" t="s">
+        <v>3570</v>
       </c>
     </row>
     <row r="866" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>4059</v>
+        <v>2988</v>
       </c>
       <c r="D866" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E866" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F866" t="s">
-        <v>1083</v>
+        <v>2727</v>
       </c>
       <c r="L866" t="s">
         <v>3996</v>
       </c>
       <c r="M866" t="s">
-        <v>4060</v>
+        <v>2989</v>
       </c>
       <c r="N866" t="s">
-        <v>4061</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="867" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>2848</v>
+        <v>3625</v>
       </c>
       <c r="B867" t="s">
         <v>14</v>
       </c>
       <c r="D867" t="s">
-        <v>2722</v>
-      </c>
-      <c r="E867" t="s">
-        <v>2723</v>
-      </c>
-      <c r="F867" t="s">
-        <v>2724</v>
+        <v>1654</v>
       </c>
       <c r="I867" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="L867" t="s">
-        <v>715</v>
+        <v>292</v>
       </c>
       <c r="M867" t="s">
-        <v>2725</v>
+        <v>3623</v>
       </c>
       <c r="N867" t="s">
-        <v>2726</v>
+        <v>3624</v>
       </c>
       <c r="O867" t="s">
-        <v>3570</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>2988</v>
+        <v>3670</v>
+      </c>
+      <c r="B868" t="s">
+        <v>14</v>
       </c>
       <c r="D868" t="s">
-        <v>2727</v>
+        <v>646</v>
       </c>
       <c r="L868" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M868" t="s">
-        <v>2989</v>
+        <v>3668</v>
       </c>
       <c r="N868" t="s">
-        <v>2728</v>
+        <v>3669</v>
+      </c>
+      <c r="O868" t="s">
+        <v>3667</v>
       </c>
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>3625</v>
+        <v>3875</v>
       </c>
       <c r="B869" t="s">
         <v>14</v>
       </c>
       <c r="D869" t="s">
-        <v>1654</v>
+        <v>2279</v>
       </c>
       <c r="I869" t="s">
-        <v>157</v>
+        <v>312</v>
+      </c>
+      <c r="K869">
+        <v>36</v>
       </c>
       <c r="L869" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="M869" t="s">
-        <v>3623</v>
+        <v>2280</v>
       </c>
       <c r="N869" t="s">
-        <v>3624</v>
+        <v>2281</v>
       </c>
       <c r="O869" t="s">
-        <v>3622</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>3670</v>
-      </c>
-      <c r="B870" t="s">
-        <v>14</v>
+        <v>4315</v>
       </c>
       <c r="D870" t="s">
-        <v>646</v>
+        <v>2282</v>
+      </c>
+      <c r="I870" t="s">
+        <v>312</v>
+      </c>
+      <c r="K870">
+        <v>64</v>
       </c>
       <c r="L870" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M870" t="s">
-        <v>3668</v>
+        <v>4316</v>
       </c>
       <c r="N870" t="s">
-        <v>3669</v>
-      </c>
-      <c r="O870" t="s">
-        <v>3667</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>3875</v>
-      </c>
-      <c r="B871" t="s">
-        <v>14</v>
+        <v>4318</v>
       </c>
       <c r="D871" t="s">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="I871" t="s">
         <v>312</v>
       </c>
       <c r="K871">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L871" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M871" t="s">
-        <v>2280</v>
+        <v>4317</v>
       </c>
       <c r="N871" t="s">
-        <v>2281</v>
-      </c>
-      <c r="O871" t="s">
-        <v>3519</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>4321</v>
+        <v>2836</v>
+      </c>
+      <c r="B872" t="s">
+        <v>14</v>
       </c>
       <c r="D872" t="s">
-        <v>2282</v>
+        <v>2760</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1086</v>
       </c>
       <c r="I872" t="s">
         <v>312</v>
       </c>
       <c r="K872">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L872" t="s">
-        <v>3996</v>
+        <v>16</v>
       </c>
       <c r="M872" t="s">
-        <v>4322</v>
+        <v>1087</v>
       </c>
       <c r="N872" t="s">
-        <v>2283</v>
+        <v>1088</v>
+      </c>
+      <c r="O872" t="s">
+        <v>3520</v>
       </c>
     </row>
     <row r="873" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>4324</v>
-      </c>
-      <c r="D873" t="s">
-        <v>2284</v>
-      </c>
-      <c r="I873" t="s">
-        <v>312</v>
-      </c>
-      <c r="K873">
-        <v>35</v>
+        <v>2815</v>
+      </c>
+      <c r="B873" t="s">
+        <v>14</v>
+      </c>
+      <c r="F873" t="s">
+        <v>813</v>
       </c>
       <c r="L873" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M873" t="s">
-        <v>4323</v>
+        <v>814</v>
       </c>
       <c r="N873" t="s">
-        <v>2285</v>
+        <v>815</v>
+      </c>
+      <c r="O873" t="s">
+        <v>3514</v>
       </c>
     </row>
     <row r="874" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B874" t="s">
         <v>14</v>
       </c>
       <c r="D874" t="s">
-        <v>2760</v>
+        <v>829</v>
       </c>
       <c r="E874" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I874" t="s">
-        <v>312</v>
-      </c>
-      <c r="K874">
-        <v>16</v>
+        <v>830</v>
+      </c>
+      <c r="F874" t="s">
+        <v>831</v>
       </c>
       <c r="L874" t="s">
         <v>16</v>
       </c>
       <c r="M874" t="s">
-        <v>1087</v>
+        <v>832</v>
       </c>
       <c r="N874" t="s">
-        <v>1088</v>
+        <v>833</v>
       </c>
       <c r="O874" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="875" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>2815</v>
+        <v>4314</v>
       </c>
       <c r="B875" t="s">
-        <v>14</v>
-      </c>
-      <c r="F875" t="s">
-        <v>813</v>
+        <v>22</v>
+      </c>
+      <c r="C875" t="s">
+        <v>23</v>
+      </c>
+      <c r="D875" t="s">
+        <v>816</v>
+      </c>
+      <c r="I875" t="s">
+        <v>25</v>
       </c>
       <c r="L875" t="s">
         <v>292</v>
       </c>
       <c r="M875" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="N875" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="O875" t="s">
-        <v>3514</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="876" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>2835</v>
+        <v>2816</v>
       </c>
       <c r="B876" t="s">
         <v>14</v>
       </c>
       <c r="D876" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="E876" t="s">
-        <v>830</v>
-      </c>
-      <c r="F876" t="s">
-        <v>831</v>
+        <v>45</v>
       </c>
       <c r="L876" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="M876" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N876" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="O876" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="877" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>4320</v>
+        <v>3015</v>
       </c>
       <c r="B877" t="s">
-        <v>22</v>
-      </c>
-      <c r="C877" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D877" t="s">
-        <v>816</v>
-      </c>
-      <c r="I877" t="s">
-        <v>25</v>
+        <v>778</v>
+      </c>
+      <c r="F877" t="s">
+        <v>779</v>
+      </c>
+      <c r="G877" t="s">
+        <v>4408</v>
+      </c>
+      <c r="H877" t="s">
+        <v>780</v>
       </c>
       <c r="L877" t="s">
         <v>292</v>
       </c>
       <c r="M877" t="s">
-        <v>817</v>
+        <v>3016</v>
       </c>
       <c r="N877" t="s">
-        <v>818</v>
+        <v>3017</v>
       </c>
       <c r="O877" t="s">
-        <v>4319</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>2816</v>
+        <v>3516</v>
       </c>
       <c r="B878" t="s">
         <v>14</v>
       </c>
-      <c r="D878" t="s">
-        <v>834</v>
-      </c>
       <c r="E878" t="s">
-        <v>45</v>
+        <v>819</v>
+      </c>
+      <c r="I878" t="s">
+        <v>157</v>
+      </c>
+      <c r="J878" t="s">
+        <v>820</v>
+      </c>
+      <c r="K878">
+        <v>0</v>
       </c>
       <c r="L878" t="s">
         <v>292</v>
       </c>
       <c r="M878" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="N878" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="O878" t="s">
-        <v>3522</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="879" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>3015</v>
+        <v>2817</v>
       </c>
       <c r="B879" t="s">
         <v>14</v>
       </c>
       <c r="D879" t="s">
-        <v>778</v>
-      </c>
-      <c r="F879" t="s">
-        <v>779</v>
-      </c>
-      <c r="G879" t="s">
-        <v>4416</v>
+        <v>838</v>
       </c>
       <c r="H879" t="s">
-        <v>780</v>
+        <v>839</v>
       </c>
       <c r="L879" t="s">
         <v>292</v>
       </c>
       <c r="M879" t="s">
-        <v>3016</v>
+        <v>840</v>
       </c>
       <c r="N879" t="s">
-        <v>3017</v>
+        <v>841</v>
       </c>
       <c r="O879" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="880" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>3516</v>
+        <v>2638</v>
       </c>
       <c r="B880" t="s">
-        <v>14</v>
-      </c>
-      <c r="E880" t="s">
-        <v>819</v>
-      </c>
-      <c r="I880" t="s">
-        <v>157</v>
-      </c>
-      <c r="J880" t="s">
-        <v>820</v>
-      </c>
-      <c r="K880">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="C880" t="s">
+        <v>682</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F880" t="s">
+        <v>2640</v>
       </c>
       <c r="L880" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M880" t="s">
-        <v>821</v>
-      </c>
-      <c r="N880" t="s">
-        <v>822</v>
-      </c>
-      <c r="O880" t="s">
-        <v>3515</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="881" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>2817</v>
+        <v>2656</v>
       </c>
       <c r="B881" t="s">
         <v>14</v>
       </c>
+      <c r="C881" t="s">
+        <v>2652</v>
+      </c>
       <c r="D881" t="s">
-        <v>838</v>
-      </c>
-      <c r="H881" t="s">
-        <v>839</v>
+        <v>2653</v>
+      </c>
+      <c r="F881" t="s">
+        <v>2654</v>
       </c>
       <c r="L881" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="M881" t="s">
-        <v>840</v>
+        <v>2655</v>
       </c>
       <c r="N881" t="s">
-        <v>841</v>
+        <v>2656</v>
       </c>
       <c r="O881" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="882" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B882" t="s">
-        <v>169</v>
+        <v>4320</v>
       </c>
       <c r="C882" t="s">
-        <v>682</v>
-      </c>
-      <c r="D882" t="s">
-        <v>2639</v>
-      </c>
-      <c r="F882" t="s">
-        <v>2640</v>
+        <v>2657</v>
+      </c>
+      <c r="G882" t="s">
+        <v>2658</v>
       </c>
       <c r="L882" t="s">
         <v>3996</v>
       </c>
       <c r="M882" t="s">
-        <v>2641</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="883" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>2656</v>
+        <v>4322</v>
       </c>
       <c r="B883" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C883" t="s">
-        <v>2652</v>
+        <v>2659</v>
       </c>
       <c r="D883" t="s">
-        <v>2653</v>
-      </c>
-      <c r="F883" t="s">
-        <v>2654</v>
+        <v>2660</v>
+      </c>
+      <c r="I883" t="s">
+        <v>65</v>
+      </c>
+      <c r="K883">
+        <v>11</v>
       </c>
       <c r="L883" t="s">
-        <v>16</v>
+        <v>3996</v>
       </c>
       <c r="M883" t="s">
-        <v>2655</v>
+        <v>4323</v>
       </c>
       <c r="N883" t="s">
-        <v>2656</v>
-      </c>
-      <c r="O883" t="s">
-        <v>3525</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="884" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>4326</v>
+        <v>4329</v>
+      </c>
+      <c r="B884" t="s">
+        <v>22</v>
       </c>
       <c r="C884" t="s">
-        <v>2657</v>
-      </c>
-      <c r="G884" t="s">
-        <v>2658</v>
+        <v>23</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I884" t="s">
+        <v>25</v>
       </c>
       <c r="L884" t="s">
-        <v>3996</v>
+        <v>146</v>
       </c>
       <c r="M884" t="s">
-        <v>4327</v>
+        <v>2665</v>
+      </c>
+      <c r="N884" t="s">
+        <v>4328</v>
       </c>
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>4328</v>
-      </c>
-      <c r="B885" t="s">
-        <v>22</v>
+        <v>4324</v>
       </c>
       <c r="C885" t="s">
-        <v>2659</v>
+        <v>2675</v>
       </c>
       <c r="D885" t="s">
-        <v>2660</v>
-      </c>
-      <c r="I885" t="s">
-        <v>65</v>
-      </c>
-      <c r="K885">
-        <v>11</v>
+        <v>2639</v>
       </c>
       <c r="L885" t="s">
         <v>3996</v>
       </c>
       <c r="M885" t="s">
-        <v>4329</v>
-      </c>
-      <c r="N885" t="s">
-        <v>2661</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="886" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>4337</v>
-      </c>
-      <c r="B886" t="s">
-        <v>22</v>
+        <v>4327</v>
       </c>
       <c r="C886" t="s">
-        <v>23</v>
+        <v>2677</v>
       </c>
       <c r="D886" t="s">
-        <v>2664</v>
-      </c>
-      <c r="I886" t="s">
-        <v>25</v>
+        <v>2678</v>
+      </c>
+      <c r="F886" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G886" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H886" t="s">
+        <v>2680</v>
       </c>
       <c r="L886" t="s">
-        <v>146</v>
+        <v>3996</v>
       </c>
       <c r="M886" t="s">
-        <v>2665</v>
-      </c>
-      <c r="N886" t="s">
-        <v>4336</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="887" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>4332</v>
-      </c>
-      <c r="C887" t="s">
-        <v>2675</v>
+        <v>4330</v>
       </c>
       <c r="D887" t="s">
-        <v>2639</v>
+        <v>2676</v>
       </c>
       <c r="L887" t="s">
         <v>3996</v>
       </c>
       <c r="M887" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="888" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>4335</v>
-      </c>
-      <c r="C888" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D888" t="s">
-        <v>2678</v>
-      </c>
-      <c r="F888" t="s">
-        <v>2679</v>
+        <v>4332</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2662</v>
       </c>
       <c r="G888" t="s">
-        <v>2680</v>
+        <v>2663</v>
       </c>
       <c r="H888" t="s">
-        <v>2680</v>
+        <v>2663</v>
       </c>
       <c r="L888" t="s">
         <v>3996</v>
       </c>
       <c r="M888" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="889" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>4330</v>
+        <v>2986</v>
       </c>
       <c r="B889" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C889" t="s">
-        <v>2669</v>
+        <v>2147</v>
       </c>
       <c r="D889" t="s">
-        <v>2670</v>
-      </c>
-      <c r="I889" t="s">
-        <v>65</v>
-      </c>
-      <c r="K889">
-        <v>8</v>
+        <v>2642</v>
+      </c>
+      <c r="F889" t="s">
+        <v>2643</v>
       </c>
       <c r="L889" t="s">
         <v>3996</v>
       </c>
       <c r="M889" t="s">
-        <v>4331</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="890" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>4338</v>
+        <v>2827</v>
+      </c>
+      <c r="B890" t="s">
+        <v>22</v>
+      </c>
+      <c r="C890" t="s">
+        <v>30</v>
       </c>
       <c r="D890" t="s">
-        <v>2676</v>
+        <v>2644</v>
+      </c>
+      <c r="I890" t="s">
+        <v>32</v>
       </c>
       <c r="L890" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M890" t="s">
-        <v>4339</v>
+        <v>2645</v>
+      </c>
+      <c r="N890" t="s">
+        <v>2646</v>
+      </c>
+      <c r="O890" t="s">
+        <v>4319</v>
       </c>
     </row>
     <row r="891" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>4340</v>
-      </c>
-      <c r="E891" t="s">
-        <v>2662</v>
-      </c>
-      <c r="G891" t="s">
-        <v>2663</v>
-      </c>
-      <c r="H891" t="s">
-        <v>2663</v>
+        <v>4473</v>
+      </c>
+      <c r="B891" t="s">
+        <v>22</v>
+      </c>
+      <c r="C891" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D891" t="s">
+        <v>2670</v>
+      </c>
+      <c r="I891" t="s">
+        <v>65</v>
+      </c>
+      <c r="K891">
+        <v>8</v>
       </c>
       <c r="L891" t="s">
         <v>3996</v>
       </c>
       <c r="M891" t="s">
-        <v>4341</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="892" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>2986</v>
+        <v>3604</v>
       </c>
       <c r="B892" t="s">
-        <v>169</v>
-      </c>
-      <c r="C892" t="s">
-        <v>2147</v>
+        <v>14</v>
       </c>
       <c r="D892" t="s">
-        <v>2642</v>
+        <v>104</v>
       </c>
       <c r="F892" t="s">
-        <v>2643</v>
+        <v>1730</v>
+      </c>
+      <c r="I892" t="s">
+        <v>105</v>
       </c>
       <c r="L892" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M892" t="s">
-        <v>2987</v>
+        <v>3789</v>
+      </c>
+      <c r="N892" t="s">
+        <v>3791</v>
+      </c>
+      <c r="O892" t="s">
+        <v>3790</v>
       </c>
     </row>
     <row r="893" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A893" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B893" t="s">
-        <v>22</v>
-      </c>
-      <c r="C893" t="s">
-        <v>30</v>
-      </c>
-      <c r="D893" t="s">
-        <v>2644</v>
-      </c>
-      <c r="I893" t="s">
-        <v>32</v>
-      </c>
-      <c r="L893" t="s">
+      <c r="A893" s="11" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B893" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C893" s="11"/>
+      <c r="D893" s="11"/>
+      <c r="E893" s="11" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F893" s="11"/>
+      <c r="G893" s="11"/>
+      <c r="H893" s="11"/>
+      <c r="I893" s="11"/>
+      <c r="J893" s="11"/>
+      <c r="K893" s="11"/>
+      <c r="L893" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="M893" t="s">
-        <v>2645</v>
-      </c>
-      <c r="N893" t="s">
-        <v>2646</v>
-      </c>
-      <c r="O893" t="s">
-        <v>4325</v>
+      <c r="M893" s="11" t="s">
+        <v>3766</v>
+      </c>
+      <c r="N893" s="11" t="s">
+        <v>3768</v>
+      </c>
+      <c r="O893" s="11" t="s">
+        <v>3767</v>
       </c>
     </row>
     <row r="894" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>3604</v>
+        <v>3876</v>
       </c>
       <c r="B894" t="s">
         <v>14</v>
       </c>
-      <c r="D894" t="s">
-        <v>104</v>
-      </c>
-      <c r="F894" t="s">
-        <v>1730</v>
-      </c>
-      <c r="I894" t="s">
-        <v>105</v>
+      <c r="E894" t="s">
+        <v>2024</v>
       </c>
       <c r="L894" t="s">
         <v>292</v>
       </c>
       <c r="M894" t="s">
-        <v>3789</v>
+        <v>3799</v>
       </c>
       <c r="N894" t="s">
-        <v>3791</v>
+        <v>3801</v>
       </c>
       <c r="O894" t="s">
-        <v>3790</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="895" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A895" s="11" t="s">
-        <v>3765</v>
-      </c>
-      <c r="B895" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C895" s="11"/>
-      <c r="D895" s="11"/>
-      <c r="E895" s="11" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F895" s="11"/>
-      <c r="G895" s="11"/>
-      <c r="H895" s="11"/>
-      <c r="I895" s="11"/>
-      <c r="J895" s="11"/>
-      <c r="K895" s="11"/>
-      <c r="L895" s="11" t="s">
+      <c r="A895" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B895" t="s">
+        <v>14</v>
+      </c>
+      <c r="D895" t="s">
+        <v>792</v>
+      </c>
+      <c r="E895" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F895" t="s">
+        <v>793</v>
+      </c>
+      <c r="G895" t="s">
+        <v>794</v>
+      </c>
+      <c r="L895" t="s">
         <v>292</v>
       </c>
-      <c r="M895" s="11" t="s">
-        <v>3766</v>
-      </c>
-      <c r="N895" s="11" t="s">
-        <v>3768</v>
-      </c>
-      <c r="O895" s="11" t="s">
-        <v>3767</v>
+      <c r="M895" t="s">
+        <v>3684</v>
+      </c>
+      <c r="N895" t="s">
+        <v>3685</v>
+      </c>
+      <c r="O895" t="s">
+        <v>3683</v>
       </c>
     </row>
     <row r="896" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>3876</v>
+        <v>2706</v>
       </c>
       <c r="B896" t="s">
         <v>14</v>
       </c>
-      <c r="E896" t="s">
-        <v>2024</v>
+      <c r="D896" t="s">
+        <v>2707</v>
+      </c>
+      <c r="I896" t="s">
+        <v>312</v>
+      </c>
+      <c r="K896">
+        <v>37</v>
       </c>
       <c r="L896" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="M896" t="s">
-        <v>3799</v>
+        <v>2708</v>
       </c>
       <c r="N896" t="s">
-        <v>3801</v>
+        <v>2709</v>
       </c>
       <c r="O896" t="s">
-        <v>3800</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="897" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>3682</v>
-      </c>
-      <c r="B897" t="s">
-        <v>14</v>
+        <v>2710</v>
       </c>
       <c r="D897" t="s">
-        <v>792</v>
-      </c>
-      <c r="E897" t="s">
-        <v>3018</v>
-      </c>
-      <c r="F897" t="s">
-        <v>793</v>
-      </c>
-      <c r="G897" t="s">
-        <v>794</v>
+        <v>2711</v>
+      </c>
+      <c r="I897" t="s">
+        <v>312</v>
+      </c>
+      <c r="K897">
+        <v>41</v>
       </c>
       <c r="L897" t="s">
-        <v>292</v>
+        <v>3996</v>
       </c>
       <c r="M897" t="s">
-        <v>3684</v>
+        <v>2712</v>
       </c>
       <c r="N897" t="s">
-        <v>3685</v>
-      </c>
-      <c r="O897" t="s">
-        <v>3683</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="898" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>2706</v>
+        <v>2718</v>
       </c>
       <c r="B898" t="s">
         <v>14</v>
       </c>
       <c r="D898" t="s">
-        <v>2707</v>
+        <v>2719</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2720</v>
       </c>
       <c r="I898" t="s">
         <v>312</v>
       </c>
       <c r="K898">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="L898" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="M898" t="s">
-        <v>2708</v>
-      </c>
-      <c r="N898" t="s">
-        <v>2709</v>
+        <v>2721</v>
       </c>
       <c r="O898" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="899" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>2710</v>
+        <v>2729</v>
+      </c>
+      <c r="B899" t="s">
+        <v>14</v>
       </c>
       <c r="D899" t="s">
-        <v>2711</v>
-      </c>
-      <c r="I899" t="s">
-        <v>312</v>
-      </c>
-      <c r="K899">
-        <v>41</v>
+        <v>2730</v>
+      </c>
+      <c r="F899" t="s">
+        <v>2731</v>
       </c>
       <c r="L899" t="s">
-        <v>3996</v>
+        <v>292</v>
       </c>
       <c r="M899" t="s">
-        <v>2712</v>
+        <v>2732</v>
       </c>
       <c r="N899" t="s">
-        <v>2713</v>
+        <v>2733</v>
+      </c>
+      <c r="O899" t="s">
+        <v>3532</v>
       </c>
     </row>
     <row r="900" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>2718</v>
+        <v>3681</v>
       </c>
       <c r="B900" t="s">
         <v>14</v>
       </c>
       <c r="D900" t="s">
-        <v>2719</v>
+        <v>3088</v>
       </c>
       <c r="E900" t="s">
-        <v>2720</v>
+        <v>3090</v>
+      </c>
+      <c r="F900" t="s">
+        <v>3089</v>
       </c>
       <c r="I900" t="s">
         <v>312</v>
       </c>
-      <c r="K900">
-        <v>61</v>
-      </c>
       <c r="L900" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="M900" t="s">
-        <v>2721</v>
+        <v>3679</v>
       </c>
       <c r="O900" t="s">
-        <v>3531</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="901" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>2729</v>
+        <v>3877</v>
       </c>
       <c r="B901" t="s">
         <v>14</v>
       </c>
       <c r="D901" t="s">
-        <v>2730</v>
-      </c>
-      <c r="F901" t="s">
-        <v>2731</v>
+        <v>2743</v>
+      </c>
+      <c r="I901" t="s">
+        <v>112</v>
       </c>
       <c r="L901" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="M901" t="s">
-        <v>2732</v>
-      </c>
-      <c r="N901" t="s">
-        <v>2733</v>
+        <v>2744</v>
       </c>
       <c r="O901" t="s">
-        <v>3532</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>3681</v>
+        <v>4469</v>
       </c>
       <c r="B902" t="s">
         <v>14</v>
       </c>
       <c r="D902" t="s">
-        <v>3088</v>
-      </c>
-      <c r="E902" t="s">
-        <v>3090</v>
-      </c>
-      <c r="F902" t="s">
-        <v>3089</v>
+        <v>1469</v>
       </c>
       <c r="I902" t="s">
-        <v>312</v>
+        <v>65</v>
+      </c>
+      <c r="K902">
+        <v>4</v>
       </c>
       <c r="L902" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="M902" t="s">
-        <v>3679</v>
+        <v>4467</v>
       </c>
       <c r="O902" t="s">
-        <v>3680</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>3877</v>
-      </c>
-      <c r="B903" t="s">
-        <v>14</v>
+        <v>4475</v>
       </c>
       <c r="D903" t="s">
-        <v>2743</v>
+        <v>1470</v>
       </c>
       <c r="I903" t="s">
-        <v>112</v>
+        <v>65</v>
+      </c>
+      <c r="K903">
+        <v>6</v>
       </c>
       <c r="L903" t="s">
-        <v>91</v>
+        <v>3996</v>
       </c>
       <c r="M903" t="s">
-        <v>2744</v>
-      </c>
-      <c r="O903" t="s">
-        <v>3538</v>
+        <v>4476</v>
+      </c>
+      <c r="N903" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>4477</v>
       </c>
-      <c r="B904" t="s">
-        <v>14</v>
-      </c>
       <c r="D904" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="I904" t="s">
         <v>65</v>
       </c>
       <c r="K904">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L904" t="s">
-        <v>182</v>
+        <v>3996</v>
       </c>
       <c r="M904" t="s">
-        <v>4475</v>
-      </c>
-      <c r="O904" t="s">
-        <v>4476</v>
+        <v>4478</v>
+      </c>
+      <c r="N904" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>4380</v>
+        <v>4372</v>
       </c>
       <c r="B905" t="s">
         <v>14</v>
@@ -36572,22 +36572,22 @@
         <v>91</v>
       </c>
       <c r="M905" t="s">
-        <v>4382</v>
+        <v>4374</v>
       </c>
       <c r="O905" t="s">
-        <v>4381</v>
+        <v>4373</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N179" r:id="rId1" tooltip="huòbì" display="https://en.wiktionary.org/wiki/hu%C3%B2b%C3%AC" xr:uid="{A60FEE98-3949-8D46-A3A2-8A547F1FDF25}"/>
     <hyperlink ref="N516" r:id="rId2" tooltip="bàofēng" display="https://en.wiktionary.org/wiki/b%C3%A0of%C4%93ng" xr:uid="{541D23B0-AD52-5F44-AFF5-76BF6D2A5AC0}"/>
-    <hyperlink ref="N864" r:id="rId3" tooltip="zhěnglǐ" display="https://en.wiktionary.org/wiki/zh%C4%9Bngl%C7%90" xr:uid="{648CEB50-0C45-864C-83E1-486E80301F68}"/>
-    <hyperlink ref="M791" r:id="rId4" location="Japanese" tooltip="うまみ" display="https://en.wiktionary.org/wiki/%E3%81%86%E3%81%BE%E3%81%BF - Japanese" xr:uid="{4B75CA26-ADEE-E946-803D-1E96A802E708}"/>
-    <hyperlink ref="O833" r:id="rId5" display="https://bn.wikipedia.org/w/index.php?title=%E0%A6%98%E0%A7%8B%E0%A6%B7_%E0%A6%A4%E0%A6%BE%E0%A6%B2%E0%A7%81%E0%A6%A6%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A6%AE%E0%A7%82%E0%A6%B2%E0%A7%80%E0%A6%AF%E0%A6%BC_%E0%A6%98%E0%A7%83%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A6%A7%E0%A7%8D%E0%A6%AC%E0%A6%A8%E0%A6%BF&amp;action=edit&amp;redlink=1" xr:uid="{1D984E54-52E8-6946-83A3-DD75C97DBBAC}"/>
+    <hyperlink ref="N862" r:id="rId3" tooltip="zhěnglǐ" display="https://en.wiktionary.org/wiki/zh%C4%9Bngl%C7%90" xr:uid="{648CEB50-0C45-864C-83E1-486E80301F68}"/>
+    <hyperlink ref="M789" r:id="rId4" location="Japanese" tooltip="うまみ" display="https://en.wiktionary.org/wiki/%E3%81%86%E3%81%BE%E3%81%BF - Japanese" xr:uid="{4B75CA26-ADEE-E946-803D-1E96A802E708}"/>
+    <hyperlink ref="O831" r:id="rId5" display="https://bn.wikipedia.org/w/index.php?title=%E0%A6%98%E0%A7%8B%E0%A6%B7_%E0%A6%A4%E0%A6%BE%E0%A6%B2%E0%A7%81%E0%A6%A6%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A6%AE%E0%A7%82%E0%A6%B2%E0%A7%80%E0%A6%AF%E0%A6%BC_%E0%A6%98%E0%A7%83%E0%A6%B7%E0%A7%8D%E0%A6%9F%E0%A6%A7%E0%A7%8D%E0%A6%AC%E0%A6%A8%E0%A6%BF&amp;action=edit&amp;redlink=1" xr:uid="{1D984E54-52E8-6946-83A3-DD75C97DBBAC}"/>
     <hyperlink ref="N97" r:id="rId6" tooltip="féi" display="https://en.wiktionary.org/wiki/f%C3%A9i" xr:uid="{C48A6485-BB22-1245-B12C-D1AF94BE61FE}"/>
     <hyperlink ref="N665" r:id="rId7" tooltip="zǐjīn" display="https://en.wiktionary.org/wiki/z%C7%90j%C4%ABn" xr:uid="{0A93A40A-0F06-D247-BD4F-20FE2D6316BE}"/>
-    <hyperlink ref="N856" r:id="rId8" location="Mandarin" tooltip="qūcóng" display="https://en.wiktionary.org/wiki/q%C5%ABc%C3%B3ng - Mandarin" xr:uid="{5CF370CB-807D-D94F-BBE4-8C98917196B6}"/>
+    <hyperlink ref="N854" r:id="rId8" location="Mandarin" tooltip="qūcóng" display="https://en.wiktionary.org/wiki/q%C5%ABc%C3%B3ng - Mandarin" xr:uid="{5CF370CB-807D-D94F-BBE4-8C98917196B6}"/>
     <hyperlink ref="N315" r:id="rId9" location="Mandarin" tooltip="kǒngpà" display="https://en.wiktionary.org/wiki/k%C7%92ngp%C3%A0 - Mandarin" xr:uid="{17608F76-791E-2242-9F01-917D63831D22}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC6CF4-4FAD-564A-92CE-2A5EA45BD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E52281E-CC91-4046-85C6-596D99D3A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="4479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="4478">
   <si>
     <t>Type</t>
   </si>
@@ -12008,9 +12008,6 @@
   </si>
   <si>
     <t>huapsis</t>
-  </si>
-  <si>
-    <t>Orosfara</t>
   </si>
   <si>
     <t>Wu Chinese</t>
@@ -14410,7 +14407,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14423,7 +14420,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -14577,7 +14574,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
@@ -14661,7 +14658,7 @@
         <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
@@ -14713,7 +14710,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M11" t="s">
         <v>2887</v>
@@ -14776,7 +14773,7 @@
         <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M14" t="s">
         <v>74</v>
@@ -15138,7 +15135,7 @@
         <v>2671</v>
       </c>
       <c r="L27" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M27" t="s">
         <v>3944</v>
@@ -15152,7 +15149,7 @@
         <v>2673</v>
       </c>
       <c r="L28" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M28" t="s">
         <v>3945</v>
@@ -15169,7 +15166,7 @@
         <v>2672</v>
       </c>
       <c r="L29" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M29" t="s">
         <v>3947</v>
@@ -15253,7 +15250,7 @@
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M32" t="s">
         <v>3903</v>
@@ -15276,7 +15273,7 @@
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M33" t="s">
         <v>3906</v>
@@ -15319,13 +15316,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D35" t="s">
         <v>146</v>
@@ -15449,16 +15446,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="D40" t="s">
         <v>981</v>
       </c>
       <c r="L40" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M40" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="N40" t="s">
         <v>982</v>
@@ -15466,7 +15463,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -15487,7 +15484,7 @@
         <v>1612</v>
       </c>
       <c r="O41" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -15617,7 +15614,7 @@
         <v>196</v>
       </c>
       <c r="L46" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M46" t="s">
         <v>195</v>
@@ -15634,7 +15631,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="L47" t="s">
         <v>89</v>
@@ -15709,7 +15706,7 @@
         <v>171</v>
       </c>
       <c r="L50" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M50" t="s">
         <v>2908</v>
@@ -15726,7 +15723,7 @@
         <v>42</v>
       </c>
       <c r="L51" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M51" t="s">
         <v>3887</v>
@@ -15755,7 +15752,7 @@
         <v>47</v>
       </c>
       <c r="L52" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M52" t="s">
         <v>3889</v>
@@ -15766,16 +15763,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4469</v>
+      </c>
+      <c r="M53" t="s">
         <v>4418</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4416</v>
-      </c>
-      <c r="L53" t="s">
-        <v>3996</v>
-      </c>
-      <c r="M53" t="s">
-        <v>4419</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -15880,7 +15877,7 @@
         <v>218</v>
       </c>
       <c r="L57" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M57" t="s">
         <v>154</v>
@@ -15900,7 +15897,7 @@
         <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="I58" t="s">
         <v>222</v>
@@ -15929,7 +15926,7 @@
         <v>225</v>
       </c>
       <c r="L59" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M59" t="s">
         <v>226</v>
@@ -16018,7 +16015,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="F63" t="s">
         <v>1698</v>
@@ -16073,7 +16070,7 @@
         <v>245</v>
       </c>
       <c r="L65" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M65" t="s">
         <v>3917</v>
@@ -16197,7 +16194,7 @@
         <v>147</v>
       </c>
       <c r="L70" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M70" t="s">
         <v>3922</v>
@@ -16205,13 +16202,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D71" t="s">
         <v>89</v>
@@ -16237,10 +16234,10 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
+        <v>4421</v>
+      </c>
+      <c r="F72" t="s">
         <v>4422</v>
-      </c>
-      <c r="F72" t="s">
-        <v>4423</v>
       </c>
       <c r="L72" t="s">
         <v>89</v>
@@ -16289,7 +16286,7 @@
         <v>274</v>
       </c>
       <c r="L74" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M74" t="s">
         <v>3926</v>
@@ -16352,13 +16349,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D77" t="s">
         <v>97</v>
@@ -16488,7 +16485,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -16503,24 +16500,24 @@
         <v>292</v>
       </c>
       <c r="M82" t="s">
+        <v>4345</v>
+      </c>
+      <c r="N82" t="s">
+        <v>4347</v>
+      </c>
+      <c r="O82" t="s">
         <v>4346</v>
-      </c>
-      <c r="N82" t="s">
-        <v>4348</v>
-      </c>
-      <c r="O82" t="s">
-        <v>4347</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D83" t="s">
         <v>3935</v>
@@ -16555,10 +16552,10 @@
         <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="G84" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="L84" t="s">
         <v>89</v>
@@ -16578,7 +16575,7 @@
         <v>319</v>
       </c>
       <c r="L85" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M85" t="s">
         <v>320</v>
@@ -16688,19 +16685,19 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>4358</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4408</v>
+      </c>
+      <c r="L89" t="s">
+        <v>4469</v>
+      </c>
+      <c r="M89" t="s">
         <v>4359</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4410</v>
-      </c>
-      <c r="F89" t="s">
-        <v>4409</v>
-      </c>
-      <c r="L89" t="s">
-        <v>3996</v>
-      </c>
-      <c r="M89" t="s">
-        <v>4360</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -16714,7 +16711,7 @@
         <v>287</v>
       </c>
       <c r="L90" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M90" t="s">
         <v>2890</v>
@@ -16939,13 +16936,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="D99" t="s">
         <v>301</v>
@@ -17032,7 +17029,7 @@
         <v>105</v>
       </c>
       <c r="L102" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M102" t="s">
         <v>3952</v>
@@ -17052,7 +17049,7 @@
         <v>105</v>
       </c>
       <c r="L103" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M103" t="s">
         <v>3954</v>
@@ -17095,7 +17092,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -17113,10 +17110,10 @@
         <v>215</v>
       </c>
       <c r="M105" t="s">
+        <v>4392</v>
+      </c>
+      <c r="O105" t="s">
         <v>4393</v>
-      </c>
-      <c r="O105" t="s">
-        <v>4394</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -17171,7 +17168,7 @@
         <v>421</v>
       </c>
       <c r="L107" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M107" t="s">
         <v>3956</v>
@@ -17188,7 +17185,7 @@
         <v>423</v>
       </c>
       <c r="L108" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M108" t="s">
         <v>3958</v>
@@ -17205,7 +17202,7 @@
         <v>61</v>
       </c>
       <c r="L109" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M109" t="s">
         <v>3959</v>
@@ -17245,7 +17242,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -17260,10 +17257,10 @@
         <v>297</v>
       </c>
       <c r="M111" t="s">
+        <v>4389</v>
+      </c>
+      <c r="O111" t="s">
         <v>4390</v>
-      </c>
-      <c r="O111" t="s">
-        <v>4391</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
@@ -17433,28 +17430,28 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="E118" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="L118" t="s">
         <v>292</v>
       </c>
       <c r="M118" t="s">
+        <v>4398</v>
+      </c>
+      <c r="N118" t="s">
+        <v>4401</v>
+      </c>
+      <c r="O118" t="s">
         <v>4399</v>
-      </c>
-      <c r="N118" t="s">
-        <v>4402</v>
-      </c>
-      <c r="O118" t="s">
-        <v>4400</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -17500,7 +17497,7 @@
         <v>56</v>
       </c>
       <c r="L120" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M120" t="s">
         <v>2895</v>
@@ -17540,7 +17537,7 @@
         <v>526</v>
       </c>
       <c r="L122" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M122" t="s">
         <v>3987</v>
@@ -17554,7 +17551,7 @@
         <v>434</v>
       </c>
       <c r="L123" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M123" t="s">
         <v>435</v>
@@ -17609,7 +17606,7 @@
         <v>173</v>
       </c>
       <c r="L125" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M125" t="s">
         <v>3908</v>
@@ -17629,7 +17626,7 @@
         <v>178</v>
       </c>
       <c r="L126" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M126" t="s">
         <v>3911</v>
@@ -17698,7 +17695,7 @@
         <v>452</v>
       </c>
       <c r="L129" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M129" t="s">
         <v>453</v>
@@ -17712,7 +17709,7 @@
         <v>455</v>
       </c>
       <c r="L130" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M130" t="s">
         <v>3962</v>
@@ -17729,7 +17726,7 @@
         <v>454</v>
       </c>
       <c r="L131" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M131" t="s">
         <v>2897</v>
@@ -17743,7 +17740,7 @@
         <v>457</v>
       </c>
       <c r="L132" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M132" t="s">
         <v>458</v>
@@ -17757,7 +17754,7 @@
         <v>459</v>
       </c>
       <c r="L133" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M133" t="s">
         <v>3964</v>
@@ -17771,7 +17768,7 @@
         <v>461</v>
       </c>
       <c r="L134" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M134" t="s">
         <v>3966</v>
@@ -17791,7 +17788,7 @@
         <v>462</v>
       </c>
       <c r="L135" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M135" t="s">
         <v>3968</v>
@@ -17814,7 +17811,7 @@
         <v>465</v>
       </c>
       <c r="L136" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M136" t="s">
         <v>3028</v>
@@ -17828,7 +17825,7 @@
         <v>460</v>
       </c>
       <c r="L137" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M137" t="s">
         <v>3058</v>
@@ -17923,13 +17920,13 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="B141" t="s">
         <v>22</v>
       </c>
       <c r="C141" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="D141" t="s">
         <v>471</v>
@@ -17964,7 +17961,7 @@
         <v>49</v>
       </c>
       <c r="L142" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M142" t="s">
         <v>3976</v>
@@ -18091,7 +18088,7 @@
         <v>112</v>
       </c>
       <c r="L147" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M147" t="s">
         <v>3978</v>
@@ -18108,7 +18105,7 @@
         <v>112</v>
       </c>
       <c r="L148" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M148" t="s">
         <v>493</v>
@@ -18165,13 +18162,13 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="B151" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D151" t="s">
         <v>495</v>
@@ -18238,7 +18235,7 @@
         <v>105</v>
       </c>
       <c r="L153" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M153" t="s">
         <v>3981</v>
@@ -18258,7 +18255,7 @@
         <v>105</v>
       </c>
       <c r="L154" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M154" t="s">
         <v>3983</v>
@@ -18310,7 +18307,7 @@
         <v>16</v>
       </c>
       <c r="L156" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M156" t="s">
         <v>2899</v>
@@ -18330,7 +18327,7 @@
         <v>61</v>
       </c>
       <c r="L157" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M157" t="s">
         <v>3985</v>
@@ -18402,7 +18399,7 @@
         <v>29</v>
       </c>
       <c r="L160" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M160" t="s">
         <v>510</v>
@@ -18425,7 +18422,7 @@
         <v>30</v>
       </c>
       <c r="L161" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M161" t="s">
         <v>514</v>
@@ -18471,36 +18468,36 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="C163" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="E163" t="s">
         <v>2545</v>
       </c>
       <c r="L163" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M163" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="C164" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="E164" t="s">
         <v>2545</v>
       </c>
       <c r="L164" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M164" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
@@ -18517,7 +18514,7 @@
         <v>518</v>
       </c>
       <c r="L165" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M165" t="s">
         <v>154</v>
@@ -18600,13 +18597,13 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -18658,7 +18655,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="D171" t="s">
         <v>1033</v>
@@ -18667,10 +18664,10 @@
         <v>181</v>
       </c>
       <c r="L171" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M171" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="N171" t="s">
         <v>1034</v>
@@ -18678,7 +18675,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="D172" t="s">
         <v>1032</v>
@@ -18687,10 +18684,10 @@
         <v>181</v>
       </c>
       <c r="L172" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M172" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
@@ -18710,7 +18707,7 @@
         <v>61</v>
       </c>
       <c r="L173" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M173" t="s">
         <v>3618</v>
@@ -18892,7 +18889,7 @@
         <v>568</v>
       </c>
       <c r="L180" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M180" t="s">
         <v>3993</v>
@@ -18912,7 +18909,7 @@
         <v>571</v>
       </c>
       <c r="L181" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M181" t="s">
         <v>3994</v>
@@ -18955,7 +18952,7 @@
         <v>552</v>
       </c>
       <c r="L183" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M183" t="s">
         <v>3990</v>
@@ -18963,7 +18960,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="B184" t="s">
         <v>14</v>
@@ -18978,10 +18975,10 @@
         <v>301</v>
       </c>
       <c r="M184" t="s">
+        <v>4350</v>
+      </c>
+      <c r="O184" t="s">
         <v>4351</v>
-      </c>
-      <c r="O184" t="s">
-        <v>4352</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
@@ -19021,7 +19018,7 @@
         <v>561</v>
       </c>
       <c r="L186" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M186" t="s">
         <v>154</v>
@@ -19029,22 +19026,22 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="B187" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D187" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="I187" t="s">
         <v>147</v>
       </c>
       <c r="L187" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M187" t="s">
         <v>562</v>
@@ -19093,7 +19090,7 @@
         <v>577</v>
       </c>
       <c r="L189" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M189" t="s">
         <v>3030</v>
@@ -19116,7 +19113,7 @@
         <v>581</v>
       </c>
       <c r="G190" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="L190" t="s">
         <v>437</v>
@@ -19145,7 +19142,7 @@
         <v>586</v>
       </c>
       <c r="L191" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M191" t="s">
         <v>587</v>
@@ -19159,7 +19156,7 @@
         <v>589</v>
       </c>
       <c r="L192" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M192" t="s">
         <v>590</v>
@@ -19182,7 +19179,7 @@
         <v>598</v>
       </c>
       <c r="L193" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M193" t="s">
         <v>599</v>
@@ -19190,21 +19187,21 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="F194" t="s">
         <v>645</v>
       </c>
       <c r="L194" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M194" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="D195" t="s">
         <v>627</v>
@@ -19213,10 +19210,10 @@
         <v>411</v>
       </c>
       <c r="L195" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M195" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -19227,7 +19224,7 @@
         <v>610</v>
       </c>
       <c r="L196" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M196" t="s">
         <v>611</v>
@@ -19235,7 +19232,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="F197" t="s">
         <v>631</v>
@@ -19244,10 +19241,10 @@
         <v>632</v>
       </c>
       <c r="L197" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M197" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="N197" t="s">
         <v>633</v>
@@ -19264,7 +19261,7 @@
         <v>614</v>
       </c>
       <c r="L198" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M198" t="s">
         <v>615</v>
@@ -19284,7 +19281,7 @@
         <v>619</v>
       </c>
       <c r="L199" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M199" t="s">
         <v>620</v>
@@ -19295,7 +19292,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E200" t="s">
         <v>634</v>
@@ -19307,15 +19304,15 @@
         <v>636</v>
       </c>
       <c r="L200" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M200" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="C201" t="s">
         <v>3026</v>
@@ -19330,10 +19327,10 @@
         <v>595</v>
       </c>
       <c r="L201" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M201" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -19350,7 +19347,7 @@
         <v>7</v>
       </c>
       <c r="L202" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M202" t="s">
         <v>2903</v>
@@ -19361,7 +19358,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="F203" t="s">
         <v>637</v>
@@ -19370,10 +19367,10 @@
         <v>638</v>
       </c>
       <c r="L203" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M203" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="N203" t="s">
         <v>639</v>
@@ -19381,7 +19378,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="F204" t="s">
         <v>628</v>
@@ -19390,10 +19387,10 @@
         <v>629</v>
       </c>
       <c r="L204" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M204" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="N204" t="s">
         <v>630</v>
@@ -19407,7 +19404,7 @@
         <v>640</v>
       </c>
       <c r="L205" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M205" t="s">
         <v>2905</v>
@@ -19427,7 +19424,7 @@
         <v>61</v>
       </c>
       <c r="L206" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M206" t="s">
         <v>644</v>
@@ -19435,7 +19432,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="F207" t="s">
         <v>622</v>
@@ -19444,10 +19441,10 @@
         <v>623</v>
       </c>
       <c r="L207" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M207" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="N207" t="s">
         <v>624</v>
@@ -19455,7 +19452,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="F208" t="s">
         <v>603</v>
@@ -19464,10 +19461,10 @@
         <v>604</v>
       </c>
       <c r="L208" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M208" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="N208" t="s">
         <v>605</v>
@@ -19475,7 +19472,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="F209" t="s">
         <v>600</v>
@@ -19484,10 +19481,10 @@
         <v>601</v>
       </c>
       <c r="L209" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M209" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="N209" t="s">
         <v>602</v>
@@ -19510,7 +19507,7 @@
         <v>608</v>
       </c>
       <c r="L210" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M210" t="s">
         <v>2901</v>
@@ -19623,18 +19620,18 @@
         <v>3068</v>
       </c>
       <c r="O214" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="B215" t="s">
         <v>22</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
@@ -19649,7 +19646,7 @@
         <v>652</v>
       </c>
       <c r="O215" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
@@ -19669,10 +19666,10 @@
         <v>25</v>
       </c>
       <c r="L216" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M216" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
@@ -19703,7 +19700,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="C218" t="s">
         <v>422</v>
@@ -19712,10 +19709,10 @@
         <v>658</v>
       </c>
       <c r="L218" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M218" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
@@ -19741,7 +19738,7 @@
         <v>662</v>
       </c>
       <c r="O219" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
@@ -19801,7 +19798,7 @@
         <v>411</v>
       </c>
       <c r="L222" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M222" t="s">
         <v>666</v>
@@ -19830,7 +19827,7 @@
         <v>1409</v>
       </c>
       <c r="H223" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="L223" t="s">
         <v>71</v>
@@ -19882,7 +19879,7 @@
         <v>674</v>
       </c>
       <c r="L225" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M225" t="s">
         <v>2793</v>
@@ -19914,7 +19911,7 @@
         <v>2883</v>
       </c>
       <c r="O226" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.2">
@@ -20000,7 +19997,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B230" t="s">
         <v>22</v>
@@ -20021,18 +20018,18 @@
         <v>676</v>
       </c>
       <c r="O230" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="B231" t="s">
         <v>22</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D231" t="s">
         <v>215</v>
@@ -20047,12 +20044,12 @@
         <v>677</v>
       </c>
       <c r="O231" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B232" t="s">
         <v>22</v>
@@ -20076,12 +20073,12 @@
         <v>681</v>
       </c>
       <c r="O232" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B233" t="s">
         <v>22</v>
@@ -20145,7 +20142,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="D235" t="s">
         <v>2689</v>
@@ -20160,10 +20157,10 @@
         <v>2692</v>
       </c>
       <c r="L235" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M235" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
@@ -20273,13 +20270,13 @@
         <v>31</v>
       </c>
       <c r="L239" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M239" t="s">
         <v>868</v>
       </c>
       <c r="N239" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
@@ -20365,7 +20362,7 @@
         <v>881</v>
       </c>
       <c r="L243" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M243" t="s">
         <v>3003</v>
@@ -20379,10 +20376,10 @@
         <v>3059</v>
       </c>
       <c r="D244" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="L244" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M244" t="s">
         <v>3060</v>
@@ -20414,7 +20411,7 @@
         <v>2</v>
       </c>
       <c r="L245" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M245" t="s">
         <v>971</v>
@@ -20446,12 +20443,12 @@
         <v>888</v>
       </c>
       <c r="O246" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="B247" t="s">
         <v>22</v>
@@ -20472,7 +20469,7 @@
         <v>973</v>
       </c>
       <c r="O247" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
@@ -20514,7 +20511,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="D249" t="s">
         <v>2591</v>
@@ -20526,15 +20523,15 @@
         <v>1</v>
       </c>
       <c r="L249" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M249" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B250" t="s">
         <v>22</v>
@@ -20558,7 +20555,7 @@
         <v>1069</v>
       </c>
       <c r="O250" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
@@ -20714,7 +20711,7 @@
         <v>914</v>
       </c>
       <c r="L256" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M256" t="s">
         <v>915</v>
@@ -20826,7 +20823,7 @@
         <v>24</v>
       </c>
       <c r="L260" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M260" t="s">
         <v>1112</v>
@@ -20843,7 +20840,7 @@
         <v>916</v>
       </c>
       <c r="L261" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M261" t="s">
         <v>2923</v>
@@ -21008,7 +21005,7 @@
         <v>153</v>
       </c>
       <c r="L267" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M267" t="s">
         <v>2880</v>
@@ -21051,7 +21048,7 @@
         <v>854</v>
       </c>
       <c r="L269" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M269" t="s">
         <v>2920</v>
@@ -21172,7 +21169,7 @@
         <v>964</v>
       </c>
       <c r="L274" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M274" t="s">
         <v>965</v>
@@ -21183,7 +21180,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B275" t="s">
         <v>22</v>
@@ -21204,7 +21201,7 @@
         <v>975</v>
       </c>
       <c r="O275" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
@@ -21273,7 +21270,7 @@
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="F278" t="s">
         <v>993</v>
@@ -21299,7 +21296,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="D279" t="s">
         <v>990</v>
@@ -21311,10 +21308,10 @@
         <v>992</v>
       </c>
       <c r="L279" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M279" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
@@ -21325,7 +21322,7 @@
         <v>997</v>
       </c>
       <c r="L280" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M280" t="s">
         <v>998</v>
@@ -21342,7 +21339,7 @@
         <v>1000</v>
       </c>
       <c r="L281" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M281" t="s">
         <v>2925</v>
@@ -21353,16 +21350,16 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="D282" t="s">
         <v>1011</v>
       </c>
       <c r="L282" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M282" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="N282" t="s">
         <v>1012</v>
@@ -21376,7 +21373,7 @@
         <v>1005</v>
       </c>
       <c r="L283" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M283" t="s">
         <v>1006</v>
@@ -21396,7 +21393,7 @@
         <v>1000</v>
       </c>
       <c r="L284" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M284" t="s">
         <v>1010</v>
@@ -21404,16 +21401,16 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="D285" t="s">
         <v>1013</v>
       </c>
       <c r="L285" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M285" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="N285" t="s">
         <v>1014</v>
@@ -21427,7 +21424,7 @@
         <v>1017</v>
       </c>
       <c r="L286" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M286" t="s">
         <v>3032</v>
@@ -21441,7 +21438,7 @@
         <v>1002</v>
       </c>
       <c r="L287" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M287" t="s">
         <v>3062</v>
@@ -21452,16 +21449,16 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="G288" t="s">
         <v>1015</v>
       </c>
       <c r="L288" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M288" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="N288" t="s">
         <v>1016</v>
@@ -21507,7 +21504,7 @@
         <v>1024</v>
       </c>
       <c r="L290" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M290" t="s">
         <v>154</v>
@@ -21521,7 +21518,7 @@
         <v>1026</v>
       </c>
       <c r="L291" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M291" t="s">
         <v>1027</v>
@@ -21650,7 +21647,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B297" t="s">
         <v>22</v>
@@ -21671,7 +21668,7 @@
         <v>1057</v>
       </c>
       <c r="O297" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
@@ -21786,16 +21783,16 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E302" t="s">
         <v>2696</v>
       </c>
       <c r="L302" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M302" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="N302" t="s">
         <v>2697</v>
@@ -21803,16 +21800,16 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="E303" t="s">
         <v>2701</v>
       </c>
       <c r="L303" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M303" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
@@ -21858,7 +21855,7 @@
         <v>1996</v>
       </c>
       <c r="L305" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M305" t="s">
         <v>3744</v>
@@ -21872,16 +21869,16 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="D306" t="s">
         <v>2006</v>
       </c>
       <c r="L306" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M306" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
@@ -21912,24 +21909,24 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D308" t="s">
         <v>4404</v>
-      </c>
-      <c r="D308" t="s">
-        <v>4405</v>
       </c>
       <c r="E308" t="s">
         <v>1864</v>
       </c>
       <c r="L308" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M308" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="C309" t="s">
         <v>1860</v>
@@ -21944,10 +21941,10 @@
         <v>268</v>
       </c>
       <c r="L309" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M309" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="N309" t="s">
         <v>1862</v>
@@ -21955,7 +21952,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="D310" t="s">
         <v>1863</v>
@@ -21964,10 +21961,10 @@
         <v>1864</v>
       </c>
       <c r="L310" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M310" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="O310" t="s">
         <v>1865</v>
@@ -21975,7 +21972,7 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="E311" t="s">
         <v>1858</v>
@@ -21987,10 +21984,10 @@
         <v>820</v>
       </c>
       <c r="L311" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M311" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="N311" t="s">
         <v>1859</v>
@@ -21998,21 +21995,21 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4416</v>
+      </c>
+      <c r="L312" t="s">
+        <v>4469</v>
+      </c>
+      <c r="M312" t="s">
         <v>4420</v>
-      </c>
-      <c r="D312" t="s">
-        <v>4417</v>
-      </c>
-      <c r="L312" t="s">
-        <v>3996</v>
-      </c>
-      <c r="M312" t="s">
-        <v>4421</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="D313" t="s">
         <v>1856</v>
@@ -22021,10 +22018,10 @@
         <v>1857</v>
       </c>
       <c r="L313" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M313" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
@@ -22116,7 +22113,7 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="D317" t="s">
         <v>1101</v>
@@ -22125,13 +22122,13 @@
         <v>1101</v>
       </c>
       <c r="L317" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M317" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="N317" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
@@ -22220,24 +22217,24 @@
         <v>1074</v>
       </c>
       <c r="L321" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M321" t="s">
         <v>2927</v>
       </c>
       <c r="N321" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="B322" t="s">
         <v>22</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D322" t="s">
         <v>1075</v>
@@ -22255,7 +22252,7 @@
         <v>1077</v>
       </c>
       <c r="O322" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
@@ -22269,7 +22266,7 @@
         <v>1126</v>
       </c>
       <c r="L323" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M323" t="s">
         <v>154</v>
@@ -22306,7 +22303,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B325" t="s">
         <v>22</v>
@@ -22330,7 +22327,7 @@
         <v>1179</v>
       </c>
       <c r="O325" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
@@ -22341,7 +22338,7 @@
         <v>1134</v>
       </c>
       <c r="L326" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M326" t="s">
         <v>1135</v>
@@ -22505,13 +22502,13 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="D333" t="s">
         <v>1159</v>
       </c>
       <c r="L333" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M333" t="s">
         <v>1160</v>
@@ -22522,7 +22519,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="D334" t="s">
         <v>1162</v>
@@ -22534,7 +22531,7 @@
         <v>46</v>
       </c>
       <c r="L334" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M334" t="s">
         <v>1163</v>
@@ -22560,7 +22557,7 @@
         <v>9</v>
       </c>
       <c r="L335" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M335" t="s">
         <v>3067</v>
@@ -22600,13 +22597,13 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="B337" t="s">
         <v>22</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D337" t="s">
         <v>690</v>
@@ -22624,12 +22621,12 @@
         <v>1176</v>
       </c>
       <c r="O337" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B338" t="s">
         <v>22</v>
@@ -22650,12 +22647,12 @@
         <v>1283</v>
       </c>
       <c r="O338" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="D339" t="s">
         <v>1365</v>
@@ -22664,10 +22661,10 @@
         <v>1366</v>
       </c>
       <c r="L339" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M339" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -22701,16 +22698,16 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="D341" t="s">
         <v>1367</v>
       </c>
       <c r="L341" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M341" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="N341" t="s">
         <v>1368</v>
@@ -22765,7 +22762,7 @@
         <v>1197</v>
       </c>
       <c r="L343" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M343" t="s">
         <v>1198</v>
@@ -22773,16 +22770,16 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="E344" t="s">
         <v>1225</v>
       </c>
       <c r="L344" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M344" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="N344" t="s">
         <v>1226</v>
@@ -22790,7 +22787,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="C345" t="s">
         <v>1199</v>
@@ -22799,10 +22796,10 @@
         <v>1200</v>
       </c>
       <c r="L345" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M345" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
@@ -22819,7 +22816,7 @@
         <v>1194</v>
       </c>
       <c r="L346" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M346" t="s">
         <v>2930</v>
@@ -22839,7 +22836,7 @@
         <v>1208</v>
       </c>
       <c r="L347" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M347" t="s">
         <v>1209</v>
@@ -22856,7 +22853,7 @@
         <v>1211</v>
       </c>
       <c r="L348" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M348" t="s">
         <v>2931</v>
@@ -22879,7 +22876,7 @@
         <v>1214</v>
       </c>
       <c r="L349" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M349" t="s">
         <v>1215</v>
@@ -22887,7 +22884,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="C350" t="s">
         <v>1233</v>
@@ -22896,10 +22893,10 @@
         <v>1234</v>
       </c>
       <c r="L350" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M350" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="N350" t="s">
         <v>1235</v>
@@ -22907,7 +22904,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="B351" t="s">
         <v>169</v>
@@ -22919,10 +22916,10 @@
         <v>1217</v>
       </c>
       <c r="L351" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M351" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
@@ -22933,7 +22930,7 @@
         <v>1222</v>
       </c>
       <c r="L352" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M352" t="s">
         <v>1223</v>
@@ -22950,7 +22947,7 @@
         <v>1228</v>
       </c>
       <c r="L353" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M353" t="s">
         <v>1229</v>
@@ -22958,7 +22955,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="D354" t="s">
         <v>1243</v>
@@ -22973,10 +22970,10 @@
         <v>1246</v>
       </c>
       <c r="L354" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M354" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="O354" t="s">
         <v>1247</v>
@@ -22984,16 +22981,16 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="E355" t="s">
         <v>1248</v>
       </c>
       <c r="L355" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M355" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="N355" t="s">
         <v>1249</v>
@@ -23001,7 +22998,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="C356" t="s">
         <v>3026</v>
@@ -23016,15 +23013,15 @@
         <v>1237</v>
       </c>
       <c r="L356" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M356" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="D357" t="s">
         <v>2765</v>
@@ -23036,10 +23033,10 @@
         <v>39</v>
       </c>
       <c r="L357" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M357" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
@@ -23056,7 +23053,7 @@
         <v>1232</v>
       </c>
       <c r="L358" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M358" t="s">
         <v>2938</v>
@@ -23073,7 +23070,7 @@
         <v>181</v>
       </c>
       <c r="L359" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M359" t="s">
         <v>2940</v>
@@ -23084,7 +23081,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="D360" t="s">
         <v>1201</v>
@@ -23099,10 +23096,10 @@
         <v>1204</v>
       </c>
       <c r="L360" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M360" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
@@ -23116,7 +23113,7 @@
         <v>1241</v>
       </c>
       <c r="L361" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M361" t="s">
         <v>1242</v>
@@ -23185,7 +23182,7 @@
         <v>1218</v>
       </c>
       <c r="L364" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M364" t="s">
         <v>2934</v>
@@ -23202,13 +23199,13 @@
         <v>169</v>
       </c>
       <c r="C365" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="E365" t="s">
         <v>3024</v>
       </c>
       <c r="L365" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M365" t="s">
         <v>3023</v>
@@ -23222,7 +23219,7 @@
         <v>1220</v>
       </c>
       <c r="L366" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M366" t="s">
         <v>2936</v>
@@ -23230,7 +23227,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="B367" t="s">
         <v>22</v>
@@ -23254,7 +23251,7 @@
         <v>1335</v>
       </c>
       <c r="O367" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
@@ -23280,7 +23277,7 @@
         <v>1257</v>
       </c>
       <c r="O368" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
@@ -23511,7 +23508,7 @@
         <v>1821</v>
       </c>
       <c r="L377" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M377" t="s">
         <v>3733</v>
@@ -23531,7 +23528,7 @@
         <v>2146</v>
       </c>
       <c r="L378" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M378" t="s">
         <v>37</v>
@@ -23548,7 +23545,7 @@
         <v>3092</v>
       </c>
       <c r="E379" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="F379" t="s">
         <v>3091</v>
@@ -23591,16 +23588,16 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="D381" t="s">
         <v>1300</v>
       </c>
       <c r="L381" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M381" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
@@ -23617,7 +23614,7 @@
         <v>1308</v>
       </c>
       <c r="L382" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M382" t="s">
         <v>1309</v>
@@ -23637,7 +23634,7 @@
         <v>1301</v>
       </c>
       <c r="L383" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M383" t="s">
         <v>2942</v>
@@ -23694,7 +23691,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
       <c r="L385" s="2" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M385" s="2" t="s">
         <v>2786</v>
@@ -23717,7 +23714,7 @@
         <v>1316</v>
       </c>
       <c r="L386" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M386" t="s">
         <v>154</v>
@@ -23749,7 +23746,7 @@
         <v>1327</v>
       </c>
       <c r="O387" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
@@ -23848,7 +23845,7 @@
         <v>1337</v>
       </c>
       <c r="L391" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M391" t="s">
         <v>1338</v>
@@ -23903,7 +23900,7 @@
         <v>20</v>
       </c>
       <c r="L393" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M393" t="s">
         <v>1348</v>
@@ -23934,7 +23931,7 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="C395" t="s">
         <v>3026</v>
@@ -23943,15 +23940,15 @@
         <v>2083</v>
       </c>
       <c r="L395" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M395" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="C396" t="s">
         <v>3026</v>
@@ -23960,10 +23957,10 @@
         <v>2086</v>
       </c>
       <c r="L396" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M396" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
@@ -24081,7 +24078,7 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="B401" t="s">
         <v>22</v>
@@ -24099,10 +24096,10 @@
         <v>13</v>
       </c>
       <c r="L401" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M401" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="N401" t="s">
         <v>1763</v>
@@ -24130,7 +24127,7 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="D403" t="s">
         <v>1757</v>
@@ -24139,10 +24136,10 @@
         <v>61</v>
       </c>
       <c r="L403" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M403" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="N403" t="s">
         <v>1758</v>
@@ -24150,16 +24147,16 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="D404" t="s">
         <v>1759</v>
       </c>
       <c r="L404" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M404" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="N404" t="s">
         <v>1760</v>
@@ -24196,7 +24193,7 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B406" t="s">
         <v>22</v>
@@ -24217,7 +24214,7 @@
         <v>1358</v>
       </c>
       <c r="O406" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
@@ -24289,7 +24286,7 @@
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="D409" t="s">
         <v>2761</v>
@@ -24301,10 +24298,10 @@
         <v>33</v>
       </c>
       <c r="L409" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M409" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
@@ -24315,7 +24312,7 @@
         <v>378</v>
       </c>
       <c r="L410" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M410" t="s">
         <v>3020</v>
@@ -24332,7 +24329,7 @@
         <v>1392</v>
       </c>
       <c r="L411" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M411" t="s">
         <v>2997</v>
@@ -24369,7 +24366,7 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="B413" t="s">
         <v>169</v>
@@ -24381,15 +24378,15 @@
         <v>1411</v>
       </c>
       <c r="L413" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M413" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="F414" t="s">
         <v>1399</v>
@@ -24398,10 +24395,10 @@
         <v>1400</v>
       </c>
       <c r="L414" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M414" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
@@ -24412,7 +24409,7 @@
         <v>14</v>
       </c>
       <c r="C415" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="D415" t="s">
         <v>1402</v>
@@ -24450,7 +24447,7 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="C416" t="s">
         <v>1410</v>
@@ -24459,10 +24456,10 @@
         <v>1411</v>
       </c>
       <c r="L416" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M416" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
@@ -24476,7 +24473,7 @@
         <v>1413</v>
       </c>
       <c r="L417" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M417" t="s">
         <v>1414</v>
@@ -24484,7 +24481,7 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="E418" t="s">
         <v>1459</v>
@@ -24493,15 +24490,15 @@
         <v>1460</v>
       </c>
       <c r="L418" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M418" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="C419" t="s">
         <v>3026</v>
@@ -24510,15 +24507,15 @@
         <v>1398</v>
       </c>
       <c r="L419" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M419" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="D420" t="s">
         <v>1424</v>
@@ -24530,15 +24527,15 @@
         <v>1425</v>
       </c>
       <c r="L420" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M420" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="D421" t="s">
         <v>1435</v>
@@ -24547,13 +24544,13 @@
         <v>1436</v>
       </c>
       <c r="F421" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="L421" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M421" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
@@ -24564,19 +24561,19 @@
         <v>169</v>
       </c>
       <c r="C422" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D422" t="s">
         <v>4431</v>
       </c>
-      <c r="D422" t="s">
+      <c r="E422" t="s">
         <v>4432</v>
-      </c>
-      <c r="E422" t="s">
-        <v>4433</v>
       </c>
       <c r="F422" t="s">
         <v>1405</v>
       </c>
       <c r="G422" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="H422" t="s">
         <v>1406</v>
@@ -24596,7 +24593,7 @@
         <v>1428</v>
       </c>
       <c r="L423" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M423" t="s">
         <v>1401</v>
@@ -24604,7 +24601,7 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="D424" t="s">
         <v>1453</v>
@@ -24619,10 +24616,10 @@
         <v>1455</v>
       </c>
       <c r="L424" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M424" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="N424" t="s">
         <v>1456</v>
@@ -24636,7 +24633,7 @@
         <v>1430</v>
       </c>
       <c r="L425" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M425" t="s">
         <v>1431</v>
@@ -24644,7 +24641,7 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="D426" t="s">
         <v>1457</v>
@@ -24653,24 +24650,24 @@
         <v>268</v>
       </c>
       <c r="L426" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M426" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="F427" t="s">
         <v>1432</v>
       </c>
       <c r="L427" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M427" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="N427" t="s">
         <v>1433</v>
@@ -24678,7 +24675,7 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="B428" t="s">
         <v>22</v>
@@ -24699,7 +24696,7 @@
         <v>1563</v>
       </c>
       <c r="O428" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
@@ -24713,7 +24710,7 @@
         <v>1458</v>
       </c>
       <c r="L429" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M429" t="s">
         <v>3034</v>
@@ -24736,7 +24733,7 @@
         <v>1447</v>
       </c>
       <c r="L430" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M430" t="s">
         <v>1448</v>
@@ -24759,7 +24756,7 @@
         <v>1452</v>
       </c>
       <c r="L431" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M431" t="s">
         <v>2999</v>
@@ -24767,7 +24764,7 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="D432" t="s">
         <v>1439</v>
@@ -24782,10 +24779,10 @@
         <v>1442</v>
       </c>
       <c r="L432" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M432" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
@@ -24799,7 +24796,7 @@
         <v>1415</v>
       </c>
       <c r="E433" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="F433" t="s">
         <v>1416</v>
@@ -24808,7 +24805,7 @@
         <v>1417</v>
       </c>
       <c r="L433" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M433" t="s">
         <v>2946</v>
@@ -24831,7 +24828,7 @@
         <v>1420</v>
       </c>
       <c r="L434" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M434" t="s">
         <v>2944</v>
@@ -24839,16 +24836,16 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="F435" t="s">
         <v>1437</v>
       </c>
       <c r="L435" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M435" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="N435" t="s">
         <v>1438</v>
@@ -24868,13 +24865,13 @@
         <v>1423</v>
       </c>
       <c r="L436" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M436" t="s">
         <v>2948</v>
       </c>
       <c r="N436" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
@@ -24885,7 +24882,7 @@
         <v>1464</v>
       </c>
       <c r="L437" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M437" t="s">
         <v>1465</v>
@@ -24893,7 +24890,7 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="B438" t="s">
         <v>22</v>
@@ -24914,7 +24911,7 @@
         <v>1462</v>
       </c>
       <c r="O438" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
@@ -24980,7 +24977,7 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="D441" t="s">
         <v>2250</v>
@@ -24992,15 +24989,15 @@
         <v>13</v>
       </c>
       <c r="L441" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M441" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="B442" t="s">
         <v>22</v>
@@ -25021,7 +25018,7 @@
         <v>1520</v>
       </c>
       <c r="O442" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
@@ -25096,7 +25093,7 @@
         <v>1488</v>
       </c>
       <c r="L445" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M445" t="s">
         <v>3001</v>
@@ -25142,7 +25139,7 @@
         <v>1490</v>
       </c>
       <c r="L447" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M447" t="s">
         <v>1491</v>
@@ -25232,18 +25229,18 @@
         <v>1507</v>
       </c>
       <c r="O450" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B451" t="s">
         <v>22</v>
       </c>
       <c r="C451" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="D451" t="s">
         <v>437</v>
@@ -25292,30 +25289,30 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E453" t="s">
         <v>1516</v>
       </c>
       <c r="L453" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M453" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="D454" t="s">
         <v>1498</v>
       </c>
       <c r="L454" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M454" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.2">
@@ -25332,7 +25329,7 @@
         <v>1523</v>
       </c>
       <c r="F455" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="G455" t="s">
         <v>1524</v>
@@ -25367,7 +25364,7 @@
         <v>2703</v>
       </c>
       <c r="L456" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M456" t="s">
         <v>3756</v>
@@ -25381,16 +25378,16 @@
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="D457" t="s">
         <v>2704</v>
       </c>
       <c r="L457" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M457" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="N457" t="s">
         <v>2705</v>
@@ -25436,16 +25433,16 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="D459" t="s">
         <v>2595</v>
       </c>
       <c r="L459" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M459" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="N459" t="s">
         <v>2596</v>
@@ -25503,7 +25500,7 @@
         <v>1510</v>
       </c>
       <c r="L461" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M461" t="s">
         <v>2949</v>
@@ -25537,7 +25534,7 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C463" t="s">
         <v>1538</v>
@@ -25546,10 +25543,10 @@
         <v>1539</v>
       </c>
       <c r="L463" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M463" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="N463" t="s">
         <v>1540</v>
@@ -25569,7 +25566,7 @@
         <v>32</v>
       </c>
       <c r="L464" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M464" t="s">
         <v>2952</v>
@@ -25595,7 +25592,7 @@
         <v>1545</v>
       </c>
       <c r="L465" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M465" t="s">
         <v>2950</v>
@@ -25615,7 +25612,7 @@
         <v>1547</v>
       </c>
       <c r="L466" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M466" t="s">
         <v>2953</v>
@@ -25623,7 +25620,7 @@
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="C467" t="s">
         <v>422</v>
@@ -25632,10 +25629,10 @@
         <v>1541</v>
       </c>
       <c r="L467" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M467" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
@@ -25649,7 +25646,7 @@
         <v>61</v>
       </c>
       <c r="L468" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M468" t="s">
         <v>2956</v>
@@ -25672,7 +25669,7 @@
         <v>2594</v>
       </c>
       <c r="L469" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M469" t="s">
         <v>3676</v>
@@ -25819,7 +25816,7 @@
         <v>1570</v>
       </c>
       <c r="L475" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M475" t="s">
         <v>1571</v>
@@ -25827,30 +25824,30 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="D476" t="s">
         <v>1572</v>
       </c>
       <c r="L476" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M476" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="D477" t="s">
         <v>1573</v>
       </c>
       <c r="L477" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M477" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
@@ -25919,7 +25916,7 @@
         <v>1580</v>
       </c>
       <c r="L480" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M480" t="s">
         <v>154</v>
@@ -25933,7 +25930,7 @@
         <v>820</v>
       </c>
       <c r="L481" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M481" t="s">
         <v>1586</v>
@@ -26118,7 +26115,7 @@
         <v>1611</v>
       </c>
       <c r="O488" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.2">
@@ -26167,7 +26164,7 @@
         <v>333</v>
       </c>
       <c r="L490" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M490" t="s">
         <v>3939</v>
@@ -26262,7 +26259,7 @@
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="B494" t="s">
         <v>14</v>
@@ -26280,18 +26277,18 @@
         <v>715</v>
       </c>
       <c r="M494" s="4" t="s">
+        <v>4364</v>
+      </c>
+      <c r="N494" t="s">
+        <v>4366</v>
+      </c>
+      <c r="O494" t="s">
         <v>4365</v>
-      </c>
-      <c r="N494" t="s">
-        <v>4367</v>
-      </c>
-      <c r="O494" t="s">
-        <v>4366</v>
       </c>
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="D495" t="s">
         <v>591</v>
@@ -26303,10 +26300,10 @@
         <v>40</v>
       </c>
       <c r="L495" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M495" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="N495" t="s">
         <v>592</v>
@@ -26338,7 +26335,7 @@
         <v>1644</v>
       </c>
       <c r="O496" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
@@ -26387,7 +26384,7 @@
         <v>1651</v>
       </c>
       <c r="L498" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M498" t="s">
         <v>1652</v>
@@ -26427,13 +26424,13 @@
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B500" t="s">
         <v>22</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D500" t="s">
         <v>1658</v>
@@ -26451,7 +26448,7 @@
         <v>1660</v>
       </c>
       <c r="O500" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
@@ -26480,7 +26477,7 @@
         <v>1663</v>
       </c>
       <c r="O501" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
@@ -26566,13 +26563,13 @@
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="B505" t="s">
         <v>22</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D505" t="s">
         <v>143</v>
@@ -26590,7 +26587,7 @@
         <v>1727</v>
       </c>
       <c r="O505" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
@@ -26607,12 +26604,12 @@
         <v>1677</v>
       </c>
       <c r="L506" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="B507" t="s">
         <v>22</v>
@@ -26633,7 +26630,7 @@
         <v>1855</v>
       </c>
       <c r="O507" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
@@ -26662,12 +26659,12 @@
         <v>1681</v>
       </c>
       <c r="O508" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B509" t="s">
         <v>22</v>
@@ -26688,7 +26685,7 @@
         <v>1831</v>
       </c>
       <c r="O509" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
@@ -26723,18 +26720,18 @@
         <v>71</v>
       </c>
       <c r="M510" t="s">
+        <v>4381</v>
+      </c>
+      <c r="N510" t="s">
         <v>4382</v>
       </c>
-      <c r="N510" t="s">
+      <c r="O510" t="s">
         <v>4383</v>
-      </c>
-      <c r="O510" t="s">
-        <v>4384</v>
       </c>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="C511" t="s">
         <v>1718</v>
@@ -26743,15 +26740,15 @@
         <v>332</v>
       </c>
       <c r="L511" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M511" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="D512" t="s">
         <v>1715</v>
@@ -26763,10 +26760,10 @@
         <v>22</v>
       </c>
       <c r="L512" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M512" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="N512" t="s">
         <v>1716</v>
@@ -26774,16 +26771,16 @@
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="D513" t="s">
         <v>1717</v>
       </c>
       <c r="L513" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M513" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.2">
@@ -26962,7 +26959,7 @@
         <v>1638</v>
       </c>
       <c r="L520" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M520" t="s">
         <v>2958</v>
@@ -27008,7 +27005,7 @@
         <v>42</v>
       </c>
       <c r="L522" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M522" t="s">
         <v>1707</v>
@@ -27083,7 +27080,7 @@
         <v>1725</v>
       </c>
       <c r="L525" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M525" t="s">
         <v>154</v>
@@ -27299,16 +27296,16 @@
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="D534" t="s">
         <v>1755</v>
       </c>
       <c r="L534" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M534" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="N534" t="s">
         <v>1756</v>
@@ -27472,7 +27469,7 @@
         <v>181</v>
       </c>
       <c r="L541" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M541" t="s">
         <v>1788</v>
@@ -27500,16 +27497,16 @@
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="D543" t="s">
         <v>1792</v>
       </c>
       <c r="L543" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M543" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="N543" t="s">
         <v>1793</v>
@@ -27538,7 +27535,7 @@
         <v>1798</v>
       </c>
       <c r="O544" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.2">
@@ -27581,7 +27578,7 @@
         <v>14</v>
       </c>
       <c r="L546" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M546" t="s">
         <v>1806</v>
@@ -27667,13 +27664,13 @@
     </row>
     <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="B550" t="s">
         <v>22</v>
       </c>
       <c r="C550" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D550" t="s">
         <v>106</v>
@@ -27688,7 +27685,7 @@
         <v>1832</v>
       </c>
       <c r="O550" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.2">
@@ -27768,7 +27765,7 @@
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="C554" t="s">
         <v>440</v>
@@ -27783,15 +27780,15 @@
         <v>105</v>
       </c>
       <c r="L554" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M554" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="C555" t="s">
         <v>443</v>
@@ -27806,10 +27803,10 @@
         <v>105</v>
       </c>
       <c r="L555" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M555" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.2">
@@ -27901,7 +27898,7 @@
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="11" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="B559" s="11" t="s">
         <v>14</v>
@@ -27927,22 +27924,22 @@
         <v>715</v>
       </c>
       <c r="M559" s="11" t="s">
+        <v>4375</v>
+      </c>
+      <c r="N559" t="s">
         <v>4376</v>
-      </c>
-      <c r="N559" t="s">
-        <v>4377</v>
       </c>
       <c r="O559" s="11"/>
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="B560" t="s">
         <v>22</v>
       </c>
       <c r="C560" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D560" t="s">
         <v>1815</v>
@@ -27960,7 +27957,7 @@
         <v>2776</v>
       </c>
       <c r="O560" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
@@ -28107,7 +28104,7 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B566" t="s">
         <v>22</v>
@@ -28131,7 +28128,7 @@
         <v>1873</v>
       </c>
       <c r="O566" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
@@ -28261,7 +28258,7 @@
         <v>28</v>
       </c>
       <c r="L571" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M571" t="s">
         <v>1898</v>
@@ -28290,7 +28287,7 @@
         <v>12</v>
       </c>
       <c r="L572" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M572" t="s">
         <v>2961</v>
@@ -28313,10 +28310,10 @@
         <v>4</v>
       </c>
       <c r="L573" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M573" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="N573" t="s">
         <v>1905</v>
@@ -28493,7 +28490,7 @@
         <v>2030</v>
       </c>
       <c r="O579" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="580" spans="1:15" x14ac:dyDescent="0.2">
@@ -28550,16 +28547,16 @@
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="F582" t="s">
         <v>1932</v>
       </c>
       <c r="L582" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M582" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="583" spans="1:15" x14ac:dyDescent="0.2">
@@ -28605,7 +28602,7 @@
         <v>10</v>
       </c>
       <c r="L584" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M584" t="s">
         <v>2964</v>
@@ -28622,7 +28619,7 @@
         <v>1936</v>
       </c>
       <c r="L585" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M585" t="s">
         <v>2963</v>
@@ -28656,16 +28653,16 @@
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="D587" t="s">
         <v>1949</v>
       </c>
       <c r="L587" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M587" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="N587" t="s">
         <v>1950</v>
@@ -29023,16 +29020,16 @@
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="D601" t="s">
         <v>1975</v>
       </c>
       <c r="L601" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M601" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="N601" t="s">
         <v>1976</v>
@@ -29101,7 +29098,7 @@
     </row>
     <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="C604" t="s">
         <v>440</v>
@@ -29116,10 +29113,10 @@
         <v>105</v>
       </c>
       <c r="L604" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M604" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="605" spans="1:15" x14ac:dyDescent="0.2">
@@ -29139,7 +29136,7 @@
         <v>105</v>
       </c>
       <c r="L605" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M605" t="s">
         <v>2967</v>
@@ -29240,7 +29237,7 @@
         <v>2857</v>
       </c>
       <c r="O609" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="610" spans="1:15" x14ac:dyDescent="0.2">
@@ -29329,7 +29326,7 @@
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="D613" t="s">
         <v>2058</v>
@@ -29338,10 +29335,10 @@
         <v>2059</v>
       </c>
       <c r="L613" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M613" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.2">
@@ -29537,7 +29534,7 @@
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="D621" t="s">
         <v>1998</v>
@@ -29546,10 +29543,10 @@
         <v>181</v>
       </c>
       <c r="L621" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M621" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="N621" t="s">
         <v>1999</v>
@@ -29557,7 +29554,7 @@
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="D622" t="s">
         <v>3065</v>
@@ -29566,10 +29563,10 @@
         <v>2213</v>
       </c>
       <c r="L622" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M622" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.2">
@@ -29597,7 +29594,7 @@
     </row>
     <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="D624" t="s">
         <v>1954</v>
@@ -29606,10 +29603,10 @@
         <v>268</v>
       </c>
       <c r="L624" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M624" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="N624" t="s">
         <v>1955</v>
@@ -29617,16 +29614,16 @@
     </row>
     <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="D625" t="s">
         <v>1952</v>
       </c>
       <c r="L625" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M625" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="N625" t="s">
         <v>1953</v>
@@ -29657,7 +29654,7 @@
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="B627" t="s">
         <v>169</v>
@@ -29669,7 +29666,7 @@
         <v>2234</v>
       </c>
       <c r="L627" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M627" t="s">
         <v>3418</v>
@@ -29677,22 +29674,22 @@
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B628" t="s">
         <v>169</v>
       </c>
       <c r="C628" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="H628" t="s">
         <v>3078</v>
       </c>
       <c r="L628" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M628" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.2">
@@ -29741,7 +29738,7 @@
         <v>27</v>
       </c>
       <c r="L630" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M630" t="s">
         <v>2099</v>
@@ -29790,7 +29787,7 @@
         <v>14</v>
       </c>
       <c r="D632" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="L632" t="s">
         <v>292</v>
@@ -29839,7 +29836,7 @@
     </row>
     <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="D634" t="s">
         <v>2170</v>
@@ -29851,15 +29848,15 @@
         <v>9</v>
       </c>
       <c r="L634" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M634" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="D635" t="s">
         <v>2171</v>
@@ -29871,30 +29868,30 @@
         <v>2173</v>
       </c>
       <c r="L635" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M635" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B636" t="s">
         <v>169</v>
       </c>
       <c r="C636" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="H636" t="s">
         <v>2169</v>
       </c>
       <c r="L636" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M636" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="637" spans="1:15" x14ac:dyDescent="0.2">
@@ -29954,7 +29951,7 @@
     </row>
     <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="C639" t="s">
         <v>3026</v>
@@ -29963,10 +29960,10 @@
         <v>1340</v>
       </c>
       <c r="L639" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M639" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.2">
@@ -29980,7 +29977,7 @@
         <v>1017</v>
       </c>
       <c r="L640" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M640" t="s">
         <v>3037</v>
@@ -29997,7 +29994,7 @@
         <v>1341</v>
       </c>
       <c r="L641" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M641" t="s">
         <v>3046</v>
@@ -30014,7 +30011,7 @@
         <v>2447</v>
       </c>
       <c r="L642" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M642" t="s">
         <v>3039</v>
@@ -30051,7 +30048,7 @@
     </row>
     <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="D644" t="s">
         <v>1180</v>
@@ -30063,10 +30060,10 @@
         <v>1</v>
       </c>
       <c r="L644" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M644" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="N644" t="s">
         <v>1181</v>
@@ -30158,7 +30155,7 @@
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="C648" t="s">
         <v>3026</v>
@@ -30167,15 +30164,15 @@
         <v>762</v>
       </c>
       <c r="L648" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M648" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="C649" t="s">
         <v>440</v>
@@ -30190,15 +30187,15 @@
         <v>105</v>
       </c>
       <c r="L649" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M649" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="C650" t="s">
         <v>3026</v>
@@ -30207,15 +30204,15 @@
         <v>756</v>
       </c>
       <c r="L650" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M650" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="D651" t="s">
         <v>765</v>
@@ -30224,10 +30221,10 @@
         <v>112</v>
       </c>
       <c r="L651" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M651" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="N651" t="s">
         <v>766</v>
@@ -30250,7 +30247,7 @@
         <v>2149</v>
       </c>
       <c r="L652" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M652" t="s">
         <v>2150</v>
@@ -30351,7 +30348,7 @@
         <v>2179</v>
       </c>
       <c r="L656" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M656" t="s">
         <v>2183</v>
@@ -30388,16 +30385,16 @@
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="D658" t="s">
         <v>2192</v>
       </c>
       <c r="L658" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M658" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.2">
@@ -30645,7 +30642,7 @@
         <v>181</v>
       </c>
       <c r="L668" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M668" t="s">
         <v>3716</v>
@@ -30842,7 +30839,7 @@
         <v>157</v>
       </c>
       <c r="L675" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M675" t="s">
         <v>2288</v>
@@ -30946,10 +30943,10 @@
         <v>89</v>
       </c>
       <c r="M679" s="4" t="s">
+        <v>4233</v>
+      </c>
+      <c r="O679" t="s">
         <v>4234</v>
-      </c>
-      <c r="O679" t="s">
-        <v>4235</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.2">
@@ -30978,12 +30975,12 @@
         <v>2306</v>
       </c>
       <c r="O680" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="B681" t="s">
         <v>22</v>
@@ -31007,7 +31004,7 @@
         <v>2109</v>
       </c>
       <c r="O681" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.2">
@@ -31079,7 +31076,7 @@
         <v>14</v>
       </c>
       <c r="L684" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M684" t="s">
         <v>2968</v>
@@ -31128,7 +31125,7 @@
         <v>1889</v>
       </c>
       <c r="L686" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M686" t="s">
         <v>3741</v>
@@ -31162,7 +31159,7 @@
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B688" t="s">
         <v>22</v>
@@ -31183,18 +31180,18 @@
         <v>2476</v>
       </c>
       <c r="O688" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="B689" t="s">
         <v>22</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D689" t="s">
         <v>297</v>
@@ -31206,10 +31203,10 @@
         <v>297</v>
       </c>
       <c r="M689" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="O689" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.2">
@@ -31246,7 +31243,7 @@
         <v>181</v>
       </c>
       <c r="L691" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M691" t="s">
         <v>2321</v>
@@ -31359,7 +31356,7 @@
         <v>43</v>
       </c>
       <c r="L695" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M695" t="s">
         <v>2336</v>
@@ -31370,13 +31367,13 @@
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="B696" t="s">
         <v>22</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D696" t="s">
         <v>80</v>
@@ -31394,7 +31391,7 @@
         <v>2339</v>
       </c>
       <c r="O696" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.2">
@@ -31434,7 +31431,7 @@
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="B698" t="s">
         <v>22</v>
@@ -31469,7 +31466,7 @@
         <v>2353</v>
       </c>
       <c r="L699" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M699" t="s">
         <v>2354</v>
@@ -31486,7 +31483,7 @@
         <v>2356</v>
       </c>
       <c r="L700" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M700" t="s">
         <v>2357</v>
@@ -31506,7 +31503,7 @@
         <v>2359</v>
       </c>
       <c r="L701" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M701" t="s">
         <v>2360</v>
@@ -31549,7 +31546,7 @@
         <v>3081</v>
       </c>
       <c r="L703" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M703" t="s">
         <v>3080</v>
@@ -31569,7 +31566,7 @@
         <v>3083</v>
       </c>
       <c r="L704" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M704" t="s">
         <v>3086</v>
@@ -31583,16 +31580,16 @@
         <v>14</v>
       </c>
       <c r="D705" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="E705" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="L705" t="s">
         <v>106</v>
       </c>
       <c r="M705" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="O705" t="s">
         <v>3442</v>
@@ -31832,7 +31829,7 @@
         <v>2385</v>
       </c>
       <c r="L714" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M714" t="s">
         <v>2386</v>
@@ -31866,7 +31863,7 @@
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B716" t="s">
         <v>22</v>
@@ -31890,7 +31887,7 @@
         <v>1375</v>
       </c>
       <c r="O716" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.2">
@@ -31944,16 +31941,16 @@
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="D719" t="s">
         <v>2400</v>
       </c>
       <c r="L719" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M719" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.2">
@@ -31964,7 +31961,7 @@
         <v>2401</v>
       </c>
       <c r="L720" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M720" t="s">
         <v>2971</v>
@@ -32015,13 +32012,13 @@
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="B723" t="s">
         <v>22</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D723" t="s">
         <v>136</v>
@@ -32039,7 +32036,7 @@
         <v>136</v>
       </c>
       <c r="O723" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.2">
@@ -32111,7 +32108,7 @@
         <v>19</v>
       </c>
       <c r="L726" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M726" t="s">
         <v>2975</v>
@@ -32134,7 +32131,7 @@
         <v>12</v>
       </c>
       <c r="L727" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M727" t="s">
         <v>2413</v>
@@ -32142,7 +32139,7 @@
     </row>
     <row r="728" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="D728" t="s">
         <v>2416</v>
@@ -32157,15 +32154,15 @@
         <v>18</v>
       </c>
       <c r="L728" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M728" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="729" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="D729" t="s">
         <v>2420</v>
@@ -32180,10 +32177,10 @@
         <v>16</v>
       </c>
       <c r="L729" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M729" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="730" spans="1:15" x14ac:dyDescent="0.2">
@@ -32203,7 +32200,7 @@
         <v>20</v>
       </c>
       <c r="L730" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M730" t="s">
         <v>2419</v>
@@ -32211,7 +32208,7 @@
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="D731" t="s">
         <v>2414</v>
@@ -32226,10 +32223,10 @@
         <v>15</v>
       </c>
       <c r="L731" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M731" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.2">
@@ -32249,7 +32246,7 @@
         <v>17</v>
       </c>
       <c r="L732" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M732" t="s">
         <v>2423</v>
@@ -32272,7 +32269,7 @@
         <v>14</v>
       </c>
       <c r="L733" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M733" t="s">
         <v>2426</v>
@@ -32295,7 +32292,7 @@
         <v>13</v>
       </c>
       <c r="L734" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M734" t="s">
         <v>2429</v>
@@ -32312,7 +32309,7 @@
         <v>105</v>
       </c>
       <c r="L735" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M735" t="s">
         <v>2973</v>
@@ -32436,7 +32433,7 @@
         <v>691</v>
       </c>
       <c r="L740" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M740" t="s">
         <v>3054</v>
@@ -32453,7 +32450,7 @@
         <v>268</v>
       </c>
       <c r="L741" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M741" t="s">
         <v>3076</v>
@@ -32493,7 +32490,7 @@
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="C743" t="s">
         <v>440</v>
@@ -32508,15 +32505,15 @@
         <v>105</v>
       </c>
       <c r="L743" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M743" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="D744" t="s">
         <v>2455</v>
@@ -32525,10 +32522,10 @@
         <v>105</v>
       </c>
       <c r="L744" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M744" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.2">
@@ -32548,7 +32545,7 @@
         <v>105</v>
       </c>
       <c r="L745" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M745" t="s">
         <v>2976</v>
@@ -32588,13 +32585,13 @@
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="B747" t="s">
         <v>22</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D747" t="s">
         <v>182</v>
@@ -32609,12 +32606,12 @@
         <v>2553</v>
       </c>
       <c r="O747" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B748" t="s">
         <v>22</v>
@@ -32635,7 +32632,7 @@
         <v>2552</v>
       </c>
       <c r="O748" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="749" spans="1:15" x14ac:dyDescent="0.2">
@@ -32689,7 +32686,7 @@
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="C751" t="s">
         <v>422</v>
@@ -32698,10 +32695,10 @@
         <v>2469</v>
       </c>
       <c r="L751" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M751" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.2">
@@ -32735,13 +32732,13 @@
     </row>
     <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="B753" t="s">
         <v>14</v>
       </c>
       <c r="D753" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="E753" t="s">
         <v>826</v>
@@ -32756,13 +32753,13 @@
         <v>80</v>
       </c>
       <c r="M753" t="s">
+        <v>4354</v>
+      </c>
+      <c r="N753" t="s">
+        <v>4356</v>
+      </c>
+      <c r="O753" t="s">
         <v>4355</v>
-      </c>
-      <c r="N753" t="s">
-        <v>4357</v>
-      </c>
-      <c r="O753" t="s">
-        <v>4356</v>
       </c>
     </row>
     <row r="754" spans="1:15" x14ac:dyDescent="0.2">
@@ -32860,7 +32857,7 @@
         <v>2487</v>
       </c>
       <c r="L757" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M757" t="s">
         <v>2488</v>
@@ -32868,16 +32865,16 @@
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="F758" t="s">
         <v>2483</v>
       </c>
       <c r="L758" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M758" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="759" spans="1:15" x14ac:dyDescent="0.2">
@@ -33027,25 +33024,25 @@
     </row>
     <row r="764" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="B764" t="s">
         <v>14</v>
       </c>
       <c r="D764" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="L764" t="s">
         <v>292</v>
       </c>
       <c r="M764" t="s">
+        <v>4412</v>
+      </c>
+      <c r="N764" t="s">
+        <v>4414</v>
+      </c>
+      <c r="O764" t="s">
         <v>4413</v>
-      </c>
-      <c r="N764" t="s">
-        <v>4415</v>
-      </c>
-      <c r="O764" t="s">
-        <v>4414</v>
       </c>
     </row>
     <row r="765" spans="1:15" x14ac:dyDescent="0.2">
@@ -33094,7 +33091,7 @@
         <v>21</v>
       </c>
       <c r="L766" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M766" t="s">
         <v>2516</v>
@@ -33117,7 +33114,7 @@
         <v>105</v>
       </c>
       <c r="L767" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M767" t="s">
         <v>2979</v>
@@ -33140,7 +33137,7 @@
         <v>105</v>
       </c>
       <c r="L768" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M768" t="s">
         <v>2981</v>
@@ -33160,7 +33157,7 @@
         <v>2523</v>
       </c>
       <c r="L769" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M769" t="s">
         <v>154</v>
@@ -33191,33 +33188,33 @@
     </row>
     <row r="771" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="D771" t="s">
         <v>2745</v>
       </c>
       <c r="L771" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M771" t="s">
+        <v>4341</v>
+      </c>
+      <c r="N771" t="s">
         <v>4342</v>
-      </c>
-      <c r="N771" t="s">
-        <v>4343</v>
       </c>
     </row>
     <row r="772" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="D772" t="s">
         <v>2734</v>
       </c>
       <c r="L772" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M772" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="N772" t="s">
         <v>2735</v>
@@ -33231,7 +33228,7 @@
         <v>2525</v>
       </c>
       <c r="L773" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M773" t="s">
         <v>2526</v>
@@ -33300,7 +33297,7 @@
         <v>2539</v>
       </c>
       <c r="L776" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M776" t="s">
         <v>2995</v>
@@ -33314,7 +33311,7 @@
         <v>2537</v>
       </c>
       <c r="L777" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M777" t="s">
         <v>3052</v>
@@ -33374,30 +33371,30 @@
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="C780" t="s">
         <v>2560</v>
       </c>
       <c r="L780" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M780" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="G781" t="s">
         <v>2561</v>
       </c>
       <c r="L781" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M781" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.2">
@@ -33466,7 +33463,7 @@
         <v>14</v>
       </c>
       <c r="D784" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="L784" t="s">
         <v>292</v>
@@ -33535,7 +33532,7 @@
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="B787" t="s">
         <v>22</v>
@@ -33582,7 +33579,7 @@
         <v>2585</v>
       </c>
       <c r="O788" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.2">
@@ -33619,7 +33616,7 @@
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="B790" t="s">
         <v>22</v>
@@ -33640,7 +33637,7 @@
         <v>1387</v>
       </c>
       <c r="O790" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.2">
@@ -33703,7 +33700,7 @@
         <v>2606</v>
       </c>
       <c r="L793" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M793" t="s">
         <v>2746</v>
@@ -33711,7 +33708,7 @@
     </row>
     <row r="794" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="E794" t="s">
         <v>2607</v>
@@ -33720,15 +33717,15 @@
         <v>2608</v>
       </c>
       <c r="L794" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M794" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="D795" t="s">
         <v>2620</v>
@@ -33740,10 +33737,10 @@
         <v>2622</v>
       </c>
       <c r="L795" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M795" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="N795" t="s">
         <v>2623</v>
@@ -33766,7 +33763,7 @@
         <v>67</v>
       </c>
       <c r="L796" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M796" t="s">
         <v>2612</v>
@@ -33803,7 +33800,7 @@
     </row>
     <row r="798" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="D798" t="s">
         <v>754</v>
@@ -33812,10 +33809,10 @@
         <v>754</v>
       </c>
       <c r="L798" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M798" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="N798" t="s">
         <v>755</v>
@@ -33832,7 +33829,7 @@
         <v>2615</v>
       </c>
       <c r="L799" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M799" t="s">
         <v>2616</v>
@@ -33846,7 +33843,7 @@
         <v>2618</v>
       </c>
       <c r="L800" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M800" t="s">
         <v>2619</v>
@@ -33854,13 +33851,13 @@
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="B801" t="s">
         <v>22</v>
       </c>
       <c r="C801" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D801" t="s">
         <v>788</v>
@@ -33875,7 +33872,7 @@
         <v>2624</v>
       </c>
       <c r="O801" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="802" spans="1:15" x14ac:dyDescent="0.2">
@@ -33886,10 +33883,10 @@
         <v>984</v>
       </c>
       <c r="E802" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="L802" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M802" t="s">
         <v>2983</v>
@@ -34020,7 +34017,7 @@
         <v>45</v>
       </c>
       <c r="L806" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M806" t="s">
         <v>2636</v>
@@ -34040,7 +34037,7 @@
         <v>48</v>
       </c>
       <c r="L807" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M807" t="s">
         <v>2985</v>
@@ -34063,7 +34060,7 @@
         <v>684</v>
       </c>
       <c r="L808" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M808" t="s">
         <v>685</v>
@@ -34147,7 +34144,7 @@
         <v>387</v>
       </c>
       <c r="L811" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M811" t="s">
         <v>3950</v>
@@ -34190,16 +34187,16 @@
     </row>
     <row r="813" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="D813" t="s">
         <v>775</v>
       </c>
       <c r="L813" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M813" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="814" spans="1:15" x14ac:dyDescent="0.2">
@@ -34233,7 +34230,7 @@
     </row>
     <row r="815" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="D815" t="s">
         <v>776</v>
@@ -34245,10 +34242,10 @@
         <v>34</v>
       </c>
       <c r="L815" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M815" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="N815" t="s">
         <v>777</v>
@@ -34326,7 +34323,7 @@
         <v>707</v>
       </c>
       <c r="L818" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M818" t="s">
         <v>2911</v>
@@ -34355,7 +34352,7 @@
         <v>712</v>
       </c>
       <c r="L819" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M819" t="s">
         <v>3041</v>
@@ -34392,7 +34389,7 @@
     </row>
     <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D821" t="s">
         <v>699</v>
@@ -34404,15 +34401,15 @@
         <v>53</v>
       </c>
       <c r="L821" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M821" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="822" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="D822" t="s">
         <v>700</v>
@@ -34424,10 +34421,10 @@
         <v>55</v>
       </c>
       <c r="L822" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M822" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="823" spans="1:15" x14ac:dyDescent="0.2">
@@ -34516,7 +34513,7 @@
     </row>
     <row r="826" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="C826" t="s">
         <v>3026</v>
@@ -34525,10 +34522,10 @@
         <v>686</v>
       </c>
       <c r="L826" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M826" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="827" spans="1:15" x14ac:dyDescent="0.2">
@@ -34565,13 +34562,13 @@
     </row>
     <row r="828" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B828" t="s">
         <v>22</v>
       </c>
       <c r="C828" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="D828" t="s">
         <v>713</v>
@@ -34586,7 +34583,7 @@
         <v>728</v>
       </c>
       <c r="O828" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="829" spans="1:15" x14ac:dyDescent="0.2">
@@ -34626,7 +34623,7 @@
         <v>687</v>
       </c>
       <c r="L830" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M830" t="s">
         <v>2910</v>
@@ -34663,7 +34660,7 @@
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="C832" t="s">
         <v>734</v>
@@ -34672,10 +34669,10 @@
         <v>735</v>
       </c>
       <c r="L832" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M832" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.2">
@@ -34689,7 +34686,7 @@
         <v>733</v>
       </c>
       <c r="L833" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M833" t="s">
         <v>3056</v>
@@ -34868,7 +34865,7 @@
         <v>310</v>
       </c>
       <c r="L840" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M840" t="s">
         <v>3928</v>
@@ -34882,7 +34879,7 @@
         <v>14</v>
       </c>
       <c r="D841" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="I841" t="s">
         <v>312</v>
@@ -35007,7 +35004,7 @@
         <v>1124</v>
       </c>
       <c r="L845" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M845" t="s">
         <v>3913</v>
@@ -35123,7 +35120,7 @@
         <v>18</v>
       </c>
       <c r="L849" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M849" t="s">
         <v>2912</v>
@@ -35131,16 +35128,16 @@
     </row>
     <row r="850" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="D850" t="s">
         <v>2159</v>
       </c>
       <c r="L850" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M850" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="851" spans="1:15" x14ac:dyDescent="0.2">
@@ -35218,7 +35215,7 @@
         <v>797</v>
       </c>
       <c r="L853" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="M853" t="s">
         <v>798</v>
@@ -35415,7 +35412,7 @@
         <v>12</v>
       </c>
       <c r="L860" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M860" t="s">
         <v>2913</v>
@@ -35481,7 +35478,7 @@
     </row>
     <row r="863" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="D863" t="s">
         <v>1084</v>
@@ -35493,18 +35490,18 @@
         <v>1084</v>
       </c>
       <c r="L863" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M863" t="s">
+        <v>4056</v>
+      </c>
+      <c r="N863" t="s">
         <v>4057</v>
-      </c>
-      <c r="N863" t="s">
-        <v>4058</v>
       </c>
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="D864" t="s">
         <v>1081</v>
@@ -35516,13 +35513,13 @@
         <v>1083</v>
       </c>
       <c r="L864" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M864" t="s">
+        <v>4059</v>
+      </c>
+      <c r="N864" t="s">
         <v>4060</v>
-      </c>
-      <c r="N864" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="865" spans="1:15" x14ac:dyDescent="0.2">
@@ -35565,7 +35562,7 @@
         <v>2727</v>
       </c>
       <c r="L866" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M866" t="s">
         <v>2989</v>
@@ -35654,7 +35651,7 @@
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="D870" t="s">
         <v>2282</v>
@@ -35666,10 +35663,10 @@
         <v>64</v>
       </c>
       <c r="L870" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M870" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="N870" t="s">
         <v>2283</v>
@@ -35677,7 +35674,7 @@
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="D871" t="s">
         <v>2284</v>
@@ -35689,10 +35686,10 @@
         <v>35</v>
       </c>
       <c r="L871" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M871" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="N871" t="s">
         <v>2285</v>
@@ -35784,7 +35781,7 @@
     </row>
     <row r="875" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="B875" t="s">
         <v>22</v>
@@ -35808,7 +35805,7 @@
         <v>818</v>
       </c>
       <c r="O875" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="876" spans="1:15" x14ac:dyDescent="0.2">
@@ -35851,7 +35848,7 @@
         <v>779</v>
       </c>
       <c r="G877" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="H877" t="s">
         <v>780</v>
@@ -35944,7 +35941,7 @@
         <v>2640</v>
       </c>
       <c r="L880" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M880" t="s">
         <v>2641</v>
@@ -35981,7 +35978,7 @@
     </row>
     <row r="882" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="C882" t="s">
         <v>2657</v>
@@ -35990,15 +35987,15 @@
         <v>2658</v>
       </c>
       <c r="L882" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M882" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="883" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="B883" t="s">
         <v>22</v>
@@ -36016,10 +36013,10 @@
         <v>11</v>
       </c>
       <c r="L883" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M883" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="N883" t="s">
         <v>2661</v>
@@ -36027,7 +36024,7 @@
     </row>
     <row r="884" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B884" t="s">
         <v>22</v>
@@ -36048,12 +36045,12 @@
         <v>2665</v>
       </c>
       <c r="N884" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="C885" t="s">
         <v>2675</v>
@@ -36062,15 +36059,15 @@
         <v>2639</v>
       </c>
       <c r="L885" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M885" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="886" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="C886" t="s">
         <v>2677</v>
@@ -36088,29 +36085,29 @@
         <v>2680</v>
       </c>
       <c r="L886" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M886" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="887" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="D887" t="s">
         <v>2676</v>
       </c>
       <c r="L887" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M887" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="888" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="E888" t="s">
         <v>2662</v>
@@ -36122,10 +36119,10 @@
         <v>2663</v>
       </c>
       <c r="L888" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M888" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="889" spans="1:15" x14ac:dyDescent="0.2">
@@ -36145,7 +36142,7 @@
         <v>2643</v>
       </c>
       <c r="L889" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M889" t="s">
         <v>2987</v>
@@ -36177,12 +36174,12 @@
         <v>2646</v>
       </c>
       <c r="O890" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="891" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B891" t="s">
         <v>22</v>
@@ -36200,10 +36197,10 @@
         <v>8</v>
       </c>
       <c r="L891" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M891" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="892" spans="1:15" x14ac:dyDescent="0.2">
@@ -36364,7 +36361,7 @@
         <v>41</v>
       </c>
       <c r="L897" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M897" t="s">
         <v>2712</v>
@@ -36482,7 +36479,7 @@
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="B902" t="s">
         <v>14</v>
@@ -36500,15 +36497,15 @@
         <v>182</v>
       </c>
       <c r="M902" t="s">
+        <v>4466</v>
+      </c>
+      <c r="O902" t="s">
         <v>4467</v>
-      </c>
-      <c r="O902" t="s">
-        <v>4468</v>
       </c>
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="D903" t="s">
         <v>1470</v>
@@ -36520,10 +36517,10 @@
         <v>6</v>
       </c>
       <c r="L903" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M903" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="N903" t="s">
         <v>1471</v>
@@ -36531,7 +36528,7 @@
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="D904" t="s">
         <v>1472</v>
@@ -36543,10 +36540,10 @@
         <v>5</v>
       </c>
       <c r="L904" t="s">
-        <v>3996</v>
+        <v>4469</v>
       </c>
       <c r="M904" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="N904" t="s">
         <v>1473</v>
@@ -36554,7 +36551,7 @@
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="B905" t="s">
         <v>14</v>
@@ -36572,10 +36569,10 @@
         <v>91</v>
       </c>
       <c r="M905" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="O905" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F6E3C5-EAA9-1343-A010-E5E9586BA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469D5E6F-5822-0D41-A966-FE7713DC5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="19180" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6726" uniqueCount="4564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6731" uniqueCount="4564">
   <si>
     <t>Type</t>
   </si>
@@ -14681,7 +14681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A902" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C919" sqref="C919"/>
+      <selection pane="topRight" activeCell="D923" sqref="D923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37167,6 +37167,9 @@
       <c r="A920" t="s">
         <v>4549</v>
       </c>
+      <c r="B920" t="s">
+        <v>14</v>
+      </c>
       <c r="D920" t="s">
         <v>4535</v>
       </c>
@@ -37187,6 +37190,9 @@
       <c r="A921" t="s">
         <v>4552</v>
       </c>
+      <c r="B921" t="s">
+        <v>14</v>
+      </c>
       <c r="D921" t="s">
         <v>4536</v>
       </c>
@@ -37207,6 +37213,9 @@
       <c r="A922" t="s">
         <v>641</v>
       </c>
+      <c r="B922" t="s">
+        <v>14</v>
+      </c>
       <c r="D922" t="s">
         <v>1139</v>
       </c>
@@ -37230,6 +37239,9 @@
       <c r="A923" t="s">
         <v>538</v>
       </c>
+      <c r="B923" t="s">
+        <v>14</v>
+      </c>
       <c r="D923" t="s">
         <v>4543</v>
       </c>
@@ -37252,6 +37264,9 @@
     <row r="924" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>4554</v>
+      </c>
+      <c r="B924" t="s">
+        <v>14</v>
       </c>
       <c r="D924" t="s">
         <v>1010</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469D5E6F-5822-0D41-A966-FE7713DC5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4B3321-527B-4849-84CC-A9BC79185A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="19180" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6731" uniqueCount="4564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6735" uniqueCount="4566">
   <si>
     <t>Type</t>
   </si>
@@ -13672,15 +13672,6 @@
     <t>sorux</t>
   </si>
   <si>
-    <t>örümcek</t>
-  </si>
-  <si>
-    <t>[œɾymˈdʒɛc]</t>
-  </si>
-  <si>
-    <t>erim</t>
-  </si>
-  <si>
     <t>crab/lobster/crayfish/crustacean</t>
   </si>
   <si>
@@ -13711,7 +13702,22 @@
     <t>huanin</t>
   </si>
   <si>
-    <t>idk</t>
+    <t>yengeç</t>
+  </si>
+  <si>
+    <t>[jɛnˈɟɛtʃ]</t>
+  </si>
+  <si>
+    <t>yenkex</t>
+  </si>
+  <si>
+    <t>aran</t>
+  </si>
+  <si>
+    <t>araña</t>
+  </si>
+  <si>
+    <t>/aˈɾaɲa/</t>
   </si>
 </sst>
 </file>
@@ -14679,9 +14685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A902" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A904" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D923" sqref="D923"/>
+      <selection pane="topRight" activeCell="N931" sqref="N931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19056,7 +19062,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>4562</v>
+        <v>4559</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
@@ -19746,7 +19752,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
-        <v>4558</v>
+        <v>4555</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
@@ -19755,7 +19761,7 @@
         <v>642</v>
       </c>
       <c r="E209" t="s">
-        <v>4557</v>
+        <v>4554</v>
       </c>
       <c r="F209" t="s">
         <v>643</v>
@@ -19764,13 +19770,13 @@
         <v>289</v>
       </c>
       <c r="M209" t="s">
-        <v>4559</v>
+        <v>4556</v>
       </c>
       <c r="N209" s="7" t="s">
-        <v>4560</v>
+        <v>4557</v>
       </c>
       <c r="O209" t="s">
-        <v>4561</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
@@ -37188,7 +37194,7 @@
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>4552</v>
+        <v>4563</v>
       </c>
       <c r="B921" t="s">
         <v>14</v>
@@ -37200,13 +37206,13 @@
         <v>180</v>
       </c>
       <c r="L921" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="M921" t="s">
-        <v>4550</v>
+        <v>4564</v>
       </c>
       <c r="O921" t="s">
-        <v>4551</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.2">
@@ -37263,7 +37269,7 @@
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>4554</v>
+        <v>4551</v>
       </c>
       <c r="B924" t="s">
         <v>14</v>
@@ -37278,10 +37284,10 @@
         <v>89</v>
       </c>
       <c r="M924" t="s">
-        <v>4555</v>
+        <v>4552</v>
       </c>
       <c r="O924" t="s">
-        <v>4556</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.2">
@@ -37303,13 +37309,25 @@
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>4563</v>
+        <v>4562</v>
+      </c>
+      <c r="B926" t="s">
+        <v>14</v>
       </c>
       <c r="D926" t="s">
-        <v>4553</v>
+        <v>4550</v>
       </c>
       <c r="I926" t="s">
         <v>180</v>
+      </c>
+      <c r="L926" t="s">
+        <v>181</v>
+      </c>
+      <c r="M926" t="s">
+        <v>4560</v>
+      </c>
+      <c r="O926" t="s">
+        <v>4561</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1244F8-314F-A842-9691-CB2ACF8C1667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D24CBE-4D29-5840-A331-9267F112E649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="500" windowWidth="23880" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11525,9 +11525,6 @@
   </si>
   <si>
     <t>sin sar</t>
-  </si>
-  <si>
-    <t>sary hun</t>
   </si>
   <si>
     <t>slang; short form for 'sariyo kohun'; follow with a subordinate clause</t>
@@ -14135,6 +14132,9 @@
   </si>
   <si>
     <t>/iːlan/</t>
+  </si>
+  <si>
+    <t>say hun</t>
   </si>
 </sst>
 </file>
@@ -14697,7 +14697,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14712,8 +14712,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15113,9 +15111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O946"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="H679" sqref="H679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15129,7 +15127,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -15182,7 +15180,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -15199,13 +15197,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -15260,7 +15258,7 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -15277,7 +15275,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -15344,7 +15342,7 @@
         <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M8" t="s">
         <v>55</v>
@@ -15384,7 +15382,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -15396,7 +15394,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M10" t="s">
         <v>2671</v>
@@ -15407,13 +15405,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M11" t="s">
         <v>68</v>
@@ -15595,16 +15593,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="H18" t="s">
         <v>634</v>
       </c>
       <c r="L18" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M18" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -15789,7 +15787,7 @@
         <v>2475</v>
       </c>
       <c r="L25" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M25" t="s">
         <v>3590</v>
@@ -15803,7 +15801,7 @@
         <v>2477</v>
       </c>
       <c r="L26" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M26" t="s">
         <v>3591</v>
@@ -15820,7 +15818,7 @@
         <v>2476</v>
       </c>
       <c r="L27" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M27" t="s">
         <v>3593</v>
@@ -15828,33 +15826,33 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C28" t="s">
         <v>4373</v>
       </c>
-      <c r="C28" t="s">
-        <v>4374</v>
-      </c>
       <c r="D28" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="L28" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M28" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4376</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M29" t="s">
         <v>4375</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4377</v>
-      </c>
-      <c r="L29" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M29" t="s">
-        <v>4376</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -15903,7 +15901,7 @@
         <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M31" t="s">
         <v>3558</v>
@@ -15926,7 +15924,7 @@
         <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M32" t="s">
         <v>3561</v>
@@ -15969,13 +15967,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="I34" t="s">
         <v>172</v>
@@ -15984,21 +15982,21 @@
         <v>83</v>
       </c>
       <c r="M34" t="s">
+        <v>4192</v>
+      </c>
+      <c r="O34" t="s">
         <v>4193</v>
-      </c>
-      <c r="O34" t="s">
-        <v>4194</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -16047,25 +16045,25 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="E37" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="L37" t="s">
         <v>83</v>
       </c>
       <c r="M37" t="s">
+        <v>4469</v>
+      </c>
+      <c r="O37" t="s">
         <v>4470</v>
-      </c>
-      <c r="O37" t="s">
-        <v>4471</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -16151,7 +16149,7 @@
         <v>909</v>
       </c>
       <c r="L41" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M41" t="s">
         <v>3660</v>
@@ -16162,7 +16160,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -16281,7 +16279,7 @@
         <v>184</v>
       </c>
       <c r="L46" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M46" t="s">
         <v>183</v>
@@ -16298,7 +16296,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="L47" t="s">
         <v>83</v>
@@ -16373,7 +16371,7 @@
         <v>162</v>
       </c>
       <c r="L50" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M50" t="s">
         <v>2689</v>
@@ -16390,7 +16388,7 @@
         <v>39</v>
       </c>
       <c r="L51" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M51" t="s">
         <v>3543</v>
@@ -16419,7 +16417,7 @@
         <v>44</v>
       </c>
       <c r="L52" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M52" t="s">
         <v>3545</v>
@@ -16430,16 +16428,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>3996</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3994</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M53" t="s">
         <v>3997</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3995</v>
-      </c>
-      <c r="L53" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M53" t="s">
-        <v>3998</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -16544,7 +16542,7 @@
         <v>206</v>
       </c>
       <c r="L57" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M57" t="s">
         <v>145</v>
@@ -16564,7 +16562,7 @@
         <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="I58" t="s">
         <v>210</v>
@@ -16593,7 +16591,7 @@
         <v>213</v>
       </c>
       <c r="L59" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M59" t="s">
         <v>214</v>
@@ -16676,25 +16674,25 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="F63" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="L63" t="s">
         <v>83</v>
       </c>
       <c r="M63" t="s">
+        <v>4458</v>
+      </c>
+      <c r="O63" t="s">
         <v>4459</v>
-      </c>
-      <c r="O63" t="s">
-        <v>4460</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -16705,7 +16703,7 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="F64" t="s">
         <v>1580</v>
@@ -16777,7 +16775,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -16792,10 +16790,10 @@
         <v>83</v>
       </c>
       <c r="M67" t="s">
+        <v>4183</v>
+      </c>
+      <c r="O67" t="s">
         <v>4184</v>
-      </c>
-      <c r="O67" t="s">
-        <v>4185</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -16849,13 +16847,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D70" t="s">
         <v>83</v>
@@ -16875,7 +16873,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B71" t="s">
         <v>248</v>
@@ -16890,10 +16888,10 @@
         <v>139</v>
       </c>
       <c r="L71" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M71" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -16904,10 +16902,10 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
+        <v>4000</v>
+      </c>
+      <c r="F72" t="s">
         <v>4001</v>
-      </c>
-      <c r="F72" t="s">
-        <v>4002</v>
       </c>
       <c r="L72" t="s">
         <v>83</v>
@@ -16930,7 +16928,7 @@
         <v>233</v>
       </c>
       <c r="E73" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="F73" t="s">
         <v>234</v>
@@ -16956,7 +16954,7 @@
         <v>256</v>
       </c>
       <c r="L74" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M74" t="s">
         <v>3575</v>
@@ -17019,13 +17017,13 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
@@ -17086,10 +17084,10 @@
         <v>100</v>
       </c>
       <c r="M79" t="s">
+        <v>4397</v>
+      </c>
+      <c r="O79" t="s">
         <v>4398</v>
-      </c>
-      <c r="O79" t="s">
-        <v>4399</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -17123,7 +17121,7 @@
     </row>
     <row r="81" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -17147,15 +17145,15 @@
         <v>288</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
       <c r="O81" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -17170,30 +17168,30 @@
         <v>274</v>
       </c>
       <c r="M82" t="s">
+        <v>3930</v>
+      </c>
+      <c r="N82" t="s">
+        <v>3932</v>
+      </c>
+      <c r="O82" t="s">
         <v>3931</v>
-      </c>
-      <c r="N82" t="s">
-        <v>3933</v>
-      </c>
-      <c r="O82" t="s">
-        <v>3932</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="B83" t="s">
         <v>753</v>
       </c>
       <c r="C83" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D83" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E83" t="s">
         <v>4124</v>
-      </c>
-      <c r="E83" t="s">
-        <v>4125</v>
       </c>
       <c r="F83" t="s">
         <v>2455</v>
@@ -17202,24 +17200,24 @@
         <v>100</v>
       </c>
       <c r="M83" t="s">
+        <v>4121</v>
+      </c>
+      <c r="O83" t="s">
         <v>4122</v>
-      </c>
-      <c r="O83" t="s">
-        <v>4123</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D84" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="I84" t="s">
         <v>139</v>
@@ -17251,10 +17249,10 @@
         <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="G85" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="L85" t="s">
         <v>83</v>
@@ -17268,13 +17266,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="F86" t="s">
         <v>296</v>
       </c>
       <c r="L86" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M86" t="s">
         <v>297</v>
@@ -17384,19 +17382,19 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="D90" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="F90" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="L90" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M90" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -17410,7 +17408,7 @@
         <v>269</v>
       </c>
       <c r="L91" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M91" t="s">
         <v>2674</v>
@@ -17528,7 +17526,7 @@
         <v>322</v>
       </c>
       <c r="E96" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="F96" t="s">
         <v>323</v>
@@ -17548,16 +17546,16 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="D97" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="I97" t="s">
         <v>61</v>
@@ -17566,10 +17564,10 @@
         <v>18</v>
       </c>
       <c r="L97" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M97" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -17627,21 +17625,21 @@
         <v>3407</v>
       </c>
       <c r="N99" s="6" t="s">
+        <v>4584</v>
+      </c>
+      <c r="O99" t="s">
         <v>4585</v>
-      </c>
-      <c r="O99" t="s">
-        <v>4586</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="D100" t="s">
         <v>282</v>
@@ -17754,7 +17752,7 @@
         <v>99</v>
       </c>
       <c r="L104" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M104" t="s">
         <v>3597</v>
@@ -17774,7 +17772,7 @@
         <v>99</v>
       </c>
       <c r="L105" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M105" t="s">
         <v>3599</v>
@@ -17817,7 +17815,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -17835,10 +17833,10 @@
         <v>203</v>
       </c>
       <c r="M107" t="s">
+        <v>3973</v>
+      </c>
+      <c r="O107" t="s">
         <v>3974</v>
-      </c>
-      <c r="O107" t="s">
-        <v>3975</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
@@ -17849,7 +17847,7 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
       <c r="E108" t="s">
         <v>387</v>
@@ -17893,7 +17891,7 @@
         <v>391</v>
       </c>
       <c r="L109" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M109" t="s">
         <v>3601</v>
@@ -17901,7 +17899,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="C110" t="s">
         <v>392</v>
@@ -17910,7 +17908,7 @@
         <v>393</v>
       </c>
       <c r="L110" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M110" t="s">
         <v>3602</v>
@@ -17927,7 +17925,7 @@
         <v>57</v>
       </c>
       <c r="L111" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M111" t="s">
         <v>3603</v>
@@ -17967,16 +17965,16 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="D113" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="I113" t="s">
         <v>61</v>
@@ -17985,10 +17983,10 @@
         <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M113" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
@@ -18103,33 +18101,33 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E118" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="L118" t="s">
         <v>274</v>
       </c>
       <c r="M118" t="s">
+        <v>3977</v>
+      </c>
+      <c r="N118" t="s">
+        <v>3980</v>
+      </c>
+      <c r="O118" t="s">
         <v>3978</v>
-      </c>
-      <c r="N118" t="s">
-        <v>3981</v>
-      </c>
-      <c r="O118" t="s">
-        <v>3979</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -18141,18 +18139,18 @@
         <v>138</v>
       </c>
       <c r="M119" t="s">
+        <v>4546</v>
+      </c>
+      <c r="N119" t="s">
         <v>4547</v>
       </c>
-      <c r="N119" t="s">
+      <c r="O119" t="s">
         <v>4548</v>
-      </c>
-      <c r="O119" t="s">
-        <v>4549</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -18173,10 +18171,10 @@
         <v>372</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="O120" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -18210,7 +18208,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="D122" t="s">
         <v>399</v>
@@ -18222,7 +18220,7 @@
         <v>56</v>
       </c>
       <c r="L122" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M122" t="s">
         <v>2678</v>
@@ -18256,13 +18254,13 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="D124" t="s">
         <v>494</v>
       </c>
       <c r="L124" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M124" t="s">
         <v>3624</v>
@@ -18276,7 +18274,7 @@
         <v>404</v>
       </c>
       <c r="L125" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M125" t="s">
         <v>405</v>
@@ -18319,7 +18317,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="C127" t="s">
         <v>3563</v>
@@ -18331,7 +18329,7 @@
         <v>164</v>
       </c>
       <c r="L127" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M127" t="s">
         <v>3562</v>
@@ -18339,7 +18337,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B128" t="s">
         <v>160</v>
@@ -18351,7 +18349,7 @@
         <v>169</v>
       </c>
       <c r="L128" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M128" t="s">
         <v>3564</v>
@@ -18368,7 +18366,7 @@
         <v>2142</v>
       </c>
       <c r="D129" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="L129" t="s">
         <v>191</v>
@@ -18420,7 +18418,7 @@
         <v>422</v>
       </c>
       <c r="L131" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M131" t="s">
         <v>423</v>
@@ -18437,7 +18435,7 @@
         <v>424</v>
       </c>
       <c r="L132" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M132" t="s">
         <v>2680</v>
@@ -18451,7 +18449,7 @@
         <v>427</v>
       </c>
       <c r="L133" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M133" t="s">
         <v>428</v>
@@ -18459,16 +18457,16 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="F134" t="s">
         <v>429</v>
       </c>
       <c r="L134" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M134" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -18479,7 +18477,7 @@
         <v>431</v>
       </c>
       <c r="L135" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M135" t="s">
         <v>3606</v>
@@ -18499,7 +18497,7 @@
         <v>432</v>
       </c>
       <c r="L136" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M136" t="s">
         <v>3608</v>
@@ -18522,7 +18520,7 @@
         <v>435</v>
       </c>
       <c r="L137" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M137" t="s">
         <v>2794</v>
@@ -18536,7 +18534,7 @@
         <v>430</v>
       </c>
       <c r="L138" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M138" t="s">
         <v>2819</v>
@@ -18582,7 +18580,7 @@
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="I140" t="s">
         <v>172</v>
@@ -18602,44 +18600,44 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="C141" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="D141" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="L141" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M141" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4378</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M142" t="s">
         <v>4392</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4379</v>
-      </c>
-      <c r="L142" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M142" t="s">
-        <v>4393</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="D143" t="s">
         <v>441</v>
@@ -18703,7 +18701,7 @@
         <v>49</v>
       </c>
       <c r="L145" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M145" t="s">
         <v>3616</v>
@@ -18821,7 +18819,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="D150" t="s">
         <v>464</v>
@@ -18830,7 +18828,7 @@
         <v>106</v>
       </c>
       <c r="L150" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M150" t="s">
         <v>3617</v>
@@ -18847,7 +18845,7 @@
         <v>106</v>
       </c>
       <c r="L151" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M151" t="s">
         <v>463</v>
@@ -18881,7 +18879,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
@@ -18896,13 +18894,13 @@
         <v>138</v>
       </c>
       <c r="M153" t="s">
+        <v>4539</v>
+      </c>
+      <c r="N153" t="s">
         <v>4540</v>
       </c>
-      <c r="N153" t="s">
+      <c r="O153" t="s">
         <v>4541</v>
-      </c>
-      <c r="O153" t="s">
-        <v>4542</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
@@ -18913,7 +18911,7 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="E154" t="s">
         <v>446</v>
@@ -18933,13 +18931,13 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D155" t="s">
         <v>465</v>
@@ -18991,7 +18989,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="C157" t="s">
         <v>410</v>
@@ -19006,7 +19004,7 @@
         <v>99</v>
       </c>
       <c r="L157" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M157" t="s">
         <v>3619</v>
@@ -19026,7 +19024,7 @@
         <v>99</v>
       </c>
       <c r="L158" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M158" t="s">
         <v>3621</v>
@@ -19066,7 +19064,7 @@
         <v>19</v>
       </c>
       <c r="C160" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="D160" t="s">
         <v>471</v>
@@ -19078,7 +19076,7 @@
         <v>17</v>
       </c>
       <c r="L160" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M160" t="s">
         <v>2682</v>
@@ -19098,7 +19096,7 @@
         <v>57</v>
       </c>
       <c r="L161" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M161" t="s">
         <v>3623</v>
@@ -19106,16 +19104,16 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B162" t="s">
         <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="D162" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="I162" t="s">
         <v>61</v>
@@ -19124,10 +19122,10 @@
         <v>26</v>
       </c>
       <c r="L162" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M162" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
@@ -19184,7 +19182,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="D165" t="s">
         <v>482</v>
@@ -19196,10 +19194,10 @@
         <v>30</v>
       </c>
       <c r="L165" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M165" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="N165" t="s">
         <v>483</v>
@@ -19219,7 +19217,7 @@
         <v>29</v>
       </c>
       <c r="L166" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M166" t="s">
         <v>480</v>
@@ -19242,7 +19240,7 @@
         <v>486</v>
       </c>
       <c r="L167" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M167" t="s">
         <v>145</v>
@@ -19325,13 +19323,13 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
@@ -19360,13 +19358,13 @@
         <v>13</v>
       </c>
       <c r="D172" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4590</v>
+      </c>
+      <c r="F172" t="s">
         <v>4592</v>
-      </c>
-      <c r="E172" t="s">
-        <v>4591</v>
-      </c>
-      <c r="F172" t="s">
-        <v>4593</v>
       </c>
       <c r="G172" t="s">
         <v>956</v>
@@ -19392,7 +19390,7 @@
         <v>172</v>
       </c>
       <c r="L173" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M173" t="s">
         <v>3673</v>
@@ -19536,7 +19534,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
@@ -19600,7 +19598,7 @@
         <v>519</v>
       </c>
       <c r="L181" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M181" t="s">
         <v>3627</v>
@@ -19608,7 +19606,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
@@ -19623,10 +19621,10 @@
         <v>282</v>
       </c>
       <c r="M182" t="s">
+        <v>3935</v>
+      </c>
+      <c r="O182" t="s">
         <v>3936</v>
-      </c>
-      <c r="O182" t="s">
-        <v>3937</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
@@ -19666,7 +19664,7 @@
         <v>528</v>
       </c>
       <c r="L184" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M184" t="s">
         <v>145</v>
@@ -19674,13 +19672,13 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="B185" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D185" t="s">
         <v>3630</v>
@@ -19703,31 +19701,31 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E186" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="F186" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="L186" t="s">
         <v>274</v>
       </c>
       <c r="M186" t="s">
+        <v>4343</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>4345</v>
+      </c>
+      <c r="O186" t="s">
         <v>4344</v>
-      </c>
-      <c r="N186" s="5" t="s">
-        <v>4346</v>
-      </c>
-      <c r="O186" t="s">
-        <v>4345</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
@@ -19758,7 +19756,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="C188" t="s">
         <v>540</v>
@@ -19767,7 +19765,7 @@
         <v>541</v>
       </c>
       <c r="L188" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M188" t="s">
         <v>2795</v>
@@ -19790,7 +19788,7 @@
         <v>545</v>
       </c>
       <c r="G189" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="L189" t="s">
         <v>407</v>
@@ -19819,7 +19817,7 @@
         <v>550</v>
       </c>
       <c r="L190" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M190" t="s">
         <v>551</v>
@@ -19833,7 +19831,7 @@
         <v>553</v>
       </c>
       <c r="L191" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M191" t="s">
         <v>554</v>
@@ -19841,7 +19839,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B192" t="s">
         <v>160</v>
@@ -19856,7 +19854,7 @@
         <v>561</v>
       </c>
       <c r="L192" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M192" t="s">
         <v>562</v>
@@ -19864,13 +19862,13 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="F193" t="s">
         <v>607</v>
       </c>
       <c r="L193" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M193" t="s">
         <v>3642</v>
@@ -19878,7 +19876,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F194" t="s">
         <v>566</v>
@@ -19887,10 +19885,10 @@
         <v>567</v>
       </c>
       <c r="L194" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M194" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="N194" t="s">
         <v>568</v>
@@ -19898,7 +19896,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="F195" t="s">
         <v>600</v>
@@ -19907,7 +19905,7 @@
         <v>601</v>
       </c>
       <c r="L195" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M195" t="s">
         <v>3641</v>
@@ -19918,7 +19916,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="F196" t="s">
         <v>591</v>
@@ -19927,7 +19925,7 @@
         <v>592</v>
       </c>
       <c r="L196" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M196" t="s">
         <v>3638</v>
@@ -19938,13 +19936,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="F197" t="s">
         <v>603</v>
       </c>
       <c r="L197" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M197" t="s">
         <v>2686</v>
@@ -19955,7 +19953,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="D198" t="s">
         <v>605</v>
@@ -19964,7 +19962,7 @@
         <v>57</v>
       </c>
       <c r="L198" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M198" t="s">
         <v>606</v>
@@ -19972,7 +19970,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="F199" t="s">
         <v>563</v>
@@ -19981,7 +19979,7 @@
         <v>564</v>
       </c>
       <c r="L199" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M199" t="s">
         <v>3633</v>
@@ -19992,7 +19990,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C200" t="s">
         <v>2792</v>
@@ -20007,7 +20005,7 @@
         <v>571</v>
       </c>
       <c r="L200" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M200" t="s">
         <v>2683</v>
@@ -20015,7 +20013,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="E201" t="s">
         <v>597</v>
@@ -20027,10 +20025,10 @@
         <v>599</v>
       </c>
       <c r="L201" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M201" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -20044,7 +20042,7 @@
         <v>381</v>
       </c>
       <c r="L202" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M202" t="s">
         <v>3637</v>
@@ -20058,7 +20056,7 @@
         <v>573</v>
       </c>
       <c r="L203" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M203" t="s">
         <v>574</v>
@@ -20075,7 +20073,7 @@
         <v>595</v>
       </c>
       <c r="L204" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M204" t="s">
         <v>3640</v>
@@ -20095,7 +20093,7 @@
         <v>577</v>
       </c>
       <c r="L205" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M205" t="s">
         <v>578</v>
@@ -20115,7 +20113,7 @@
         <v>582</v>
       </c>
       <c r="L206" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M206" t="s">
         <v>583</v>
@@ -20141,7 +20139,7 @@
         <v>559</v>
       </c>
       <c r="L207" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M207" t="s">
         <v>3632</v>
@@ -20161,7 +20159,7 @@
         <v>7</v>
       </c>
       <c r="L208" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M208" t="s">
         <v>2685</v>
@@ -20181,7 +20179,7 @@
         <v>586</v>
       </c>
       <c r="L209" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M209" t="s">
         <v>3635</v>
@@ -20207,13 +20205,13 @@
         <v>274</v>
       </c>
       <c r="M210" t="s">
+        <v>4175</v>
+      </c>
+      <c r="N210" s="5" t="s">
         <v>4176</v>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="O210" t="s">
         <v>4177</v>
-      </c>
-      <c r="O210" t="s">
-        <v>4178</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
@@ -20282,10 +20280,10 @@
         <v>415</v>
       </c>
       <c r="C213" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="D213" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="F213" t="s">
         <v>3377</v>
@@ -20298,7 +20296,7 @@
       </c>
       <c r="N213" s="6"/>
       <c r="O213" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
@@ -20329,13 +20327,13 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="B215" t="s">
         <v>19</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D215" t="s">
         <v>85</v>
@@ -20370,10 +20368,10 @@
         <v>22</v>
       </c>
       <c r="L216" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M216" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
@@ -20404,7 +20402,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="C218" t="s">
         <v>392</v>
@@ -20413,10 +20411,10 @@
         <v>618</v>
       </c>
       <c r="L218" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M218" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
@@ -20502,7 +20500,7 @@
         <v>381</v>
       </c>
       <c r="L222" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M222" t="s">
         <v>626</v>
@@ -20531,7 +20529,7 @@
         <v>1311</v>
       </c>
       <c r="H223" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="L223" t="s">
         <v>66</v>
@@ -20576,8 +20574,8 @@
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A225" s="15" t="s">
-        <v>4632</v>
+      <c r="A225" t="s">
+        <v>4631</v>
       </c>
       <c r="B225" t="s">
         <v>13</v>
@@ -20592,10 +20590,10 @@
         <v>173</v>
       </c>
       <c r="M225" t="s">
+        <v>4632</v>
+      </c>
+      <c r="O225" t="s">
         <v>4633</v>
-      </c>
-      <c r="O225" t="s">
-        <v>4634</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.2">
@@ -20670,7 +20668,7 @@
         <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="I228" t="s">
         <v>250</v>
@@ -20736,13 +20734,13 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D231" t="s">
         <v>203</v>
@@ -20762,7 +20760,7 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
@@ -20783,13 +20781,13 @@
         <v>138</v>
       </c>
       <c r="M232" t="s">
+        <v>4454</v>
+      </c>
+      <c r="N232" t="s">
         <v>4455</v>
       </c>
-      <c r="N232" t="s">
+      <c r="O232" t="s">
         <v>4456</v>
-      </c>
-      <c r="O232" t="s">
-        <v>4457</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
@@ -20858,7 +20856,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D235" t="s">
         <v>2493</v>
@@ -20873,10 +20871,10 @@
         <v>2496</v>
       </c>
       <c r="L235" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M235" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
@@ -20916,10 +20914,10 @@
         <v>753</v>
       </c>
       <c r="C237" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="D237" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="E237" t="s">
         <v>803</v>
@@ -20942,7 +20940,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="D238" t="s">
         <v>810</v>
@@ -20954,10 +20952,10 @@
         <v>31</v>
       </c>
       <c r="L238" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M238" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="N238" t="s">
         <v>3652</v>
@@ -21075,7 +21073,7 @@
         <v>823</v>
       </c>
       <c r="L243" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M243" t="s">
         <v>2771</v>
@@ -21086,16 +21084,16 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="D244" t="s">
         <v>3653</v>
       </c>
       <c r="L244" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M244" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="N244" t="s">
         <v>820</v>
@@ -21224,7 +21222,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="D249" t="s">
         <v>2043</v>
@@ -21236,25 +21234,25 @@
         <v>6</v>
       </c>
       <c r="L249" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M249" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="N249" s="6"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="B250" t="s">
         <v>143</v>
       </c>
       <c r="C250" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="D250" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="L250" t="s">
         <v>145</v>
@@ -21265,7 +21263,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B251" t="s">
         <v>19</v>
@@ -21300,16 +21298,16 @@
         <v>13</v>
       </c>
       <c r="D252" t="s">
+        <v>4058</v>
+      </c>
+      <c r="E252" t="s">
+        <v>4060</v>
+      </c>
+      <c r="F252" t="s">
+        <v>4057</v>
+      </c>
+      <c r="G252" t="s">
         <v>4059</v>
-      </c>
-      <c r="E252" t="s">
-        <v>4061</v>
-      </c>
-      <c r="F252" t="s">
-        <v>4058</v>
-      </c>
-      <c r="G252" t="s">
-        <v>4060</v>
       </c>
       <c r="L252" t="s">
         <v>746</v>
@@ -21376,10 +21374,10 @@
         <v>338</v>
       </c>
       <c r="M254" t="s">
+        <v>4529</v>
+      </c>
+      <c r="N254" t="s">
         <v>4530</v>
-      </c>
-      <c r="N254" t="s">
-        <v>4531</v>
       </c>
       <c r="O254" t="s">
         <v>2944</v>
@@ -21387,13 +21385,13 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="I255" t="s">
         <v>172</v>
@@ -21402,13 +21400,13 @@
         <v>338</v>
       </c>
       <c r="M255" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="N255" t="s">
+        <v>4394</v>
+      </c>
+      <c r="O255" t="s">
         <v>4395</v>
-      </c>
-      <c r="O255" t="s">
-        <v>4396</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
@@ -21445,7 +21443,7 @@
         <v>848</v>
       </c>
       <c r="L257" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M257" t="s">
         <v>849</v>
@@ -21453,7 +21451,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
@@ -21468,13 +21466,13 @@
         <v>15</v>
       </c>
       <c r="M258" t="s">
+        <v>4491</v>
+      </c>
+      <c r="N258" t="s">
         <v>4492</v>
       </c>
-      <c r="N258" t="s">
+      <c r="O258" t="s">
         <v>4493</v>
-      </c>
-      <c r="O258" t="s">
-        <v>4494</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.2">
@@ -21600,36 +21598,36 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="B263" t="s">
         <v>143</v>
       </c>
       <c r="C263" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="D263" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E263" t="s">
         <v>4116</v>
       </c>
-      <c r="E263" t="s">
-        <v>4117</v>
-      </c>
       <c r="F263" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="L263" t="s">
         <v>100</v>
       </c>
       <c r="M263" s="10" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="O263" s="10" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
@@ -21644,24 +21642,24 @@
         <v>138</v>
       </c>
       <c r="M264" t="s">
+        <v>4601</v>
+      </c>
+      <c r="N264" t="s">
         <v>4602</v>
       </c>
-      <c r="N264" t="s">
+      <c r="O264" t="s">
         <v>4603</v>
-      </c>
-      <c r="O264" t="s">
-        <v>4604</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B265" t="s">
         <v>13</v>
       </c>
       <c r="D265" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="F265" t="s">
         <v>1688</v>
@@ -21670,13 +21668,13 @@
         <v>138</v>
       </c>
       <c r="M265" t="s">
+        <v>4535</v>
+      </c>
+      <c r="N265" t="s">
+        <v>4537</v>
+      </c>
+      <c r="O265" t="s">
         <v>4536</v>
-      </c>
-      <c r="N265" t="s">
-        <v>4538</v>
-      </c>
-      <c r="O265" t="s">
-        <v>4537</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
@@ -21696,7 +21694,7 @@
         <v>675</v>
       </c>
       <c r="M266" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="N266" t="s">
         <v>869</v>
@@ -21707,25 +21705,25 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="C267" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="D267" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="L267" t="s">
         <v>138</v>
       </c>
       <c r="M267" t="s">
+        <v>4382</v>
+      </c>
+      <c r="N267" t="s">
         <v>4383</v>
       </c>
-      <c r="N267" t="s">
+      <c r="O267" t="s">
         <v>4384</v>
-      </c>
-      <c r="O267" t="s">
-        <v>4385</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.2">
@@ -21759,7 +21757,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
@@ -21780,13 +21778,13 @@
         <v>138</v>
       </c>
       <c r="M269" s="13" t="s">
+        <v>4559</v>
+      </c>
+      <c r="N269" t="s">
         <v>4560</v>
       </c>
-      <c r="N269" t="s">
+      <c r="O269" t="s">
         <v>4561</v>
-      </c>
-      <c r="O269" t="s">
-        <v>4562</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.2">
@@ -21797,19 +21795,19 @@
         <v>143</v>
       </c>
       <c r="C270" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D270" t="s">
         <v>4100</v>
-      </c>
-      <c r="D270" t="s">
-        <v>4101</v>
       </c>
       <c r="E270" t="s">
         <v>798</v>
       </c>
       <c r="F270" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="L270" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M270" t="s">
         <v>2666</v>
@@ -21852,7 +21850,7 @@
         <v>801</v>
       </c>
       <c r="L272" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M272" t="s">
         <v>2701</v>
@@ -21886,31 +21884,31 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="B274" t="s">
         <v>143</v>
       </c>
       <c r="C274" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="D274" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="E274" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="F274" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="L274" t="s">
         <v>274</v>
       </c>
       <c r="M274" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="O274" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
@@ -21970,16 +21968,16 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="D277" t="s">
         <v>893</v>
       </c>
       <c r="L277" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M277" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="N277" t="s">
         <v>894</v>
@@ -22042,13 +22040,13 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="B280" t="s">
         <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F280" t="s">
         <v>834</v>
@@ -22063,10 +22061,10 @@
         <v>338</v>
       </c>
       <c r="M280" t="s">
+        <v>4387</v>
+      </c>
+      <c r="N280" t="s">
         <v>4388</v>
-      </c>
-      <c r="N280" t="s">
-        <v>4389</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
@@ -22144,7 +22142,7 @@
         <v>920</v>
       </c>
       <c r="L283" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M283" t="s">
         <v>3662</v>
@@ -22158,7 +22156,7 @@
         <v>925</v>
       </c>
       <c r="L284" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M284" t="s">
         <v>926</v>
@@ -22175,7 +22173,7 @@
         <v>928</v>
       </c>
       <c r="L285" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M285" t="s">
         <v>2704</v>
@@ -22192,7 +22190,7 @@
         <v>939</v>
       </c>
       <c r="L286" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M286" t="s">
         <v>3667</v>
@@ -22203,16 +22201,16 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>4152</v>
+      </c>
+      <c r="G287" t="s">
+        <v>4154</v>
+      </c>
+      <c r="L287" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M287" t="s">
         <v>4153</v>
-      </c>
-      <c r="G287" t="s">
-        <v>4155</v>
-      </c>
-      <c r="L287" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M287" t="s">
-        <v>4154</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
@@ -22223,7 +22221,7 @@
         <v>933</v>
       </c>
       <c r="L288" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M288" t="s">
         <v>934</v>
@@ -22243,7 +22241,7 @@
         <v>928</v>
       </c>
       <c r="L289" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M289" t="s">
         <v>938</v>
@@ -22257,7 +22255,7 @@
         <v>941</v>
       </c>
       <c r="L290" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M290" t="s">
         <v>3665</v>
@@ -22274,7 +22272,7 @@
         <v>945</v>
       </c>
       <c r="L291" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M291" t="s">
         <v>2797</v>
@@ -22288,7 +22286,7 @@
         <v>930</v>
       </c>
       <c r="L292" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M292" t="s">
         <v>2821</v>
@@ -22305,7 +22303,7 @@
         <v>943</v>
       </c>
       <c r="L293" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M293" t="s">
         <v>3669</v>
@@ -22354,7 +22352,7 @@
         <v>952</v>
       </c>
       <c r="L295" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M295" t="s">
         <v>145</v>
@@ -22362,46 +22360,46 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="B296" t="s">
         <v>13</v>
       </c>
       <c r="F296" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="L296" t="s">
         <v>274</v>
       </c>
       <c r="M296" s="13" t="s">
+        <v>4442</v>
+      </c>
+      <c r="N296" s="5" t="s">
         <v>4443</v>
       </c>
-      <c r="N296" s="5" t="s">
+      <c r="O296" t="s">
         <v>4444</v>
-      </c>
-      <c r="O296" t="s">
-        <v>4445</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="B297" t="s">
         <v>13</v>
       </c>
       <c r="D297" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="L297" t="s">
         <v>282</v>
       </c>
       <c r="M297" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="N297" s="5"/>
       <c r="O297" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
@@ -22412,7 +22410,7 @@
         <v>954</v>
       </c>
       <c r="L298" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M298" t="s">
         <v>955</v>
@@ -22567,7 +22565,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
@@ -22585,7 +22583,7 @@
         <v>865</v>
       </c>
       <c r="O305" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
@@ -22671,16 +22669,16 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="E309" t="s">
         <v>2500</v>
       </c>
       <c r="L309" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M309" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="N309" t="s">
         <v>2501</v>
@@ -22688,16 +22686,16 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="E310" t="s">
         <v>2505</v>
       </c>
       <c r="L310" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M310" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
@@ -22728,7 +22726,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B312" t="s">
         <v>13</v>
@@ -22737,7 +22735,7 @@
         <v>610</v>
       </c>
       <c r="E312" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="F312" t="s">
         <v>611</v>
@@ -22746,13 +22744,13 @@
         <v>274</v>
       </c>
       <c r="M312" t="s">
+        <v>4187</v>
+      </c>
+      <c r="N312" s="5" t="s">
         <v>4188</v>
       </c>
-      <c r="N312" s="5" t="s">
+      <c r="O312" t="s">
         <v>4189</v>
-      </c>
-      <c r="O312" t="s">
-        <v>4190</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
@@ -22766,7 +22764,7 @@
         <v>1855</v>
       </c>
       <c r="E313" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="F313" t="s">
         <v>1856</v>
@@ -22792,7 +22790,7 @@
         <v>1866</v>
       </c>
       <c r="L314" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M314" t="s">
         <v>3809</v>
@@ -22800,7 +22798,7 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="B315" t="s">
         <v>160</v>
@@ -22809,21 +22807,21 @@
         <v>160</v>
       </c>
       <c r="D315" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="L315" t="s">
         <v>274</v>
       </c>
       <c r="M315" s="11" t="s">
+        <v>4146</v>
+      </c>
+      <c r="O315" t="s">
         <v>4147</v>
-      </c>
-      <c r="O315" t="s">
-        <v>4148</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="B316" t="s">
         <v>160</v>
@@ -22832,67 +22830,67 @@
         <v>160</v>
       </c>
       <c r="D316" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="L316" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M316" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B317" t="s">
         <v>160</v>
       </c>
       <c r="C317" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="L317" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M317" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B318" t="s">
         <v>160</v>
       </c>
       <c r="C318" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="D318" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="L318" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M318" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B319" t="s">
         <v>160</v>
       </c>
       <c r="C319" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="L319" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M319" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
@@ -22923,19 +22921,19 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>3982</v>
+      </c>
+      <c r="D321" t="s">
         <v>3983</v>
-      </c>
-      <c r="D321" t="s">
-        <v>3984</v>
       </c>
       <c r="E321" t="s">
         <v>1732</v>
       </c>
       <c r="L321" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M321" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
@@ -22955,7 +22953,7 @@
         <v>250</v>
       </c>
       <c r="L322" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M322" t="s">
         <v>3794</v>
@@ -22975,7 +22973,7 @@
         <v>1732</v>
       </c>
       <c r="L323" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M323" t="s">
         <v>3796</v>
@@ -22998,7 +22996,7 @@
         <v>771</v>
       </c>
       <c r="L324" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M324" t="s">
         <v>3792</v>
@@ -23009,16 +23007,16 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D325" t="s">
+        <v>3995</v>
+      </c>
+      <c r="L325" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M325" t="s">
         <v>3999</v>
-      </c>
-      <c r="D325" t="s">
-        <v>3996</v>
-      </c>
-      <c r="L325" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M325" t="s">
-        <v>4000</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
@@ -23032,7 +23030,7 @@
         <v>1725</v>
       </c>
       <c r="L326" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M326" t="s">
         <v>3790</v>
@@ -23095,19 +23093,19 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="D329" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="I329" t="s">
         <v>172</v>
       </c>
       <c r="L329" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M329" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
@@ -23144,7 +23142,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="D331" t="s">
         <v>1019</v>
@@ -23153,10 +23151,10 @@
         <v>1019</v>
       </c>
       <c r="L331" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M331" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="N331" t="s">
         <v>3681</v>
@@ -23164,7 +23162,7 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B332" t="s">
         <v>143</v>
@@ -23173,16 +23171,16 @@
         <v>800</v>
       </c>
       <c r="D332" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="L332" t="s">
         <v>83</v>
       </c>
       <c r="M332" t="s">
+        <v>4196</v>
+      </c>
+      <c r="O332" t="s">
         <v>4197</v>
-      </c>
-      <c r="O332" t="s">
-        <v>4198</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
@@ -23271,7 +23269,7 @@
         <v>994</v>
       </c>
       <c r="L336" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M336" t="s">
         <v>2706</v>
@@ -23282,13 +23280,13 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B337" t="s">
         <v>19</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D337" t="s">
         <v>995</v>
@@ -23320,7 +23318,7 @@
         <v>1040</v>
       </c>
       <c r="L338" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M338" t="s">
         <v>145</v>
@@ -23363,7 +23361,7 @@
         <v>1048</v>
       </c>
       <c r="L340" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M340" t="s">
         <v>1049</v>
@@ -23455,7 +23453,7 @@
         <v>13</v>
       </c>
       <c r="E344" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="F344" t="s">
         <v>1063</v>
@@ -23533,7 +23531,7 @@
         <v>1072</v>
       </c>
       <c r="L347" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M347" t="s">
         <v>1073</v>
@@ -23556,7 +23554,7 @@
         <v>46</v>
       </c>
       <c r="L348" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M348" t="s">
         <v>1076</v>
@@ -23593,13 +23591,13 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="B350" t="s">
         <v>19</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D350" t="s">
         <v>650</v>
@@ -23648,7 +23646,7 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B352" t="s">
         <v>19</v>
@@ -23686,7 +23684,7 @@
         <v>1270</v>
       </c>
       <c r="L353" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M353" t="s">
         <v>3721</v>
@@ -23723,16 +23721,16 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="B355" t="s">
         <v>19</v>
       </c>
       <c r="C355" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="D355" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="I355" t="s">
         <v>61</v>
@@ -23741,10 +23739,10 @@
         <v>19</v>
       </c>
       <c r="L355" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M355" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
@@ -23755,7 +23753,7 @@
         <v>1271</v>
       </c>
       <c r="L356" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M356" t="s">
         <v>3720</v>
@@ -23813,15 +23811,15 @@
         <v>1110</v>
       </c>
       <c r="L358" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M358" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A359" s="15" t="s">
-        <v>4630</v>
+      <c r="A359" t="s">
+        <v>4629</v>
       </c>
       <c r="D359" t="s">
         <v>1210</v>
@@ -23836,10 +23834,10 @@
         <v>1212</v>
       </c>
       <c r="L359" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M359" t="s">
-        <v>4631</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
@@ -23850,7 +23848,7 @@
         <v>1137</v>
       </c>
       <c r="L360" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M360" t="s">
         <v>3693</v>
@@ -23870,7 +23868,7 @@
         <v>1113</v>
       </c>
       <c r="L361" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M361" t="s">
         <v>3689</v>
@@ -23878,7 +23876,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="D362" t="s">
         <v>1105</v>
@@ -23890,7 +23888,7 @@
         <v>1107</v>
       </c>
       <c r="L362" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M362" t="s">
         <v>2708</v>
@@ -23910,7 +23908,7 @@
         <v>1121</v>
       </c>
       <c r="L363" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M363" t="s">
         <v>1122</v>
@@ -23918,7 +23916,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="D364" t="s">
         <v>1123</v>
@@ -23927,7 +23925,7 @@
         <v>1124</v>
       </c>
       <c r="L364" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M364" t="s">
         <v>2709</v>
@@ -23935,7 +23933,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="B365" t="s">
         <v>160</v>
@@ -23950,7 +23948,7 @@
         <v>1126</v>
       </c>
       <c r="L365" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M365" t="s">
         <v>1127</v>
@@ -23958,7 +23956,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="C366" t="s">
         <v>1145</v>
@@ -23967,7 +23965,7 @@
         <v>1146</v>
       </c>
       <c r="L366" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M366" t="s">
         <v>3694</v>
@@ -23990,7 +23988,7 @@
         <v>1129</v>
       </c>
       <c r="L367" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M367" t="s">
         <v>3698</v>
@@ -23998,16 +23996,16 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="F368" t="s">
         <v>425</v>
       </c>
       <c r="L368" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M368" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="O368" t="s">
         <v>1156</v>
@@ -24021,7 +24019,7 @@
         <v>1134</v>
       </c>
       <c r="L369" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M369" t="s">
         <v>1135</v>
@@ -24038,7 +24036,7 @@
         <v>1140</v>
       </c>
       <c r="L370" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M370" t="s">
         <v>1141</v>
@@ -24052,7 +24050,7 @@
         <v>1157</v>
       </c>
       <c r="L371" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M371" t="s">
         <v>3700</v>
@@ -24078,7 +24076,7 @@
         <v>1149</v>
       </c>
       <c r="L372" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M372" t="s">
         <v>3696</v>
@@ -24086,7 +24084,7 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="D373" t="s">
         <v>2562</v>
@@ -24098,10 +24096,10 @@
         <v>39</v>
       </c>
       <c r="L373" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M373" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
@@ -24118,7 +24116,7 @@
         <v>1144</v>
       </c>
       <c r="L374" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M374" t="s">
         <v>2715</v>
@@ -24126,7 +24124,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="D375" t="s">
         <v>1150</v>
@@ -24135,10 +24133,10 @@
         <v>172</v>
       </c>
       <c r="L375" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M375" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="N375" t="s">
         <v>1151</v>
@@ -24161,7 +24159,7 @@
         <v>1117</v>
       </c>
       <c r="L376" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M376" t="s">
         <v>3691</v>
@@ -24172,10 +24170,10 @@
         <v>3690</v>
       </c>
       <c r="E377" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="L377" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M377" t="s">
         <v>3691</v>
@@ -24192,7 +24190,7 @@
         <v>1153</v>
       </c>
       <c r="L378" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M378" t="s">
         <v>1154</v>
@@ -24247,10 +24245,10 @@
         <v>100</v>
       </c>
       <c r="M380" s="13" t="s">
+        <v>4513</v>
+      </c>
+      <c r="O380" t="s">
         <v>4514</v>
-      </c>
-      <c r="O380" t="s">
-        <v>4515</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
@@ -24261,7 +24259,7 @@
         <v>1130</v>
       </c>
       <c r="L381" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M381" t="s">
         <v>2711</v>
@@ -24284,7 +24282,7 @@
         <v>2790</v>
       </c>
       <c r="L382" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M382" t="s">
         <v>2789</v>
@@ -24298,7 +24296,7 @@
         <v>1132</v>
       </c>
       <c r="L383" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M383" t="s">
         <v>2713</v>
@@ -24422,16 +24420,16 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B388" t="s">
         <v>19</v>
       </c>
       <c r="C388" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="D388" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="I388" t="s">
         <v>61</v>
@@ -24440,10 +24438,10 @@
         <v>22</v>
       </c>
       <c r="L388" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M388" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
@@ -24549,13 +24547,13 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="B393" t="s">
         <v>19</v>
       </c>
       <c r="C393" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="D393" t="s">
         <v>1081</v>
@@ -24567,10 +24565,10 @@
         <v>9</v>
       </c>
       <c r="L393" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M393" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="N393" t="s">
         <v>1082</v>
@@ -24662,7 +24660,7 @@
         <v>1995</v>
       </c>
       <c r="L397" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M397" t="s">
         <v>34</v>
@@ -24670,19 +24668,19 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C398" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4370</v>
+      </c>
+      <c r="L398" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M398" t="s">
         <v>4420</v>
-      </c>
-      <c r="C398" t="s">
-        <v>4378</v>
-      </c>
-      <c r="D398" t="s">
-        <v>4371</v>
-      </c>
-      <c r="L398" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M398" t="s">
-        <v>4421</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
@@ -24696,7 +24694,7 @@
         <v>2842</v>
       </c>
       <c r="E399" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="F399" t="s">
         <v>2841</v>
@@ -24745,7 +24743,7 @@
         <v>1208</v>
       </c>
       <c r="L401" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M401" t="s">
         <v>3706</v>
@@ -24785,7 +24783,7 @@
         <v>1209</v>
       </c>
       <c r="L403" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M403" t="s">
         <v>2717</v>
@@ -24810,7 +24808,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
       <c r="L404" s="2" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M404" s="2" t="s">
         <v>2579</v>
@@ -24833,7 +24831,7 @@
         <v>1222</v>
       </c>
       <c r="L405" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M405" t="s">
         <v>145</v>
@@ -24896,13 +24894,13 @@
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="B408" t="s">
         <v>13</v>
       </c>
       <c r="D408" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="I408" t="s">
         <v>172</v>
@@ -24911,13 +24909,13 @@
         <v>128</v>
       </c>
       <c r="M408" t="s">
+        <v>4361</v>
+      </c>
+      <c r="N408" t="s">
         <v>4362</v>
       </c>
-      <c r="N408" t="s">
+      <c r="O408" t="s">
         <v>4363</v>
-      </c>
-      <c r="O408" t="s">
-        <v>4364</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
@@ -24984,16 +24982,16 @@
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B411" t="s">
         <v>19</v>
       </c>
       <c r="C411" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="D411" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="I411" t="s">
         <v>61</v>
@@ -25002,10 +25000,10 @@
         <v>13</v>
       </c>
       <c r="L411" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M411" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
@@ -25016,7 +25014,7 @@
         <v>1243</v>
       </c>
       <c r="L412" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M412" t="s">
         <v>1244</v>
@@ -25059,7 +25057,7 @@
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="D414" t="s">
         <v>2561</v>
@@ -25071,10 +25069,10 @@
         <v>20</v>
       </c>
       <c r="L414" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M414" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="N414" t="s">
         <v>1253</v>
@@ -25111,7 +25109,7 @@
         <v>1938</v>
       </c>
       <c r="L416" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M416" t="s">
         <v>3713</v>
@@ -25128,7 +25126,7 @@
         <v>1941</v>
       </c>
       <c r="L417" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M417" t="s">
         <v>3715</v>
@@ -25267,7 +25265,7 @@
         <v>14</v>
       </c>
       <c r="L422" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M422" t="s">
         <v>3782</v>
@@ -25307,7 +25305,7 @@
         <v>57</v>
       </c>
       <c r="L424" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M424" t="s">
         <v>3778</v>
@@ -25324,7 +25322,7 @@
         <v>1640</v>
       </c>
       <c r="L425" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M425" t="s">
         <v>3780</v>
@@ -25425,13 +25423,13 @@
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="D429" t="s">
         <v>355</v>
       </c>
       <c r="L429" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M429" t="s">
         <v>2786</v>
@@ -25474,7 +25472,7 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="D431" t="s">
         <v>2558</v>
@@ -25486,10 +25484,10 @@
         <v>33</v>
       </c>
       <c r="L431" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M431" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
@@ -25532,7 +25530,7 @@
         <v>1313</v>
       </c>
       <c r="L433" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M433" t="s">
         <v>3730</v>
@@ -25549,7 +25547,7 @@
         <v>1302</v>
       </c>
       <c r="L434" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M434" t="s">
         <v>3727</v>
@@ -25610,7 +25608,7 @@
         <v>1313</v>
       </c>
       <c r="L436" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M436" t="s">
         <v>3729</v>
@@ -25627,7 +25625,7 @@
         <v>1315</v>
       </c>
       <c r="L437" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M437" t="s">
         <v>1316</v>
@@ -25644,7 +25642,7 @@
         <v>1362</v>
       </c>
       <c r="L438" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M438" t="s">
         <v>3748</v>
@@ -25661,7 +25659,7 @@
         <v>1300</v>
       </c>
       <c r="L439" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M439" t="s">
         <v>3725</v>
@@ -25681,7 +25679,7 @@
         <v>1327</v>
       </c>
       <c r="L440" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M440" t="s">
         <v>3732</v>
@@ -25701,7 +25699,7 @@
         <v>3738</v>
       </c>
       <c r="L441" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M441" t="s">
         <v>3737</v>
@@ -25715,19 +25713,19 @@
         <v>160</v>
       </c>
       <c r="C442" t="s">
+        <v>4008</v>
+      </c>
+      <c r="D442" t="s">
         <v>4009</v>
       </c>
-      <c r="D442" t="s">
+      <c r="E442" t="s">
         <v>4010</v>
-      </c>
-      <c r="E442" t="s">
-        <v>4011</v>
       </c>
       <c r="F442" t="s">
         <v>1307</v>
       </c>
       <c r="G442" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="H442" t="s">
         <v>1308</v>
@@ -25747,7 +25745,7 @@
         <v>1330</v>
       </c>
       <c r="L443" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M443" t="s">
         <v>1303</v>
@@ -25770,7 +25768,7 @@
         <v>1357</v>
       </c>
       <c r="L444" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M444" t="s">
         <v>3744</v>
@@ -25787,7 +25785,7 @@
         <v>1332</v>
       </c>
       <c r="L445" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M445" t="s">
         <v>1333</v>
@@ -25795,7 +25793,7 @@
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="D446" t="s">
         <v>1359</v>
@@ -25804,10 +25802,10 @@
         <v>250</v>
       </c>
       <c r="L446" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M446" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
@@ -25818,7 +25816,7 @@
         <v>1334</v>
       </c>
       <c r="L447" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M447" t="s">
         <v>3734</v>
@@ -25838,7 +25836,7 @@
         <v>1360</v>
       </c>
       <c r="L448" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M448" t="s">
         <v>2799</v>
@@ -25861,7 +25859,7 @@
         <v>1349</v>
       </c>
       <c r="L449" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M449" t="s">
         <v>1350</v>
@@ -25884,7 +25882,7 @@
         <v>1354</v>
       </c>
       <c r="L450" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M450" t="s">
         <v>2768</v>
@@ -25907,7 +25905,7 @@
         <v>1344</v>
       </c>
       <c r="L451" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M451" t="s">
         <v>3742</v>
@@ -25933,7 +25931,7 @@
         <v>1319</v>
       </c>
       <c r="L452" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M452" t="s">
         <v>2721</v>
@@ -25956,7 +25954,7 @@
         <v>1322</v>
       </c>
       <c r="L453" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M453" t="s">
         <v>2719</v>
@@ -25970,7 +25968,7 @@
         <v>1339</v>
       </c>
       <c r="L454" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M454" t="s">
         <v>3739</v>
@@ -25993,7 +25991,7 @@
         <v>1325</v>
       </c>
       <c r="L455" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M455" t="s">
         <v>2723</v>
@@ -26010,7 +26008,7 @@
         <v>1366</v>
       </c>
       <c r="L456" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M456" t="s">
         <v>1367</v>
@@ -26105,7 +26103,7 @@
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D460" t="s">
         <v>2096</v>
@@ -26117,10 +26115,10 @@
         <v>13</v>
       </c>
       <c r="L460" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M460" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
@@ -26209,7 +26207,7 @@
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D464" t="s">
         <v>1388</v>
@@ -26221,7 +26219,7 @@
         <v>1390</v>
       </c>
       <c r="L464" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M464" t="s">
         <v>2770</v>
@@ -26267,7 +26265,7 @@
         <v>1392</v>
       </c>
       <c r="L466" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M466" t="s">
         <v>1393</v>
@@ -26307,7 +26305,7 @@
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="B468" t="s">
         <v>13</v>
@@ -26322,15 +26320,15 @@
         <v>650</v>
       </c>
       <c r="M468" t="s">
+        <v>4054</v>
+      </c>
+      <c r="N468" t="s">
         <v>4055</v>
-      </c>
-      <c r="N468" t="s">
-        <v>4056</v>
       </c>
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="D469" t="s">
         <v>227</v>
@@ -26342,7 +26340,7 @@
         <v>229</v>
       </c>
       <c r="L469" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M469" t="s">
         <v>3568</v>
@@ -26405,13 +26403,13 @@
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="B472" t="s">
         <v>19</v>
       </c>
       <c r="C472" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="D472" t="s">
         <v>407</v>
@@ -26431,16 +26429,16 @@
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="B473" t="s">
         <v>753</v>
       </c>
       <c r="C473" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="D473" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="I473" t="s">
         <v>290</v>
@@ -26452,15 +26450,15 @@
         <v>282</v>
       </c>
       <c r="M473" t="s">
+        <v>4563</v>
+      </c>
+      <c r="O473" t="s">
         <v>4564</v>
-      </c>
-      <c r="O473" t="s">
-        <v>4565</v>
       </c>
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
       <c r="D474" t="s">
         <v>1026</v>
@@ -26472,10 +26470,10 @@
         <v>24</v>
       </c>
       <c r="L474" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M474" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="N474" t="s">
         <v>1027</v>
@@ -26518,7 +26516,7 @@
         <v>1418</v>
       </c>
       <c r="L476" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M476" t="s">
         <v>3755</v>
@@ -26532,7 +26530,7 @@
         <v>1400</v>
       </c>
       <c r="L477" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M477" t="s">
         <v>3752</v>
@@ -26552,7 +26550,7 @@
         <v>1425</v>
       </c>
       <c r="F478" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="G478" t="s">
         <v>1426</v>
@@ -26607,7 +26605,7 @@
         <v>2508</v>
       </c>
       <c r="L480" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M480" t="s">
         <v>3818</v>
@@ -26656,16 +26654,16 @@
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="D482" t="s">
         <v>2409</v>
       </c>
       <c r="L482" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M482" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="N482" t="s">
         <v>2410</v>
@@ -26673,16 +26671,16 @@
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B483" t="s">
         <v>19</v>
       </c>
       <c r="C483" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="D483" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="I483" t="s">
         <v>61</v>
@@ -26691,10 +26689,10 @@
         <v>24</v>
       </c>
       <c r="L483" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M483" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.2">
@@ -26749,7 +26747,7 @@
         <v>1412</v>
       </c>
       <c r="L485" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M485" t="s">
         <v>2724</v>
@@ -26766,7 +26764,7 @@
         <v>1439</v>
       </c>
       <c r="L486" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M486" t="s">
         <v>3759</v>
@@ -26777,7 +26775,7 @@
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="C487" t="s">
         <v>392</v>
@@ -26786,10 +26784,10 @@
         <v>1441</v>
       </c>
       <c r="L487" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M487" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.2">
@@ -26806,7 +26804,7 @@
         <v>32</v>
       </c>
       <c r="L488" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M488" t="s">
         <v>2727</v>
@@ -26832,7 +26830,7 @@
         <v>1445</v>
       </c>
       <c r="L489" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M489" t="s">
         <v>2725</v>
@@ -26852,7 +26850,7 @@
         <v>1447</v>
       </c>
       <c r="L490" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M490" t="s">
         <v>2728</v>
@@ -26869,7 +26867,7 @@
         <v>57</v>
       </c>
       <c r="L491" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M491" t="s">
         <v>2731</v>
@@ -26946,7 +26944,7 @@
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="B495" t="s">
         <v>13</v>
@@ -26973,21 +26971,21 @@
         <v>83</v>
       </c>
       <c r="M495" s="13" t="s">
+        <v>4509</v>
+      </c>
+      <c r="O495" t="s">
         <v>4510</v>
-      </c>
-      <c r="O495" t="s">
-        <v>4511</v>
       </c>
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="B496" t="s">
         <v>19</v>
       </c>
       <c r="C496" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="D496" t="s">
         <v>1463</v>
@@ -27042,7 +27040,7 @@
         <v>1470</v>
       </c>
       <c r="L498" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M498" t="s">
         <v>1471</v>
@@ -27056,7 +27054,7 @@
         <v>1472</v>
       </c>
       <c r="L499" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M499" t="s">
         <v>3763</v>
@@ -27070,7 +27068,7 @@
         <v>1473</v>
       </c>
       <c r="L500" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M500" t="s">
         <v>3764</v>
@@ -27133,7 +27131,7 @@
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="B503" t="s">
         <v>13</v>
@@ -27144,11 +27142,11 @@
       <c r="L503" t="s">
         <v>282</v>
       </c>
-      <c r="M503" s="14" t="s">
+      <c r="M503" t="s">
+        <v>4612</v>
+      </c>
+      <c r="O503" t="s">
         <v>4613</v>
-      </c>
-      <c r="O503" t="s">
-        <v>4614</v>
       </c>
     </row>
     <row r="504" spans="1:15" x14ac:dyDescent="0.2">
@@ -27162,7 +27160,7 @@
         <v>1480</v>
       </c>
       <c r="L504" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M504" t="s">
         <v>145</v>
@@ -27176,7 +27174,7 @@
         <v>771</v>
       </c>
       <c r="L505" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M505" t="s">
         <v>1486</v>
@@ -27184,19 +27182,19 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
+        <v>4437</v>
+      </c>
+      <c r="F506" t="s">
         <v>4438</v>
       </c>
-      <c r="F506" t="s">
-        <v>4439</v>
-      </c>
       <c r="G506" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="L506" t="s">
         <v>85</v>
       </c>
       <c r="M506" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
@@ -27276,7 +27274,7 @@
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="B510" t="s">
         <v>13</v>
@@ -27291,15 +27289,15 @@
         <v>100</v>
       </c>
       <c r="M510" t="s">
+        <v>4484</v>
+      </c>
+      <c r="O510" t="s">
         <v>4485</v>
-      </c>
-      <c r="O510" t="s">
-        <v>4486</v>
       </c>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>2834</v>
@@ -27308,15 +27306,15 @@
         <v>2833</v>
       </c>
       <c r="L511" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M511" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="B512" t="s">
         <v>160</v>
@@ -27328,15 +27326,15 @@
         <v>2195</v>
       </c>
       <c r="L512" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M512" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="B513" t="s">
         <v>160</v>
@@ -27348,10 +27346,10 @@
         <v>2835</v>
       </c>
       <c r="L513" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M513" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.2">
@@ -27382,39 +27380,39 @@
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="B515" t="s">
         <v>143</v>
       </c>
       <c r="C515" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D515" t="s">
         <v>4105</v>
       </c>
-      <c r="D515" t="s">
+      <c r="F515" t="s">
         <v>4106</v>
-      </c>
-      <c r="F515" t="s">
-        <v>4107</v>
       </c>
       <c r="L515" t="s">
         <v>274</v>
       </c>
       <c r="M515" s="10" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="O515" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="B516" t="s">
         <v>19</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="D516" t="s">
         <v>1502</v>
@@ -27463,7 +27461,7 @@
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="B518" t="s">
         <v>160</v>
@@ -27478,7 +27476,7 @@
         <v>310</v>
       </c>
       <c r="L518" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M518" t="s">
         <v>3585</v>
@@ -27492,7 +27490,7 @@
         <v>13</v>
       </c>
       <c r="D519" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="E519" t="s">
         <v>1510</v>
@@ -27553,7 +27551,7 @@
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B521" t="s">
         <v>13</v>
@@ -27568,54 +27566,54 @@
         <v>83</v>
       </c>
       <c r="M521" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="O521" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="B522" t="s">
         <v>13</v>
       </c>
       <c r="D522" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="E522" t="s">
         <v>531</v>
       </c>
       <c r="F522" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="L522" t="s">
         <v>83</v>
       </c>
       <c r="M522" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="N522" s="5"/>
       <c r="O522" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="B523" t="s">
         <v>415</v>
       </c>
       <c r="C523" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D523" t="s">
+        <v>4135</v>
+      </c>
+      <c r="F523" t="s">
         <v>4137</v>
-      </c>
-      <c r="D523" t="s">
-        <v>4136</v>
-      </c>
-      <c r="F523" t="s">
-        <v>4138</v>
       </c>
       <c r="I523" t="s">
         <v>290</v>
@@ -27627,18 +27625,18 @@
         <v>675</v>
       </c>
       <c r="M523" t="s">
+        <v>3948</v>
+      </c>
+      <c r="N523" t="s">
+        <v>3950</v>
+      </c>
+      <c r="O523" t="s">
         <v>3949</v>
-      </c>
-      <c r="N523" t="s">
-        <v>3951</v>
-      </c>
-      <c r="O523" t="s">
-        <v>3950</v>
       </c>
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="D524" t="s">
         <v>555</v>
@@ -27650,10 +27648,10 @@
         <v>40</v>
       </c>
       <c r="L524" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M524" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="N524" t="s">
         <v>556</v>
@@ -27661,16 +27659,16 @@
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="D525" t="s">
         <v>532</v>
       </c>
       <c r="L525" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M525" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="N525" t="s">
         <v>533</v>
@@ -27678,7 +27676,7 @@
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="D526" t="s">
         <v>534</v>
@@ -27687,21 +27685,21 @@
         <v>535</v>
       </c>
       <c r="L526" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M526" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B527" t="s">
         <v>19</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="D527" t="s">
         <v>1533</v>
@@ -27768,7 +27766,7 @@
         <v>1542</v>
       </c>
       <c r="L529" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M529" t="s">
         <v>1543</v>
@@ -27808,13 +27806,13 @@
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="B531" t="s">
         <v>19</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D531" t="s">
         <v>1549</v>
@@ -27921,13 +27919,13 @@
     </row>
     <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B535" t="s">
         <v>19</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D535" t="s">
         <v>135</v>
@@ -27962,7 +27960,7 @@
         <v>1563</v>
       </c>
       <c r="L536" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.2">
@@ -27993,7 +27991,7 @@
     </row>
     <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="B538" t="s">
         <v>19</v>
@@ -28054,7 +28052,7 @@
         <v>13</v>
       </c>
       <c r="D540" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
       <c r="F540" t="s">
         <v>1593</v>
@@ -28078,13 +28076,13 @@
         <v>66</v>
       </c>
       <c r="M540" t="s">
+        <v>3965</v>
+      </c>
+      <c r="N540" t="s">
         <v>3966</v>
       </c>
-      <c r="N540" t="s">
+      <c r="O540" t="s">
         <v>3967</v>
-      </c>
-      <c r="O540" t="s">
-        <v>3968</v>
       </c>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.2">
@@ -28098,7 +28096,7 @@
         <v>309</v>
       </c>
       <c r="L541" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M541" t="s">
         <v>3775</v>
@@ -28106,7 +28104,7 @@
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="D542" t="s">
         <v>1596</v>
@@ -28118,10 +28116,10 @@
         <v>22</v>
       </c>
       <c r="L542" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M542" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="N542" t="s">
         <v>1597</v>
@@ -28129,16 +28127,16 @@
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="D543" t="s">
         <v>1598</v>
       </c>
       <c r="L543" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M543" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.2">
@@ -28291,7 +28289,7 @@
         <v>1530</v>
       </c>
       <c r="L549" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M549" t="s">
         <v>2733</v>
@@ -28337,38 +28335,38 @@
         <v>2217</v>
       </c>
       <c r="L551" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M551" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
+        <v>4238</v>
+      </c>
+      <c r="F552" t="s">
+        <v>4242</v>
+      </c>
+      <c r="L552" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M552" t="s">
         <v>4239</v>
-      </c>
-      <c r="F552" t="s">
-        <v>4243</v>
-      </c>
-      <c r="L552" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M552" t="s">
-        <v>4240</v>
       </c>
     </row>
     <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="B553" t="s">
         <v>19</v>
       </c>
       <c r="C553" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="D553" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="I553" t="s">
         <v>61</v>
@@ -28377,10 +28375,10 @@
         <v>21</v>
       </c>
       <c r="L553" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M553" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.2">
@@ -28397,7 +28395,7 @@
         <v>42</v>
       </c>
       <c r="L554" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M554" t="s">
         <v>1589</v>
@@ -28472,7 +28470,7 @@
         <v>1606</v>
       </c>
       <c r="L557" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M557" t="s">
         <v>145</v>
@@ -28688,13 +28686,13 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D566" t="s">
         <v>1636</v>
       </c>
       <c r="L566" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M566" t="s">
         <v>3777</v>
@@ -28728,19 +28726,19 @@
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D568" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F568" t="s">
+        <v>4158</v>
+      </c>
+      <c r="L568" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M568" t="s">
         <v>4500</v>
-      </c>
-      <c r="D568" t="s">
-        <v>4158</v>
-      </c>
-      <c r="F568" t="s">
-        <v>4159</v>
-      </c>
-      <c r="L568" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M568" t="s">
-        <v>4501</v>
       </c>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.2">
@@ -28791,19 +28789,19 @@
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="D571" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F571" t="s">
         <v>4160</v>
       </c>
-      <c r="F571" t="s">
-        <v>4161</v>
-      </c>
       <c r="L571" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M571" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.2">
@@ -28814,13 +28812,13 @@
         <v>13</v>
       </c>
       <c r="D572" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="E572" t="s">
         <v>1656</v>
       </c>
       <c r="F572" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="L572" t="s">
         <v>274</v>
@@ -28872,7 +28870,7 @@
         <v>172</v>
       </c>
       <c r="L574" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M574" t="s">
         <v>1666</v>
@@ -28906,7 +28904,7 @@
         <v>1670</v>
       </c>
       <c r="L576" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M576" t="s">
         <v>3784</v>
@@ -28981,7 +28979,7 @@
         <v>14</v>
       </c>
       <c r="L579" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M579" t="s">
         <v>1684</v>
@@ -29044,13 +29042,13 @@
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B582" t="s">
         <v>19</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D582" t="s">
         <v>100</v>
@@ -29079,7 +29077,7 @@
         <v>1692</v>
       </c>
       <c r="E583" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="I583" t="s">
         <v>290</v>
@@ -29099,16 +29097,16 @@
     </row>
     <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
+        <v>4399</v>
+      </c>
+      <c r="D584" t="s">
         <v>4400</v>
       </c>
-      <c r="D584" t="s">
+      <c r="L584" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M584" t="s">
         <v>4401</v>
-      </c>
-      <c r="L584" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M584" t="s">
-        <v>4402</v>
       </c>
     </row>
     <row r="585" spans="1:15" x14ac:dyDescent="0.2">
@@ -29177,7 +29175,7 @@
         <v>99</v>
       </c>
       <c r="L587" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M587" t="s">
         <v>3821</v>
@@ -29200,7 +29198,7 @@
         <v>99</v>
       </c>
       <c r="L588" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M588" t="s">
         <v>3822</v>
@@ -29266,7 +29264,7 @@
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B591" s="9" t="s">
         <v>13</v>
@@ -29292,22 +29290,22 @@
         <v>675</v>
       </c>
       <c r="M591" s="9" t="s">
+        <v>3959</v>
+      </c>
+      <c r="N591" t="s">
         <v>3960</v>
-      </c>
-      <c r="N591" t="s">
-        <v>3961</v>
       </c>
       <c r="O591" s="9"/>
     </row>
     <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="B592" t="s">
         <v>19</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D592" t="s">
         <v>1689</v>
@@ -29325,7 +29323,7 @@
         <v>2569</v>
       </c>
       <c r="O592" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="593" spans="1:15" x14ac:dyDescent="0.2">
@@ -29437,7 +29435,7 @@
     </row>
     <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B597" t="s">
         <v>13</v>
@@ -29452,10 +29450,10 @@
         <v>100</v>
       </c>
       <c r="M597" t="s">
+        <v>4480</v>
+      </c>
+      <c r="O597" t="s">
         <v>4481</v>
-      </c>
-      <c r="O597" t="s">
-        <v>4482</v>
       </c>
     </row>
     <row r="598" spans="1:15" x14ac:dyDescent="0.2">
@@ -29495,62 +29493,62 @@
     </row>
     <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B599" t="s">
         <v>143</v>
       </c>
       <c r="C599" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="D599" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="E599" t="s">
         <v>144</v>
       </c>
       <c r="F599" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="L599" t="s">
         <v>100</v>
       </c>
       <c r="M599" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="O599" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B600" t="s">
         <v>143</v>
       </c>
       <c r="C600" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="D600" t="s">
+        <v>4094</v>
+      </c>
+      <c r="F600" t="s">
         <v>4095</v>
       </c>
-      <c r="F600" t="s">
-        <v>4096</v>
-      </c>
       <c r="L600" t="s">
+        <v>4091</v>
+      </c>
+      <c r="M600" t="s">
         <v>4092</v>
       </c>
-      <c r="M600" t="s">
-        <v>4093</v>
-      </c>
       <c r="O600" s="10" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B601" t="s">
         <v>19</v>
@@ -29640,7 +29638,7 @@
         <v>13</v>
       </c>
       <c r="D604" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="E604" t="s">
         <v>1753</v>
@@ -29692,7 +29690,7 @@
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="D606" t="s">
         <v>1769</v>
@@ -29704,10 +29702,10 @@
         <v>4</v>
       </c>
       <c r="L606" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M606" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="N606" t="s">
         <v>1770</v>
@@ -29715,7 +29713,7 @@
     </row>
     <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="B607" t="s">
         <v>13</v>
@@ -29759,7 +29757,7 @@
         <v>28</v>
       </c>
       <c r="L608" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M608" t="s">
         <v>1765</v>
@@ -29776,7 +29774,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="D609" t="s">
         <v>1767</v>
@@ -29788,7 +29786,7 @@
         <v>12</v>
       </c>
       <c r="L609" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M609" t="s">
         <v>2736</v>
@@ -29834,7 +29832,7 @@
         <v>13</v>
       </c>
       <c r="D611" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="E611" t="s">
         <v>1659</v>
@@ -29869,10 +29867,10 @@
         <v>13</v>
       </c>
       <c r="D612" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="E612" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="L612" t="s">
         <v>3582</v>
@@ -30002,7 +30000,7 @@
         <v>1794</v>
       </c>
       <c r="L617" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M617" t="s">
         <v>3799</v>
@@ -30051,7 +30049,7 @@
         <v>10</v>
       </c>
       <c r="L619" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M619" t="s">
         <v>2739</v>
@@ -30068,7 +30066,7 @@
         <v>1798</v>
       </c>
       <c r="L620" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M620" t="s">
         <v>2738</v>
@@ -30102,13 +30100,13 @@
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D622" t="s">
         <v>1810</v>
       </c>
       <c r="L622" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M622" t="s">
         <v>3801</v>
@@ -30160,7 +30158,7 @@
         <v>1802</v>
       </c>
       <c r="E624" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="L624" t="s">
         <v>83</v>
@@ -30304,7 +30302,7 @@
     </row>
     <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B630" t="s">
         <v>13</v>
@@ -30319,10 +30317,10 @@
         <v>83</v>
       </c>
       <c r="M630" t="s">
+        <v>4073</v>
+      </c>
+      <c r="O630" t="s">
         <v>4074</v>
-      </c>
-      <c r="O630" t="s">
-        <v>4075</v>
       </c>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.2">
@@ -30434,13 +30432,13 @@
     </row>
     <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="D635" t="s">
         <v>1836</v>
       </c>
       <c r="L635" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M635" t="s">
         <v>3810</v>
@@ -30509,22 +30507,22 @@
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="B638" t="s">
         <v>13</v>
       </c>
       <c r="D638" t="s">
-        <v>4610</v>
+        <v>4609</v>
       </c>
       <c r="L638" t="s">
         <v>83</v>
       </c>
-      <c r="M638" s="14" t="s">
+      <c r="M638" t="s">
+        <v>4619</v>
+      </c>
+      <c r="O638" t="s">
         <v>4620</v>
-      </c>
-      <c r="O638" t="s">
-        <v>4621</v>
       </c>
     </row>
     <row r="639" spans="1:15" x14ac:dyDescent="0.2">
@@ -30590,7 +30588,7 @@
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="C641" t="s">
         <v>410</v>
@@ -30605,7 +30603,7 @@
         <v>99</v>
       </c>
       <c r="L641" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M641" t="s">
         <v>3811</v>
@@ -30613,7 +30611,7 @@
     </row>
     <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="C642" t="s">
         <v>413</v>
@@ -30628,7 +30626,7 @@
         <v>99</v>
       </c>
       <c r="L642" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M642" t="s">
         <v>2741</v>
@@ -30784,10 +30782,10 @@
         <v>746</v>
       </c>
       <c r="M648" t="s">
+        <v>4593</v>
+      </c>
+      <c r="N648" t="s">
         <v>4594</v>
-      </c>
-      <c r="N648" t="s">
-        <v>4595</v>
       </c>
       <c r="O648" t="s">
         <v>3095</v>
@@ -30804,7 +30802,7 @@
         <v>1914</v>
       </c>
       <c r="L649" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M649" t="s">
         <v>3814</v>
@@ -30812,7 +30810,7 @@
     </row>
     <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B650" t="s">
         <v>13</v>
@@ -30827,13 +30825,13 @@
         <v>138</v>
       </c>
       <c r="M650" t="s">
+        <v>4475</v>
+      </c>
+      <c r="N650" t="s">
         <v>4476</v>
       </c>
-      <c r="N650" t="s">
+      <c r="O650" t="s">
         <v>4477</v>
-      </c>
-      <c r="O650" t="s">
-        <v>4478</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.2">
@@ -30864,41 +30862,41 @@
     </row>
     <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="B652" t="s">
         <v>13</v>
       </c>
       <c r="D652" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="L652" t="s">
         <v>173</v>
       </c>
       <c r="M652" t="s">
+        <v>4366</v>
+      </c>
+      <c r="O652" t="s">
         <v>4367</v>
-      </c>
-      <c r="O652" t="s">
-        <v>4368</v>
       </c>
     </row>
     <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D653" t="s">
+        <v>4379</v>
+      </c>
+      <c r="L653" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M653" t="s">
         <v>4381</v>
-      </c>
-      <c r="D653" t="s">
-        <v>4380</v>
-      </c>
-      <c r="L653" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M653" t="s">
-        <v>4382</v>
       </c>
     </row>
     <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B654" t="s">
         <v>13</v>
@@ -30907,7 +30905,7 @@
         <v>744</v>
       </c>
       <c r="E654" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="F654" t="s">
         <v>745</v>
@@ -30916,33 +30914,33 @@
         <v>138</v>
       </c>
       <c r="M654" t="s">
+        <v>4327</v>
+      </c>
+      <c r="N654" t="s">
         <v>4328</v>
       </c>
-      <c r="N654" t="s">
+      <c r="O654" t="s">
         <v>4329</v>
-      </c>
-      <c r="O654" t="s">
-        <v>4330</v>
       </c>
     </row>
     <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="B655" t="s">
         <v>13</v>
       </c>
       <c r="D655" t="s">
-        <v>4611</v>
+        <v>4610</v>
       </c>
       <c r="L655" t="s">
         <v>282</v>
       </c>
-      <c r="M655" s="14" t="s">
+      <c r="M655" t="s">
+        <v>4622</v>
+      </c>
+      <c r="O655" t="s">
         <v>4623</v>
-      </c>
-      <c r="O655" t="s">
-        <v>4624</v>
       </c>
     </row>
     <row r="656" spans="1:15" x14ac:dyDescent="0.2">
@@ -31121,7 +31119,7 @@
         <v>172</v>
       </c>
       <c r="L662" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M662" t="s">
         <v>3807</v>
@@ -31141,7 +31139,7 @@
         <v>2059</v>
       </c>
       <c r="L663" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M663" t="s">
         <v>3803</v>
@@ -31172,7 +31170,7 @@
     </row>
     <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="D665" t="s">
         <v>1815</v>
@@ -31181,10 +31179,10 @@
         <v>250</v>
       </c>
       <c r="L665" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M665" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="N665" t="s">
         <v>1816</v>
@@ -31198,7 +31196,7 @@
         <v>1813</v>
       </c>
       <c r="L666" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M666" t="s">
         <v>3805</v>
@@ -31253,7 +31251,7 @@
         <v>27</v>
       </c>
       <c r="L668" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M668" t="s">
         <v>1952</v>
@@ -31302,7 +31300,7 @@
         <v>13</v>
       </c>
       <c r="D670" t="s">
-        <v>4600</v>
+        <v>4599</v>
       </c>
       <c r="L670" t="s">
         <v>274</v>
@@ -31351,7 +31349,7 @@
     </row>
     <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="D672" t="s">
         <v>2020</v>
@@ -31363,7 +31361,7 @@
         <v>2022</v>
       </c>
       <c r="L672" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M672" t="s">
         <v>3825</v>
@@ -31383,7 +31381,7 @@
         <v>9</v>
       </c>
       <c r="L673" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M673" t="s">
         <v>3824</v>
@@ -31403,7 +31401,7 @@
         <v>2018</v>
       </c>
       <c r="L674" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M674" t="s">
         <v>3827</v>
@@ -31423,7 +31421,7 @@
         <v>2080</v>
       </c>
       <c r="L675" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M675" t="s">
         <v>3125</v>
@@ -31431,22 +31429,22 @@
     </row>
     <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="B676" t="s">
         <v>160</v>
       </c>
       <c r="C676" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="H676" t="s">
         <v>2832</v>
       </c>
       <c r="L676" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M676" t="s">
-        <v>3831</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="677" spans="1:15" x14ac:dyDescent="0.2">
@@ -31480,7 +31478,7 @@
     </row>
     <row r="678" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="D678" t="s">
         <v>2269</v>
@@ -31489,7 +31487,7 @@
         <v>2270</v>
       </c>
       <c r="L678" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M678" t="s">
         <v>2803</v>
@@ -31497,7 +31495,7 @@
     </row>
     <row r="679" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="C679" t="s">
         <v>2792</v>
@@ -31506,7 +31504,7 @@
         <v>1247</v>
       </c>
       <c r="L679" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M679" t="s">
         <v>2809</v>
@@ -31523,7 +31521,7 @@
         <v>1246</v>
       </c>
       <c r="L680" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M680" t="s">
         <v>3711</v>
@@ -31540,7 +31538,7 @@
         <v>945</v>
       </c>
       <c r="L681" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M681" t="s">
         <v>2802</v>
@@ -31569,24 +31567,24 @@
         <v>83</v>
       </c>
       <c r="M682" t="s">
+        <v>4517</v>
+      </c>
+      <c r="O682" t="s">
         <v>4518</v>
-      </c>
-      <c r="O682" t="s">
-        <v>4519</v>
       </c>
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="B683" t="s">
         <v>13</v>
       </c>
       <c r="D683" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
       <c r="E683" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="F683" t="s">
         <v>710</v>
@@ -31598,18 +31596,18 @@
         <v>3582</v>
       </c>
       <c r="M683" t="s">
+        <v>4496</v>
+      </c>
+      <c r="N683" t="s">
+        <v>4498</v>
+      </c>
+      <c r="O683" t="s">
         <v>4497</v>
-      </c>
-      <c r="N683" t="s">
-        <v>4499</v>
-      </c>
-      <c r="O683" t="s">
-        <v>4498</v>
       </c>
     </row>
     <row r="684" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="D684" t="s">
         <v>1093</v>
@@ -31621,10 +31619,10 @@
         <v>1</v>
       </c>
       <c r="L684" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M684" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="N684" t="s">
         <v>1094</v>
@@ -31716,7 +31714,7 @@
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="C688" t="s">
         <v>410</v>
@@ -31731,15 +31729,15 @@
         <v>99</v>
       </c>
       <c r="L688" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M688" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="C689" t="s">
         <v>2792</v>
@@ -31748,15 +31746,15 @@
         <v>720</v>
       </c>
       <c r="L689" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M689" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="C690" t="s">
         <v>2792</v>
@@ -31765,15 +31763,15 @@
         <v>714</v>
       </c>
       <c r="L690" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M690" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="D691" t="s">
         <v>723</v>
@@ -31782,10 +31780,10 @@
         <v>106</v>
       </c>
       <c r="L691" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M691" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="N691" t="s">
         <v>724</v>
@@ -31808,7 +31806,7 @@
         <v>1998</v>
       </c>
       <c r="L692" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M692" t="s">
         <v>1999</v>
@@ -31877,7 +31875,7 @@
         <v>2024</v>
       </c>
       <c r="E695" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="F695" t="s">
         <v>2025</v>
@@ -31895,7 +31893,7 @@
         <v>2028</v>
       </c>
       <c r="O695" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.2">
@@ -31909,7 +31907,7 @@
         <v>2027</v>
       </c>
       <c r="L696" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M696" t="s">
         <v>2031</v>
@@ -31952,7 +31950,7 @@
         <v>2040</v>
       </c>
       <c r="L698" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M698" t="s">
         <v>3830</v>
@@ -31995,10 +31993,10 @@
         <v>83</v>
       </c>
       <c r="M700" t="s">
+        <v>4520</v>
+      </c>
+      <c r="O700" t="s">
         <v>4521</v>
-      </c>
-      <c r="O700" t="s">
-        <v>4522</v>
       </c>
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.2">
@@ -32055,7 +32053,7 @@
     </row>
     <row r="703" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="B703" t="s">
         <v>13</v>
@@ -32070,13 +32068,13 @@
         <v>191</v>
       </c>
       <c r="M703" t="s">
+        <v>4553</v>
+      </c>
+      <c r="N703" s="6" t="s">
         <v>4554</v>
       </c>
-      <c r="N703" s="6" t="s">
+      <c r="O703" t="s">
         <v>4555</v>
-      </c>
-      <c r="O703" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.2">
@@ -32200,7 +32198,7 @@
         <v>13</v>
       </c>
       <c r="D708" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="I708" t="s">
         <v>172</v>
@@ -32209,29 +32207,29 @@
         <v>173</v>
       </c>
       <c r="M708" t="s">
+        <v>4179</v>
+      </c>
+      <c r="O708" t="s">
         <v>4180</v>
-      </c>
-      <c r="O708" t="s">
-        <v>4181</v>
       </c>
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D709" t="s">
+        <v>4424</v>
+      </c>
+      <c r="L709" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M709" t="s">
         <v>4423</v>
-      </c>
-      <c r="D709" t="s">
-        <v>4425</v>
-      </c>
-      <c r="L709" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M709" t="s">
-        <v>4424</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="B710" t="s">
         <v>13</v>
@@ -32368,18 +32366,18 @@
         <v>138</v>
       </c>
       <c r="M714" t="s">
+        <v>4572</v>
+      </c>
+      <c r="N714" t="s">
+        <v>4574</v>
+      </c>
+      <c r="O714" t="s">
         <v>4573</v>
-      </c>
-      <c r="N714" t="s">
-        <v>4575</v>
-      </c>
-      <c r="O714" t="s">
-        <v>4574</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B715" t="s">
         <v>13</v>
@@ -32446,7 +32444,7 @@
         <v>148</v>
       </c>
       <c r="L717" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M717" t="s">
         <v>2131</v>
@@ -32480,47 +32478,47 @@
         <v>191</v>
       </c>
       <c r="M718" s="9" t="s">
+        <v>4460</v>
+      </c>
+      <c r="N718" s="6" t="s">
         <v>4461</v>
       </c>
-      <c r="N718" s="6" t="s">
+      <c r="O718" t="s">
         <v>4462</v>
-      </c>
-      <c r="O718" t="s">
-        <v>4463</v>
       </c>
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="C719" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="E719" t="s">
         <v>2361</v>
       </c>
       <c r="L719" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M719" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="C720" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="E720" t="s">
         <v>2361</v>
       </c>
       <c r="L720" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M720" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.2">
@@ -32627,7 +32625,7 @@
         <v>2147</v>
       </c>
       <c r="O724" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.2">
@@ -32728,7 +32726,7 @@
         <v>15</v>
       </c>
       <c r="L728" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M728" t="s">
         <v>2742</v>
@@ -32843,7 +32841,7 @@
         <v>172</v>
       </c>
       <c r="L733" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M733" t="s">
         <v>2162</v>
@@ -32857,10 +32855,10 @@
         <v>13</v>
       </c>
       <c r="D734" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E734" t="s">
         <v>4607</v>
-      </c>
-      <c r="E734" t="s">
-        <v>4608</v>
       </c>
       <c r="L734" t="s">
         <v>675</v>
@@ -32918,7 +32916,7 @@
         <v>43</v>
       </c>
       <c r="L736" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M736" t="s">
         <v>2173</v>
@@ -32929,13 +32927,13 @@
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B737" t="s">
         <v>19</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D737" t="s">
         <v>74</v>
@@ -32953,7 +32951,7 @@
         <v>2176</v>
       </c>
       <c r="O737" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="738" spans="1:15" x14ac:dyDescent="0.2">
@@ -32993,7 +32991,7 @@
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="B739" t="s">
         <v>19</v>
@@ -33028,7 +33026,7 @@
         <v>2190</v>
       </c>
       <c r="L740" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M740" t="s">
         <v>2191</v>
@@ -33045,7 +33043,7 @@
         <v>2193</v>
       </c>
       <c r="L741" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M741" t="s">
         <v>2194</v>
@@ -33053,16 +33051,16 @@
     </row>
     <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B742" t="s">
         <v>19</v>
       </c>
       <c r="C742" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="D742" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="I742" t="s">
         <v>61</v>
@@ -33071,10 +33069,10 @@
         <v>25</v>
       </c>
       <c r="L742" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M742" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.2">
@@ -33085,16 +33083,16 @@
         <v>13</v>
       </c>
       <c r="D743" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="E743" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="L743" t="s">
         <v>100</v>
       </c>
       <c r="M743" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="O743" t="s">
         <v>3148</v>
@@ -33117,10 +33115,10 @@
         <v>100</v>
       </c>
       <c r="M744" t="s">
+        <v>4522</v>
+      </c>
+      <c r="O744" t="s">
         <v>4523</v>
-      </c>
-      <c r="O744" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.2">
@@ -33322,7 +33320,7 @@
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="B752" t="s">
         <v>13</v>
@@ -33343,10 +33341,10 @@
         <v>282</v>
       </c>
       <c r="M752" t="s">
+        <v>4557</v>
+      </c>
+      <c r="O752" t="s">
         <v>4558</v>
-      </c>
-      <c r="O752" t="s">
-        <v>4559</v>
       </c>
     </row>
     <row r="753" spans="1:15" x14ac:dyDescent="0.2">
@@ -33380,7 +33378,7 @@
     </row>
     <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="B754" t="s">
         <v>19</v>
@@ -33401,18 +33399,18 @@
         <v>2299</v>
       </c>
       <c r="O754" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B755" t="s">
         <v>19</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D755" t="s">
         <v>279</v>
@@ -33424,10 +33422,10 @@
         <v>279</v>
       </c>
       <c r="M755" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="O755" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.2">
@@ -33458,16 +33456,16 @@
     </row>
     <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="D757" t="s">
         <v>2227</v>
       </c>
       <c r="L757" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M757" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.2">
@@ -33478,7 +33476,7 @@
         <v>2228</v>
       </c>
       <c r="L758" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M758" t="s">
         <v>2745</v>
@@ -33529,13 +33527,13 @@
     </row>
     <row r="761" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B761" t="s">
         <v>19</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D761" t="s">
         <v>128</v>
@@ -33553,7 +33551,7 @@
         <v>128</v>
       </c>
       <c r="O761" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="762" spans="1:15" x14ac:dyDescent="0.2">
@@ -33587,7 +33585,7 @@
     </row>
     <row r="763" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="D763" t="s">
         <v>2246</v>
@@ -33602,15 +33600,15 @@
         <v>16</v>
       </c>
       <c r="L763" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M763" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="764" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="D764" t="s">
         <v>2244</v>
@@ -33625,7 +33623,7 @@
         <v>20</v>
       </c>
       <c r="L764" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M764" t="s">
         <v>2245</v>
@@ -33639,19 +33637,19 @@
         <v>13</v>
       </c>
       <c r="D765" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="E765" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="L765" t="s">
         <v>100</v>
       </c>
       <c r="M765" t="s">
+        <v>4525</v>
+      </c>
+      <c r="O765" t="s">
         <v>4526</v>
-      </c>
-      <c r="O765" t="s">
-        <v>4527</v>
       </c>
     </row>
     <row r="766" spans="1:15" x14ac:dyDescent="0.2">
@@ -33671,7 +33669,7 @@
         <v>19</v>
       </c>
       <c r="L766" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M766" t="s">
         <v>2749</v>
@@ -33694,7 +33692,7 @@
         <v>12</v>
       </c>
       <c r="L767" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M767" t="s">
         <v>2240</v>
@@ -33702,7 +33700,7 @@
     </row>
     <row r="768" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="D768" t="s">
         <v>2243</v>
@@ -33717,15 +33715,15 @@
         <v>18</v>
       </c>
       <c r="L768" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M768" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="769" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="D769" t="s">
         <v>2241</v>
@@ -33740,10 +33738,10 @@
         <v>15</v>
       </c>
       <c r="L769" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M769" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="770" spans="1:15" x14ac:dyDescent="0.2">
@@ -33763,7 +33761,7 @@
         <v>17</v>
       </c>
       <c r="L770" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M770" t="s">
         <v>2249</v>
@@ -33786,7 +33784,7 @@
         <v>14</v>
       </c>
       <c r="L771" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M771" t="s">
         <v>2252</v>
@@ -33809,7 +33807,7 @@
         <v>13</v>
       </c>
       <c r="L772" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M772" t="s">
         <v>2255</v>
@@ -33826,7 +33824,7 @@
         <v>99</v>
       </c>
       <c r="L773" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M773" t="s">
         <v>2747</v>
@@ -33950,7 +33948,7 @@
         <v>651</v>
       </c>
       <c r="L778" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M778" t="s">
         <v>2815</v>
@@ -33967,7 +33965,7 @@
         <v>250</v>
       </c>
       <c r="L779" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M779" t="s">
         <v>2830</v>
@@ -34007,7 +34005,7 @@
     </row>
     <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="C781" t="s">
         <v>410</v>
@@ -34022,15 +34020,15 @@
         <v>99</v>
       </c>
       <c r="L781" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M781" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="D782" t="s">
         <v>2278</v>
@@ -34039,10 +34037,10 @@
         <v>99</v>
       </c>
       <c r="L782" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M782" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.2">
@@ -34062,7 +34060,7 @@
         <v>99</v>
       </c>
       <c r="L783" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M783" t="s">
         <v>2750</v>
@@ -34094,21 +34092,21 @@
         <v>83</v>
       </c>
       <c r="M784" t="s">
+        <v>4527</v>
+      </c>
+      <c r="O784" t="s">
         <v>4528</v>
-      </c>
-      <c r="O784" t="s">
-        <v>4529</v>
       </c>
     </row>
     <row r="785" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="B785" t="s">
         <v>19</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D785" t="s">
         <v>173</v>
@@ -34123,12 +34121,12 @@
         <v>2369</v>
       </c>
       <c r="O785" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="786" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B786" t="s">
         <v>19</v>
@@ -34149,7 +34147,7 @@
         <v>2368</v>
       </c>
       <c r="O786" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.2">
@@ -34203,7 +34201,7 @@
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="C789" t="s">
         <v>392</v>
@@ -34212,10 +34210,10 @@
         <v>2292</v>
       </c>
       <c r="L789" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M789" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.2">
@@ -34249,13 +34247,13 @@
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="B791" t="s">
         <v>13</v>
       </c>
       <c r="D791" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="E791" t="s">
         <v>776</v>
@@ -34270,13 +34268,13 @@
         <v>74</v>
       </c>
       <c r="M791" t="s">
+        <v>3939</v>
+      </c>
+      <c r="N791" t="s">
+        <v>3941</v>
+      </c>
+      <c r="O791" t="s">
         <v>3940</v>
-      </c>
-      <c r="N791" t="s">
-        <v>3942</v>
-      </c>
-      <c r="O791" t="s">
-        <v>3941</v>
       </c>
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.2">
@@ -34339,10 +34337,10 @@
         <v>13</v>
       </c>
       <c r="D794" t="s">
+        <v>4161</v>
+      </c>
+      <c r="E794" t="s">
         <v>4162</v>
-      </c>
-      <c r="E794" t="s">
-        <v>4163</v>
       </c>
       <c r="F794" t="s">
         <v>2301</v>
@@ -34362,7 +34360,7 @@
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D795" t="s">
         <v>2305</v>
@@ -34374,7 +34372,7 @@
         <v>2307</v>
       </c>
       <c r="L795" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M795" t="s">
         <v>2308</v>
@@ -34382,56 +34380,56 @@
     </row>
     <row r="796" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B796" t="s">
         <v>13</v>
       </c>
       <c r="D796" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E796" t="s">
+        <v>4086</v>
+      </c>
+      <c r="H796" t="s">
         <v>4085</v>
-      </c>
-      <c r="E796" t="s">
-        <v>4087</v>
-      </c>
-      <c r="H796" t="s">
-        <v>4086</v>
       </c>
       <c r="L796" t="s">
         <v>83</v>
       </c>
       <c r="M796" t="s">
+        <v>4087</v>
+      </c>
+      <c r="O796" t="s">
         <v>4088</v>
-      </c>
-      <c r="O796" t="s">
-        <v>4089</v>
       </c>
     </row>
     <row r="797" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="D797" t="s">
         <v>2105</v>
       </c>
       <c r="L797" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M797" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="798" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="F798" t="s">
         <v>2304</v>
       </c>
       <c r="L798" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M798" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="799" spans="1:15" x14ac:dyDescent="0.2">
@@ -34500,16 +34498,16 @@
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="D801" t="s">
+        <v>4155</v>
+      </c>
+      <c r="L801" t="s">
+        <v>4044</v>
+      </c>
+      <c r="M801" t="s">
         <v>4156</v>
-      </c>
-      <c r="L801" t="s">
-        <v>4045</v>
-      </c>
-      <c r="M801" t="s">
-        <v>4157</v>
       </c>
     </row>
     <row r="802" spans="1:15" x14ac:dyDescent="0.2">
@@ -34535,7 +34533,7 @@
         <v>746</v>
       </c>
       <c r="M802" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="N802" t="s">
         <v>2326</v>
@@ -34546,25 +34544,25 @@
     </row>
     <row r="803" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="B803" t="s">
         <v>13</v>
       </c>
       <c r="D803" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="L803" t="s">
         <v>274</v>
       </c>
       <c r="M803" t="s">
+        <v>3991</v>
+      </c>
+      <c r="N803" t="s">
+        <v>3993</v>
+      </c>
+      <c r="O803" t="s">
         <v>3992</v>
-      </c>
-      <c r="N803" t="s">
-        <v>3994</v>
-      </c>
-      <c r="O803" t="s">
-        <v>3993</v>
       </c>
     </row>
     <row r="804" spans="1:15" x14ac:dyDescent="0.2">
@@ -34613,7 +34611,7 @@
         <v>21</v>
       </c>
       <c r="L805" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M805" t="s">
         <v>2332</v>
@@ -34636,7 +34634,7 @@
         <v>99</v>
       </c>
       <c r="L806" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M806" t="s">
         <v>2753</v>
@@ -34659,7 +34657,7 @@
         <v>99</v>
       </c>
       <c r="L807" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M807" t="s">
         <v>2755</v>
@@ -34679,7 +34677,7 @@
         <v>2339</v>
       </c>
       <c r="L808" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M808" t="s">
         <v>145</v>
@@ -34710,33 +34708,33 @@
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="D810" t="s">
         <v>2547</v>
       </c>
       <c r="L810" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M810" t="s">
+        <v>3928</v>
+      </c>
+      <c r="N810" t="s">
         <v>3929</v>
-      </c>
-      <c r="N810" t="s">
-        <v>3930</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="D811" t="s">
         <v>2536</v>
       </c>
       <c r="L811" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M811" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="N811" t="s">
         <v>2537</v>
@@ -34750,7 +34748,7 @@
         <v>2341</v>
       </c>
       <c r="L812" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M812" t="s">
         <v>2342</v>
@@ -34810,7 +34808,7 @@
     </row>
     <row r="815" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="D815" t="s">
         <v>2354</v>
@@ -34819,7 +34817,7 @@
         <v>2355</v>
       </c>
       <c r="L815" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M815" t="s">
         <v>2767</v>
@@ -34827,16 +34825,16 @@
     </row>
     <row r="816" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="D816" t="s">
         <v>2353</v>
       </c>
       <c r="L816" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M816" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="817" spans="1:15" x14ac:dyDescent="0.2">
@@ -34867,7 +34865,7 @@
     </row>
     <row r="818" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="B818" t="s">
         <v>13</v>
@@ -34879,10 +34877,10 @@
         <v>100</v>
       </c>
       <c r="M818" t="s">
+        <v>4405</v>
+      </c>
+      <c r="O818" t="s">
         <v>4406</v>
-      </c>
-      <c r="O818" t="s">
-        <v>4407</v>
       </c>
     </row>
     <row r="819" spans="1:15" x14ac:dyDescent="0.2">
@@ -34913,30 +34911,30 @@
     </row>
     <row r="820" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="C820" t="s">
         <v>2376</v>
       </c>
       <c r="L820" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M820" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="G821" t="s">
         <v>2377</v>
       </c>
       <c r="L821" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M821" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="822" spans="1:15" x14ac:dyDescent="0.2">
@@ -34976,7 +34974,7 @@
         <v>13</v>
       </c>
       <c r="D823" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="E823" t="s">
         <v>2370</v>
@@ -35005,7 +35003,7 @@
         <v>13</v>
       </c>
       <c r="D824" t="s">
-        <v>4601</v>
+        <v>4600</v>
       </c>
       <c r="L824" t="s">
         <v>274</v>
@@ -35021,8 +35019,8 @@
       </c>
     </row>
     <row r="825" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A825" s="15" t="s">
-        <v>4627</v>
+      <c r="A825" t="s">
+        <v>4626</v>
       </c>
       <c r="B825" t="s">
         <v>13</v>
@@ -35040,10 +35038,10 @@
         <v>3503</v>
       </c>
       <c r="N825" s="6" t="s">
+        <v>4627</v>
+      </c>
+      <c r="O825" t="s">
         <v>4628</v>
-      </c>
-      <c r="O825" t="s">
-        <v>4629</v>
       </c>
     </row>
     <row r="826" spans="1:15" x14ac:dyDescent="0.2">
@@ -35100,7 +35098,7 @@
     </row>
     <row r="828" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B828" t="s">
         <v>19</v>
@@ -35123,7 +35121,7 @@
     </row>
     <row r="829" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="B829" t="s">
         <v>19</v>
@@ -35147,7 +35145,7 @@
         <v>2400</v>
       </c>
       <c r="O829" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.2">
@@ -35184,7 +35182,7 @@
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="B831" t="s">
         <v>19</v>
@@ -35205,7 +35203,7 @@
         <v>1291</v>
       </c>
       <c r="O831" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.2">
@@ -35268,7 +35266,7 @@
         <v>2420</v>
       </c>
       <c r="L834" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M834" t="s">
         <v>2548</v>
@@ -35276,7 +35274,7 @@
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E835" t="s">
         <v>2421</v>
@@ -35285,15 +35283,15 @@
         <v>2422</v>
       </c>
       <c r="L835" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M835" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="D836" t="s">
         <v>2434</v>
@@ -35305,10 +35303,10 @@
         <v>2436</v>
       </c>
       <c r="L836" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M836" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="N836" t="s">
         <v>2437</v>
@@ -35331,7 +35329,7 @@
         <v>67</v>
       </c>
       <c r="L837" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M837" t="s">
         <v>2426</v>
@@ -35339,7 +35337,7 @@
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="D838" t="s">
         <v>712</v>
@@ -35348,10 +35346,10 @@
         <v>712</v>
       </c>
       <c r="L838" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M838" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="N838" t="s">
         <v>713</v>
@@ -35368,7 +35366,7 @@
         <v>2429</v>
       </c>
       <c r="L839" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M839" t="s">
         <v>2430</v>
@@ -35382,7 +35380,7 @@
         <v>2432</v>
       </c>
       <c r="L840" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M840" t="s">
         <v>2433</v>
@@ -35390,13 +35388,13 @@
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="B841" t="s">
         <v>19</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D841" t="s">
         <v>746</v>
@@ -35411,7 +35409,7 @@
         <v>2438</v>
       </c>
       <c r="O841" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="842" spans="1:15" x14ac:dyDescent="0.2">
@@ -35422,10 +35420,10 @@
         <v>912</v>
       </c>
       <c r="E842" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="L842" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M842" t="s">
         <v>2757</v>
@@ -35474,7 +35472,7 @@
     </row>
     <row r="844" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="D844" t="s">
         <v>2442</v>
@@ -35486,7 +35484,7 @@
         <v>45</v>
       </c>
       <c r="L844" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M844" t="s">
         <v>2443</v>
@@ -35494,7 +35492,7 @@
     </row>
     <row r="845" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="D845" t="s">
         <v>2444</v>
@@ -35506,7 +35504,7 @@
         <v>48</v>
       </c>
       <c r="L845" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M845" t="s">
         <v>2758</v>
@@ -35529,7 +35527,7 @@
         <v>644</v>
       </c>
       <c r="L846" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M846" t="s">
         <v>645</v>
@@ -35569,7 +35567,7 @@
     </row>
     <row r="848" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="D848" t="s">
         <v>362</v>
@@ -35581,7 +35579,7 @@
         <v>364</v>
       </c>
       <c r="L848" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M848" t="s">
         <v>3595</v>
@@ -35624,16 +35622,16 @@
     </row>
     <row r="850" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="D850" t="s">
         <v>733</v>
       </c>
       <c r="L850" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M850" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="851" spans="1:15" x14ac:dyDescent="0.2">
@@ -35667,7 +35665,7 @@
     </row>
     <row r="852" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="D852" t="s">
         <v>734</v>
@@ -35679,10 +35677,10 @@
         <v>34</v>
       </c>
       <c r="L852" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M852" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="N852" t="s">
         <v>735</v>
@@ -35760,7 +35758,7 @@
         <v>667</v>
       </c>
       <c r="L855" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M855" t="s">
         <v>2692</v>
@@ -35789,7 +35787,7 @@
         <v>672</v>
       </c>
       <c r="L856" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M856" t="s">
         <v>2805</v>
@@ -35797,7 +35795,7 @@
     </row>
     <row r="857" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="B857" t="s">
         <v>13</v>
@@ -35824,24 +35822,24 @@
         <v>138</v>
       </c>
       <c r="M857" t="s">
+        <v>4330</v>
+      </c>
+      <c r="N857" t="s">
         <v>4331</v>
       </c>
-      <c r="N857" t="s">
-        <v>4332</v>
-      </c>
       <c r="O857" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="858" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="B858" t="s">
         <v>19</v>
       </c>
       <c r="C858" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="D858" t="s">
         <v>2143</v>
@@ -35853,10 +35851,10 @@
         <v>83</v>
       </c>
       <c r="M858" t="s">
+        <v>3834</v>
+      </c>
+      <c r="O858" t="s">
         <v>3835</v>
-      </c>
-      <c r="O858" t="s">
-        <v>3836</v>
       </c>
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.2">
@@ -35890,7 +35888,7 @@
     </row>
     <row r="860" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="D860" t="s">
         <v>660</v>
@@ -35902,15 +35900,15 @@
         <v>55</v>
       </c>
       <c r="L860" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M860" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="861" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="D861" t="s">
         <v>659</v>
@@ -35922,10 +35920,10 @@
         <v>53</v>
       </c>
       <c r="L861" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M861" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="862" spans="1:15" x14ac:dyDescent="0.2">
@@ -36014,7 +36012,7 @@
     </row>
     <row r="865" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C865" t="s">
         <v>2792</v>
@@ -36023,10 +36021,10 @@
         <v>646</v>
       </c>
       <c r="L865" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M865" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="866" spans="1:15" x14ac:dyDescent="0.2">
@@ -36063,13 +36061,13 @@
     </row>
     <row r="867" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B867" t="s">
         <v>19</v>
       </c>
       <c r="C867" s="3" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="D867" t="s">
         <v>673</v>
@@ -36084,7 +36082,7 @@
         <v>688</v>
       </c>
       <c r="O867" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.2">
@@ -36098,7 +36096,7 @@
         <v>647</v>
       </c>
       <c r="L868" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M868" t="s">
         <v>2691</v>
@@ -36106,7 +36104,7 @@
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
       <c r="B869" t="s">
         <v>13</v>
@@ -36121,15 +36119,15 @@
         <v>282</v>
       </c>
       <c r="M869" t="s">
+        <v>4576</v>
+      </c>
+      <c r="O869" t="s">
         <v>4577</v>
-      </c>
-      <c r="O869" t="s">
-        <v>4578</v>
       </c>
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B870" t="s">
         <v>19</v>
@@ -36187,7 +36185,7 @@
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="C872" t="s">
         <v>694</v>
@@ -36196,10 +36194,10 @@
         <v>695</v>
       </c>
       <c r="L872" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M872" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="873" spans="1:15" x14ac:dyDescent="0.2">
@@ -36213,7 +36211,7 @@
         <v>693</v>
       </c>
       <c r="L873" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M873" t="s">
         <v>2817</v>
@@ -36331,7 +36329,7 @@
         <v>13</v>
       </c>
       <c r="D878" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="L878" t="s">
         <v>274</v>
@@ -36386,13 +36384,13 @@
     </row>
     <row r="880" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="D880" t="s">
         <v>289</v>
       </c>
       <c r="L880" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M880" t="s">
         <v>3576</v>
@@ -36406,7 +36404,7 @@
         <v>13</v>
       </c>
       <c r="D881" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="I881" t="s">
         <v>290</v>
@@ -36435,13 +36433,13 @@
         <v>13</v>
       </c>
       <c r="C882" t="s">
+        <v>4130</v>
+      </c>
+      <c r="D882" t="s">
         <v>4131</v>
       </c>
-      <c r="D882" t="s">
-        <v>4132</v>
-      </c>
       <c r="E882" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="F882" t="s">
         <v>1992</v>
@@ -36464,31 +36462,31 @@
     </row>
     <row r="883" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B883" t="s">
         <v>143</v>
       </c>
       <c r="C883" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D883" t="s">
         <v>4110</v>
-      </c>
-      <c r="D883" t="s">
-        <v>4111</v>
       </c>
       <c r="E883" t="s">
         <v>144</v>
       </c>
       <c r="F883" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="L883" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M883" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="O883" s="10" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="884" spans="1:15" x14ac:dyDescent="0.2">
@@ -36522,7 +36520,7 @@
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="D885" t="s">
         <v>1036</v>
@@ -36534,7 +36532,7 @@
         <v>1038</v>
       </c>
       <c r="L885" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M885" t="s">
         <v>3565</v>
@@ -36650,7 +36648,7 @@
         <v>18</v>
       </c>
       <c r="L889" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M889" t="s">
         <v>2693</v>
@@ -36658,16 +36656,16 @@
     </row>
     <row r="890" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="D890" t="s">
         <v>2008</v>
       </c>
       <c r="L890" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M890" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="891" spans="1:15" x14ac:dyDescent="0.2">
@@ -36739,10 +36737,10 @@
         <v>753</v>
       </c>
       <c r="C893" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="D893" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="E893" t="s">
         <v>2593</v>
@@ -36826,16 +36824,16 @@
     </row>
     <row r="896" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="B896" t="s">
         <v>19</v>
       </c>
       <c r="C896" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="D896" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="I896" t="s">
         <v>61</v>
@@ -36844,10 +36842,10 @@
         <v>20</v>
       </c>
       <c r="L896" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M896" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="897" spans="1:15" x14ac:dyDescent="0.2">
@@ -36890,7 +36888,7 @@
         <v>12</v>
       </c>
       <c r="L898" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M898" t="s">
         <v>2694</v>
@@ -36968,7 +36966,7 @@
         <v>1004</v>
       </c>
       <c r="L901" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M901" t="s">
         <v>3676</v>
@@ -36991,7 +36989,7 @@
         <v>1003</v>
       </c>
       <c r="L902" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M902" t="s">
         <v>3679</v>
@@ -37002,16 +37000,16 @@
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="B903" t="s">
         <v>13</v>
       </c>
       <c r="D903" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E903" t="s">
         <v>4348</v>
-      </c>
-      <c r="E903" t="s">
-        <v>4349</v>
       </c>
       <c r="F903" t="s">
         <v>1155</v>
@@ -37023,13 +37021,13 @@
         <v>274</v>
       </c>
       <c r="M903" t="s">
+        <v>4350</v>
+      </c>
+      <c r="N903" s="5" t="s">
         <v>4351</v>
       </c>
-      <c r="N903" s="5" t="s">
+      <c r="O903" t="s">
         <v>4352</v>
-      </c>
-      <c r="O903" t="s">
-        <v>4353</v>
       </c>
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.2">
@@ -37066,13 +37064,13 @@
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="D905" t="s">
         <v>2529</v>
       </c>
       <c r="L905" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M905" t="s">
         <v>2761</v>
@@ -37161,7 +37159,7 @@
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="D909" t="s">
         <v>2125</v>
@@ -37173,10 +37171,10 @@
         <v>64</v>
       </c>
       <c r="L909" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M909" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="N909" t="s">
         <v>2126</v>
@@ -37184,7 +37182,7 @@
     </row>
     <row r="910" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="D910" t="s">
         <v>2127</v>
@@ -37196,10 +37194,10 @@
         <v>35</v>
       </c>
       <c r="L910" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M910" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="N910" t="s">
         <v>2128</v>
@@ -37228,13 +37226,13 @@
         <v>746</v>
       </c>
       <c r="M911" t="s">
+        <v>4596</v>
+      </c>
+      <c r="N911" t="s">
         <v>4597</v>
       </c>
-      <c r="N911" t="s">
+      <c r="O911" t="s">
         <v>4598</v>
-      </c>
-      <c r="O911" t="s">
-        <v>4599</v>
       </c>
     </row>
     <row r="912" spans="1:15" x14ac:dyDescent="0.2">
@@ -37291,7 +37289,7 @@
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B914" t="s">
         <v>19</v>
@@ -37315,7 +37313,7 @@
         <v>769</v>
       </c>
       <c r="O914" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="915" spans="1:15" x14ac:dyDescent="0.2">
@@ -37358,7 +37356,7 @@
         <v>737</v>
       </c>
       <c r="G916" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="H916" t="s">
         <v>738</v>
@@ -37451,7 +37449,7 @@
         <v>2447</v>
       </c>
       <c r="L919" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M919" t="s">
         <v>2448</v>
@@ -37488,7 +37486,7 @@
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="C921" t="s">
         <v>2461</v>
@@ -37497,15 +37495,15 @@
         <v>2462</v>
       </c>
       <c r="L921" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M921" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B922" t="s">
         <v>19</v>
@@ -37523,10 +37521,10 @@
         <v>11</v>
       </c>
       <c r="L922" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M922" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="N922" t="s">
         <v>2465</v>
@@ -37534,7 +37532,7 @@
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="B923" t="s">
         <v>19</v>
@@ -37555,12 +37553,12 @@
         <v>2469</v>
       </c>
       <c r="N923" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="C924" t="s">
         <v>2479</v>
@@ -37569,15 +37567,15 @@
         <v>2446</v>
       </c>
       <c r="L924" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M924" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="C925" t="s">
         <v>2481</v>
@@ -37595,29 +37593,29 @@
         <v>2484</v>
       </c>
       <c r="L925" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M925" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="D926" t="s">
         <v>2480</v>
       </c>
       <c r="L926" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M926" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="927" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="E927" t="s">
         <v>2466</v>
@@ -37629,10 +37627,10 @@
         <v>2467</v>
       </c>
       <c r="L927" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M927" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="928" spans="1:15" x14ac:dyDescent="0.2">
@@ -37652,7 +37650,7 @@
         <v>2450</v>
       </c>
       <c r="L928" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M928" t="s">
         <v>2760</v>
@@ -37684,12 +37682,12 @@
         <v>2453</v>
       </c>
       <c r="O929" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="930" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="B930" t="s">
         <v>19</v>
@@ -37707,15 +37705,15 @@
         <v>8</v>
       </c>
       <c r="L930" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M930" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="931" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>4615</v>
+        <v>4614</v>
       </c>
       <c r="B931" t="s">
         <v>13</v>
@@ -37727,13 +37725,13 @@
         <v>191</v>
       </c>
       <c r="M931" t="s">
+        <v>4615</v>
+      </c>
+      <c r="N931" s="6" t="s">
         <v>4616</v>
       </c>
-      <c r="N931" s="6" t="s">
+      <c r="O931" t="s">
         <v>4617</v>
-      </c>
-      <c r="O931" t="s">
-        <v>4618</v>
       </c>
     </row>
     <row r="932" spans="1:15" x14ac:dyDescent="0.2">
@@ -37821,7 +37819,7 @@
     </row>
     <row r="935" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="B935" t="s">
         <v>13</v>
@@ -37839,10 +37837,10 @@
         <v>887</v>
       </c>
       <c r="N935" s="6" t="s">
+        <v>4549</v>
+      </c>
+      <c r="O935" t="s">
         <v>4550</v>
-      </c>
-      <c r="O935" t="s">
-        <v>4551</v>
       </c>
     </row>
     <row r="936" spans="1:15" x14ac:dyDescent="0.2">
@@ -37853,16 +37851,16 @@
         <v>13</v>
       </c>
       <c r="D936" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="E936" t="s">
         <v>2785</v>
       </c>
       <c r="F936" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G936" t="s">
         <v>4063</v>
-      </c>
-      <c r="G936" t="s">
-        <v>4064</v>
       </c>
       <c r="I936" t="s">
         <v>106</v>
@@ -37911,7 +37909,7 @@
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="D938" t="s">
         <v>2514</v>
@@ -37923,10 +37921,10 @@
         <v>41</v>
       </c>
       <c r="L938" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M938" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="N938" t="s">
         <v>2515</v>
@@ -38041,7 +38039,7 @@
     </row>
     <row r="943" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B943" t="s">
         <v>13</v>
@@ -38059,15 +38057,15 @@
         <v>173</v>
       </c>
       <c r="M943" t="s">
+        <v>4041</v>
+      </c>
+      <c r="O943" t="s">
         <v>4042</v>
-      </c>
-      <c r="O943" t="s">
-        <v>4043</v>
       </c>
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="D944" t="s">
         <v>1372</v>
@@ -38079,10 +38077,10 @@
         <v>6</v>
       </c>
       <c r="L944" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M944" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="N944" t="s">
         <v>1373</v>
@@ -38090,7 +38088,7 @@
     </row>
     <row r="945" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="D945" t="s">
         <v>1374</v>
@@ -38102,10 +38100,10 @@
         <v>5</v>
       </c>
       <c r="L945" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="M945" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="N945" t="s">
         <v>1375</v>
@@ -38113,7 +38111,7 @@
     </row>
     <row r="946" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B946" t="s">
         <v>13</v>
@@ -38131,10 +38129,10 @@
         <v>85</v>
       </c>
       <c r="M946" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="O946" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0083E-6639-6940-9032-677D5FADE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EEB9E5-0927-0D4E-A829-7E692DA53584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="21240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14388,7 +14388,7 @@
     <t>噓/चुप/shush/اشش</t>
   </si>
   <si>
-    <t>the x sound can be extended and the -u ending is optional in in speech; 'shhh' is said the same in English and Orostara and can also be written as 'x~~'; actually pronouncing it 'xu' is more like 'hush' or 'shush'</t>
+    <t>the x sound can be extended and the -u ending is optiona in speech; 'shhh' is said the same in English and Orostara and can also be written as 'x~~'; actually pronouncing it 'xu' is more like 'hush' or 'shush'</t>
   </si>
 </sst>
 </file>
@@ -14951,7 +14951,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14966,7 +14966,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15367,9 +15366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A947" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A923" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J966" sqref="J966"/>
+      <selection pane="topRight" activeCell="I944" sqref="I944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38858,7 +38857,7 @@
       <c r="L969" t="s">
         <v>3724</v>
       </c>
-      <c r="M969" s="14" t="s">
+      <c r="M969" t="s">
         <v>1222</v>
       </c>
     </row>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6E87F-120A-994F-A10D-1B8E5AA04294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA9D5F-4B95-8441-91A0-146863CBAECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="28900" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13542,18 +13542,6 @@
     <t>want/desire/hope/wish</t>
   </si>
   <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>juk</t>
-  </si>
-  <si>
-    <t>/jʊk̚²/</t>
-  </si>
-  <si>
-    <t>yuken</t>
-  </si>
-  <si>
     <t>huīsè</t>
   </si>
   <si>
@@ -14533,12 +14521,24 @@
   <si>
     <t>sas rikit</t>
   </si>
+  <si>
+    <t>కోరిక</t>
+  </si>
+  <si>
+    <t>kōrika</t>
+  </si>
+  <si>
+    <t>koːɾika/</t>
+  </si>
+  <si>
+    <t>korak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14731,6 +14731,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Kohinoor Telugu"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -15094,7 +15100,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15109,6 +15115,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15509,9 +15516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A894" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H907" sqref="H907"/>
+      <selection pane="topRight" activeCell="J275" sqref="J275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15581,10 +15588,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J2" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L2" t="s">
         <v>3694</v>
@@ -15681,7 +15688,7 @@
         <v>3191</v>
       </c>
       <c r="P5" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -15915,7 +15922,7 @@
         <v>2675</v>
       </c>
       <c r="P14" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -16008,7 +16015,7 @@
         <v>2677</v>
       </c>
       <c r="P17" t="s">
-        <v>4677</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -16040,7 +16047,7 @@
         <v>2678</v>
       </c>
       <c r="P18" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -16094,7 +16101,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4729</v>
+        <v>4725</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -16123,22 +16130,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4663</v>
+        <v>4659</v>
       </c>
       <c r="H22" t="s">
-        <v>4657</v>
+        <v>4653</v>
       </c>
       <c r="I22" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J22" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L22" t="s">
         <v>3694</v>
       </c>
       <c r="M22" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -16170,7 +16177,7 @@
         <v>2682</v>
       </c>
       <c r="P23" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -16233,7 +16240,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4487</v>
+        <v>4483</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -16294,7 +16301,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4489</v>
+        <v>4485</v>
       </c>
       <c r="D28" t="s">
         <v>2335</v>
@@ -16303,7 +16310,7 @@
         <v>3694</v>
       </c>
       <c r="M28" t="s">
-        <v>4490</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -16356,7 +16363,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4491</v>
+        <v>4487</v>
       </c>
       <c r="D32" t="s">
         <v>3968</v>
@@ -16365,12 +16372,12 @@
         <v>3694</v>
       </c>
       <c r="M32" t="s">
-        <v>4492</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4488</v>
+        <v>4484</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -16698,7 +16705,7 @@
         <v>3096</v>
       </c>
       <c r="P44" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -16720,7 +16727,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>4728</v>
+        <v>4724</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -16773,7 +16780,7 @@
         <v>2688</v>
       </c>
       <c r="P47" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -16799,7 +16806,7 @@
         <v>2820</v>
       </c>
       <c r="P48" t="s">
-        <v>4680</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -16831,7 +16838,7 @@
         <v>3015</v>
       </c>
       <c r="P49" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -16869,7 +16876,7 @@
         <v>4432</v>
       </c>
       <c r="P50" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -16909,7 +16916,7 @@
         <v>81</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>4683</v>
+        <v>4679</v>
       </c>
       <c r="O52" t="s">
         <v>2689</v>
@@ -16944,7 +16951,7 @@
         <v>2684</v>
       </c>
       <c r="P53" t="s">
-        <v>4684</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -16955,13 +16962,13 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>4638</v>
+        <v>4634</v>
       </c>
       <c r="F54" t="s">
         <v>3235</v>
       </c>
       <c r="I54" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="L54" t="s">
         <v>15</v>
@@ -17010,7 +17017,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>4495</v>
+        <v>4491</v>
       </c>
       <c r="D56" t="s">
         <v>36</v>
@@ -17022,7 +17029,7 @@
         <v>3694</v>
       </c>
       <c r="M56" t="s">
-        <v>4496</v>
+        <v>4492</v>
       </c>
       <c r="N56" t="s">
         <v>3284</v>
@@ -17059,10 +17066,10 @@
         <v>2521</v>
       </c>
       <c r="I58" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J58" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L58" t="s">
         <v>187</v>
@@ -17077,7 +17084,7 @@
         <v>2718</v>
       </c>
       <c r="P58" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -17088,10 +17095,10 @@
         <v>201</v>
       </c>
       <c r="I59" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J59" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L59" t="s">
         <v>3694</v>
@@ -17410,7 +17417,7 @@
         <v>3824</v>
       </c>
       <c r="P70" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -17436,7 +17443,7 @@
         <v>2700</v>
       </c>
       <c r="P71" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -17522,7 +17529,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>4734</v>
+        <v>4730</v>
       </c>
       <c r="E75" t="s">
         <v>3652</v>
@@ -17540,7 +17547,7 @@
         <v>2704</v>
       </c>
       <c r="P75" t="s">
-        <v>4692</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -17566,12 +17573,12 @@
         <v>4236</v>
       </c>
       <c r="P76" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
       <c r="D77" t="s">
         <v>455</v>
@@ -17580,7 +17587,7 @@
         <v>3694</v>
       </c>
       <c r="M77" t="s">
-        <v>4521</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -17612,7 +17619,7 @@
         <v>3025</v>
       </c>
       <c r="P78" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -17646,10 +17653,10 @@
         <v>252</v>
       </c>
       <c r="I80" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J80" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L80" t="s">
         <v>72</v>
@@ -17664,7 +17671,7 @@
         <v>3028</v>
       </c>
       <c r="P80" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -17683,19 +17690,19 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4639</v>
+        <v>4635</v>
       </c>
       <c r="C82" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
       <c r="D82" t="s">
-        <v>4640</v>
+        <v>4636</v>
       </c>
       <c r="E82" t="s">
         <v>1728</v>
       </c>
       <c r="I82" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="L82" t="s">
         <v>3694</v>
@@ -17730,7 +17737,7 @@
         <v>2728</v>
       </c>
       <c r="P83" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -17762,7 +17769,7 @@
         <v>3046</v>
       </c>
       <c r="P84" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -17883,7 +17890,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>4528</v>
+        <v>4524</v>
       </c>
       <c r="D92" t="s">
         <v>398</v>
@@ -17927,7 +17934,7 @@
         <v>2713</v>
       </c>
       <c r="P93" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -17973,12 +17980,12 @@
         <v>3694</v>
       </c>
       <c r="M95" t="s">
-        <v>4529</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>4530</v>
+        <v>4526</v>
       </c>
       <c r="D96" t="s">
         <v>3970</v>
@@ -17987,7 +17994,7 @@
         <v>3694</v>
       </c>
       <c r="M96" t="s">
-        <v>4531</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -18117,15 +18124,15 @@
         <v>2687</v>
       </c>
       <c r="P101" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C102" t="s">
         <v>4522</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4526</v>
       </c>
       <c r="F102" t="s">
         <v>160</v>
@@ -18137,18 +18144,18 @@
         <v>3694</v>
       </c>
       <c r="M102" t="s">
-        <v>4523</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4493</v>
+        <v>4489</v>
       </c>
       <c r="B103" t="s">
         <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>4527</v>
+        <v>4523</v>
       </c>
       <c r="F103" t="s">
         <v>159</v>
@@ -18157,18 +18164,18 @@
         <v>3694</v>
       </c>
       <c r="M103" t="s">
-        <v>4494</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>4525</v>
+        <v>4521</v>
       </c>
       <c r="B104" t="s">
         <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>4527</v>
+        <v>4523</v>
       </c>
       <c r="F104" t="s">
         <v>166</v>
@@ -18177,7 +18184,7 @@
         <v>3694</v>
       </c>
       <c r="M104" t="s">
-        <v>4524</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -18238,7 +18245,7 @@
         <v>2735</v>
       </c>
       <c r="P106" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -18273,7 +18280,7 @@
         <v>2715</v>
       </c>
       <c r="P107" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -18295,7 +18302,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>4532</v>
+        <v>4528</v>
       </c>
       <c r="D109" t="s">
         <v>425</v>
@@ -18307,7 +18314,7 @@
         <v>3694</v>
       </c>
       <c r="M109" t="s">
-        <v>4533</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -18336,7 +18343,7 @@
         <v>2752</v>
       </c>
       <c r="P110" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -18365,12 +18372,12 @@
         <v>4114</v>
       </c>
       <c r="P111" t="s">
-        <v>4689</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>4483</v>
+        <v>4479</v>
       </c>
       <c r="B112" t="s">
         <v>383</v>
@@ -18388,16 +18395,16 @@
         <v>265</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>4484</v>
+        <v>4480</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>4486</v>
+        <v>4482</v>
       </c>
       <c r="O112" t="s">
-        <v>4485</v>
+        <v>4481</v>
       </c>
       <c r="P112" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
@@ -18458,12 +18465,12 @@
         <v>2716</v>
       </c>
       <c r="P114" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>4534</v>
+        <v>4530</v>
       </c>
       <c r="C115" t="s">
         <v>378</v>
@@ -18481,7 +18488,7 @@
         <v>3694</v>
       </c>
       <c r="M115" t="s">
-        <v>4535</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -18530,7 +18537,7 @@
         <v>2721</v>
       </c>
       <c r="P117" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -18634,7 +18641,7 @@
         <v>2722</v>
       </c>
       <c r="P121" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -18766,7 +18773,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="D127" t="s">
         <v>3640</v>
@@ -18778,12 +18785,12 @@
         <v>3694</v>
       </c>
       <c r="M127" t="s">
-        <v>4503</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>4504</v>
+        <v>4500</v>
       </c>
       <c r="C128" t="s">
         <v>260</v>
@@ -18795,7 +18802,7 @@
         <v>3694</v>
       </c>
       <c r="M128" t="s">
-        <v>4505</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
@@ -18821,7 +18828,7 @@
         <v>2726</v>
       </c>
       <c r="P129" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -18838,10 +18845,10 @@
         <v>1728</v>
       </c>
       <c r="F130" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
       <c r="I130" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J130" t="s">
         <v>1466</v>
@@ -18885,7 +18892,7 @@
         <v>2727</v>
       </c>
       <c r="P131" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -18917,7 +18924,7 @@
         <v>4387</v>
       </c>
       <c r="P132" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -18978,7 +18985,7 @@
         <v>3131</v>
       </c>
       <c r="P134" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -19030,7 +19037,7 @@
         <v>3076</v>
       </c>
       <c r="P136" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -19056,7 +19063,7 @@
         <v>2730</v>
       </c>
       <c r="P137" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -19085,7 +19092,7 @@
         <v>2717</v>
       </c>
       <c r="P138" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -19114,7 +19121,7 @@
         <v>2723</v>
       </c>
       <c r="P139" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
@@ -19146,7 +19153,7 @@
         <v>2731</v>
       </c>
       <c r="P140" t="s">
-        <v>4690</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -19181,7 +19188,7 @@
         <v>4411</v>
       </c>
       <c r="P141" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -19213,7 +19220,7 @@
         <v>2732</v>
       </c>
       <c r="P142" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -19245,7 +19252,7 @@
         <v>2733</v>
       </c>
       <c r="P143" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -19264,7 +19271,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>4453</v>
+        <v>4449</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -19288,13 +19295,13 @@
         <v>483</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>4451</v>
+        <v>4447</v>
       </c>
       <c r="O145" t="s">
-        <v>4452</v>
+        <v>4448</v>
       </c>
       <c r="P145" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -19320,7 +19327,7 @@
         <v>2734</v>
       </c>
       <c r="P146" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -19395,7 +19402,7 @@
         <v>3595</v>
       </c>
       <c r="P149" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
@@ -19427,7 +19434,7 @@
         <v>3940</v>
       </c>
       <c r="P150" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -19462,7 +19469,7 @@
         <v>2737</v>
       </c>
       <c r="P151" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
@@ -19521,7 +19528,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="F155" t="s">
         <v>560</v>
@@ -19533,7 +19540,7 @@
         <v>3694</v>
       </c>
       <c r="M155" t="s">
-        <v>4541</v>
+        <v>4537</v>
       </c>
       <c r="N155" t="s">
         <v>562</v>
@@ -19763,7 +19770,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>4538</v>
+        <v>4534</v>
       </c>
       <c r="B168" t="s">
         <v>158</v>
@@ -19781,7 +19788,7 @@
         <v>3694</v>
       </c>
       <c r="M168" t="s">
-        <v>4539</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -19879,7 +19886,7 @@
         <v>4197</v>
       </c>
       <c r="P172" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
@@ -19908,7 +19915,7 @@
         <v>3819</v>
       </c>
       <c r="P173" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -19943,7 +19950,7 @@
         <v>3207</v>
       </c>
       <c r="P174" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -19972,7 +19979,7 @@
         <v>3011</v>
       </c>
       <c r="P175" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -20106,7 +20113,7 @@
         <v>2738</v>
       </c>
       <c r="P180" t="s">
-        <v>4693</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
@@ -20178,7 +20185,7 @@
         <v>3002</v>
       </c>
       <c r="P183" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
@@ -20201,7 +20208,7 @@
         <v>2739</v>
       </c>
       <c r="P184" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
@@ -20259,7 +20266,7 @@
         <v>2740</v>
       </c>
       <c r="P186" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
@@ -20314,7 +20321,7 @@
         <v>4192</v>
       </c>
       <c r="P188" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -20372,12 +20379,12 @@
         <v>4373</v>
       </c>
       <c r="P190" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>4536</v>
+        <v>4532</v>
       </c>
       <c r="C191" t="s">
         <v>501</v>
@@ -20389,7 +20396,7 @@
         <v>3694</v>
       </c>
       <c r="M191" t="s">
-        <v>4537</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
@@ -20441,7 +20448,7 @@
         <v>2741</v>
       </c>
       <c r="P193" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
@@ -20568,7 +20575,7 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>4732</v>
+        <v>4728</v>
       </c>
       <c r="E198" t="s">
         <v>2346</v>
@@ -20595,12 +20602,12 @@
         <v>3005</v>
       </c>
       <c r="P198" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="D199" t="s">
         <v>2351</v>
@@ -20618,7 +20625,7 @@
         <v>3694</v>
       </c>
       <c r="M199" t="s">
-        <v>4543</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
@@ -20653,12 +20660,12 @@
         <v>3059</v>
       </c>
       <c r="P200" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>4544</v>
+        <v>4540</v>
       </c>
       <c r="D201" t="s">
         <v>754</v>
@@ -20731,7 +20738,7 @@
         <v>2743</v>
       </c>
       <c r="P203" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -20826,7 +20833,7 @@
         <v>4384</v>
       </c>
       <c r="P207" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -20915,7 +20922,7 @@
         <v>3195</v>
       </c>
       <c r="P210" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
@@ -21219,7 +21226,7 @@
         <v>4429</v>
       </c>
       <c r="P222" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
@@ -21288,7 +21295,7 @@
         <v>3047</v>
       </c>
       <c r="P224" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.2">
@@ -21317,7 +21324,7 @@
         <v>2767</v>
       </c>
       <c r="P225" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.2">
@@ -21349,7 +21356,7 @@
         <v>2750</v>
       </c>
       <c r="P226" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
@@ -21682,7 +21689,7 @@
         <v>2759</v>
       </c>
       <c r="P238" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
@@ -21714,7 +21721,7 @@
         <v>2761</v>
       </c>
       <c r="P239" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -21794,7 +21801,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>4510</v>
+        <v>4506</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
@@ -21815,7 +21822,7 @@
         <v>3694</v>
       </c>
       <c r="M243" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -21879,7 +21886,7 @@
         <v>3978</v>
       </c>
       <c r="P245" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.2">
@@ -21925,12 +21932,12 @@
         <v>2764</v>
       </c>
       <c r="P247" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>4545</v>
+        <v>4541</v>
       </c>
       <c r="D248" t="s">
         <v>852</v>
@@ -21945,7 +21952,7 @@
         <v>3694</v>
       </c>
       <c r="M248" t="s">
-        <v>4546</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
@@ -21980,7 +21987,7 @@
         <v>2765</v>
       </c>
       <c r="P249" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
@@ -21999,7 +22006,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>4547</v>
+        <v>4543</v>
       </c>
       <c r="C251" t="s">
         <v>861</v>
@@ -22011,7 +22018,7 @@
         <v>3694</v>
       </c>
       <c r="M251" t="s">
-        <v>4548</v>
+        <v>4544</v>
       </c>
       <c r="N251" t="s">
         <v>863</v>
@@ -22115,7 +22122,7 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>4549</v>
+        <v>4545</v>
       </c>
       <c r="G258" t="s">
         <v>864</v>
@@ -22181,19 +22188,19 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>4654</v>
+        <v>4650</v>
       </c>
       <c r="C261" t="s">
-        <v>4656</v>
+        <v>4652</v>
       </c>
       <c r="H261" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
       <c r="I261" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J261" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L261" t="s">
         <v>3694</v>
@@ -22242,7 +22249,7 @@
         <v>4025</v>
       </c>
       <c r="P263" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
@@ -22285,7 +22292,7 @@
         <v>81</v>
       </c>
       <c r="M265" t="s">
-        <v>4694</v>
+        <v>4690</v>
       </c>
       <c r="O265" t="s">
         <v>4408</v>
@@ -22393,12 +22400,12 @@
         <v>4043</v>
       </c>
       <c r="P269" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>4297</v>
+        <v>4752</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -22474,7 +22481,7 @@
         <v>2770</v>
       </c>
       <c r="P272" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.2">
@@ -22500,7 +22507,7 @@
         <v>4085</v>
       </c>
       <c r="P273" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.2">
@@ -22529,7 +22536,7 @@
         <v>2773</v>
       </c>
       <c r="P274" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.2">
@@ -22590,7 +22597,7 @@
         <v>3113</v>
       </c>
       <c r="P276" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.2">
@@ -22699,7 +22706,7 @@
         <v>3089</v>
       </c>
       <c r="P281" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.2">
@@ -22731,7 +22738,7 @@
         <v>3829</v>
       </c>
       <c r="P282" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -22763,7 +22770,7 @@
         <v>3166</v>
       </c>
       <c r="P283" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.2">
@@ -22903,12 +22910,12 @@
         <v>3240</v>
       </c>
       <c r="P290" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>4550</v>
+        <v>4546</v>
       </c>
       <c r="D291" t="s">
         <v>3636</v>
@@ -22920,7 +22927,7 @@
         <v>3694</v>
       </c>
       <c r="M291" t="s">
-        <v>4551</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
@@ -22991,7 +22998,7 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>4552</v>
+        <v>4548</v>
       </c>
       <c r="D295" t="s">
         <v>1603</v>
@@ -23003,7 +23010,7 @@
         <v>3694</v>
       </c>
       <c r="M295" t="s">
-        <v>4553</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
@@ -23046,7 +23053,7 @@
         <v>3034</v>
       </c>
       <c r="P297" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
@@ -23078,7 +23085,7 @@
         <v>3266</v>
       </c>
       <c r="P298" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -23130,7 +23137,7 @@
         <v>2774</v>
       </c>
       <c r="P300" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
@@ -23207,7 +23214,7 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>4607</v>
+        <v>4603</v>
       </c>
       <c r="D304" t="s">
         <v>4006</v>
@@ -23216,7 +23223,7 @@
         <v>3694</v>
       </c>
       <c r="M304" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
@@ -23242,7 +23249,7 @@
         <v>2776</v>
       </c>
       <c r="P305" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
@@ -23265,16 +23272,16 @@
         <v>265</v>
       </c>
       <c r="M306" t="s">
-        <v>4461</v>
+        <v>4457</v>
       </c>
       <c r="N306" s="5" t="s">
-        <v>4463</v>
+        <v>4459</v>
       </c>
       <c r="O306" t="s">
-        <v>4462</v>
+        <v>4458</v>
       </c>
       <c r="P306" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
@@ -23369,7 +23376,7 @@
         <v>4209</v>
       </c>
       <c r="P310" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
@@ -23415,7 +23422,7 @@
         <v>2779</v>
       </c>
       <c r="P312" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
@@ -23502,7 +23509,7 @@
         <v>2781</v>
       </c>
       <c r="P315" t="s">
-        <v>4705</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
@@ -23531,7 +23538,7 @@
         <v>3021</v>
       </c>
       <c r="P316" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
@@ -23563,7 +23570,7 @@
         <v>2777</v>
       </c>
       <c r="P317" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.2">
@@ -23589,7 +23596,7 @@
         <v>3027</v>
       </c>
       <c r="P318" t="s">
-        <v>4706</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
@@ -23791,7 +23798,7 @@
         <v>2782</v>
       </c>
       <c r="P326" t="s">
-        <v>4707</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
@@ -23937,7 +23944,7 @@
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>4560</v>
+        <v>4556</v>
       </c>
       <c r="C333" t="s">
         <v>1065</v>
@@ -23949,7 +23956,7 @@
         <v>3694</v>
       </c>
       <c r="M333" t="s">
-        <v>4561</v>
+        <v>4557</v>
       </c>
       <c r="N333" t="s">
         <v>1067</v>
@@ -23974,7 +23981,7 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="D335" t="s">
         <v>1027</v>
@@ -23989,7 +23996,7 @@
         <v>3694</v>
       </c>
       <c r="M335" t="s">
-        <v>4555</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -24014,7 +24021,7 @@
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>4556</v>
+        <v>4552</v>
       </c>
       <c r="D337" t="s">
         <v>1044</v>
@@ -24026,7 +24033,7 @@
         <v>3694</v>
       </c>
       <c r="M337" t="s">
-        <v>4557</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -24068,7 +24075,7 @@
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>4558</v>
+        <v>4554</v>
       </c>
       <c r="B340" t="s">
         <v>158</v>
@@ -24086,7 +24093,7 @@
         <v>3694</v>
       </c>
       <c r="M340" t="s">
-        <v>4559</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -24122,7 +24129,7 @@
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>4563</v>
+        <v>4559</v>
       </c>
       <c r="C343" t="s">
         <v>2625</v>
@@ -24140,7 +24147,7 @@
         <v>3694</v>
       </c>
       <c r="M343" t="s">
-        <v>4564</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
@@ -24229,7 +24236,7 @@
         <v>1036</v>
       </c>
       <c r="E348" t="s">
-        <v>4565</v>
+        <v>4561</v>
       </c>
       <c r="F348" t="s">
         <v>1037</v>
@@ -24316,7 +24323,7 @@
         <v>4363</v>
       </c>
       <c r="P351" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
@@ -24351,7 +24358,7 @@
         <v>4088</v>
       </c>
       <c r="P352" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
@@ -24379,7 +24386,7 @@
         <v>158</v>
       </c>
       <c r="C354" t="s">
-        <v>4566</v>
+        <v>4562</v>
       </c>
       <c r="E354" t="s">
         <v>2623</v>
@@ -24407,7 +24414,7 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>4562</v>
+        <v>4558</v>
       </c>
       <c r="F356" t="s">
         <v>393</v>
@@ -24509,7 +24516,7 @@
         <v>2784</v>
       </c>
       <c r="P359" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
@@ -24541,7 +24548,7 @@
         <v>2785</v>
       </c>
       <c r="P360" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.2">
@@ -24628,7 +24635,7 @@
         <v>2787</v>
       </c>
       <c r="P363" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.2">
@@ -24767,7 +24774,7 @@
         <v>2790</v>
       </c>
       <c r="P368" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.2">
@@ -24796,7 +24803,7 @@
         <v>3158</v>
       </c>
       <c r="P369" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
@@ -24842,7 +24849,7 @@
         <v>2791</v>
       </c>
       <c r="P371" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
@@ -25002,7 +25009,7 @@
         <v>2795</v>
       </c>
       <c r="P378" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.2">
@@ -25031,7 +25038,7 @@
         <v>3957</v>
       </c>
       <c r="P379" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.2">
@@ -25063,7 +25070,7 @@
         <v>3060</v>
       </c>
       <c r="P380" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.2">
@@ -25099,12 +25106,12 @@
         <v>2796</v>
       </c>
       <c r="P381" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>4567</v>
+        <v>4563</v>
       </c>
       <c r="C382" t="s">
         <v>3969</v>
@@ -25116,7 +25123,7 @@
         <v>3694</v>
       </c>
       <c r="M382" t="s">
-        <v>4568</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.2">
@@ -25150,13 +25157,13 @@
         <v>1158</v>
       </c>
       <c r="H384" t="s">
-        <v>4668</v>
+        <v>4664</v>
       </c>
       <c r="I384" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J384" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L384" t="s">
         <v>3694</v>
@@ -25200,7 +25207,7 @@
         <v>2797</v>
       </c>
       <c r="P385" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.2">
@@ -25260,7 +25267,7 @@
         <v>2798</v>
       </c>
       <c r="P388" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.2">
@@ -25390,7 +25397,7 @@
         <v>2800</v>
       </c>
       <c r="P393" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.2">
@@ -25419,7 +25426,7 @@
         <v>3154</v>
       </c>
       <c r="P394" t="s">
-        <v>4709</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.2">
@@ -25471,7 +25478,7 @@
         <v>2803</v>
       </c>
       <c r="P396" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.2">
@@ -25604,7 +25611,7 @@
         <v>2805</v>
       </c>
       <c r="P401" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.2">
@@ -25626,7 +25633,7 @@
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>4464</v>
+        <v>4460</v>
       </c>
       <c r="B403" t="s">
         <v>13</v>
@@ -25647,13 +25654,13 @@
         <v>72</v>
       </c>
       <c r="M403" t="s">
-        <v>4465</v>
+        <v>4461</v>
       </c>
       <c r="N403" t="s">
-        <v>4466</v>
+        <v>4462</v>
       </c>
       <c r="O403" t="s">
-        <v>4467</v>
+        <v>4463</v>
       </c>
       <c r="P403" t="s">
         <v>4312</v>
@@ -25661,7 +25668,7 @@
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>4569</v>
+        <v>4565</v>
       </c>
       <c r="D404" t="s">
         <v>2415</v>
@@ -25757,7 +25764,7 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>4570</v>
+        <v>4566</v>
       </c>
       <c r="C407" t="s">
         <v>1225</v>
@@ -25769,12 +25776,12 @@
         <v>3694</v>
       </c>
       <c r="M407" t="s">
-        <v>4572</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>4575</v>
+        <v>4571</v>
       </c>
       <c r="B408" t="s">
         <v>158</v>
@@ -25786,7 +25793,7 @@
         <v>3694</v>
       </c>
       <c r="M408" t="s">
-        <v>4576</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.2">
@@ -25825,7 +25832,7 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>4577</v>
+        <v>4573</v>
       </c>
       <c r="D411" t="s">
         <v>1234</v>
@@ -25840,7 +25847,7 @@
         <v>3694</v>
       </c>
       <c r="M411" t="s">
-        <v>4578</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.2">
@@ -25957,7 +25964,7 @@
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>4571</v>
+        <v>4567</v>
       </c>
       <c r="B417" t="s">
         <v>158</v>
@@ -25972,12 +25979,12 @@
         <v>3694</v>
       </c>
       <c r="M417" t="s">
-        <v>4570</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>4573</v>
+        <v>4569</v>
       </c>
       <c r="F418" t="s">
         <v>1214</v>
@@ -25989,7 +25996,7 @@
         <v>3694</v>
       </c>
       <c r="M418" t="s">
-        <v>4574</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="419" spans="1:16" x14ac:dyDescent="0.2">
@@ -26011,7 +26018,7 @@
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>4579</v>
+        <v>4575</v>
       </c>
       <c r="F420" t="s">
         <v>1242</v>
@@ -26163,7 +26170,7 @@
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>4580</v>
+        <v>4576</v>
       </c>
       <c r="F427" t="s">
         <v>1247</v>
@@ -26172,7 +26179,7 @@
         <v>3694</v>
       </c>
       <c r="M427" t="s">
-        <v>4581</v>
+        <v>4577</v>
       </c>
       <c r="N427" t="s">
         <v>1248</v>
@@ -26273,7 +26280,7 @@
         <v>3184</v>
       </c>
       <c r="P431" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.2">
@@ -26322,7 +26329,7 @@
         <v>4294</v>
       </c>
       <c r="P433" t="s">
-        <v>4712</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.2">
@@ -26499,7 +26506,7 @@
         <v>3105</v>
       </c>
       <c r="P439" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.2">
@@ -26548,7 +26555,7 @@
         <v>2809</v>
       </c>
       <c r="P441" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.2">
@@ -26577,7 +26584,7 @@
         <v>2810</v>
       </c>
       <c r="P442" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.2">
@@ -26664,7 +26671,7 @@
         <v>4131</v>
       </c>
       <c r="P445" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.2">
@@ -26773,12 +26780,12 @@
         <v>3704</v>
       </c>
       <c r="P450" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="D451" t="s">
         <v>221</v>
@@ -26793,7 +26800,7 @@
         <v>3694</v>
       </c>
       <c r="M451" t="s">
-        <v>4583</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.2">
@@ -26831,7 +26838,7 @@
         <v>2811</v>
       </c>
       <c r="P452" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.2">
@@ -26860,7 +26867,7 @@
         <v>3178</v>
       </c>
       <c r="P453" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.2">
@@ -26897,7 +26904,7 @@
         <v>1356</v>
       </c>
       <c r="F455" t="s">
-        <v>4675</v>
+        <v>4671</v>
       </c>
       <c r="I455" t="s">
         <v>146</v>
@@ -26918,7 +26925,7 @@
         <v>3016</v>
       </c>
       <c r="P455" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.2">
@@ -26991,7 +26998,7 @@
         <v>3050</v>
       </c>
       <c r="P457" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.2">
@@ -27010,7 +27017,7 @@
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>4587</v>
+        <v>4583</v>
       </c>
       <c r="C459" t="s">
         <v>1350</v>
@@ -27025,7 +27032,7 @@
         <v>3694</v>
       </c>
       <c r="M459" t="s">
-        <v>4588</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.2">
@@ -27044,7 +27051,7 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>4586</v>
+        <v>4582</v>
       </c>
       <c r="C461" t="s">
         <v>363</v>
@@ -27084,7 +27091,7 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>4584</v>
+        <v>4580</v>
       </c>
       <c r="C463" t="s">
         <v>1343</v>
@@ -27096,7 +27103,7 @@
         <v>3694</v>
       </c>
       <c r="M463" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
       <c r="N463" t="s">
         <v>1345</v>
@@ -27148,7 +27155,7 @@
         <v>3118</v>
       </c>
       <c r="P465" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="466" spans="1:16" x14ac:dyDescent="0.2">
@@ -27216,7 +27223,7 @@
     </row>
     <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>4722</v>
+        <v>4718</v>
       </c>
       <c r="B469" t="s">
         <v>13</v>
@@ -27243,13 +27250,13 @@
         <v>15</v>
       </c>
       <c r="M469" s="13" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
       <c r="N469" t="s">
-        <v>4721</v>
+        <v>4717</v>
       </c>
       <c r="O469" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
       <c r="P469" t="s">
         <v>4312</v>
@@ -27257,7 +27264,7 @@
     </row>
     <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>4723</v>
+        <v>4719</v>
       </c>
       <c r="B470" t="s">
         <v>18</v>
@@ -27384,7 +27391,7 @@
         <v>3217</v>
       </c>
       <c r="P475" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="476" spans="1:16" x14ac:dyDescent="0.2">
@@ -27413,7 +27420,7 @@
         <v>2815</v>
       </c>
       <c r="P476" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="477" spans="1:16" x14ac:dyDescent="0.2">
@@ -27439,7 +27446,7 @@
         <v>4173</v>
       </c>
       <c r="P477" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="478" spans="1:16" x14ac:dyDescent="0.2">
@@ -27539,7 +27546,7 @@
         <v>3041</v>
       </c>
       <c r="P482" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.2">
@@ -27571,7 +27578,7 @@
         <v>2817</v>
       </c>
       <c r="P483" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="484" spans="1:16" x14ac:dyDescent="0.2">
@@ -27683,7 +27690,7 @@
         <v>2819</v>
       </c>
       <c r="P488" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.2">
@@ -27790,7 +27797,7 @@
         <v>3150</v>
       </c>
       <c r="P492" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.2">
@@ -27882,7 +27889,7 @@
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>4517</v>
+        <v>4513</v>
       </c>
       <c r="B496" t="s">
         <v>18</v>
@@ -27903,12 +27910,12 @@
         <v>3694</v>
       </c>
       <c r="M496" t="s">
-        <v>4518</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>4499</v>
+        <v>4495</v>
       </c>
       <c r="B497" t="s">
         <v>18</v>
@@ -27934,7 +27941,7 @@
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>4500</v>
+        <v>4496</v>
       </c>
       <c r="B498" t="s">
         <v>18</v>
@@ -28078,7 +28085,7 @@
         <v>2719</v>
       </c>
       <c r="P502" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.2">
@@ -28182,7 +28189,7 @@
         <v>3040</v>
       </c>
       <c r="P506" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.2">
@@ -28231,12 +28238,12 @@
         <v>3081</v>
       </c>
       <c r="P508" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>4468</v>
+        <v>4464</v>
       </c>
       <c r="B509" t="s">
         <v>13</v>
@@ -28260,13 +28267,13 @@
         <v>1454</v>
       </c>
       <c r="N509" s="5" t="s">
-        <v>4469</v>
+        <v>4465</v>
       </c>
       <c r="O509" t="s">
-        <v>4470</v>
+        <v>4466</v>
       </c>
       <c r="P509" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="510" spans="1:16" ht="19" x14ac:dyDescent="0.2">
@@ -28301,7 +28308,7 @@
         <v>4143</v>
       </c>
       <c r="P510" t="s">
-        <v>4690</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.2">
@@ -28385,7 +28392,7 @@
         <v>2822</v>
       </c>
       <c r="P513" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.2">
@@ -28443,7 +28450,7 @@
         <v>3592</v>
       </c>
       <c r="P515" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.2">
@@ -28546,7 +28553,7 @@
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>4501</v>
+        <v>4497</v>
       </c>
       <c r="B520" t="s">
         <v>18</v>
@@ -28614,7 +28621,7 @@
         <v>3624</v>
       </c>
       <c r="P521" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.2">
@@ -28685,7 +28692,7 @@
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>4498</v>
+        <v>4494</v>
       </c>
       <c r="F525" t="s">
         <v>283</v>
@@ -28694,7 +28701,7 @@
         <v>3694</v>
       </c>
       <c r="M525" t="s">
-        <v>4497</v>
+        <v>4493</v>
       </c>
       <c r="N525" t="s">
         <v>284</v>
@@ -28702,7 +28709,7 @@
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>4589</v>
+        <v>4585</v>
       </c>
       <c r="D526" t="s">
         <v>1489</v>
@@ -28739,7 +28746,7 @@
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>4695</v>
+        <v>4691</v>
       </c>
       <c r="B528" t="s">
         <v>13</v>
@@ -28757,13 +28764,13 @@
         <v>72</v>
       </c>
       <c r="M528" s="13" t="s">
-        <v>4696</v>
+        <v>4692</v>
       </c>
       <c r="N528" t="s">
-        <v>4697</v>
+        <v>4693</v>
       </c>
       <c r="O528" t="s">
-        <v>4698</v>
+        <v>4694</v>
       </c>
       <c r="P528" t="s">
         <v>4312</v>
@@ -28806,7 +28813,7 @@
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>4699</v>
+        <v>4695</v>
       </c>
       <c r="D530" t="s">
         <v>4266</v>
@@ -28815,12 +28822,12 @@
         <v>3694</v>
       </c>
       <c r="M530" t="s">
-        <v>4701</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>4700</v>
+        <v>4696</v>
       </c>
       <c r="D531" t="s">
         <v>368</v>
@@ -28835,7 +28842,7 @@
         <v>3694</v>
       </c>
       <c r="M531" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.2">
@@ -28867,7 +28874,7 @@
         <v>3146</v>
       </c>
       <c r="P532" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.2">
@@ -28902,7 +28909,7 @@
         <v>2824</v>
       </c>
       <c r="P533" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.2">
@@ -29009,7 +29016,7 @@
         <v>2827</v>
       </c>
       <c r="P537" t="s">
-        <v>4706</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.2">
@@ -29129,10 +29136,10 @@
         <v>13</v>
       </c>
       <c r="C543" t="s">
-        <v>4737</v>
+        <v>4733</v>
       </c>
       <c r="D543" t="s">
-        <v>4736</v>
+        <v>4732</v>
       </c>
       <c r="F543" t="s">
         <v>1494</v>
@@ -29193,7 +29200,7 @@
         <v>2707</v>
       </c>
       <c r="P545" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.2">
@@ -29300,7 +29307,7 @@
         <v>3035</v>
       </c>
       <c r="P549" t="s">
-        <v>4713</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="550" spans="1:16" x14ac:dyDescent="0.2">
@@ -29384,7 +29391,7 @@
         <v>3051</v>
       </c>
       <c r="P552" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.2">
@@ -29456,7 +29463,7 @@
         <v>2708</v>
       </c>
       <c r="P555" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="556" spans="1:16" ht="19" x14ac:dyDescent="0.2">
@@ -29497,12 +29504,12 @@
         <v>4146</v>
       </c>
       <c r="P556" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
       <c r="B557" t="s">
         <v>18</v>
@@ -29528,7 +29535,7 @@
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
       <c r="B558" t="s">
         <v>18</v>
@@ -29575,7 +29582,7 @@
         <v>2833</v>
       </c>
       <c r="P559" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.2">
@@ -29648,7 +29655,7 @@
         <v>4423</v>
       </c>
       <c r="P562" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.2">
@@ -29679,7 +29686,7 @@
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>4471</v>
+        <v>4467</v>
       </c>
       <c r="B564" t="s">
         <v>13</v>
@@ -29700,7 +29707,7 @@
         <v>3066</v>
       </c>
       <c r="P564" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.2">
@@ -29749,7 +29756,7 @@
         <v>2836</v>
       </c>
       <c r="P566" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.2">
@@ -29850,7 +29857,7 @@
         <v>2839</v>
       </c>
       <c r="P570" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.2">
@@ -29899,7 +29906,7 @@
         <v>3026</v>
       </c>
       <c r="P572" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.2">
@@ -30053,7 +30060,7 @@
         <v>2840</v>
       </c>
       <c r="P577" t="s">
-        <v>4707</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.2">
@@ -30099,7 +30106,7 @@
         <v>3182</v>
       </c>
       <c r="P579" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.2">
@@ -30127,7 +30134,7 @@
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
       <c r="C581" t="s">
         <v>378</v>
@@ -30145,7 +30152,7 @@
         <v>3694</v>
       </c>
       <c r="M581" t="s">
-        <v>4591</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.2">
@@ -30173,7 +30180,7 @@
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>4666</v>
+        <v>4662</v>
       </c>
       <c r="B583" t="s">
         <v>13</v>
@@ -30261,7 +30268,7 @@
         <v>3017</v>
       </c>
       <c r="P585" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.2">
@@ -30359,37 +30366,37 @@
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>4650</v>
+        <v>4646</v>
       </c>
       <c r="B589" t="s">
         <v>13</v>
       </c>
       <c r="E589" t="s">
-        <v>4653</v>
+        <v>4649</v>
       </c>
       <c r="F589" t="s">
-        <v>4652</v>
+        <v>4648</v>
       </c>
       <c r="H589" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
       <c r="I589" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J589" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L589" t="s">
         <v>81</v>
       </c>
       <c r="M589" t="s">
-        <v>4655</v>
+        <v>4651</v>
       </c>
       <c r="O589" t="s">
-        <v>4651</v>
+        <v>4647</v>
       </c>
       <c r="P589" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.2">
@@ -30415,7 +30422,7 @@
         <v>2844</v>
       </c>
       <c r="P590" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.2">
@@ -30450,7 +30457,7 @@
         <v>4420</v>
       </c>
       <c r="P591" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.2">
@@ -30537,7 +30544,7 @@
         <v>3633</v>
       </c>
       <c r="P594" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.2">
@@ -30601,7 +30608,7 @@
         <v>2846</v>
       </c>
       <c r="P596" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.2">
@@ -30720,7 +30727,7 @@
         <v>2848</v>
       </c>
       <c r="P600" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.2">
@@ -30746,7 +30753,7 @@
         <v>2849</v>
       </c>
       <c r="P601" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.2">
@@ -30812,7 +30819,7 @@
     </row>
     <row r="604" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>4472</v>
+        <v>4468</v>
       </c>
       <c r="B604" t="s">
         <v>13</v>
@@ -30990,7 +30997,7 @@
         <v>2875</v>
       </c>
       <c r="P609" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="610" spans="1:16" x14ac:dyDescent="0.2">
@@ -31019,7 +31026,7 @@
         <v>3036</v>
       </c>
       <c r="P610" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="611" spans="1:16" x14ac:dyDescent="0.2">
@@ -31082,7 +31089,7 @@
     </row>
     <row r="613" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>4592</v>
+        <v>4588</v>
       </c>
       <c r="F613" t="s">
         <v>1672</v>
@@ -31091,7 +31098,7 @@
         <v>3694</v>
       </c>
       <c r="M613" t="s">
-        <v>4593</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.2">
@@ -31120,7 +31127,7 @@
         <v>2854</v>
       </c>
       <c r="P614" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.2">
@@ -31149,7 +31156,7 @@
         <v>2877</v>
       </c>
       <c r="P615" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.2">
@@ -31175,7 +31182,7 @@
         <v>2857</v>
       </c>
       <c r="P616" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="617" spans="1:16" x14ac:dyDescent="0.2">
@@ -31302,7 +31309,7 @@
         <v>3169</v>
       </c>
       <c r="P621" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="622" spans="1:16" x14ac:dyDescent="0.2">
@@ -31386,7 +31393,7 @@
         <v>2862</v>
       </c>
       <c r="P624" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="625" spans="1:16" x14ac:dyDescent="0.2">
@@ -31397,7 +31404,7 @@
         <v>158</v>
       </c>
       <c r="C625" t="s">
-        <v>4594</v>
+        <v>4590</v>
       </c>
       <c r="D625" t="s">
         <v>4286</v>
@@ -31432,7 +31439,7 @@
         <v>2864</v>
       </c>
       <c r="P626" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="627" spans="1:16" x14ac:dyDescent="0.2">
@@ -31464,7 +31471,7 @@
         <v>2866</v>
       </c>
       <c r="P627" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="628" spans="1:16" x14ac:dyDescent="0.2">
@@ -31548,7 +31555,7 @@
         <v>2865</v>
       </c>
       <c r="P630" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="631" spans="1:16" x14ac:dyDescent="0.2">
@@ -31597,7 +31604,7 @@
         <v>4392</v>
       </c>
       <c r="P632" t="s">
-        <v>4715</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="633" spans="1:16" x14ac:dyDescent="0.2">
@@ -31629,7 +31636,7 @@
         <v>2872</v>
       </c>
       <c r="P633" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="634" spans="1:16" x14ac:dyDescent="0.2">
@@ -31661,7 +31668,7 @@
         <v>2873</v>
       </c>
       <c r="P634" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="635" spans="1:16" x14ac:dyDescent="0.2">
@@ -31707,7 +31714,7 @@
         <v>2863</v>
       </c>
       <c r="P636" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="637" spans="1:16" x14ac:dyDescent="0.2">
@@ -31742,7 +31749,7 @@
         <v>2874</v>
       </c>
       <c r="P637" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="638" spans="1:16" x14ac:dyDescent="0.2">
@@ -31800,7 +31807,7 @@
         <v>2876</v>
       </c>
       <c r="P639" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="640" spans="1:16" x14ac:dyDescent="0.2">
@@ -31835,7 +31842,7 @@
         <v>2878</v>
       </c>
       <c r="P640" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="641" spans="1:16" x14ac:dyDescent="0.2">
@@ -31863,7 +31870,7 @@
     </row>
     <row r="642" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="C642" t="s">
         <v>378</v>
@@ -31881,7 +31888,7 @@
         <v>3694</v>
       </c>
       <c r="M642" t="s">
-        <v>4596</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="643" spans="1:16" x14ac:dyDescent="0.2">
@@ -31904,7 +31911,7 @@
         <v>2879</v>
       </c>
       <c r="P643" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="644" spans="1:16" x14ac:dyDescent="0.2">
@@ -32023,7 +32030,7 @@
         <v>2883</v>
       </c>
       <c r="P647" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="648" spans="1:16" x14ac:dyDescent="0.2">
@@ -32086,10 +32093,10 @@
         <v>13</v>
       </c>
       <c r="C650" t="s">
-        <v>4735</v>
+        <v>4731</v>
       </c>
       <c r="D650" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
       <c r="L650" t="s">
         <v>170</v>
@@ -32103,7 +32110,7 @@
     </row>
     <row r="651" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>4599</v>
+        <v>4595</v>
       </c>
       <c r="D651" t="s">
         <v>3971</v>
@@ -32112,7 +32119,7 @@
         <v>3694</v>
       </c>
       <c r="M651" t="s">
-        <v>4600</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="652" spans="1:16" x14ac:dyDescent="0.2">
@@ -32282,7 +32289,7 @@
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>4597</v>
+        <v>4593</v>
       </c>
       <c r="D658" t="s">
         <v>1787</v>
@@ -32294,7 +32301,7 @@
         <v>3694</v>
       </c>
       <c r="M658" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.2">
@@ -32380,7 +32387,7 @@
     </row>
     <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>4601</v>
+        <v>4597</v>
       </c>
       <c r="D662" t="s">
         <v>1733</v>
@@ -32392,7 +32399,7 @@
         <v>3694</v>
       </c>
       <c r="M662" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
       <c r="N662" t="s">
         <v>1734</v>
@@ -32406,7 +32413,7 @@
         <v>2649</v>
       </c>
       <c r="F663" t="s">
-        <v>4603</v>
+        <v>4599</v>
       </c>
       <c r="L663" t="s">
         <v>3694</v>
@@ -32483,13 +32490,13 @@
         <v>13</v>
       </c>
       <c r="D667" t="s">
-        <v>4749</v>
+        <v>4745</v>
       </c>
       <c r="E667" t="s">
-        <v>4748</v>
+        <v>4744</v>
       </c>
       <c r="F667" t="s">
-        <v>4750</v>
+        <v>4746</v>
       </c>
       <c r="I667" t="s">
         <v>278</v>
@@ -32648,7 +32655,7 @@
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>4604</v>
+        <v>4600</v>
       </c>
       <c r="D673" t="s">
         <v>1889</v>
@@ -32794,7 +32801,7 @@
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>4516</v>
+        <v>4512</v>
       </c>
       <c r="C680" t="s">
         <v>1913</v>
@@ -32809,7 +32816,7 @@
         <v>3694</v>
       </c>
       <c r="M680" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.2">
@@ -32926,7 +32933,7 @@
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>4623</v>
+        <v>4619</v>
       </c>
       <c r="D686" t="s">
         <v>668</v>
@@ -32938,7 +32945,7 @@
         <v>3694</v>
       </c>
       <c r="M686" t="s">
-        <v>4624</v>
+        <v>4620</v>
       </c>
       <c r="N686" t="s">
         <v>669</v>
@@ -33070,7 +33077,7 @@
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>4605</v>
+        <v>4601</v>
       </c>
       <c r="C692" t="s">
         <v>378</v>
@@ -33088,7 +33095,7 @@
         <v>3694</v>
       </c>
       <c r="M692" t="s">
-        <v>4606</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="693" spans="1:15" x14ac:dyDescent="0.2">
@@ -33234,7 +33241,7 @@
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="C699" t="s">
         <v>378</v>
@@ -33252,7 +33259,7 @@
         <v>3694</v>
       </c>
       <c r="M699" t="s">
-        <v>4515</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.2">
@@ -33528,16 +33535,16 @@
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>4647</v>
+        <v>4643</v>
       </c>
       <c r="H711" t="s">
         <v>285</v>
       </c>
       <c r="I711" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J711" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L711" t="s">
         <v>3694</v>
@@ -33586,16 +33593,16 @@
         <v>13</v>
       </c>
       <c r="C713" t="s">
-        <v>4648</v>
+        <v>4644</v>
       </c>
       <c r="D713" t="s">
         <v>752</v>
       </c>
       <c r="E713" t="s">
-        <v>4646</v>
+        <v>4642</v>
       </c>
       <c r="F713" t="s">
-        <v>4645</v>
+        <v>4641</v>
       </c>
       <c r="G713" t="s">
         <v>753</v>
@@ -34330,16 +34337,16 @@
     </row>
     <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
       <c r="D742" t="s">
-        <v>4660</v>
+        <v>4656</v>
       </c>
       <c r="L742" t="s">
         <v>3694</v>
       </c>
       <c r="M742" t="s">
-        <v>4662</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.2">
@@ -34416,27 +34423,27 @@
         <v>13</v>
       </c>
       <c r="D746" t="s">
-        <v>4474</v>
+        <v>4470</v>
       </c>
       <c r="E746" t="s">
-        <v>4473</v>
+        <v>4469</v>
       </c>
       <c r="L746" t="s">
         <v>187</v>
       </c>
       <c r="M746" s="13" t="s">
-        <v>4476</v>
+        <v>4472</v>
       </c>
       <c r="N746" s="6" t="s">
-        <v>4478</v>
+        <v>4474</v>
       </c>
       <c r="O746" t="s">
-        <v>4477</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>4475</v>
+        <v>4471</v>
       </c>
       <c r="B747" t="s">
         <v>13</v>
@@ -34717,13 +34724,13 @@
         <v>265</v>
       </c>
       <c r="M757" t="s">
-        <v>4454</v>
+        <v>4450</v>
       </c>
       <c r="N757" s="5" t="s">
-        <v>4455</v>
+        <v>4451</v>
       </c>
       <c r="O757" t="s">
-        <v>4456</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.2">
@@ -34757,7 +34764,7 @@
     </row>
     <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>4633</v>
+        <v>4629</v>
       </c>
       <c r="D759" t="s">
         <v>277</v>
@@ -34766,7 +34773,7 @@
         <v>3694</v>
       </c>
       <c r="M759" t="s">
-        <v>4634</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="760" spans="1:15" x14ac:dyDescent="0.2">
@@ -34946,7 +34953,7 @@
         <v>158</v>
       </c>
       <c r="C768" t="s">
-        <v>4594</v>
+        <v>4590</v>
       </c>
       <c r="D768" t="s">
         <v>4288</v>
@@ -35136,7 +35143,7 @@
     </row>
     <row r="776" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
       <c r="D776" t="s">
         <v>2109</v>
@@ -35154,12 +35161,12 @@
         <v>3694</v>
       </c>
       <c r="M776" t="s">
-        <v>4610</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="777" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>4611</v>
+        <v>4607</v>
       </c>
       <c r="D777" t="s">
         <v>2108</v>
@@ -35177,7 +35184,7 @@
         <v>3694</v>
       </c>
       <c r="M777" t="s">
-        <v>4612</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="778" spans="1:15" x14ac:dyDescent="0.2">
@@ -35404,7 +35411,7 @@
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
       <c r="C787" t="s">
         <v>378</v>
@@ -35422,12 +35429,12 @@
         <v>3694</v>
       </c>
       <c r="M787" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="788" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
       <c r="D788" t="s">
         <v>4298</v>
@@ -35439,7 +35446,7 @@
         <v>3694</v>
       </c>
       <c r="M788" t="s">
-        <v>4618</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.2">
@@ -35493,7 +35500,7 @@
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="C791" t="s">
         <v>611</v>
@@ -35502,7 +35509,7 @@
         <v>3694</v>
       </c>
       <c r="M791" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.2">
@@ -35692,10 +35699,10 @@
         <v>13</v>
       </c>
       <c r="D799" t="s">
-        <v>4659</v>
+        <v>4655</v>
       </c>
       <c r="E799" t="s">
-        <v>4658</v>
+        <v>4654</v>
       </c>
       <c r="F799" t="s">
         <v>728</v>
@@ -35839,7 +35846,7 @@
     </row>
     <row r="805" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>4621</v>
+        <v>4617</v>
       </c>
       <c r="F805" t="s">
         <v>2166</v>
@@ -35848,12 +35855,12 @@
         <v>3694</v>
       </c>
       <c r="M805" t="s">
-        <v>4622</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="806" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>4619</v>
+        <v>4615</v>
       </c>
       <c r="D806" t="s">
         <v>2167</v>
@@ -35868,7 +35875,7 @@
         <v>3694</v>
       </c>
       <c r="M806" t="s">
-        <v>4620</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="807" spans="1:15" x14ac:dyDescent="0.2">
@@ -36604,10 +36611,10 @@
         <v>1383</v>
       </c>
       <c r="I838" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J838" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L838" t="s">
         <v>635</v>
@@ -37099,7 +37106,7 @@
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>4626</v>
+        <v>4622</v>
       </c>
       <c r="D859" t="s">
         <v>336</v>
@@ -37114,7 +37121,7 @@
         <v>3694</v>
       </c>
       <c r="M859" t="s">
-        <v>4625</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="860" spans="1:15" x14ac:dyDescent="0.2">
@@ -37226,7 +37233,7 @@
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>4627</v>
+        <v>4623</v>
       </c>
       <c r="C864" t="s">
         <v>363</v>
@@ -37243,7 +37250,7 @@
     </row>
     <row r="865" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>4632</v>
+        <v>4628</v>
       </c>
       <c r="F865" t="s">
         <v>362</v>
@@ -37252,7 +37259,7 @@
         <v>3694</v>
       </c>
       <c r="M865" t="s">
-        <v>4631</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="866" spans="1:16" x14ac:dyDescent="0.2">
@@ -37318,7 +37325,7 @@
     </row>
     <row r="868" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="D868" t="s">
         <v>626</v>
@@ -37364,7 +37371,7 @@
     </row>
     <row r="870" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>4716</v>
+        <v>4712</v>
       </c>
       <c r="B870" t="s">
         <v>13</v>
@@ -37391,18 +37398,18 @@
         <v>81</v>
       </c>
       <c r="M870" t="s">
-        <v>4716</v>
+        <v>4712</v>
       </c>
       <c r="O870" t="s">
-        <v>4717</v>
+        <v>4713</v>
       </c>
       <c r="P870" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="871" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>4718</v>
+        <v>4714</v>
       </c>
       <c r="B871" t="s">
         <v>18</v>
@@ -37638,7 +37645,7 @@
         <v>1827</v>
       </c>
       <c r="F881" t="s">
-        <v>4665</v>
+        <v>4661</v>
       </c>
       <c r="G881" t="s">
         <v>1828</v>
@@ -37799,7 +37806,7 @@
     </row>
     <row r="888" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="G888" t="s">
         <v>653</v>
@@ -37811,7 +37818,7 @@
         <v>3694</v>
       </c>
       <c r="M888" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="889" spans="1:15" x14ac:dyDescent="0.2">
@@ -37822,7 +37829,7 @@
         <v>13</v>
       </c>
       <c r="D889" t="s">
-        <v>4731</v>
+        <v>4727</v>
       </c>
       <c r="I889" t="s">
         <v>146</v>
@@ -38120,7 +38127,7 @@
     </row>
     <row r="900" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
       <c r="B900" t="s">
         <v>13</v>
@@ -38147,16 +38154,16 @@
         <v>72</v>
       </c>
       <c r="M900" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
       <c r="N900" t="s">
-        <v>4726</v>
+        <v>4722</v>
       </c>
       <c r="O900" t="s">
-        <v>4727</v>
+        <v>4723</v>
       </c>
       <c r="P900" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="901" spans="1:16" x14ac:dyDescent="0.2">
@@ -38181,7 +38188,7 @@
     </row>
     <row r="902" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>4635</v>
+        <v>4631</v>
       </c>
       <c r="D902" t="s">
         <v>1877</v>
@@ -38190,7 +38197,7 @@
         <v>3694</v>
       </c>
       <c r="M902" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="903" spans="1:16" x14ac:dyDescent="0.2">
@@ -38236,7 +38243,7 @@
         <v>701</v>
       </c>
       <c r="E904" t="s">
-        <v>4703</v>
+        <v>4699</v>
       </c>
       <c r="F904" t="s">
         <v>702</v>
@@ -38453,7 +38460,7 @@
     </row>
     <row r="912" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>4751</v>
+        <v>4747</v>
       </c>
       <c r="D912" t="s">
         <v>930</v>
@@ -38468,7 +38475,7 @@
         <v>3694</v>
       </c>
       <c r="M912" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
       <c r="N912" t="s">
         <v>3388</v>
@@ -38476,7 +38483,7 @@
     </row>
     <row r="913" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>4460</v>
+        <v>4456</v>
       </c>
       <c r="B913" t="s">
         <v>13</v>
@@ -38497,13 +38504,13 @@
         <v>265</v>
       </c>
       <c r="M913" t="s">
-        <v>4457</v>
+        <v>4453</v>
       </c>
       <c r="N913" s="5" t="s">
-        <v>4458</v>
+        <v>4454</v>
       </c>
       <c r="O913" t="s">
-        <v>4459</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.2">
@@ -38890,7 +38897,7 @@
         <v>13</v>
       </c>
       <c r="E928" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
       <c r="I928" t="s">
         <v>146</v>
@@ -39123,7 +39130,7 @@
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>4637</v>
+        <v>4633</v>
       </c>
       <c r="E938" t="s">
         <v>2326</v>
@@ -39431,7 +39438,7 @@
     </row>
     <row r="950" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="D950" t="s">
         <v>4317</v>
@@ -39440,12 +39447,12 @@
         <v>3694</v>
       </c>
       <c r="M950" t="s">
-        <v>4507</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="951" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>4508</v>
+        <v>4504</v>
       </c>
       <c r="C951" t="s">
         <v>4321</v>
@@ -39457,7 +39464,7 @@
         <v>3694</v>
       </c>
       <c r="M951" t="s">
-        <v>4509</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="952" spans="1:15" ht="19" x14ac:dyDescent="0.2">
@@ -39604,7 +39611,7 @@
     </row>
     <row r="957" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>4479</v>
+        <v>4475</v>
       </c>
       <c r="B957" t="s">
         <v>13</v>
@@ -39622,13 +39629,13 @@
         <v>265</v>
       </c>
       <c r="M957" t="s">
-        <v>4480</v>
+        <v>4476</v>
       </c>
       <c r="N957" s="5" t="s">
-        <v>4481</v>
+        <v>4477</v>
       </c>
       <c r="O957" t="s">
-        <v>4482</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="958" spans="1:15" x14ac:dyDescent="0.2">
@@ -39657,9 +39664,9 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="959" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:15" ht="19" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>3122</v>
+        <v>4297</v>
       </c>
       <c r="B959" t="s">
         <v>13</v>
@@ -39674,21 +39681,21 @@
         <v>744</v>
       </c>
       <c r="L959" t="s">
-        <v>187</v>
-      </c>
-      <c r="M959" s="13" t="s">
-        <v>4447</v>
-      </c>
-      <c r="N959" s="6" t="s">
-        <v>4448</v>
+        <v>126</v>
+      </c>
+      <c r="M959" s="14" t="s">
+        <v>4749</v>
+      </c>
+      <c r="N959" t="s">
+        <v>4750</v>
       </c>
       <c r="O959" t="s">
-        <v>4449</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="960" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>4450</v>
+        <v>3122</v>
       </c>
       <c r="B960" t="s">
         <v>13</v>
@@ -39838,16 +39845,16 @@
     </row>
     <row r="966" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>4667</v>
+        <v>4663</v>
       </c>
       <c r="H966" t="s">
-        <v>4669</v>
+        <v>4665</v>
       </c>
       <c r="I966" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J966" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L966" t="s">
         <v>3694</v>
@@ -39858,71 +39865,71 @@
     </row>
     <row r="967" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C967" t="s">
         <v>4670</v>
       </c>
-      <c r="C967" t="s">
-        <v>4674</v>
-      </c>
       <c r="H967" t="s">
-        <v>4671</v>
+        <v>4667</v>
       </c>
       <c r="I967" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="J967" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
       <c r="L967" t="s">
-        <v>4672</v>
+        <v>4668</v>
       </c>
       <c r="M967" s="13" t="s">
-        <v>4673</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="968" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>4739</v>
+        <v>4735</v>
       </c>
       <c r="B968" t="s">
         <v>13</v>
       </c>
       <c r="D968" t="s">
-        <v>4738</v>
+        <v>4734</v>
       </c>
       <c r="L968" t="s">
         <v>187</v>
       </c>
       <c r="M968" s="13" t="s">
-        <v>4740</v>
+        <v>4736</v>
       </c>
       <c r="N968" s="6" t="s">
-        <v>4742</v>
+        <v>4738</v>
       </c>
       <c r="O968" t="s">
-        <v>4741</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="969" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
       <c r="B969" t="s">
         <v>13</v>
       </c>
       <c r="D969" t="s">
-        <v>4743</v>
+        <v>4739</v>
       </c>
       <c r="L969" t="s">
         <v>187</v>
       </c>
       <c r="M969" s="13" t="s">
-        <v>4745</v>
+        <v>4741</v>
       </c>
       <c r="N969" s="6" t="s">
-        <v>4747</v>
+        <v>4743</v>
       </c>
       <c r="O969" t="s">
-        <v>4746</v>
+        <v>4742</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D4894-D5FA-974C-B112-875DFF5D5E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B64345-20E9-A742-8914-42BF22C6EF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="500" windowWidth="28900" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="500" windowWidth="28900" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oros_Eng_Dictionary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7384" uniqueCount="4815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7389" uniqueCount="4816">
   <si>
     <t>Type</t>
   </si>
@@ -14718,6 +14718,9 @@
   </si>
   <si>
     <t>mas raox</t>
+  </si>
+  <si>
+    <t>book/article/paper</t>
   </si>
 </sst>
 </file>
@@ -15710,9 +15713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A931" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G949" sqref="G949"/>
+    <sheetView tabSelected="1" topLeftCell="A920" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I960" sqref="I960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16993,6 +16996,12 @@
       <c r="E48" t="s">
         <v>1390</v>
       </c>
+      <c r="I48" t="s">
+        <v>494</v>
+      </c>
+      <c r="J48" t="s">
+        <v>720</v>
+      </c>
       <c r="L48" t="s">
         <v>408</v>
       </c>
@@ -18601,6 +18610,9 @@
       </c>
       <c r="I113" t="s">
         <v>494</v>
+      </c>
+      <c r="J113" t="s">
+        <v>720</v>
       </c>
       <c r="L113" t="s">
         <v>265</v>
@@ -27819,6 +27831,9 @@
       <c r="H487" t="s">
         <v>157</v>
       </c>
+      <c r="I487" t="s">
+        <v>494</v>
+      </c>
       <c r="L487" t="s">
         <v>83</v>
       </c>
@@ -39729,7 +39744,9 @@
         <v>13</v>
       </c>
       <c r="C954" s="9"/>
-      <c r="D954" s="9"/>
+      <c r="D954" s="9" t="s">
+        <v>4815</v>
+      </c>
       <c r="E954" s="9" t="s">
         <v>1908</v>
       </c>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/voidant/Desktop/calculations/Orostara-Dictionary/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727B876-3804-5A4A-90E9-438F3751C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C5716-478C-394F-BF3C-C65DE9DD841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="500" windowWidth="27180" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="500" windowWidth="27180" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oros_Eng_Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="5057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7764" uniqueCount="5059">
   <si>
     <t>Type</t>
   </si>
@@ -15366,15 +15365,6 @@
     <t>xaman</t>
   </si>
   <si>
-    <t>hayika</t>
-  </si>
-  <si>
-    <t>hay ik</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
     <t>amarik</t>
   </si>
   <si>
@@ -15445,6 +15435,21 @@
   </si>
   <si>
     <t>adv/noun/oth</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>ஏரி</t>
+  </si>
+  <si>
+    <t>ēri</t>
+  </si>
+  <si>
+    <t>/eːɾɪ/</t>
+  </si>
+  <si>
+    <t>lake/enclosed body of water</t>
   </si>
 </sst>
 </file>
@@ -16430,9 +16435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1017" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+      <selection pane="topRight" activeCell="F1042" sqref="F1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16533,7 +16538,7 @@
         <v>1951</v>
       </c>
       <c r="I3" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J3" t="s">
         <v>4488</v>
@@ -16633,10 +16638,10 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="J6" t="s">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -17816,7 +17821,7 @@
         <v>1361</v>
       </c>
       <c r="F53" t="s">
-        <v>5044</v>
+        <v>5041</v>
       </c>
       <c r="I53" t="s">
         <v>488</v>
@@ -17857,7 +17862,7 @@
         <v>173</v>
       </c>
       <c r="I54" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J54" t="s">
         <v>4488</v>
@@ -18331,7 +18336,7 @@
         <v>216</v>
       </c>
       <c r="I72" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J72" t="s">
         <v>4488</v>
@@ -19830,10 +19835,10 @@
         <v>257</v>
       </c>
       <c r="H133" t="s">
-        <v>5050</v>
+        <v>5047</v>
       </c>
       <c r="I133" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J133" t="s">
         <v>4488</v>
@@ -20539,7 +20544,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>5033</v>
+        <v>5030</v>
       </c>
       <c r="C159" t="s">
         <v>502</v>
@@ -20554,7 +20559,7 @@
         <v>3557</v>
       </c>
       <c r="M159" t="s">
-        <v>5034</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -20650,7 +20655,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>5041</v>
+        <v>5038</v>
       </c>
       <c r="D165" t="s">
         <v>554</v>
@@ -20662,7 +20667,7 @@
         <v>3557</v>
       </c>
       <c r="M165" t="s">
-        <v>5042</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -20744,7 +20749,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>5039</v>
+        <v>5036</v>
       </c>
       <c r="D170" t="s">
         <v>539</v>
@@ -20756,12 +20761,12 @@
         <v>3557</v>
       </c>
       <c r="M170" t="s">
-        <v>5040</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>5035</v>
+        <v>5032</v>
       </c>
       <c r="D171" t="s">
         <v>523</v>
@@ -20770,7 +20775,7 @@
         <v>3557</v>
       </c>
       <c r="M171" t="s">
-        <v>5036</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -20881,7 +20886,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>5037</v>
+        <v>5034</v>
       </c>
       <c r="D177" t="s">
         <v>537</v>
@@ -20896,7 +20901,7 @@
         <v>3557</v>
       </c>
       <c r="M177" t="s">
-        <v>5038</v>
+        <v>5035</v>
       </c>
       <c r="N177" t="s">
         <v>538</v>
@@ -27033,22 +27038,22 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>5046</v>
+        <v>5043</v>
       </c>
       <c r="B422" t="s">
         <v>157</v>
       </c>
       <c r="C422" t="s">
-        <v>5049</v>
+        <v>5046</v>
       </c>
       <c r="E422" t="s">
-        <v>5047</v>
+        <v>5044</v>
       </c>
       <c r="L422" t="s">
         <v>3557</v>
       </c>
       <c r="M422" t="s">
-        <v>5048</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
@@ -27065,7 +27070,7 @@
         <v>3525</v>
       </c>
       <c r="E423" t="s">
-        <v>5045</v>
+        <v>5042</v>
       </c>
       <c r="F423" t="s">
         <v>1178</v>
@@ -27678,7 +27683,7 @@
         <v>313</v>
       </c>
       <c r="I449" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J449" t="s">
         <v>4488</v>
@@ -28224,10 +28229,10 @@
         <v>1294</v>
       </c>
       <c r="I470" t="s">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="J470" t="s">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="K470">
         <v>6</v>
@@ -28824,7 +28829,7 @@
         <v>1351</v>
       </c>
       <c r="I497" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J497" t="s">
         <v>4488</v>
@@ -29135,7 +29140,7 @@
         <v>1372</v>
       </c>
       <c r="I510" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J510" t="s">
         <v>4488</v>
@@ -29558,7 +29563,7 @@
         <v>2318</v>
       </c>
       <c r="I526" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J526" t="s">
         <v>4488</v>
@@ -29993,10 +29998,10 @@
         <v>1442</v>
       </c>
       <c r="I541" t="s">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="J541" t="s">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="K541">
         <v>10</v>
@@ -31855,7 +31860,7 @@
         <v>322</v>
       </c>
       <c r="I612" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J612" t="s">
         <v>4488</v>
@@ -32875,7 +32880,7 @@
         <v>1669</v>
       </c>
       <c r="I648" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J648" t="s">
         <v>4488</v>
@@ -34385,7 +34390,7 @@
         <v>969</v>
       </c>
       <c r="I708" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J708" t="s">
         <v>4488</v>
@@ -37079,10 +37084,10 @@
         <v>2091</v>
       </c>
       <c r="I816" t="s">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="J816" t="s">
-        <v>5054</v>
+        <v>5051</v>
       </c>
       <c r="K816">
         <v>0</v>
@@ -37371,7 +37376,7 @@
         <v>3594</v>
       </c>
       <c r="I827" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J827" t="s">
         <v>4488</v>
@@ -37524,7 +37529,7 @@
         <v>324</v>
       </c>
       <c r="I833" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J833" t="s">
         <v>4488</v>
@@ -38845,13 +38850,13 @@
         <v>354</v>
       </c>
       <c r="H889" t="s">
-        <v>5043</v>
+        <v>5040</v>
       </c>
       <c r="I889" t="s">
-        <v>5055</v>
+        <v>5052</v>
       </c>
       <c r="J889" t="s">
-        <v>5056</v>
+        <v>5053</v>
       </c>
       <c r="K889">
         <v>5</v>
@@ -39316,7 +39321,7 @@
         <v>1780</v>
       </c>
       <c r="I910" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J910" t="s">
         <v>4488</v>
@@ -39627,7 +39632,7 @@
         <v>1815</v>
       </c>
       <c r="I923" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J923" t="s">
         <v>4488</v>
@@ -39937,7 +39942,7 @@
         <v>686</v>
       </c>
       <c r="I934" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J934" t="s">
         <v>4488</v>
@@ -40559,7 +40564,7 @@
         <v>671</v>
       </c>
       <c r="I957" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J957" t="s">
         <v>4488</v>
@@ -40623,7 +40628,7 @@
         <v>716</v>
       </c>
       <c r="I959" t="s">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="J959" t="s">
         <v>4488</v>
@@ -42458,16 +42463,28 @@
     </row>
     <row r="1039" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>5030</v>
+        <v>5054</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>13</v>
       </c>
       <c r="D1039" t="s">
-        <v>5032</v>
+        <v>5058</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>55</v>
       </c>
       <c r="L1039" t="s">
-        <v>3557</v>
+        <v>71</v>
       </c>
       <c r="M1039" t="s">
-        <v>5031</v>
+        <v>5055</v>
+      </c>
+      <c r="N1039" t="s">
+        <v>5056</v>
+      </c>
+      <c r="O1039" t="s">
+        <v>5057</v>
       </c>
     </row>
   </sheetData>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -14902,7 +14902,7 @@
     <t xml:space="preserve">meaning changed a lot since inception; dialect dependent; here it just means anything sexual down there that’s not your dick/clit</t>
   </si>
   <si>
-    <t xml:space="preserve">vulva/scrotum/labia/taint</t>
+    <t xml:space="preserve">vulva/scrotum/labia/taint/genital</t>
   </si>
   <si>
     <t xml:space="preserve">योनी</t>
@@ -16085,10 +16085,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A965" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B965" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A965" activeCellId="0" sqref="A965"/>
-      <selection pane="topRight" activeCell="C984" activeCellId="0" sqref="C984"/>
+      <selection pane="topRight" activeCell="F976" activeCellId="0" sqref="F976"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7784" uniqueCount="5075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="5075">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -16088,13 +16088,13 @@
   </sheetPr>
   <dimension ref="A1:P1043"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A666" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B666" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A666" activeCellId="0" sqref="A666"/>
-      <selection pane="topRight" activeCell="J694" activeCellId="0" sqref="J694"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A380" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B380" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A380" activeCellId="0" sqref="A380"/>
+      <selection pane="topRight" activeCell="J404" activeCellId="0" sqref="J404"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -26091,6 +26091,9 @@
       </c>
       <c r="F398" s="0" t="s">
         <v>2005</v>
+      </c>
+      <c r="I398" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="K398" s="0" t="n">
         <v>6</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="5077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7792" uniqueCount="5081">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -14051,7 +14051,7 @@
     <t xml:space="preserve">xu</t>
   </si>
   <si>
-    <t xml:space="preserve">the x sound can be extended and the -u ending is optiona in speech; 'shhh' is said the same in English and Orostara and can also be written as 'x~~'; actually pronouncing it 'xu' is more like 'hush' or 'shush'</t>
+    <t xml:space="preserve">the x sound can be extended and the -u ending is optional in speech; 'shhh' is said the same in English and Orostara and can also be written as 'x~~'; actually pronouncing it 'xu' is more like 'hush' or 'shush'</t>
   </si>
   <si>
     <t xml:space="preserve">shh/hush/shush</t>
@@ -15445,13 +15445,25 @@
     <t xml:space="preserve">[həːp̚˧˨ʔ taːk̚˧˦]</t>
   </si>
   <si>
-    <t xml:space="preserve">innovation/creativity</t>
+    <t xml:space="preserve">xuanxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innovation/creativity/originality</t>
   </si>
   <si>
     <t xml:space="preserve">innovate/create</t>
   </si>
   <si>
-    <t xml:space="preserve">creative/innovative</t>
+    <t xml:space="preserve">creative/innovative/original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chuàngxīn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ʈ͡ʂʰu̯ɑŋ⁵¹ ɕin⁵⁵/</t>
   </si>
 </sst>
 </file>
@@ -15461,7 +15473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15599,6 +15611,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -15675,7 +15693,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15782,6 +15800,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -15947,10 +15969,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B88" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
-      <selection pane="topRight" activeCell="C121" activeCellId="0" sqref="C121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A883" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B883" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A883" activeCellId="0" sqref="A883"/>
+      <selection pane="topRight" activeCell="C947" activeCellId="0" sqref="C947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42091,21 +42113,36 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="1045" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>5074</v>
+      </c>
       <c r="B1045" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="E1045" s="0" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="F1045" s="0" t="s">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="I1045" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="L1045" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1045" s="27" t="s">
+        <v>5078</v>
+      </c>
+      <c r="N1045" s="5" t="s">
+        <v>5079</v>
+      </c>
+      <c r="O1045" s="5" t="s">
+        <v>5080</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -42143,6 +42180,7 @@
     <hyperlink ref="N952" r:id="rId29" location="Mandarin" display="zhònglì"/>
     <hyperlink ref="N979" r:id="rId30" display="yuèjīng"/>
     <hyperlink ref="N984" r:id="rId31" location="Mandarin" display="yǒudiǎn "/>
+    <hyperlink ref="N1045" r:id="rId32" display="chuàngxīn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -42152,7 +42190,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7788" uniqueCount="5081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7788" uniqueCount="5082">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -3510,7 +3510,7 @@
     <t xml:space="preserve">kar</t>
   </si>
   <si>
-    <t xml:space="preserve">black/shadow</t>
+    <t xml:space="preserve">black/shadow/(colloquially) unknown</t>
   </si>
   <si>
     <t xml:space="preserve">black/dark</t>
@@ -13818,6 +13818,9 @@
   </si>
   <si>
     <t xml:space="preserve">xir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white/(colloquially) spotlight/panopticon/Big Brother</t>
   </si>
   <si>
     <t xml:space="preserve">white</t>
@@ -15910,13 +15913,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1013" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1013" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1013" activeCellId="0" sqref="A1013"/>
-      <selection pane="topRight" activeCell="I1034" activeCellId="1" sqref="I731:I732 I1034"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A910" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B910" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A910" activeCellId="0" sqref="A910"/>
+      <selection pane="topRight" activeCell="H919" activeCellId="0" sqref="H919"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -39285,7 +39288,7 @@
         <v>4553</v>
       </c>
       <c r="F930" s="0" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="I930" s="0" t="s">
         <v>297</v>
@@ -39297,50 +39300,50 @@
         <v>641</v>
       </c>
       <c r="M930" s="9" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="N930" s="0" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="O930" s="0" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="B931" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D931" s="0" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E931" s="0" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="F931" s="0" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="G931" s="0" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="L931" s="0" t="s">
         <v>741</v>
       </c>
       <c r="M931" s="9" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="N931" s="0" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="O931" s="0" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="B932" s="0" t="s">
         <v>1061</v>
@@ -39349,13 +39352,13 @@
         <v>1097</v>
       </c>
       <c r="D932" s="0" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="E932" s="0" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="I932" s="0" t="s">
         <v>26</v>
@@ -39367,56 +39370,56 @@
         <v>1641</v>
       </c>
       <c r="M932" s="0" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="N932" s="0" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="O932" s="0" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="B933" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D933" s="0" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="E933" s="0" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="F933" s="0" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="L933" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M933" s="9" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="N933" s="0" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="O933" s="0" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="B934" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D934" s="0" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="F934" s="0" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="I934" s="0" t="s">
         <v>342</v>
@@ -39428,27 +39431,27 @@
         <v>40</v>
       </c>
       <c r="M934" s="9" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="N934" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="O934" s="0" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="B935" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C935" s="0" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="D935" s="0" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="I935" s="0" t="s">
         <v>76</v>
@@ -39460,41 +39463,41 @@
         <v>0</v>
       </c>
       <c r="M935" s="0" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="B936" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D936" s="0" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="E936" s="0" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="L936" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="M936" s="0" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="N936" s="0" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="O936" s="0" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="D937" s="0" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="I937" s="0" t="s">
         <v>226</v>
@@ -39506,50 +39509,50 @@
         <v>0</v>
       </c>
       <c r="M937" s="0" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="B938" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D938" s="0" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="E938" s="0" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="F938" s="0" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="L938" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M938" s="9" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="N938" s="11" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="O938" s="0" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="B939" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D939" s="0" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="E939" s="0" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="I939" s="0" t="s">
         <v>226</v>
@@ -39561,30 +39564,30 @@
         <v>40</v>
       </c>
       <c r="M939" s="9" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="N939" s="11" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="O939" s="0" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="B940" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D940" s="0" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="E940" s="0" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="F940" s="0" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="I940" s="0" t="s">
         <v>145</v>
@@ -39593,30 +39596,30 @@
         <v>40</v>
       </c>
       <c r="M940" s="9" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="N940" s="11" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="O940" s="0" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="B941" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D941" s="0" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="E941" s="0" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="F941" s="0" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="I941" s="0" t="s">
         <v>226</v>
@@ -39625,41 +39628,41 @@
         <v>1191</v>
       </c>
       <c r="M941" s="0" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="N941" s="0" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="O941" s="0" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="D942" s="0" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="L942" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M942" s="0" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="N942" s="0" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="C943" s="0" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="H943" s="0" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="I943" s="0" t="s">
         <v>18</v>
@@ -39668,21 +39671,21 @@
         <v>19</v>
       </c>
       <c r="L943" s="0" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="M943" s="10" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="B944" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="I944" s="0" t="s">
         <v>342</v>
@@ -39691,18 +39694,18 @@
         <v>40</v>
       </c>
       <c r="M944" s="9" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="N944" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="O944" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="B945" s="0" t="s">
         <v>23</v>
@@ -39714,24 +39717,24 @@
         <v>40</v>
       </c>
       <c r="M945" s="9" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="N945" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="O945" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="B946" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="I946" s="0" t="s">
         <v>226</v>
@@ -39743,21 +39746,21 @@
         <v>52</v>
       </c>
       <c r="M946" s="0" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="N946" s="0" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="O946" s="0" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="D947" s="0" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="I947" s="0" t="s">
         <v>226</v>
@@ -39769,18 +39772,18 @@
         <v>0</v>
       </c>
       <c r="M947" s="0" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="N947" s="0" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="D948" s="0" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="I948" s="0" t="s">
         <v>226</v>
@@ -39792,24 +39795,24 @@
         <v>0</v>
       </c>
       <c r="M948" s="0" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="N948" s="0" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="B949" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D949" s="0" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="E949" s="0" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="I949" s="0" t="s">
         <v>226</v>
@@ -39821,93 +39824,93 @@
         <v>1224</v>
       </c>
       <c r="M949" s="0" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="N949" s="0" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="O949" s="0" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="B950" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F950" s="0" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="L950" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M950" s="9" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="N950" s="0" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="O950" s="0" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="B951" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D951" s="0" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="E951" s="0" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="F951" s="0" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="L951" s="0" t="s">
         <v>52</v>
       </c>
       <c r="M951" s="0" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="N951" s="0" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="O951" s="0" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="B952" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D952" s="0" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="L952" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M952" s="9" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="N952" s="11" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="O952" s="0" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="B953" s="0" t="s">
         <v>58</v>
@@ -39916,7 +39919,7 @@
         <v>59</v>
       </c>
       <c r="D953" s="0" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="I953" s="0" t="s">
         <v>61</v>
@@ -39925,24 +39928,24 @@
         <v>40</v>
       </c>
       <c r="M953" s="9" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="N953" s="0" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="O953" s="0" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="B954" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D954" s="0" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="E954" s="0" t="s">
         <v>359</v>
@@ -39951,33 +39954,33 @@
         <v>40</v>
       </c>
       <c r="M954" s="9" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="N954" s="0" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="O954" s="0" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="B955" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D955" s="0" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="F955" s="0" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="G955" s="0" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="H955" s="0" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="I955" s="0" t="s">
         <v>26</v>
@@ -39989,24 +39992,24 @@
         <v>40</v>
       </c>
       <c r="M955" s="9" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="N955" s="0" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="O955" s="0" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="B956" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E956" s="0" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="I956" s="0" t="s">
         <v>342</v>
@@ -40021,27 +40024,27 @@
         <v>40</v>
       </c>
       <c r="M956" s="9" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="N956" s="0" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="O956" s="0" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="B957" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D957" s="0" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="H957" s="0" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="I957" s="0" t="s">
         <v>26</v>
@@ -40053,18 +40056,18 @@
         <v>40</v>
       </c>
       <c r="M957" s="9" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="N957" s="0" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="O957" s="0" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="B958" s="0" t="s">
         <v>593</v>
@@ -40073,73 +40076,73 @@
         <v>4323</v>
       </c>
       <c r="D958" s="0" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="F958" s="0" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="L958" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M958" s="0" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="B959" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C959" s="0" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="D959" s="0" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
       <c r="F959" s="0" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
       <c r="L959" s="0" t="s">
         <v>52</v>
       </c>
       <c r="M959" s="0" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
       <c r="N959" s="0" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="O959" s="0" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="C960" s="0" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="G960" s="0" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
       <c r="L960" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M960" s="0" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="B961" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C961" s="0" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="D961" s="0" t="s">
         <v>3917</v>
@@ -40154,35 +40157,35 @@
         <v>0</v>
       </c>
       <c r="M961" s="0" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="N961" s="0" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
       <c r="E962" s="0" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="G962" s="0" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="H962" s="0" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="L962" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M962" s="0" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="B963" s="0" t="s">
         <v>58</v>
@@ -40191,7 +40194,7 @@
         <v>59</v>
       </c>
       <c r="D963" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
       <c r="I963" s="0" t="s">
         <v>61</v>
@@ -40200,46 +40203,46 @@
         <v>27</v>
       </c>
       <c r="M963" s="0" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="N963" s="0" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
       <c r="C964" s="0" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="L964" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M964" s="0" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="L965" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M965" s="0" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="B966" s="0" t="s">
         <v>593</v>
@@ -40248,21 +40251,21 @@
         <v>3569</v>
       </c>
       <c r="D966" s="0" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="F966" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="L966" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M966" s="0" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
       <c r="B967" s="0" t="s">
         <v>58</v>
@@ -40271,7 +40274,7 @@
         <v>149</v>
       </c>
       <c r="D967" s="0" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="I967" s="0" t="s">
         <v>151</v>
@@ -40280,27 +40283,27 @@
         <v>40</v>
       </c>
       <c r="M967" s="9" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="N967" s="0" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="O967" s="0" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="B968" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C968" s="0" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
       <c r="I968" s="0" t="s">
         <v>76</v>
@@ -40312,41 +40315,41 @@
         <v>0</v>
       </c>
       <c r="M968" s="0" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
       <c r="B969" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="L969" s="0" t="s">
         <v>508</v>
       </c>
       <c r="M969" s="9" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="N969" s="12" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="O969" s="0" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="B970" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D970" s="0" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
       <c r="F970" s="0" t="s">
         <v>2794</v>
@@ -40358,27 +40361,27 @@
         <v>40</v>
       </c>
       <c r="M970" s="9" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
       <c r="N970" s="0" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="O970" s="0" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="B971" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C971" s="0" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
       <c r="D971" s="0" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="I971" s="0" t="s">
         <v>76</v>
@@ -40390,44 +40393,44 @@
         <v>0</v>
       </c>
       <c r="M971" s="0" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="B972" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D972" s="0" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="E972" s="0" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="L972" s="0" t="s">
         <v>103</v>
       </c>
       <c r="M972" s="0" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
       <c r="O972" s="0" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
       <c r="B973" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D973" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="F973" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="I973" s="0" t="s">
         <v>297</v>
@@ -40439,25 +40442,25 @@
         <v>107</v>
       </c>
       <c r="M973" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="O973" s="0" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="B974" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C974" s="3"/>
       <c r="D974" s="3" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
       <c r="E974" s="3" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="F974" s="3"/>
       <c r="G974" s="3"/>
@@ -40469,47 +40472,47 @@
         <v>40</v>
       </c>
       <c r="M974" s="4" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="N974" s="3" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="O974" s="3" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="B975" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E975" s="0" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="L975" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M975" s="9" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
       <c r="N975" s="0" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="O975" s="0" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="B976" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D976" s="0" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="I976" s="0" t="s">
         <v>226</v>
@@ -40521,87 +40524,87 @@
         <v>254</v>
       </c>
       <c r="M976" s="0" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="O976" s="0" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="D977" s="0" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="L977" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M977" s="0" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="D978" s="0" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
       <c r="L978" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M978" s="0" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
       <c r="B979" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D979" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="E979" s="0" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="L979" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M979" s="21" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="N979" s="5" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="O979" s="5" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="B980" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D980" s="0" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="E980" s="0" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
       <c r="F980" s="0" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
       <c r="G980" s="0" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
       <c r="I980" s="0" t="s">
         <v>145</v>
@@ -40610,27 +40613,27 @@
         <v>40</v>
       </c>
       <c r="M980" s="9" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="N980" s="0" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
       <c r="O980" s="0" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="B981" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C981" s="0" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
       <c r="D981" s="0" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
       <c r="I981" s="0" t="s">
         <v>226</v>
@@ -40642,21 +40645,21 @@
         <v>52</v>
       </c>
       <c r="M981" s="0" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
       <c r="N981" s="0" t="s">
-        <v>4816</v>
+        <v>4817</v>
       </c>
       <c r="O981" s="0" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="D982" s="0" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="I982" s="0" t="s">
         <v>226</v>
@@ -40668,24 +40671,24 @@
         <v>0</v>
       </c>
       <c r="M982" s="0" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="N982" s="0" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="B983" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D983" s="0" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="E983" s="0" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="I983" s="0" t="s">
         <v>226</v>
@@ -40697,82 +40700,82 @@
         <v>103</v>
       </c>
       <c r="M983" s="0" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
       <c r="O983" s="0" t="s">
-        <v>4826</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="B984" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C984" s="0" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
       <c r="D984" s="0" t="s">
-        <v>4829</v>
+        <v>4830</v>
       </c>
       <c r="F984" s="0" t="s">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="L984" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M984" s="9" t="s">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="N984" s="11" t="s">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="O984" s="0" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="B985" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D985" s="0" t="s">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="F985" s="0" t="s">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="L985" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M985" s="9" t="s">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="N985" s="0" t="s">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="O985" s="0" t="s">
-        <v>4839</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D986" s="0" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
       <c r="E986" s="0" t="s">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="F986" s="0" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="I986" s="0" t="s">
         <v>226</v>
@@ -40781,21 +40784,21 @@
         <v>732</v>
       </c>
       <c r="M986" s="0" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="O986" s="0" t="s">
-        <v>4845</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="B987" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D987" s="0" t="s">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="I987" s="0" t="s">
         <v>145</v>
@@ -40804,21 +40807,21 @@
         <v>107</v>
       </c>
       <c r="M987" s="0" t="s">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="O987" s="0" t="s">
-        <v>4849</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="B988" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D988" s="0" t="s">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="I988" s="0" t="s">
         <v>76</v>
@@ -40830,18 +40833,18 @@
         <v>254</v>
       </c>
       <c r="M988" s="0" t="s">
-        <v>4852</v>
+        <v>4853</v>
       </c>
       <c r="O988" s="0" t="s">
-        <v>4853</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="D989" s="0" t="s">
-        <v>4855</v>
+        <v>4856</v>
       </c>
       <c r="I989" s="0" t="s">
         <v>76</v>
@@ -40853,18 +40856,18 @@
         <v>0</v>
       </c>
       <c r="M989" s="0" t="s">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="N989" s="0" t="s">
-        <v>4857</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="D990" s="0" t="s">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="I990" s="0" t="s">
         <v>76</v>
@@ -40876,95 +40879,95 @@
         <v>0</v>
       </c>
       <c r="M990" s="0" t="s">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="N990" s="0" t="s">
-        <v>4861</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="B991" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D991" s="0" t="s">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="E991" s="0" t="s">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="F991" s="0" t="s">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="L991" s="0" t="s">
         <v>107</v>
       </c>
       <c r="M991" s="0" t="s">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="O991" s="0" t="s">
-        <v>4867</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="D992" s="0" t="s">
-        <v>4869</v>
+        <v>4870</v>
       </c>
       <c r="L992" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M992" s="0" t="s">
-        <v>4870</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
       <c r="D993" s="0" t="s">
-        <v>4872</v>
+        <v>4873</v>
       </c>
       <c r="L993" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M993" s="0" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
       <c r="C994" s="0" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="D994" s="0" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
       <c r="L994" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M994" s="0" t="s">
-        <v>4877</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
       <c r="B995" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="D995" s="0" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
       <c r="I995" s="0" t="s">
         <v>3564</v>
@@ -40976,38 +40979,38 @@
         <v>0</v>
       </c>
       <c r="M995" s="0" t="s">
-        <v>4880</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="C996" s="0" t="s">
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="D996" s="0" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="L996" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M996" s="0" t="s">
-        <v>4884</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
       <c r="B997" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C997" s="0" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="D997" s="0" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="I997" s="0" t="s">
         <v>3564</v>
@@ -41019,38 +41022,38 @@
         <v>0</v>
       </c>
       <c r="M997" s="0" t="s">
-        <v>4887</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>4888</v>
+        <v>4889</v>
       </c>
       <c r="C998" s="0" t="s">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="D998" s="0" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="L998" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M998" s="0" t="s">
-        <v>4891</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="B999" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C999" s="0" t="s">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="D999" s="0" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="I999" s="0" t="s">
         <v>3564</v>
@@ -41062,38 +41065,38 @@
         <v>0</v>
       </c>
       <c r="M999" s="0" t="s">
-        <v>4894</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="C1000" s="0" t="s">
-        <v>4896</v>
+        <v>4897</v>
       </c>
       <c r="D1000" s="0" t="s">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="L1000" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1000" s="0" t="s">
-        <v>4898</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>4899</v>
+        <v>4900</v>
       </c>
       <c r="B1001" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1001" s="0" t="s">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="D1001" s="0" t="s">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="I1001" s="0" t="s">
         <v>3564</v>
@@ -41105,38 +41108,38 @@
         <v>0</v>
       </c>
       <c r="M1001" s="0" t="s">
-        <v>4901</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="C1002" s="0" t="s">
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="D1002" s="0" t="s">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="L1002" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1002" s="0" t="s">
-        <v>4905</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="B1003" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1003" s="0" t="s">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="D1003" s="0" t="s">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="I1003" s="0" t="s">
         <v>3564</v>
@@ -41148,38 +41151,38 @@
         <v>0</v>
       </c>
       <c r="M1003" s="0" t="s">
-        <v>4908</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="C1004" s="0" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="D1004" s="0" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="L1004" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1004" s="0" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="B1005" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1005" s="0" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="D1005" s="0" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="I1005" s="0" t="s">
         <v>3564</v>
@@ -41191,38 +41194,38 @@
         <v>0</v>
       </c>
       <c r="M1005" s="0" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
       <c r="C1006" s="0" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
       <c r="D1006" s="0" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="L1006" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1006" s="0" t="s">
-        <v>4919</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
       <c r="B1007" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1007" s="0" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="D1007" s="0" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="I1007" s="0" t="s">
         <v>3564</v>
@@ -41234,41 +41237,41 @@
         <v>0</v>
       </c>
       <c r="M1007" s="0" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
       <c r="D1008" s="0" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="L1008" s="0" t="s">
         <v>52</v>
       </c>
       <c r="M1008" s="0" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
       <c r="N1008" s="0" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="O1008" s="0" t="s">
-        <v>4927</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>4928</v>
+        <v>4929</v>
       </c>
       <c r="B1009" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1009" s="0" t="s">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="D1009" s="0" t="s">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="I1009" s="0" t="s">
         <v>1999</v>
@@ -41280,21 +41283,21 @@
         <v>0</v>
       </c>
       <c r="M1009" s="0" t="s">
-        <v>4931</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="B1010" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="I1010" s="0" t="s">
         <v>1999</v>
@@ -41306,21 +41309,21 @@
         <v>0</v>
       </c>
       <c r="M1010" s="0" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="B1011" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="D1011" s="0" t="s">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="I1011" s="0" t="s">
         <v>1999</v>
@@ -41332,21 +41335,21 @@
         <v>0</v>
       </c>
       <c r="M1011" s="0" t="s">
-        <v>4939</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="B1012" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="D1012" s="0" t="s">
-        <v>4942</v>
+        <v>4943</v>
       </c>
       <c r="I1012" s="6" t="s">
         <v>1999</v>
@@ -41358,21 +41361,21 @@
         <v>0</v>
       </c>
       <c r="M1012" s="0" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>4944</v>
+        <v>4945</v>
       </c>
       <c r="B1013" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1013" s="0" t="s">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="D1013" s="0" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="I1013" s="0" t="s">
         <v>1999</v>
@@ -41384,21 +41387,21 @@
         <v>0</v>
       </c>
       <c r="M1013" s="0" t="s">
-        <v>4947</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="B1014" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1014" s="0" t="s">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="D1014" s="0" t="s">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="I1014" s="6" t="s">
         <v>1999</v>
@@ -41410,21 +41413,21 @@
         <v>0</v>
       </c>
       <c r="M1014" s="0" t="s">
-        <v>4951</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>4952</v>
+        <v>4953</v>
       </c>
       <c r="B1015" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1015" s="0" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="D1015" s="0" t="s">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="I1015" s="0" t="s">
         <v>1999</v>
@@ -41436,21 +41439,21 @@
         <v>0</v>
       </c>
       <c r="M1015" s="0" t="s">
-        <v>4955</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="B1016" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1016" s="0" t="s">
-        <v>4957</v>
+        <v>4958</v>
       </c>
       <c r="D1016" s="0" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="I1016" s="6" t="s">
         <v>1999</v>
@@ -41462,21 +41465,21 @@
         <v>0</v>
       </c>
       <c r="M1016" s="0" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="B1017" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1017" s="0" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="D1017" s="0" t="s">
-        <v>4962</v>
+        <v>4963</v>
       </c>
       <c r="I1017" s="0" t="s">
         <v>1999</v>
@@ -41488,21 +41491,21 @@
         <v>0</v>
       </c>
       <c r="M1017" s="0" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
       <c r="B1018" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1018" s="0" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
       <c r="D1018" s="0" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
       <c r="I1018" s="6" t="s">
         <v>1999</v>
@@ -41514,21 +41517,21 @@
         <v>0</v>
       </c>
       <c r="M1018" s="0" t="s">
-        <v>4967</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="B1019" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
       <c r="D1019" s="0" t="s">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="I1019" s="6" t="s">
         <v>1999</v>
@@ -41540,21 +41543,21 @@
         <v>0</v>
       </c>
       <c r="M1019" s="0" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
       <c r="B1020" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="D1020" s="0" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="I1020" s="6" t="s">
         <v>1999</v>
@@ -41566,21 +41569,21 @@
         <v>0</v>
       </c>
       <c r="M1020" s="0" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="B1021" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="D1021" s="0" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="I1021" s="6" t="s">
         <v>1999</v>
@@ -41592,228 +41595,228 @@
         <v>0</v>
       </c>
       <c r="M1021" s="0" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="C1022" s="0" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="D1022" s="0" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="L1022" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1022" s="0" t="s">
-        <v>4983</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="C1023" s="0" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
       <c r="D1023" s="0" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="L1023" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1023" s="0" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="D1024" s="0" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
       <c r="L1024" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1024" s="0" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>4992</v>
+        <v>4993</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="D1025" s="0" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
       <c r="L1025" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1025" s="0" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
       <c r="D1026" s="0" t="s">
-        <v>4998</v>
+        <v>4999</v>
       </c>
       <c r="L1026" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1026" s="0" t="s">
-        <v>4999</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>5000</v>
+        <v>5001</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="L1027" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1027" s="0" t="s">
-        <v>5003</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="D1028" s="0" t="s">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="L1028" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1028" s="0" t="s">
-        <v>5007</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>5008</v>
+        <v>5009</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>5009</v>
+        <v>5010</v>
       </c>
       <c r="D1029" s="0" t="s">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="L1029" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1029" s="0" t="s">
-        <v>5011</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>5012</v>
+        <v>5013</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="D1030" s="0" t="s">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="L1030" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1030" s="0" t="s">
-        <v>5015</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>5017</v>
+        <v>5018</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="L1031" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1031" s="0" t="s">
-        <v>5019</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="L1032" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1032" s="0" t="s">
-        <v>5023</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>5024</v>
+        <v>5025</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>5025</v>
+        <v>5026</v>
       </c>
       <c r="D1033" s="0" t="s">
-        <v>5026</v>
+        <v>5027</v>
       </c>
       <c r="L1033" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1033" s="0" t="s">
-        <v>5027</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>5028</v>
+        <v>5029</v>
       </c>
       <c r="B1034" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>5029</v>
+        <v>5030</v>
       </c>
       <c r="E1034" s="0" t="s">
-        <v>5030</v>
+        <v>5031</v>
       </c>
       <c r="F1034" s="0" t="s">
-        <v>5031</v>
+        <v>5032</v>
       </c>
       <c r="I1034" s="0" t="s">
         <v>1036</v>
@@ -41822,10 +41825,10 @@
         <v>254</v>
       </c>
       <c r="M1034" s="0" t="s">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="O1034" s="0" t="s">
-        <v>5033</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41836,33 +41839,33 @@
         <v>593</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="F1035" s="0" t="s">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="L1035" s="0" t="s">
         <v>107</v>
       </c>
       <c r="M1035" s="0" t="s">
-        <v>5036</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="B1036" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1036" s="0" t="s">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="F1036" s="0" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="I1036" s="0" t="s">
         <v>1036</v>
@@ -41871,21 +41874,21 @@
         <v>103</v>
       </c>
       <c r="M1036" s="8" t="s">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="O1036" s="5" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="B1037" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1037" s="0" t="s">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="I1037" s="0" t="s">
         <v>69</v>
@@ -41894,21 +41897,21 @@
         <v>92</v>
       </c>
       <c r="M1037" s="0" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
       <c r="N1037" s="0" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="O1037" s="0" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="C1038" s="0" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="H1038" s="0" t="s">
         <v>1009</v>
@@ -41917,15 +41920,15 @@
         <v>0</v>
       </c>
       <c r="M1038" s="0" t="s">
-        <v>5049</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>5050</v>
+        <v>5051</v>
       </c>
       <c r="C1039" s="0" t="s">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="H1039" s="0" t="s">
         <v>1391</v>
@@ -41934,49 +41937,49 @@
         <v>0</v>
       </c>
       <c r="M1039" s="0" t="s">
-        <v>5052</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>5053</v>
+        <v>5054</v>
       </c>
       <c r="C1040" s="0" t="s">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="D1040" s="0" t="s">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="L1040" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1040" s="0" t="s">
-        <v>5056</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="C1041" s="0" t="s">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="D1041" s="0" t="s">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="L1041" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1041" s="0" t="s">
-        <v>5060</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>5061</v>
+        <v>5062</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>5062</v>
+        <v>5063</v>
       </c>
       <c r="E1042" s="0" t="s">
         <v>3484</v>
@@ -41985,12 +41988,12 @@
         <v>0</v>
       </c>
       <c r="M1042" s="0" t="s">
-        <v>5063</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>5064</v>
+        <v>5065</v>
       </c>
       <c r="B1043" s="0" t="s">
         <v>23</v>
@@ -41999,34 +42002,34 @@
         <v>2267</v>
       </c>
       <c r="E1043" s="0" t="s">
-        <v>5065</v>
+        <v>5066</v>
       </c>
       <c r="L1043" s="0" t="s">
         <v>107</v>
       </c>
       <c r="M1043" s="0" t="s">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="N1043" s="5"/>
       <c r="O1043" s="5" t="s">
-        <v>5067</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>5068</v>
+        <v>5069</v>
       </c>
       <c r="B1044" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>5069</v>
+        <v>5070</v>
       </c>
       <c r="E1044" s="0" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="F1044" s="0" t="s">
-        <v>5071</v>
+        <v>5072</v>
       </c>
       <c r="I1044" s="0" t="s">
         <v>1036</v>
@@ -42035,27 +42038,27 @@
         <v>720</v>
       </c>
       <c r="M1044" s="0" t="s">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="O1044" s="5" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="B1045" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="E1045" s="0" t="s">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="F1045" s="0" t="s">
-        <v>5077</v>
+        <v>5078</v>
       </c>
       <c r="I1045" s="0" t="s">
         <v>1036</v>
@@ -42064,13 +42067,13 @@
         <v>40</v>
       </c>
       <c r="M1045" s="9" t="s">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="N1045" s="5" t="s">
-        <v>5079</v>
+        <v>5080</v>
       </c>
       <c r="O1045" s="5" t="s">
-        <v>5080</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7792" uniqueCount="5085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="5080">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -14214,21 +14214,6 @@
   </si>
   <si>
     <t xml:space="preserve">/t͡ʃʊn.nɑː/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xunar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhònglì</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ʈ͡ʂʊŋ⁵¹⁻⁵³ li⁵¹/</t>
   </si>
   <si>
     <t xml:space="preserve">Xunkuamur</t>
@@ -15892,8 +15877,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1044" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P1044"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1043" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:P1043"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Orostara"/>
     <tableColumn id="2" name="Type"/>
@@ -15922,13 +15907,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B33" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="topRight" activeCell="J67" activeCellId="0" sqref="J67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A932" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B932" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A932" activeCellId="0" sqref="A932"/>
+      <selection pane="topRight" activeCell="B953" activeCellId="0" sqref="B953"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.62109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.62890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -39913,18 +39898,24 @@
         <v>4678</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="C953" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="D953" s="0" t="s">
         <v>4679</v>
       </c>
+      <c r="I953" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="L953" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M953" s="9" t="s">
         <v>4680</v>
       </c>
-      <c r="N953" s="11" t="s">
+      <c r="N953" s="0" t="s">
         <v>4681</v>
       </c>
       <c r="O953" s="0" t="s">
@@ -39936,16 +39927,13 @@
         <v>4683</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C954" s="0" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D954" s="0" t="s">
         <v>4684</v>
       </c>
-      <c r="I954" s="0" t="s">
-        <v>61</v>
+      <c r="E954" s="0" t="s">
+        <v>359</v>
       </c>
       <c r="L954" s="0" t="s">
         <v>40</v>
@@ -39970,46 +39958,52 @@
       <c r="D955" s="0" t="s">
         <v>4689</v>
       </c>
-      <c r="E955" s="0" t="s">
-        <v>359</v>
+      <c r="F955" s="0" t="s">
+        <v>4690</v>
+      </c>
+      <c r="G955" s="0" t="s">
+        <v>4691</v>
+      </c>
+      <c r="H955" s="0" t="s">
+        <v>4692</v>
+      </c>
+      <c r="I955" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J955" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="L955" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M955" s="9" t="s">
-        <v>4690</v>
+        <v>4693</v>
       </c>
       <c r="N955" s="0" t="s">
-        <v>4691</v>
+        <v>4694</v>
       </c>
       <c r="O955" s="0" t="s">
-        <v>4692</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>4693</v>
+        <v>4696</v>
       </c>
       <c r="B956" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D956" s="0" t="s">
-        <v>4694</v>
-      </c>
-      <c r="F956" s="0" t="s">
-        <v>4695</v>
-      </c>
-      <c r="G956" s="0" t="s">
-        <v>4696</v>
-      </c>
-      <c r="H956" s="0" t="s">
+      <c r="E956" s="0" t="s">
         <v>4697</v>
       </c>
       <c r="I956" s="0" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="J956" s="0" t="s">
-        <v>19</v>
+        <v>307</v>
+      </c>
+      <c r="K956" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L956" s="0" t="s">
         <v>40</v>
@@ -40031,72 +40025,63 @@
       <c r="B957" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E957" s="0" t="s">
+      <c r="D957" s="0" t="s">
         <v>4702</v>
       </c>
+      <c r="H957" s="0" t="s">
+        <v>4703</v>
+      </c>
       <c r="I957" s="0" t="s">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="J957" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="K957" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L957" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M957" s="9" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="N957" s="0" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="O957" s="0" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>23</v>
+        <v>596</v>
+      </c>
+      <c r="C958" s="0" t="s">
+        <v>4326</v>
       </c>
       <c r="D958" s="0" t="s">
-        <v>4707</v>
-      </c>
-      <c r="H958" s="0" t="s">
         <v>4708</v>
       </c>
-      <c r="I958" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J958" s="0" t="s">
-        <v>19</v>
+      <c r="F958" s="0" t="s">
+        <v>4709</v>
       </c>
       <c r="L958" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M958" s="9" t="s">
-        <v>4709</v>
-      </c>
-      <c r="N958" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M958" s="0" t="s">
         <v>4710</v>
-      </c>
-      <c r="O958" s="0" t="s">
-        <v>4711</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C959" s="0" t="s">
         <v>4712</v>
-      </c>
-      <c r="B959" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="C959" s="0" t="s">
-        <v>4326</v>
       </c>
       <c r="D959" s="0" t="s">
         <v>4713</v>
@@ -40105,76 +40090,76 @@
         <v>4714</v>
       </c>
       <c r="L959" s="0" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M959" s="0" t="s">
         <v>4715</v>
       </c>
+      <c r="N959" s="0" t="s">
+        <v>4711</v>
+      </c>
+      <c r="O959" s="0" t="s">
+        <v>4716</v>
+      </c>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>4716</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>23</v>
+        <v>4717</v>
       </c>
       <c r="C960" s="0" t="s">
-        <v>4717</v>
-      </c>
-      <c r="D960" s="0" t="s">
         <v>4718</v>
       </c>
-      <c r="F960" s="0" t="s">
+      <c r="G960" s="0" t="s">
         <v>4719</v>
       </c>
       <c r="L960" s="0" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M960" s="0" t="s">
         <v>4720</v>
       </c>
-      <c r="N960" s="0" t="s">
-        <v>4716</v>
-      </c>
-      <c r="O960" s="0" t="s">
-        <v>4721</v>
-      </c>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C961" s="0" t="s">
         <v>4722</v>
       </c>
-      <c r="C961" s="0" t="s">
+      <c r="D961" s="0" t="s">
+        <v>3920</v>
+      </c>
+      <c r="I961" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K961" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L961" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M961" s="0" t="s">
         <v>4723</v>
       </c>
-      <c r="G961" s="0" t="s">
+      <c r="N961" s="0" t="s">
         <v>4724</v>
-      </c>
-      <c r="L961" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M961" s="0" t="s">
-        <v>4725</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
+        <v>4725</v>
+      </c>
+      <c r="E962" s="0" t="s">
         <v>4726</v>
       </c>
-      <c r="B962" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C962" s="0" t="s">
+      <c r="G962" s="0" t="s">
         <v>4727</v>
       </c>
-      <c r="D962" s="0" t="s">
-        <v>3920</v>
-      </c>
-      <c r="I962" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K962" s="0" t="n">
-        <v>11</v>
+      <c r="H962" s="0" t="s">
+        <v>4727</v>
       </c>
       <c r="L962" s="0" t="s">
         <v>0</v>
@@ -40182,107 +40167,113 @@
       <c r="M962" s="0" t="s">
         <v>4728</v>
       </c>
-      <c r="N962" s="0" t="s">
-        <v>4729</v>
-      </c>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C963" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D963" s="0" t="s">
         <v>4730</v>
       </c>
-      <c r="E963" s="0" t="s">
+      <c r="I963" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L963" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M963" s="0" t="s">
         <v>4731</v>
       </c>
-      <c r="G963" s="0" t="s">
+      <c r="N963" s="0" t="s">
         <v>4732</v>
-      </c>
-      <c r="H963" s="0" t="s">
-        <v>4732</v>
-      </c>
-      <c r="L963" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M963" s="0" t="s">
-        <v>4733</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C964" s="0" t="s">
         <v>4734</v>
-      </c>
-      <c r="B964" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C964" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="D964" s="0" t="s">
         <v>4735</v>
       </c>
-      <c r="I964" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="L964" s="0" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M964" s="0" t="s">
         <v>4736</v>
       </c>
-      <c r="N964" s="0" t="s">
-        <v>4737</v>
-      </c>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D965" s="0" t="s">
         <v>4738</v>
       </c>
-      <c r="C965" s="0" t="s">
+      <c r="L965" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M965" s="0" t="s">
         <v>4739</v>
-      </c>
-      <c r="D965" s="0" t="s">
-        <v>4740</v>
-      </c>
-      <c r="L965" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M965" s="0" t="s">
-        <v>4741</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C966" s="0" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D966" s="0" t="s">
+        <v>4741</v>
+      </c>
+      <c r="F966" s="0" t="s">
         <v>4742</v>
       </c>
-      <c r="D966" s="0" t="s">
+      <c r="L966" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M966" s="0" t="s">
         <v>4743</v>
-      </c>
-      <c r="L966" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M966" s="0" t="s">
-        <v>4744</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C967" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D967" s="0" t="s">
         <v>4745</v>
       </c>
-      <c r="B967" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="C967" s="0" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D967" s="0" t="s">
+      <c r="I967" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="L967" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M967" s="9" t="s">
         <v>4746</v>
       </c>
-      <c r="F967" s="0" t="s">
+      <c r="N967" s="0" t="s">
         <v>4747</v>
       </c>
-      <c r="L967" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M967" s="0" t="s">
+      <c r="O967" s="0" t="s">
         <v>4748</v>
       </c>
     </row>
@@ -40294,54 +40285,48 @@
         <v>58</v>
       </c>
       <c r="C968" s="0" t="s">
-        <v>149</v>
+        <v>4750</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="I968" s="0" t="s">
-        <v>151</v>
+        <v>76</v>
+      </c>
+      <c r="K968" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="L968" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M968" s="9" t="s">
-        <v>4751</v>
-      </c>
-      <c r="N968" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M968" s="0" t="s">
         <v>4752</v>
       </c>
-      <c r="O968" s="0" t="s">
+    </row>
+    <row r="969" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="s">
         <v>4753</v>
       </c>
-    </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="0" t="s">
+      <c r="B969" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D969" s="0" t="s">
         <v>4754</v>
       </c>
-      <c r="B969" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C969" s="0" t="s">
+      <c r="L969" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="M969" s="9" t="s">
         <v>4755</v>
       </c>
-      <c r="D969" s="0" t="s">
+      <c r="N969" s="12" t="s">
         <v>4756</v>
       </c>
-      <c r="I969" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K969" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L969" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M969" s="0" t="s">
+      <c r="O969" s="0" t="s">
         <v>4757</v>
       </c>
     </row>
-    <row r="970" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
         <v>4758</v>
       </c>
@@ -40351,13 +40336,19 @@
       <c r="D970" s="0" t="s">
         <v>4759</v>
       </c>
+      <c r="F970" s="0" t="s">
+        <v>2797</v>
+      </c>
+      <c r="I970" s="0" t="s">
+        <v>652</v>
+      </c>
       <c r="L970" s="0" t="s">
-        <v>511</v>
+        <v>40</v>
       </c>
       <c r="M970" s="9" t="s">
         <v>4760</v>
       </c>
-      <c r="N970" s="12" t="s">
+      <c r="N970" s="0" t="s">
         <v>4761</v>
       </c>
       <c r="O970" s="0" t="s">
@@ -40369,53 +40360,47 @@
         <v>4763</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="C971" s="0" t="s">
+        <v>4764</v>
       </c>
       <c r="D971" s="0" t="s">
-        <v>4764</v>
-      </c>
-      <c r="F971" s="0" t="s">
-        <v>2797</v>
+        <v>4765</v>
       </c>
       <c r="I971" s="0" t="s">
-        <v>652</v>
+        <v>76</v>
+      </c>
+      <c r="K971" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="L971" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M971" s="9" t="s">
-        <v>4765</v>
-      </c>
-      <c r="N971" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M971" s="0" t="s">
         <v>4766</v>
-      </c>
-      <c r="O971" s="0" t="s">
-        <v>4767</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D972" s="0" t="s">
         <v>4768</v>
       </c>
-      <c r="B972" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C972" s="0" t="s">
+      <c r="E972" s="0" t="s">
         <v>4769</v>
       </c>
-      <c r="D972" s="0" t="s">
+      <c r="L972" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M972" s="0" t="s">
         <v>4770</v>
       </c>
-      <c r="I972" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K972" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L972" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M972" s="0" t="s">
+      <c r="O972" s="0" t="s">
         <v>4771</v>
       </c>
     </row>
@@ -40429,78 +40414,78 @@
       <c r="D973" s="0" t="s">
         <v>4773</v>
       </c>
-      <c r="E973" s="0" t="s">
+      <c r="F973" s="0" t="s">
+        <v>4773</v>
+      </c>
+      <c r="I973" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="K973" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L973" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M973" s="0" t="s">
+        <v>4773</v>
+      </c>
+      <c r="O973" s="0" t="s">
         <v>4774</v>
-      </c>
-      <c r="L973" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M973" s="0" t="s">
-        <v>4775</v>
-      </c>
-      <c r="O973" s="0" t="s">
-        <v>4776</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C974" s="3"/>
+      <c r="D974" s="3" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E974" s="3" t="s">
         <v>4777</v>
       </c>
-      <c r="B974" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D974" s="0" t="s">
+      <c r="F974" s="3"/>
+      <c r="G974" s="3"/>
+      <c r="H974" s="3"/>
+      <c r="I974" s="3"/>
+      <c r="J974" s="3"/>
+      <c r="K974" s="3"/>
+      <c r="L974" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M974" s="4" t="s">
         <v>4778</v>
       </c>
-      <c r="F974" s="0" t="s">
-        <v>4778</v>
-      </c>
-      <c r="I974" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="K974" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L974" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M974" s="0" t="s">
-        <v>4778</v>
-      </c>
-      <c r="O974" s="0" t="s">
+      <c r="N974" s="3" t="s">
         <v>4779</v>
+      </c>
+      <c r="O974" s="3" t="s">
+        <v>4780</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>4780</v>
-      </c>
-      <c r="B975" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C975" s="3"/>
-      <c r="D975" s="3" t="s">
         <v>4781</v>
       </c>
-      <c r="E975" s="3" t="s">
+      <c r="B975" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E975" s="0" t="s">
         <v>4782</v>
       </c>
-      <c r="F975" s="3"/>
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
-      <c r="I975" s="3"/>
-      <c r="J975" s="3"/>
-      <c r="K975" s="3"/>
-      <c r="L975" s="3" t="s">
+      <c r="L975" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M975" s="4" t="s">
+      <c r="M975" s="9" t="s">
         <v>4783</v>
       </c>
-      <c r="N975" s="3" t="s">
+      <c r="N975" s="0" t="s">
         <v>4784</v>
       </c>
-      <c r="O975" s="3" t="s">
+      <c r="O975" s="0" t="s">
         <v>4785</v>
       </c>
     </row>
@@ -40511,148 +40496,151 @@
       <c r="B976" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E976" s="0" t="s">
+      <c r="D976" s="0" t="s">
         <v>4787</v>
       </c>
+      <c r="I976" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K976" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="L976" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M976" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M976" s="0" t="s">
         <v>4788</v>
       </c>
-      <c r="N976" s="0" t="s">
+      <c r="O976" s="0" t="s">
         <v>4789</v>
-      </c>
-      <c r="O976" s="0" t="s">
-        <v>4790</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D977" s="0" t="s">
         <v>4791</v>
       </c>
-      <c r="B977" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D977" s="0" t="s">
+      <c r="L977" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M977" s="0" t="s">
         <v>4792</v>
-      </c>
-      <c r="I977" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="K977" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="L977" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="M977" s="0" t="s">
-        <v>4793</v>
-      </c>
-      <c r="O977" s="0" t="s">
-        <v>4794</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
+        <v>4793</v>
+      </c>
+      <c r="C978" s="0" t="s">
+        <v>4794</v>
+      </c>
+      <c r="D978" s="0" t="s">
         <v>4795</v>
       </c>
-      <c r="D978" s="0" t="s">
+      <c r="L978" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M978" s="0" t="s">
         <v>4796</v>
       </c>
-      <c r="L978" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M978" s="0" t="s">
+    </row>
+    <row r="979" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="0" t="s">
         <v>4797</v>
       </c>
-    </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="0" t="s">
+      <c r="B979" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D979" s="0" t="s">
         <v>4798</v>
       </c>
-      <c r="C979" s="0" t="s">
+      <c r="E979" s="0" t="s">
         <v>4799</v>
       </c>
-      <c r="D979" s="0" t="s">
+      <c r="L979" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M979" s="21" t="s">
         <v>4800</v>
       </c>
-      <c r="L979" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M979" s="0" t="s">
+      <c r="N979" s="5" t="s">
         <v>4801</v>
       </c>
-    </row>
-    <row r="980" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O979" s="5" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="B980" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D980" s="0" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="E980" s="0" t="s">
-        <v>4804</v>
+        <v>4805</v>
+      </c>
+      <c r="F980" s="0" t="s">
+        <v>4806</v>
+      </c>
+      <c r="G980" s="0" t="s">
+        <v>4807</v>
+      </c>
+      <c r="I980" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="L980" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M980" s="21" t="s">
-        <v>4805</v>
-      </c>
-      <c r="N980" s="5" t="s">
-        <v>4806</v>
-      </c>
-      <c r="O980" s="5" t="s">
-        <v>4807</v>
+      <c r="M980" s="9" t="s">
+        <v>4808</v>
+      </c>
+      <c r="N980" s="0" t="s">
+        <v>4809</v>
+      </c>
+      <c r="O980" s="0" t="s">
+        <v>4810</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>4808</v>
+        <v>4811</v>
       </c>
       <c r="B981" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C981" s="0" t="s">
+        <v>4812</v>
+      </c>
       <c r="D981" s="0" t="s">
-        <v>4809</v>
-      </c>
-      <c r="E981" s="0" t="s">
-        <v>4810</v>
-      </c>
-      <c r="F981" s="0" t="s">
-        <v>4811</v>
-      </c>
-      <c r="G981" s="0" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="I981" s="0" t="s">
-        <v>145</v>
+        <v>226</v>
+      </c>
+      <c r="K981" s="0" t="n">
+        <v>37</v>
       </c>
       <c r="L981" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M981" s="9" t="s">
-        <v>4813</v>
+        <v>52</v>
+      </c>
+      <c r="M981" s="0" t="s">
+        <v>4814</v>
       </c>
       <c r="N981" s="0" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
       <c r="O981" s="0" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>4816</v>
-      </c>
-      <c r="B982" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C982" s="0" t="s">
         <v>4817</v>
       </c>
       <c r="D982" s="0" t="s">
@@ -40662,10 +40650,10 @@
         <v>226</v>
       </c>
       <c r="K982" s="0" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L982" s="0" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M982" s="0" t="s">
         <v>4819</v>
@@ -40673,30 +40661,33 @@
       <c r="N982" s="0" t="s">
         <v>4820</v>
       </c>
-      <c r="O982" s="0" t="s">
-        <v>4821</v>
-      </c>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B983" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D983" s="0" t="s">
         <v>4822</v>
       </c>
-      <c r="D983" s="0" t="s">
+      <c r="E983" s="0" t="s">
         <v>4823</v>
       </c>
       <c r="I983" s="0" t="s">
         <v>226</v>
       </c>
       <c r="K983" s="0" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L983" s="0" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M983" s="0" t="s">
         <v>4824</v>
       </c>
-      <c r="N983" s="0" t="s">
+      <c r="O983" s="0" t="s">
         <v>4825</v>
       </c>
     </row>
@@ -40707,559 +40698,550 @@
       <c r="B984" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C984" s="0" t="s">
+        <v>4827</v>
+      </c>
       <c r="D984" s="0" t="s">
-        <v>4827</v>
-      </c>
-      <c r="E984" s="0" t="s">
         <v>4828</v>
       </c>
-      <c r="I984" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="K984" s="0" t="n">
-        <v>61</v>
+      <c r="F984" s="0" t="s">
+        <v>4829</v>
       </c>
       <c r="L984" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M984" s="0" t="s">
-        <v>4829</v>
+        <v>40</v>
+      </c>
+      <c r="M984" s="9" t="s">
+        <v>4830</v>
+      </c>
+      <c r="N984" s="11" t="s">
+        <v>4831</v>
       </c>
       <c r="O984" s="0" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>4831</v>
+        <v>4833</v>
       </c>
       <c r="B985" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C985" s="0" t="s">
-        <v>4832</v>
-      </c>
       <c r="D985" s="0" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="F985" s="0" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="L985" s="0" t="s">
         <v>40</v>
       </c>
       <c r="M985" s="9" t="s">
-        <v>4835</v>
-      </c>
-      <c r="N985" s="11" t="s">
         <v>4836</v>
       </c>
+      <c r="N985" s="0" t="s">
+        <v>4837</v>
+      </c>
       <c r="O985" s="0" t="s">
-        <v>4837</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="B986" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D986" s="0" t="s">
-        <v>4839</v>
+        <v>4840</v>
+      </c>
+      <c r="E986" s="0" t="s">
+        <v>4841</v>
       </c>
       <c r="F986" s="0" t="s">
-        <v>4840</v>
+        <v>4842</v>
+      </c>
+      <c r="I986" s="0" t="s">
+        <v>226</v>
       </c>
       <c r="L986" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M986" s="9" t="s">
-        <v>4841</v>
-      </c>
-      <c r="N986" s="0" t="s">
-        <v>4842</v>
+        <v>735</v>
+      </c>
+      <c r="M986" s="0" t="s">
+        <v>4843</v>
       </c>
       <c r="O986" s="0" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="B987" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D987" s="0" t="s">
-        <v>4845</v>
-      </c>
-      <c r="E987" s="0" t="s">
         <v>4846</v>
       </c>
-      <c r="F987" s="0" t="s">
+      <c r="I987" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L987" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M987" s="0" t="s">
         <v>4847</v>
       </c>
-      <c r="I987" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="L987" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="M987" s="0" t="s">
+      <c r="O987" s="0" t="s">
         <v>4848</v>
-      </c>
-      <c r="O987" s="0" t="s">
-        <v>4849</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D988" s="0" t="s">
         <v>4850</v>
       </c>
-      <c r="B988" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D988" s="0" t="s">
+      <c r="I988" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K988" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L988" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="M988" s="0" t="s">
         <v>4851</v>
       </c>
-      <c r="I988" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L988" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M988" s="0" t="s">
+      <c r="O988" s="0" t="s">
         <v>4852</v>
-      </c>
-      <c r="O988" s="0" t="s">
-        <v>4853</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D989" s="0" t="s">
         <v>4854</v>
-      </c>
-      <c r="B989" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D989" s="0" t="s">
-        <v>4855</v>
       </c>
       <c r="I989" s="0" t="s">
         <v>76</v>
       </c>
       <c r="K989" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L989" s="0" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="M989" s="0" t="s">
+        <v>4855</v>
+      </c>
+      <c r="N989" s="0" t="s">
         <v>4856</v>
-      </c>
-      <c r="O989" s="0" t="s">
-        <v>4857</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
+        <v>4857</v>
+      </c>
+      <c r="D990" s="0" t="s">
         <v>4858</v>
-      </c>
-      <c r="D990" s="0" t="s">
-        <v>4859</v>
       </c>
       <c r="I990" s="0" t="s">
         <v>76</v>
       </c>
       <c r="K990" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L990" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M990" s="0" t="s">
+        <v>4859</v>
+      </c>
+      <c r="N990" s="0" t="s">
         <v>4860</v>
-      </c>
-      <c r="N990" s="0" t="s">
-        <v>4861</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D991" s="0" t="s">
         <v>4862</v>
       </c>
-      <c r="D991" s="0" t="s">
+      <c r="E991" s="0" t="s">
         <v>4863</v>
       </c>
-      <c r="I991" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K991" s="0" t="n">
-        <v>5</v>
+      <c r="F991" s="0" t="s">
+        <v>4864</v>
       </c>
       <c r="L991" s="0" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="M991" s="0" t="s">
-        <v>4864</v>
-      </c>
-      <c r="N991" s="0" t="s">
         <v>4865</v>
+      </c>
+      <c r="O991" s="0" t="s">
+        <v>4866</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>4866</v>
-      </c>
-      <c r="B992" s="0" t="s">
-        <v>23</v>
+        <v>4867</v>
       </c>
       <c r="D992" s="0" t="s">
-        <v>4867</v>
-      </c>
-      <c r="E992" s="0" t="s">
         <v>4868</v>
       </c>
-      <c r="F992" s="0" t="s">
+      <c r="L992" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M992" s="0" t="s">
         <v>4869</v>
-      </c>
-      <c r="L992" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M992" s="0" t="s">
-        <v>4870</v>
-      </c>
-      <c r="O992" s="0" t="s">
-        <v>4871</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D993" s="0" t="s">
+        <v>4871</v>
+      </c>
+      <c r="L993" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M993" s="0" t="s">
         <v>4872</v>
-      </c>
-      <c r="D993" s="0" t="s">
-        <v>4873</v>
-      </c>
-      <c r="L993" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M993" s="0" t="s">
-        <v>4874</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C994" s="0" t="s">
+        <v>4874</v>
+      </c>
+      <c r="D994" s="0" t="s">
         <v>4875</v>
       </c>
-      <c r="D994" s="0" t="s">
+      <c r="L994" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M994" s="0" t="s">
         <v>4876</v>
-      </c>
-      <c r="L994" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M994" s="0" t="s">
-        <v>4877</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C995" s="0" t="s">
         <v>4878</v>
       </c>
-      <c r="C995" s="0" t="s">
+      <c r="D995" s="0" t="s">
+        <v>4875</v>
+      </c>
+      <c r="I995" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K995" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L995" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M995" s="0" t="s">
         <v>4879</v>
-      </c>
-      <c r="D995" s="0" t="s">
-        <v>4880</v>
-      </c>
-      <c r="L995" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M995" s="0" t="s">
-        <v>4881</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
+        <v>4880</v>
+      </c>
+      <c r="C996" s="0" t="s">
+        <v>4881</v>
+      </c>
+      <c r="D996" s="0" t="s">
         <v>4882</v>
       </c>
-      <c r="B996" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C996" s="0" t="s">
+      <c r="L996" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M996" s="0" t="s">
         <v>4883</v>
-      </c>
-      <c r="D996" s="0" t="s">
-        <v>4880</v>
-      </c>
-      <c r="I996" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K996" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L996" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M996" s="0" t="s">
-        <v>4884</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C997" s="0" t="s">
         <v>4885</v>
       </c>
-      <c r="C997" s="0" t="s">
+      <c r="D997" s="0" t="s">
+        <v>4882</v>
+      </c>
+      <c r="I997" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K997" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L997" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M997" s="0" t="s">
         <v>4886</v>
-      </c>
-      <c r="D997" s="0" t="s">
-        <v>4887</v>
-      </c>
-      <c r="L997" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M997" s="0" t="s">
-        <v>4888</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C998" s="0" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D998" s="0" t="s">
         <v>4889</v>
       </c>
-      <c r="B998" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C998" s="0" t="s">
+      <c r="L998" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M998" s="0" t="s">
         <v>4890</v>
-      </c>
-      <c r="D998" s="0" t="s">
-        <v>4887</v>
-      </c>
-      <c r="I998" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K998" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L998" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M998" s="0" t="s">
-        <v>4891</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C999" s="0" t="s">
         <v>4892</v>
       </c>
-      <c r="C999" s="0" t="s">
+      <c r="D999" s="0" t="s">
+        <v>4889</v>
+      </c>
+      <c r="I999" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K999" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L999" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M999" s="0" t="s">
         <v>4893</v>
-      </c>
-      <c r="D999" s="0" t="s">
-        <v>4894</v>
-      </c>
-      <c r="L999" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M999" s="0" t="s">
-        <v>4895</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
+        <v>4894</v>
+      </c>
+      <c r="C1000" s="0" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D1000" s="0" t="s">
         <v>4896</v>
       </c>
-      <c r="B1000" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1000" s="0" t="s">
+      <c r="L1000" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1000" s="0" t="s">
         <v>4897</v>
-      </c>
-      <c r="D1000" s="0" t="s">
-        <v>4894</v>
-      </c>
-      <c r="I1000" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K1000" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1000" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1000" s="0" t="s">
-        <v>4898</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1001" s="0" t="s">
         <v>4899</v>
       </c>
-      <c r="C1001" s="0" t="s">
+      <c r="D1001" s="0" t="s">
+        <v>4896</v>
+      </c>
+      <c r="I1001" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K1001" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1001" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1001" s="0" t="s">
         <v>4900</v>
-      </c>
-      <c r="D1001" s="0" t="s">
-        <v>4901</v>
-      </c>
-      <c r="L1001" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1001" s="0" t="s">
-        <v>4902</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
+        <v>4901</v>
+      </c>
+      <c r="C1002" s="0" t="s">
+        <v>4902</v>
+      </c>
+      <c r="D1002" s="0" t="s">
         <v>4903</v>
       </c>
-      <c r="B1002" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1002" s="0" t="s">
+      <c r="L1002" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1002" s="0" t="s">
         <v>4904</v>
-      </c>
-      <c r="D1002" s="0" t="s">
-        <v>4901</v>
-      </c>
-      <c r="I1002" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K1002" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L1002" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1002" s="0" t="s">
-        <v>4905</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1003" s="0" t="s">
         <v>4906</v>
       </c>
-      <c r="C1003" s="0" t="s">
+      <c r="D1003" s="0" t="s">
+        <v>4903</v>
+      </c>
+      <c r="I1003" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K1003" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1003" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1003" s="0" t="s">
         <v>4907</v>
-      </c>
-      <c r="D1003" s="0" t="s">
-        <v>4908</v>
-      </c>
-      <c r="L1003" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1003" s="0" t="s">
-        <v>4909</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C1004" s="0" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D1004" s="0" t="s">
         <v>4910</v>
       </c>
-      <c r="B1004" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1004" s="0" t="s">
+      <c r="L1004" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1004" s="0" t="s">
         <v>4911</v>
-      </c>
-      <c r="D1004" s="0" t="s">
-        <v>4908</v>
-      </c>
-      <c r="I1004" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K1004" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L1004" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1004" s="0" t="s">
-        <v>4912</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1005" s="0" t="s">
         <v>4913</v>
       </c>
-      <c r="C1005" s="0" t="s">
+      <c r="D1005" s="0" t="s">
+        <v>4910</v>
+      </c>
+      <c r="I1005" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K1005" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1005" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1005" s="0" t="s">
         <v>4914</v>
-      </c>
-      <c r="D1005" s="0" t="s">
-        <v>4915</v>
-      </c>
-      <c r="L1005" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1005" s="0" t="s">
-        <v>4916</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
+        <v>4915</v>
+      </c>
+      <c r="C1006" s="0" t="s">
+        <v>4916</v>
+      </c>
+      <c r="D1006" s="0" t="s">
         <v>4917</v>
       </c>
-      <c r="B1006" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1006" s="0" t="s">
+      <c r="L1006" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1006" s="0" t="s">
         <v>4918</v>
-      </c>
-      <c r="D1006" s="0" t="s">
-        <v>4915</v>
-      </c>
-      <c r="I1006" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K1006" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1006" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1006" s="0" t="s">
-        <v>4919</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1007" s="0" t="s">
         <v>4920</v>
       </c>
-      <c r="C1007" s="0" t="s">
+      <c r="D1007" s="0" t="s">
+        <v>4917</v>
+      </c>
+      <c r="I1007" s="0" t="s">
+        <v>3567</v>
+      </c>
+      <c r="K1007" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1007" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1007" s="0" t="s">
         <v>4921</v>
-      </c>
-      <c r="D1007" s="0" t="s">
-        <v>4922</v>
-      </c>
-      <c r="L1007" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1007" s="0" t="s">
-        <v>4923</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D1008" s="0" t="s">
+        <v>4923</v>
+      </c>
+      <c r="L1008" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1008" s="0" t="s">
         <v>4924</v>
       </c>
-      <c r="B1008" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1008" s="0" t="s">
+      <c r="N1008" s="0" t="s">
         <v>4925</v>
       </c>
-      <c r="D1008" s="0" t="s">
-        <v>4922</v>
-      </c>
-      <c r="I1008" s="0" t="s">
-        <v>3567</v>
-      </c>
-      <c r="K1008" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L1008" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1008" s="0" t="s">
+      <c r="O1008" s="0" t="s">
         <v>4926</v>
       </c>
     </row>
@@ -41267,617 +41249,623 @@
       <c r="A1009" s="0" t="s">
         <v>4927</v>
       </c>
+      <c r="B1009" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1009" s="0" t="s">
+        <v>4928</v>
+      </c>
       <c r="D1009" s="0" t="s">
-        <v>4928</v>
+        <v>4929</v>
+      </c>
+      <c r="I1009" s="0" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1009" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L1009" s="0" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M1009" s="0" t="s">
-        <v>4929</v>
-      </c>
-      <c r="N1009" s="0" t="s">
         <v>4930</v>
-      </c>
-      <c r="O1009" s="0" t="s">
-        <v>4931</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
       <c r="B1010" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1010" s="0" t="s">
+        <v>4932</v>
+      </c>
+      <c r="D1010" s="0" t="s">
         <v>4933</v>
-      </c>
-      <c r="D1010" s="0" t="s">
-        <v>4934</v>
       </c>
       <c r="I1010" s="0" t="s">
         <v>2002</v>
       </c>
       <c r="K1010" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1010" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1010" s="0" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="B1011" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1011" s="0" t="s">
+        <v>4936</v>
+      </c>
+      <c r="D1011" s="0" t="s">
         <v>4937</v>
-      </c>
-      <c r="D1011" s="0" t="s">
-        <v>4938</v>
       </c>
       <c r="I1011" s="0" t="s">
         <v>2002</v>
       </c>
       <c r="K1011" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L1011" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1011" s="0" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="B1012" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1012" s="0" t="s">
+        <v>4940</v>
+      </c>
+      <c r="D1012" s="0" t="s">
         <v>4941</v>
       </c>
-      <c r="D1012" s="0" t="s">
+      <c r="I1012" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1012" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1012" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1012" s="0" t="s">
         <v>4942</v>
-      </c>
-      <c r="I1012" s="0" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1012" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1012" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1012" s="0" t="s">
-        <v>4943</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="B1013" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1013" s="0" t="s">
+        <v>4944</v>
+      </c>
+      <c r="D1013" s="0" t="s">
         <v>4945</v>
       </c>
-      <c r="D1013" s="0" t="s">
+      <c r="I1013" s="0" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1013" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1013" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1013" s="0" t="s">
         <v>4946</v>
-      </c>
-      <c r="I1013" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1013" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L1013" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1013" s="0" t="s">
-        <v>4947</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="B1014" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1014" s="0" t="s">
+        <v>4948</v>
+      </c>
+      <c r="D1014" s="0" t="s">
         <v>4949</v>
       </c>
-      <c r="D1014" s="0" t="s">
+      <c r="I1014" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1014" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1014" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1014" s="0" t="s">
         <v>4950</v>
-      </c>
-      <c r="I1014" s="0" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1014" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L1014" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1014" s="0" t="s">
-        <v>4951</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="B1015" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1015" s="0" t="s">
+        <v>4952</v>
+      </c>
+      <c r="D1015" s="0" t="s">
         <v>4953</v>
       </c>
-      <c r="D1015" s="0" t="s">
+      <c r="I1015" s="0" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1015" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L1015" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1015" s="0" t="s">
         <v>4954</v>
-      </c>
-      <c r="I1015" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1015" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1015" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1015" s="0" t="s">
-        <v>4955</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="B1016" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1016" s="0" t="s">
+        <v>4956</v>
+      </c>
+      <c r="D1016" s="0" t="s">
         <v>4957</v>
       </c>
-      <c r="D1016" s="0" t="s">
+      <c r="I1016" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1016" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1016" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1016" s="0" t="s">
         <v>4958</v>
-      </c>
-      <c r="I1016" s="0" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1016" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L1016" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1016" s="0" t="s">
-        <v>4959</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
       <c r="B1017" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1017" s="0" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D1017" s="0" t="s">
         <v>4961</v>
       </c>
-      <c r="D1017" s="0" t="s">
+      <c r="I1017" s="0" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1017" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1017" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1017" s="0" t="s">
         <v>4962</v>
-      </c>
-      <c r="I1017" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1017" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L1017" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1017" s="0" t="s">
-        <v>4963</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
       <c r="B1018" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1018" s="0" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D1018" s="0" t="s">
         <v>4965</v>
       </c>
-      <c r="D1018" s="0" t="s">
+      <c r="I1018" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="K1018" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1018" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1018" s="0" t="s">
         <v>4966</v>
-      </c>
-      <c r="I1018" s="0" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1018" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1018" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1018" s="0" t="s">
-        <v>4967</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="B1019" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1019" s="0" t="s">
+        <v>4968</v>
+      </c>
+      <c r="D1019" s="0" t="s">
         <v>4969</v>
-      </c>
-      <c r="D1019" s="0" t="s">
-        <v>4970</v>
       </c>
       <c r="I1019" s="6" t="s">
         <v>2002</v>
       </c>
       <c r="K1019" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1019" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1019" s="0" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="B1020" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1020" s="0" t="s">
+        <v>4972</v>
+      </c>
+      <c r="D1020" s="0" t="s">
         <v>4973</v>
-      </c>
-      <c r="D1020" s="0" t="s">
-        <v>4974</v>
       </c>
       <c r="I1020" s="6" t="s">
         <v>2002</v>
       </c>
       <c r="K1020" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1020" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1020" s="0" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
       <c r="B1021" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C1021" s="0" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D1021" s="0" t="s">
         <v>4977</v>
-      </c>
-      <c r="D1021" s="0" t="s">
-        <v>4978</v>
       </c>
       <c r="I1021" s="6" t="s">
         <v>2002</v>
       </c>
       <c r="K1021" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1021" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1021" s="0" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C1022" s="0" t="s">
         <v>4980</v>
       </c>
-      <c r="B1022" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1022" s="0" t="s">
+      <c r="D1022" s="0" t="s">
         <v>4981</v>
       </c>
-      <c r="D1022" s="0" t="s">
+      <c r="L1022" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1022" s="0" t="s">
         <v>4982</v>
-      </c>
-      <c r="I1022" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K1022" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="L1022" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1022" s="0" t="s">
-        <v>4983</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C1023" s="0" t="s">
         <v>4984</v>
       </c>
-      <c r="C1023" s="0" t="s">
+      <c r="D1023" s="0" t="s">
         <v>4985</v>
       </c>
-      <c r="D1023" s="0" t="s">
+      <c r="L1023" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1023" s="0" t="s">
         <v>4986</v>
-      </c>
-      <c r="L1023" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1023" s="0" t="s">
-        <v>4987</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C1024" s="7" t="s">
         <v>4988</v>
       </c>
-      <c r="C1024" s="0" t="s">
+      <c r="D1024" s="0" t="s">
         <v>4989</v>
       </c>
-      <c r="D1024" s="0" t="s">
+      <c r="L1024" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1024" s="0" t="s">
         <v>4990</v>
-      </c>
-      <c r="L1024" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1024" s="0" t="s">
-        <v>4991</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C1025" s="7" t="s">
         <v>4992</v>
       </c>
-      <c r="C1025" s="7" t="s">
+      <c r="D1025" s="0" t="s">
         <v>4993</v>
       </c>
-      <c r="D1025" s="0" t="s">
+      <c r="L1025" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1025" s="0" t="s">
         <v>4994</v>
-      </c>
-      <c r="L1025" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1025" s="0" t="s">
-        <v>4995</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C1026" s="7" t="s">
         <v>4996</v>
       </c>
-      <c r="C1026" s="7" t="s">
+      <c r="D1026" s="0" t="s">
         <v>4997</v>
       </c>
-      <c r="D1026" s="0" t="s">
+      <c r="L1026" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1026" s="0" t="s">
         <v>4998</v>
-      </c>
-      <c r="L1026" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1026" s="0" t="s">
-        <v>4999</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C1027" s="7" t="s">
         <v>5000</v>
       </c>
-      <c r="C1027" s="7" t="s">
+      <c r="D1027" s="0" t="s">
         <v>5001</v>
       </c>
-      <c r="D1027" s="0" t="s">
+      <c r="L1027" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1027" s="0" t="s">
         <v>5002</v>
-      </c>
-      <c r="L1027" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1027" s="0" t="s">
-        <v>5003</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C1028" s="7" t="s">
         <v>5004</v>
       </c>
-      <c r="C1028" s="7" t="s">
+      <c r="D1028" s="0" t="s">
         <v>5005</v>
       </c>
-      <c r="D1028" s="0" t="s">
+      <c r="L1028" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1028" s="0" t="s">
         <v>5006</v>
-      </c>
-      <c r="L1028" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1028" s="0" t="s">
-        <v>5007</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C1029" s="7" t="s">
         <v>5008</v>
       </c>
-      <c r="C1029" s="7" t="s">
+      <c r="D1029" s="0" t="s">
         <v>5009</v>
       </c>
-      <c r="D1029" s="0" t="s">
+      <c r="L1029" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1029" s="0" t="s">
         <v>5010</v>
-      </c>
-      <c r="L1029" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1029" s="0" t="s">
-        <v>5011</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C1030" s="7" t="s">
         <v>5012</v>
       </c>
-      <c r="C1030" s="7" t="s">
+      <c r="D1030" s="0" t="s">
         <v>5013</v>
       </c>
-      <c r="D1030" s="0" t="s">
+      <c r="L1030" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1030" s="0" t="s">
         <v>5014</v>
-      </c>
-      <c r="L1030" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1030" s="0" t="s">
-        <v>5015</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C1031" s="7" t="s">
         <v>5016</v>
       </c>
-      <c r="C1031" s="7" t="s">
+      <c r="D1031" s="0" t="s">
         <v>5017</v>
       </c>
-      <c r="D1031" s="0" t="s">
+      <c r="L1031" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1031" s="0" t="s">
         <v>5018</v>
-      </c>
-      <c r="L1031" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1031" s="0" t="s">
-        <v>5019</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C1032" s="7" t="s">
         <v>5020</v>
       </c>
-      <c r="C1032" s="7" t="s">
+      <c r="D1032" s="0" t="s">
         <v>5021</v>
       </c>
-      <c r="D1032" s="0" t="s">
+      <c r="L1032" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1032" s="0" t="s">
         <v>5022</v>
-      </c>
-      <c r="L1032" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1032" s="0" t="s">
-        <v>5023</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C1033" s="7" t="s">
         <v>5024</v>
       </c>
-      <c r="C1033" s="7" t="s">
+      <c r="D1033" s="0" t="s">
         <v>5025</v>
       </c>
-      <c r="D1033" s="0" t="s">
+      <c r="L1033" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1033" s="0" t="s">
         <v>5026</v>
       </c>
-      <c r="L1033" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1033" s="0" t="s">
+    </row>
+    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
         <v>5027</v>
       </c>
-    </row>
-    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="0" t="s">
+      <c r="B1034" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1034" s="0" t="s">
         <v>5028</v>
       </c>
-      <c r="C1034" s="7" t="s">
+      <c r="E1034" s="0" t="s">
         <v>5029</v>
       </c>
-      <c r="D1034" s="0" t="s">
+      <c r="F1034" s="0" t="s">
         <v>5030</v>
       </c>
+      <c r="I1034" s="0" t="s">
+        <v>1039</v>
+      </c>
       <c r="L1034" s="0" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="M1034" s="0" t="s">
         <v>5031</v>
       </c>
-    </row>
-    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1034" s="0" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>5032</v>
+        <v>4296</v>
       </c>
       <c r="B1035" s="0" t="s">
-        <v>23</v>
+        <v>596</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>5033</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>5033</v>
-      </c>
-      <c r="E1035" s="0" t="s">
         <v>5034</v>
       </c>
       <c r="F1035" s="0" t="s">
         <v>5035</v>
       </c>
-      <c r="I1035" s="0" t="s">
+      <c r="L1035" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1035" s="0" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>5036</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>5037</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>5038</v>
+      </c>
+      <c r="I1036" s="0" t="s">
         <v>1039</v>
       </c>
-      <c r="L1035" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1035" s="0" t="s">
-        <v>5036</v>
-      </c>
-      <c r="O1035" s="0" t="s">
-        <v>5037</v>
-      </c>
-    </row>
-    <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="0" t="s">
-        <v>4296</v>
-      </c>
-      <c r="B1036" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="C1036" s="0" t="s">
-        <v>5038</v>
-      </c>
-      <c r="D1036" s="0" t="s">
+      <c r="L1036" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1036" s="8" t="s">
         <v>5039</v>
       </c>
-      <c r="F1036" s="0" t="s">
+      <c r="O1036" s="5" t="s">
         <v>5040</v>
       </c>
-      <c r="L1036" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1036" s="0" t="s">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="1037" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
         <v>5041</v>
       </c>
@@ -41887,19 +41875,19 @@
       <c r="D1037" s="0" t="s">
         <v>5042</v>
       </c>
-      <c r="F1037" s="0" t="s">
+      <c r="I1037" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1037" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1037" s="0" t="s">
         <v>5043</v>
       </c>
-      <c r="I1037" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L1037" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1037" s="8" t="s">
+      <c r="N1037" s="0" t="s">
         <v>5044</v>
       </c>
-      <c r="O1037" s="5" t="s">
+      <c r="O1037" s="0" t="s">
         <v>5045</v>
       </c>
     </row>
@@ -41907,198 +41895,173 @@
       <c r="A1038" s="0" t="s">
         <v>5046</v>
       </c>
-      <c r="B1038" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1038" s="0" t="s">
+      <c r="C1038" s="0" t="s">
         <v>5047</v>
       </c>
-      <c r="I1038" s="0" t="s">
-        <v>69</v>
+      <c r="H1038" s="0" t="s">
+        <v>1012</v>
       </c>
       <c r="L1038" s="0" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M1038" s="0" t="s">
         <v>5048</v>
       </c>
-      <c r="N1038" s="0" t="s">
-        <v>5049</v>
-      </c>
-      <c r="O1038" s="0" t="s">
-        <v>5050</v>
-      </c>
     </row>
     <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>5050</v>
+      </c>
+      <c r="H1039" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L1039" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1039" s="0" t="s">
         <v>5051</v>
-      </c>
-      <c r="C1039" s="0" t="s">
-        <v>5052</v>
-      </c>
-      <c r="H1039" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="L1039" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1039" s="0" t="s">
-        <v>5053</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>5053</v>
+      </c>
+      <c r="D1040" s="0" t="s">
         <v>5054</v>
       </c>
-      <c r="C1040" s="0" t="s">
+      <c r="L1040" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1040" s="0" t="s">
         <v>5055</v>
-      </c>
-      <c r="H1040" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="L1040" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1040" s="0" t="s">
-        <v>5056</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C1041" s="0" t="s">
         <v>5057</v>
       </c>
-      <c r="C1041" s="0" t="s">
+      <c r="D1041" s="0" t="s">
         <v>5058</v>
       </c>
-      <c r="D1041" s="0" t="s">
+      <c r="L1041" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1041" s="0" t="s">
         <v>5059</v>
-      </c>
-      <c r="L1041" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1041" s="0" t="s">
-        <v>5060</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C1042" s="0" t="s">
         <v>5061</v>
       </c>
-      <c r="C1042" s="0" t="s">
+      <c r="E1042" s="0" t="s">
+        <v>3487</v>
+      </c>
+      <c r="L1042" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1042" s="0" t="s">
         <v>5062</v>
       </c>
-      <c r="D1042" s="0" t="s">
+    </row>
+    <row r="1043" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
         <v>5063</v>
       </c>
-      <c r="L1042" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1042" s="0" t="s">
+      <c r="B1043" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1043" s="0" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E1043" s="0" t="s">
         <v>5064</v>
       </c>
-    </row>
-    <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="0" t="s">
+      <c r="L1043" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1043" s="0" t="s">
         <v>5065</v>
       </c>
-      <c r="C1043" s="0" t="s">
+      <c r="N1043" s="5"/>
+      <c r="O1043" s="5" t="s">
         <v>5066</v>
-      </c>
-      <c r="E1043" s="0" t="s">
-        <v>3487</v>
-      </c>
-      <c r="L1043" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1043" s="0" t="s">
-        <v>5067</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1044" s="0" t="s">
         <v>5068</v>
-      </c>
-      <c r="B1044" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1044" s="0" t="s">
-        <v>2270</v>
       </c>
       <c r="E1044" s="0" t="s">
         <v>5069</v>
       </c>
+      <c r="F1044" s="0" t="s">
+        <v>5070</v>
+      </c>
+      <c r="I1044" s="0" t="s">
+        <v>1039</v>
+      </c>
       <c r="L1044" s="0" t="s">
-        <v>107</v>
+        <v>723</v>
       </c>
       <c r="M1044" s="0" t="s">
-        <v>5070</v>
-      </c>
-      <c r="N1044" s="5"/>
+        <v>5071</v>
+      </c>
       <c r="O1044" s="5" t="s">
-        <v>5071</v>
-      </c>
-    </row>
-    <row r="1045" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="B1045" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="E1045" s="0" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="F1045" s="0" t="s">
-        <v>5075</v>
+        <v>5076</v>
       </c>
       <c r="I1045" s="0" t="s">
         <v>1039</v>
       </c>
       <c r="L1045" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="M1045" s="0" t="s">
-        <v>5076</v>
+        <v>40</v>
+      </c>
+      <c r="M1045" s="9" t="s">
+        <v>5077</v>
+      </c>
+      <c r="N1045" s="5" t="s">
+        <v>5078</v>
       </c>
       <c r="O1045" s="5" t="s">
-        <v>5077</v>
-      </c>
-    </row>
-    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="0" t="s">
-        <v>5078</v>
-      </c>
-      <c r="B1046" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1046" s="0" t="s">
         <v>5079</v>
       </c>
-      <c r="E1046" s="0" t="s">
-        <v>5080</v>
-      </c>
-      <c r="F1046" s="0" t="s">
-        <v>5081</v>
-      </c>
-      <c r="I1046" s="0" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L1046" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1046" s="9" t="s">
-        <v>5082</v>
-      </c>
-      <c r="N1046" s="5" t="s">
-        <v>5083</v>
-      </c>
-      <c r="O1046" s="5" t="s">
-        <v>5084</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
@@ -42130,10 +42093,9 @@
     <hyperlink ref="N939" r:id="rId26" display="zhěnglǐ"/>
     <hyperlink ref="N940" r:id="rId27" location="Mandarin" display="shǒubì"/>
     <hyperlink ref="N941" r:id="rId28" display="rèlì"/>
-    <hyperlink ref="N953" r:id="rId29" location="Mandarin" display="zhònglì"/>
-    <hyperlink ref="N980" r:id="rId30" display="yuèjīng"/>
-    <hyperlink ref="N985" r:id="rId31" location="Mandarin" display="yǒudiǎn "/>
-    <hyperlink ref="N1046" r:id="rId32" display="chuàngxīn"/>
+    <hyperlink ref="N979" r:id="rId29" display="yuèjīng"/>
+    <hyperlink ref="N984" r:id="rId30" location="Mandarin" display="yǒudiǎn "/>
+    <hyperlink ref="N1045" r:id="rId31" display="chuàngxīn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -42143,7 +42105,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7729" uniqueCount="5043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="5043">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -7767,7 +7767,7 @@
     <t xml:space="preserve">oprikatun</t>
   </si>
   <si>
-    <t xml:space="preserve">short form for 'tanyafato kohun'; follow with a subordinate clause; see 'tanyun' to sound more informal</t>
+    <t xml:space="preserve">short form for 'oprikato kohun'; follow with a subordinate clause; see 'tanyun' to sound more informal</t>
   </si>
   <si>
     <t xml:space="preserve">thank you for </t>
@@ -7785,7 +7785,7 @@
     <t xml:space="preserve">opriyun</t>
   </si>
   <si>
-    <t xml:space="preserve">slang; short form for 'tanyo kohun'; follow with a subordinate clause; see 'tanyafatun' to sound more formal</t>
+    <t xml:space="preserve">slang; short form for 'opriyo kohun'; follow with a subordinate clause; see 'tanyafatun' to sound more formal</t>
   </si>
   <si>
     <t xml:space="preserve">thanks for</t>
@@ -15615,7 +15615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15800,13 +15800,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A802" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B802" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A802" activeCellId="0" sqref="A802"/>
-      <selection pane="topRight" activeCell="A824" activeCellId="0" sqref="A824"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A494" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B494" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A494" activeCellId="0" sqref="A494"/>
+      <selection pane="topRight" activeCell="C519" activeCellId="0" sqref="C519"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -28563,6 +28563,9 @@
       </c>
       <c r="E515" s="0" t="s">
         <v>2545</v>
+      </c>
+      <c r="I515" s="0" t="s">
+        <v>451</v>
       </c>
       <c r="L515" s="0" t="s">
         <v>33</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -313,7 +313,7 @@
     <t xml:space="preserve">agreeable/harmonic/fitting</t>
   </si>
   <si>
-    <t xml:space="preserve">harmonically</t>
+    <t xml:space="preserve">harmonically/agreeably</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -5792,7 +5792,7 @@
     <t xml:space="preserve">meir</t>
   </si>
   <si>
-    <t xml:space="preserve">charisma</t>
+    <t xml:space="preserve">charisma/charm</t>
   </si>
   <si>
     <t xml:space="preserve">charm/convince/assure/sweet talk/persuade</t>
@@ -7431,7 +7431,7 @@
     <t xml:space="preserve">niy</t>
   </si>
   <si>
-    <t xml:space="preserve">learning/analysis/research</t>
+    <t xml:space="preserve">learning/analysis/research/lesson</t>
   </si>
   <si>
     <t xml:space="preserve">learn/study/practice/analyze/investigate</t>
@@ -15824,13 +15824,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A958" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B958" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A958" activeCellId="0" sqref="A958"/>
-      <selection pane="topRight" activeCell="F978" activeCellId="0" sqref="F978"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="5051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="5051">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">front</t>
   </si>
   <si>
-    <t xml:space="preserve">forwards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(physically) in front of/next/beyond/(temporally) before</t>
+    <t xml:space="preserve">forwards/forward/ahead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(physically) in front of/next/beyond/ahead of/(temporally) before</t>
   </si>
   <si>
     <t xml:space="preserve">direction/preposition</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">used as a slur of sorts to talk about people who Venusians (mostly) feel aren't pulling their weight and are a waste of resources</t>
   </si>
   <si>
-    <t xml:space="preserve">parasite/(colloquially) leech</t>
+    <t xml:space="preserve">expense/(colloquially) leech/parasite</t>
   </si>
   <si>
     <t xml:space="preserve">spend/expend/use up/waste/consume</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">eat</t>
   </si>
   <si>
-    <t xml:space="preserve">edible</t>
+    <t xml:space="preserve">edible/hungry</t>
   </si>
   <si>
     <t xml:space="preserve">吃</t>
@@ -6947,7 +6947,7 @@
     <t xml:space="preserve">need/depend/rely on/require</t>
   </si>
   <si>
-    <t xml:space="preserve">necessary/essential</t>
+    <t xml:space="preserve">necessary/essential/needed</t>
   </si>
   <si>
     <t xml:space="preserve">necessarily</t>
@@ -8409,7 +8409,7 @@
     <t xml:space="preserve">back</t>
   </si>
   <si>
-    <t xml:space="preserve">backwards</t>
+    <t xml:space="preserve">backwards/backward</t>
   </si>
   <si>
     <t xml:space="preserve">(physically) behind/in back of/last/(temporally) after/next</t>
@@ -8823,7 +8823,7 @@
     <t xml:space="preserve">pet</t>
   </si>
   <si>
-    <t xml:space="preserve">seat/(colloquially) butt</t>
+    <t xml:space="preserve">seat/chair/(colloquially) butt</t>
   </si>
   <si>
     <t xml:space="preserve">sit</t>
@@ -9375,7 +9375,7 @@
     <t xml:space="preserve">animalistic</t>
   </si>
   <si>
-    <t xml:space="preserve">animalisticly</t>
+    <t xml:space="preserve">animalistically</t>
   </si>
   <si>
     <t xml:space="preserve">পশু</t>
@@ -11682,7 +11682,7 @@
     <t xml:space="preserve">repeat/copy/duplicate</t>
   </si>
   <si>
-    <t xml:space="preserve">repetitive</t>
+    <t xml:space="preserve">repetitive/repeated</t>
   </si>
   <si>
     <t xml:space="preserve">repetitively/again</t>
@@ -15824,13 +15824,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B116" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
+      <selection pane="topRight" activeCell="G139" activeCellId="0" sqref="G139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -31607,6 +31607,9 @@
       </c>
       <c r="B632" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>3102</v>
       </c>
       <c r="E632" s="0" t="s">
         <v>3102</v>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -11685,7 +11685,7 @@
     <t xml:space="preserve">repetitive/repeated</t>
   </si>
   <si>
-    <t xml:space="preserve">repetitively/again</t>
+    <t xml:space="preserve">repetitively/again/repeatedly</t>
   </si>
   <si>
     <t xml:space="preserve">重複</t>
@@ -15824,13 +15824,13 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B116" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
-      <selection pane="topRight" activeCell="G139" activeCellId="0" sqref="G139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A764" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B764" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A764" activeCellId="0" sqref="A764"/>
+      <selection pane="topRight" activeCell="F774" activeCellId="0" sqref="F774"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Oros_Eng_Dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -5726,10 +5726,10 @@
     <t xml:space="preserve">go a lot</t>
   </si>
   <si>
-    <t xml:space="preserve">maxaom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only used in the Warren; condensed from the phrase 'ma xa o hama' that literally means 'you are (my) everything'</t>
+    <t xml:space="preserve">oxaom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only used in the Warren; condensed from the phrase 'o hoxa on hama ma' that literally means '(you) are (my) whole world'</t>
   </si>
   <si>
     <t xml:space="preserve">love</t>
@@ -11676,7 +11676,7 @@
     <t xml:space="preserve">suk rut</t>
   </si>
   <si>
-    <t xml:space="preserve">repetition/pattern</t>
+    <t xml:space="preserve">repetition/pattern/repeat/copy/duplicate</t>
   </si>
   <si>
     <t xml:space="preserve">repeat/copy/duplicate</t>
@@ -15383,7 +15383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15495,6 +15495,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
@@ -15578,7 +15584,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15667,11 +15673,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15824,13 +15834,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A764" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B764" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A764" activeCellId="0" sqref="A764"/>
-      <selection pane="topRight" activeCell="F774" activeCellId="0" sqref="F774"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A764" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -25126,6 +25134,7 @@
       <c r="A374" s="0" t="s">
         <v>1871</v>
       </c>
+      <c r="C374" s="20"/>
       <c r="E374" s="0" t="s">
         <v>1872</v>
       </c>
@@ -25841,7 +25850,7 @@
       <c r="L400" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M400" s="20" t="s">
+      <c r="M400" s="21" t="s">
         <v>2007</v>
       </c>
       <c r="N400" s="13" t="s">
@@ -28761,7 +28770,7 @@
       <c r="L522" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M522" s="21" t="s">
+      <c r="M522" s="22" t="s">
         <v>2575</v>
       </c>
       <c r="O522" s="0" t="s">
@@ -35353,7 +35362,7 @@
       <c r="L778" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M778" s="22" t="s">
+      <c r="M778" s="23" t="s">
         <v>3822</v>
       </c>
       <c r="N778" s="7" t="s">
@@ -38570,7 +38579,7 @@
       <c r="L911" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="M911" s="23" t="s">
+      <c r="M911" s="24" t="s">
         <v>4418</v>
       </c>
       <c r="N911" s="0" t="s">
@@ -39506,7 +39515,7 @@
       <c r="L950" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M950" s="22" t="s">
+      <c r="M950" s="23" t="s">
         <v>4600</v>
       </c>
       <c r="N950" s="7" t="s">
@@ -39936,7 +39945,7 @@
       <c r="L967" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M967" s="22" t="s">
+      <c r="M967" s="23" t="s">
         <v>4686</v>
       </c>
       <c r="N967" s="7" t="s">
@@ -40301,7 +40310,7 @@
       <c r="L980" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M980" s="22" t="s">
+      <c r="M980" s="23" t="s">
         <v>4762</v>
       </c>
       <c r="N980" s="7" t="s">
@@ -40440,7 +40449,7 @@
       <c r="L985" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M985" s="22" t="s">
+      <c r="M985" s="23" t="s">
         <v>4792</v>
       </c>
       <c r="N985" s="7" t="s">
@@ -41339,7 +41348,7 @@
       <c r="L1020" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1020" s="22" t="s">
+      <c r="M1020" s="23" t="s">
         <v>4960</v>
       </c>
       <c r="N1020" s="7" t="s">

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="5100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7828" uniqueCount="5101">
   <si>
     <t xml:space="preserve">Orostara</t>
   </si>
@@ -15522,6 +15522,9 @@
   <si>
     <t xml:space="preserve">hos xus</t>
   </si>
+  <si>
+    <t xml:space="preserve">exclamation of surprise or alarm</t>
+  </si>
 </sst>
 </file>
 
@@ -15530,7 +15533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -15654,12 +15657,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
@@ -15671,11 +15668,11 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15698,12 +15695,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -15744,7 +15735,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15793,7 +15784,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15837,19 +15828,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -15863,18 +15850,11 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD0CECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16009,11 +15989,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1022" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1054" activeCellId="0" sqref="C1054"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1019" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1055" activeCellId="0" sqref="J1055"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>
@@ -29455,7 +29435,7 @@
       <c r="L541" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M541" s="23" t="s">
+      <c r="M541" s="9" t="s">
         <v>2670</v>
       </c>
       <c r="N541" s="7" t="s">
@@ -35552,7 +35532,7 @@
       <c r="L778" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M778" s="24" t="s">
+      <c r="M778" s="23" t="s">
         <v>3826</v>
       </c>
       <c r="N778" s="7" t="s">
@@ -38769,7 +38749,7 @@
       <c r="L911" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="M911" s="25" t="s">
+      <c r="M911" s="24" t="s">
         <v>4422</v>
       </c>
       <c r="N911" s="0" t="s">
@@ -39705,7 +39685,7 @@
       <c r="L950" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="M950" s="24" t="s">
+      <c r="M950" s="23" t="s">
         <v>4604</v>
       </c>
       <c r="N950" s="7"/>
@@ -40133,7 +40113,7 @@
       <c r="L967" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M967" s="24" t="s">
+      <c r="M967" s="23" t="s">
         <v>4689</v>
       </c>
       <c r="N967" s="7" t="s">
@@ -40498,7 +40478,7 @@
       <c r="L980" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M980" s="24" t="s">
+      <c r="M980" s="23" t="s">
         <v>4765</v>
       </c>
       <c r="N980" s="7" t="s">
@@ -40637,7 +40617,7 @@
       <c r="L985" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M985" s="24" t="s">
+      <c r="M985" s="23" t="s">
         <v>4795</v>
       </c>
       <c r="N985" s="7" t="s">
@@ -41536,7 +41516,7 @@
       <c r="L1020" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1020" s="24" t="s">
+      <c r="M1020" s="23" t="s">
         <v>4963</v>
       </c>
       <c r="N1020" s="7" t="s">
@@ -42136,7 +42116,7 @@
       <c r="L1044" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1044" s="26" t="s">
+      <c r="M1044" s="25" t="s">
         <v>5075</v>
       </c>
       <c r="N1044" s="7" t="s">
@@ -42211,7 +42191,7 @@
       <c r="L1047" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1047" s="23" t="s">
+      <c r="M1047" s="9" t="s">
         <v>5088</v>
       </c>
       <c r="N1047" s="7" t="s">
@@ -42231,6 +42211,9 @@
       <c r="I1048" s="0" t="s">
         <v>355</v>
       </c>
+      <c r="J1048" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="L1048" s="0" t="s">
         <v>0</v>
       </c>
@@ -42248,6 +42231,9 @@
       <c r="I1049" s="0" t="s">
         <v>355</v>
       </c>
+      <c r="J1049" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="L1049" s="0" t="s">
         <v>0</v>
       </c>
@@ -42265,11 +42251,37 @@
       <c r="I1050" s="0" t="s">
         <v>355</v>
       </c>
+      <c r="J1050" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="L1050" s="0" t="s">
         <v>0</v>
       </c>
       <c r="M1050" s="0" t="s">
         <v>5099</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>5100</v>
+      </c>
+      <c r="H1051" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1051" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1051" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1051" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1051" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -42296,7 +42308,7 @@
     <hyperlink ref="N315" r:id="rId9" location="Mandarin" display="kǒngpà"/>
     <hyperlink ref="N324" r:id="rId10" display="gùshi,"/>
     <hyperlink ref="N337" r:id="rId11" display="màoxiǎn"/>
-    <hyperlink ref="N541" r:id="rId12" display="zuǒ"/>
+    <hyperlink ref="N541" r:id="rId12" display="zuǒ "/>
     <hyperlink ref="N546" r:id="rId13" display="pēntì"/>
     <hyperlink ref="N548" r:id="rId14" display="fǎnyìng"/>
     <hyperlink ref="N594" r:id="rId15" display="féi "/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -15965,11 +15965,11 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A489" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E510" activeCellId="0" sqref="E510"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1018" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1053" activeCellId="0" sqref="J1053"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.5"/>

--- a/files/Oros_Eng_Dictionary.xlsx
+++ b/files/Oros_Eng_Dictionary.xlsx
@@ -391,7 +391,7 @@
     <t xml:space="preserve">akmin/akimin</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten minutes ago'; see 'xamin' for general times like 'in the last few minutes'</t>
+    <t xml:space="preserve">for discrete times; 'ten minutes ago'; see 'rimin' for general times like 'in the last few minutes'</t>
   </si>
   <si>
     <t xml:space="preserve">last minute </t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">akmon/akimon</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten months ago'; see 'xamon' for general times like 'in the last few months'</t>
+    <t xml:space="preserve">for discrete times; 'ten months ago'; see 'rimon' for general times like 'in the last few months'</t>
   </si>
   <si>
     <t xml:space="preserve">last month</t>
@@ -946,7 +946,7 @@
     <t xml:space="preserve">aksek/akisek</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten seconds ago'; see 'xasek' for general times like 'in the last few seconds'</t>
+    <t xml:space="preserve">for discrete times; 'ten seconds ago'; see 'risek' for general times like 'in the last few seconds'</t>
   </si>
   <si>
     <t xml:space="preserve">last second</t>
@@ -961,7 +961,7 @@
     <t xml:space="preserve">aksem/akisem</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten weeks ago'; see 'xasem' for general times like 'in the last few weeks'</t>
+    <t xml:space="preserve">for discrete times; 'ten weeks ago'; see 'risem' for general times like 'in the last few weeks'</t>
   </si>
   <si>
     <t xml:space="preserve">next week</t>
@@ -1063,7 +1063,7 @@
     <t xml:space="preserve">akten/akiten</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten days ago'; see 'xaten' for general times like 'in the last few days'</t>
+    <t xml:space="preserve">for discrete times; 'ten days ago'; see 'riten' for general times like 'in the last few days'</t>
   </si>
   <si>
     <t xml:space="preserve">yesterday/last day</t>
@@ -1165,7 +1165,7 @@
     <t xml:space="preserve">akxas/akixas</t>
   </si>
   <si>
-    <t xml:space="preserve">for discrete times; 'ten hours ago'; see 'xaxas' for general times like 'in the last few hours'</t>
+    <t xml:space="preserve">for discrete times; 'ten hours ago'; see 'rixas' for general times like 'in the last few hours'</t>
   </si>
   <si>
     <t xml:space="preserve">last hour</t>
@@ -16104,11 +16104,11 @@
   </sheetPr>
   <dimension ref="A1:Q1049"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1017" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1051" activeCellId="0" sqref="B1051"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.5"/>
